--- a/Inter_face/Inter_face/bin/Debug/excelmodels/信号机数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/信号机数据_single.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="24">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -211,6 +211,45 @@
   <si>
     <t>下行信号机数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Siendou</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>KJ</t>
+  </si>
+  <si>
+    <t>KeurIbraDia</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>KC</t>
+  </si>
+  <si>
+    <t>FJ</t>
+  </si>
+  <si>
+    <t>Fatick</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>Kaolack</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SJ</t>
   </si>
 </sst>
 </file>
@@ -679,7 +718,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -738,25 +777,53 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="B3" s="6">
+        <v>8.0570000000000004</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="18.95" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="B4" s="3">
+        <v>13.461</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>136</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
@@ -764,12 +831,24 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="B5" s="5">
+        <v>18.376000000000001</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>184</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
@@ -777,12 +856,24 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="B6" s="3">
+        <v>23.291</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>234</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
@@ -790,12 +881,24 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="B7" s="5">
+        <v>28.206</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>282</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
@@ -803,12 +906,24 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="3">
+        <v>33.121000000000002</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>332</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
@@ -816,12 +931,24 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="B9" s="5">
+        <v>38.036000000000001</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>380</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
@@ -829,12 +956,24 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="B10" s="3">
+        <v>42.951000000000001</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>430</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
@@ -842,12 +981,24 @@
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="B11" s="5">
+        <v>47.866</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>480</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
@@ -855,12 +1006,24 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="3">
+        <v>52.780999999999999</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>528</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
@@ -868,38 +1031,82 @@
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="B13" s="5">
+        <v>57.7</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="18.95" customHeight="1">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="B14" s="3">
+        <v>58.5</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="18.95" customHeight="1">
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="B15" s="5">
+        <v>62.44</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5">
+        <v>624</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
@@ -907,12 +1114,24 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="B16" s="3">
+        <v>66.38</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>664</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
@@ -920,12 +1139,24 @@
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="B17" s="5">
+        <v>70.319999999999993</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5">
+        <v>704</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
@@ -933,12 +1164,24 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="B18" s="3">
+        <v>74.260000000000005</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>744</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
@@ -946,12 +1189,24 @@
       <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="B19" s="5">
+        <v>78.2</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>782</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
@@ -959,12 +1214,24 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="B20" s="3">
+        <v>82.14</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>822</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
@@ -972,12 +1239,24 @@
       <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="B21" s="5">
+        <v>86.08</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5">
+        <v>862</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
@@ -985,12 +1264,24 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="B22" s="3">
+        <v>90.02</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
@@ -998,12 +1289,24 @@
       <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="B23" s="5">
+        <v>93.96</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>940</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
@@ -1011,38 +1314,82 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="B24" s="3">
+        <v>97.9</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="18.95" customHeight="1">
       <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="B25" s="5">
+        <v>98.7</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="18.95" customHeight="1">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="B26" s="3">
+        <v>103.61</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1036</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
@@ -1050,12 +1397,24 @@
       <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="B27" s="5">
+        <v>108.52</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1086</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
@@ -1063,12 +1422,24 @@
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="B28" s="3">
+        <v>113.43</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1134</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
@@ -1076,12 +1447,24 @@
       <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="B29" s="5">
+        <v>118.34</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1184</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>2</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
@@ -1089,12 +1472,24 @@
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="B30" s="3">
+        <v>123.25</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1234</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
@@ -1102,12 +1497,24 @@
       <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="B31" s="5">
+        <v>128.16</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1282</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>2</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
@@ -1115,12 +1522,24 @@
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="B32" s="3">
+        <v>133.07</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1332</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
@@ -1128,12 +1547,24 @@
       <c r="A33" s="3">
         <v>36</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="B33" s="5">
+        <v>137.97999999999999</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1380</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>2</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
@@ -1141,12 +1572,24 @@
       <c r="A34" s="5">
         <v>37</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="B34" s="3">
+        <v>142.88999999999999</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1430</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
@@ -1154,14 +1597,30 @@
       <c r="A35" s="3">
         <v>38</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
+      <c r="B35" s="5">
+        <v>147.80000000000001</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
+        <v>2</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="18.95" customHeight="1">
       <c r="A36" s="5">
@@ -13672,8 +14131,8 @@
   <dimension ref="A1:I996"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:I31"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13732,25 +14191,53 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="B3" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="18.95" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="B4" s="3">
+        <v>13.461</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>136</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
@@ -13758,12 +14245,24 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="B5" s="5">
+        <v>18.376000000000001</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>184</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
@@ -13771,12 +14270,24 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="B6" s="3">
+        <v>23.291</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>234</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
@@ -13784,12 +14295,24 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="B7" s="5">
+        <v>28.206</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>282</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
@@ -13797,12 +14320,24 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="3">
+        <v>33.121000000000002</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>332</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
@@ -13810,12 +14345,24 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="B9" s="5">
+        <v>38.036000000000001</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>380</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
@@ -13823,12 +14370,24 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="B10" s="3">
+        <v>42.951000000000001</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>430</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
@@ -13836,12 +14395,24 @@
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="B11" s="5">
+        <v>47.866</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>480</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
@@ -13849,12 +14420,24 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="3">
+        <v>52.780999999999999</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>528</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
@@ -13862,38 +14445,82 @@
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="B13" s="5">
+        <v>57.7</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="18.95" customHeight="1">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="B14" s="3">
+        <v>58.9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="18.95" customHeight="1">
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="B15" s="5">
+        <v>62.44</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5">
+        <v>624</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
@@ -13901,12 +14528,24 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="B16" s="3">
+        <v>66.38</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>664</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
@@ -13914,12 +14553,24 @@
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="B17" s="5">
+        <v>70.319999999999993</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5">
+        <v>704</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
@@ -13927,12 +14578,24 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="B18" s="3">
+        <v>74.260000000000005</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>744</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
@@ -13940,12 +14603,24 @@
       <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="B19" s="5">
+        <v>78.2</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>782</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
@@ -13953,12 +14628,24 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="B20" s="3">
+        <v>82.14</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>822</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
@@ -13966,12 +14653,24 @@
       <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="B21" s="5">
+        <v>86.08</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5">
+        <v>862</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
@@ -13979,12 +14678,24 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="B22" s="3">
+        <v>90.02</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
@@ -13992,12 +14703,24 @@
       <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="B23" s="5">
+        <v>93.96</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>940</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
@@ -14005,38 +14728,82 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="B24" s="3">
+        <v>97.9</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="18.95" customHeight="1">
       <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="B25" s="5">
+        <v>98.9</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="18.95" customHeight="1">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="B26" s="3">
+        <v>103.61</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1036</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
@@ -14044,12 +14811,24 @@
       <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="B27" s="5">
+        <v>108.52</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1086</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
@@ -14057,12 +14836,24 @@
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="B28" s="3">
+        <v>113.43</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1134</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
@@ -14070,12 +14861,24 @@
       <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="B29" s="5">
+        <v>118.34</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1184</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>2</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
@@ -14083,12 +14886,24 @@
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="B30" s="3">
+        <v>123.25</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1234</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
@@ -14096,12 +14911,24 @@
       <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="B31" s="5">
+        <v>128.16</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1282</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>2</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
@@ -14109,12 +14936,24 @@
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="B32" s="3">
+        <v>133.07</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1332</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
@@ -14122,12 +14961,24 @@
       <c r="A33" s="3">
         <v>36</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="B33" s="3">
+        <v>137.97999999999999</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1380</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
@@ -14135,12 +14986,24 @@
       <c r="A34" s="5">
         <v>37</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+      <c r="B34" s="5">
+        <v>142.88999999999999</v>
+      </c>
+      <c r="C34" s="5">
+        <v>2</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1430</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5">
+        <v>2</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
@@ -14148,14 +15011,30 @@
       <c r="A35" s="3">
         <v>38</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
+      <c r="B35" s="3">
+        <v>147.80000000000001</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="18.95" customHeight="1">
       <c r="A36" s="5">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/信号机数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/信号机数据_single.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -211,51 +211,6 @@
   <si>
     <t>下行信号机数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1K</t>
-  </si>
-  <si>
-    <t>XI</t>
-  </si>
-  <si>
-    <t>南宁</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>DK</t>
-  </si>
-  <si>
-    <t>坛洛</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>隆安</t>
-  </si>
-  <si>
-    <t>平果</t>
-  </si>
-  <si>
-    <t>田东北</t>
-  </si>
-  <si>
-    <t>田阳</t>
-  </si>
-  <si>
-    <t>百色</t>
-  </si>
-  <si>
-    <t>xi</t>
-  </si>
-  <si>
-    <t>Xi</t>
-  </si>
-  <si>
-    <t>D2K</t>
   </si>
 </sst>
 </file>
@@ -723,8 +678,8 @@
   <dimension ref="A1:I996"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A930" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A996"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -783,53 +738,25 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="18.95" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>1.8180000000000001</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
@@ -837,24 +764,12 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
-        <v>3.2360000000000002</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>32</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
@@ -862,24 +777,12 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <v>4.6479999999999997</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>46</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
@@ -887,24 +790,12 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
-        <v>8.8960000000000008</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>90</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
@@ -912,24 +803,12 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
-        <v>13.132</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3">
-        <v>132</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
@@ -937,24 +816,12 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
-        <v>17.38</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5">
-        <v>174</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>2</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
@@ -962,24 +829,12 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
-        <v>21.66</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3">
-        <v>218</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
@@ -987,24 +842,12 @@
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
-        <v>25.908000000000001</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5">
-        <v>260</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5">
-        <v>3</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
@@ -1012,24 +855,12 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <v>30.949000000000002</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3">
-        <v>310</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
@@ -1037,24 +868,12 @@
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
-        <v>35.197000000000003</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2</v>
-      </c>
-      <c r="D13" s="5">
-        <v>352</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>4</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
@@ -1062,24 +881,12 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
-        <v>39.445</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3">
-        <v>394</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
@@ -1087,82 +894,38 @@
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
-        <v>43.7</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>4</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="18.95" customHeight="1">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
-        <v>44.8</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>4</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="18.95" customHeight="1">
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
-        <v>48.241999999999997</v>
-      </c>
-      <c r="C17" s="5">
-        <v>2</v>
-      </c>
-      <c r="D17" s="5">
-        <v>482</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>4</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
@@ -1170,24 +933,12 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
-        <v>51.683999999999997</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3">
-        <v>518</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
@@ -1195,24 +946,12 @@
       <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
-        <v>55.125999999999998</v>
-      </c>
-      <c r="C19" s="5">
-        <v>2</v>
-      </c>
-      <c r="D19" s="5">
-        <v>552</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>4</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
@@ -1220,24 +959,12 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
-        <v>58.567999999999998</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3">
-        <v>586</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
@@ -1245,24 +972,12 @@
       <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="5">
-        <v>62.01</v>
-      </c>
-      <c r="C21" s="5">
-        <v>2</v>
-      </c>
-      <c r="D21" s="5">
-        <v>620</v>
-      </c>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5">
-        <v>4</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
@@ -1270,24 +985,12 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="3">
-        <v>65.451999999999998</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2</v>
-      </c>
-      <c r="D22" s="3">
-        <v>656</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
@@ -1295,24 +998,12 @@
       <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="5">
-        <v>68.894000000000005</v>
-      </c>
-      <c r="C23" s="5">
-        <v>2</v>
-      </c>
-      <c r="D23" s="5">
-        <v>690</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1</v>
-      </c>
-      <c r="F23" s="5">
-        <v>4</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
@@ -1320,24 +1011,12 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="3">
-        <v>72.320999999999998</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3">
-        <v>724</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
@@ -1345,24 +1024,12 @@
       <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="5">
-        <v>75.763000000000005</v>
-      </c>
-      <c r="C25" s="5">
-        <v>2</v>
-      </c>
-      <c r="D25" s="5">
-        <v>758</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1</v>
-      </c>
-      <c r="F25" s="5">
-        <v>5</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
@@ -1370,24 +1037,12 @@
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="3">
-        <v>79.204999999999998</v>
-      </c>
-      <c r="C26" s="3">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3">
-        <v>792</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
@@ -1395,82 +1050,38 @@
       <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
-        <v>82.65</v>
-      </c>
-      <c r="C27" s="5">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="5">
-        <v>1</v>
-      </c>
-      <c r="F27" s="5">
-        <v>5</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9" ht="18.95" customHeight="1">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="3">
-        <v>83.45</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>5</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="18.95" customHeight="1">
       <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="5">
-        <v>85.9</v>
-      </c>
-      <c r="C29" s="5">
-        <v>2</v>
-      </c>
-      <c r="D29" s="5">
-        <v>860</v>
-      </c>
-      <c r="E29" s="5">
-        <v>1</v>
-      </c>
-      <c r="F29" s="5">
-        <v>5</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
@@ -1478,24 +1089,12 @@
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="3">
-        <v>88.35</v>
-      </c>
-      <c r="C30" s="3">
-        <v>2</v>
-      </c>
-      <c r="D30" s="3">
-        <v>884</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>5</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
@@ -1503,24 +1102,12 @@
       <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="5">
-        <v>90.8</v>
-      </c>
-      <c r="C31" s="5">
-        <v>2</v>
-      </c>
-      <c r="D31" s="5">
-        <v>908</v>
-      </c>
-      <c r="E31" s="5">
-        <v>1</v>
-      </c>
-      <c r="F31" s="5">
-        <v>5</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
@@ -1528,24 +1115,12 @@
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="3">
-        <v>93.25</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>932</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
@@ -1553,24 +1128,12 @@
       <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B33" s="5">
-        <v>95.7</v>
-      </c>
-      <c r="C33" s="5">
-        <v>2</v>
-      </c>
-      <c r="D33" s="5">
-        <v>958</v>
-      </c>
-      <c r="E33" s="5">
-        <v>1</v>
-      </c>
-      <c r="F33" s="5">
-        <v>5</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
@@ -1578,24 +1141,12 @@
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="3">
-        <v>98.15</v>
-      </c>
-      <c r="C34" s="3">
-        <v>2</v>
-      </c>
-      <c r="D34" s="3">
-        <v>982</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>5</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
@@ -1603,24 +1154,12 @@
       <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="B35" s="5">
-        <v>100.6</v>
-      </c>
-      <c r="C35" s="5">
-        <v>2</v>
-      </c>
-      <c r="D35" s="5">
-        <v>1006</v>
-      </c>
-      <c r="E35" s="5">
-        <v>1</v>
-      </c>
-      <c r="F35" s="5">
-        <v>5</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
@@ -1628,24 +1167,12 @@
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="3">
-        <v>103.05</v>
-      </c>
-      <c r="C36" s="3">
-        <v>2</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1030</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
-        <v>5</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
@@ -1653,24 +1180,12 @@
       <c r="A37" s="5">
         <v>35</v>
       </c>
-      <c r="B37" s="5">
-        <v>105.5</v>
-      </c>
-      <c r="C37" s="5">
-        <v>2</v>
-      </c>
-      <c r="D37" s="5">
-        <v>1056</v>
-      </c>
-      <c r="E37" s="5">
-        <v>1</v>
-      </c>
-      <c r="F37" s="5">
-        <v>5</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
@@ -1678,82 +1193,38 @@
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="3">
-        <v>107.95</v>
-      </c>
-      <c r="C38" s="3">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3">
-        <v>5</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9" ht="18.95" customHeight="1">
       <c r="A39" s="5">
         <v>37</v>
       </c>
-      <c r="B39" s="5">
-        <v>108.75</v>
-      </c>
-      <c r="C39" s="5">
-        <v>1</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="5">
-        <v>1</v>
-      </c>
-      <c r="F39" s="5">
-        <v>5</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" ht="18.95" customHeight="1">
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="3">
-        <v>113.43</v>
-      </c>
-      <c r="C40" s="3">
-        <v>2</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1134</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>5</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
@@ -1761,24 +1232,12 @@
       <c r="A41" s="5">
         <v>39</v>
       </c>
-      <c r="B41" s="5">
-        <v>118.11</v>
-      </c>
-      <c r="C41" s="5">
-        <v>2</v>
-      </c>
-      <c r="D41" s="5">
-        <v>1182</v>
-      </c>
-      <c r="E41" s="5">
-        <v>1</v>
-      </c>
-      <c r="F41" s="5">
-        <v>5</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
@@ -1786,24 +1245,12 @@
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="3">
-        <v>122.79</v>
-      </c>
-      <c r="C42" s="3">
-        <v>2</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1228</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
@@ -1811,24 +1258,12 @@
       <c r="A43" s="5">
         <v>41</v>
       </c>
-      <c r="B43" s="5">
-        <v>127.562</v>
-      </c>
-      <c r="C43" s="5">
-        <v>2</v>
-      </c>
-      <c r="D43" s="5">
-        <v>1276</v>
-      </c>
-      <c r="E43" s="5">
-        <v>1</v>
-      </c>
-      <c r="F43" s="5">
-        <v>6</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
@@ -1836,24 +1271,12 @@
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="3">
-        <v>132.24199999999999</v>
-      </c>
-      <c r="C44" s="3">
-        <v>2</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1322</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
-        <v>6</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
@@ -1861,24 +1284,12 @@
       <c r="A45" s="5">
         <v>43</v>
       </c>
-      <c r="B45" s="5">
-        <v>136.922</v>
-      </c>
-      <c r="C45" s="5">
-        <v>2</v>
-      </c>
-      <c r="D45" s="5">
-        <v>1370</v>
-      </c>
-      <c r="E45" s="5">
-        <v>1</v>
-      </c>
-      <c r="F45" s="5">
-        <v>6</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
@@ -1886,24 +1297,12 @@
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="3">
-        <v>142.07599999999999</v>
-      </c>
-      <c r="C46" s="3">
-        <v>2</v>
-      </c>
-      <c r="D46" s="3">
-        <v>1422</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
-        <v>7</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
@@ -1911,24 +1310,12 @@
       <c r="A47" s="5">
         <v>45</v>
       </c>
-      <c r="B47" s="5">
-        <v>146.756</v>
-      </c>
-      <c r="C47" s="5">
-        <v>2</v>
-      </c>
-      <c r="D47" s="5">
-        <v>1468</v>
-      </c>
-      <c r="E47" s="5">
-        <v>1</v>
-      </c>
-      <c r="F47" s="5">
-        <v>7</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
@@ -1936,24 +1323,12 @@
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="3">
-        <v>147.23400000000001</v>
-      </c>
-      <c r="C48" s="3">
-        <v>2</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1472</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3">
-        <v>7</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
@@ -1961,24 +1336,12 @@
       <c r="A49" s="5">
         <v>47</v>
       </c>
-      <c r="B49" s="5">
-        <v>148.68700000000001</v>
-      </c>
-      <c r="C49" s="5">
-        <v>2</v>
-      </c>
-      <c r="D49" s="5">
-        <v>1488</v>
-      </c>
-      <c r="E49" s="5">
-        <v>1</v>
-      </c>
-      <c r="F49" s="5">
-        <v>8</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
     </row>
@@ -1986,24 +1349,12 @@
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="3">
-        <v>149.852</v>
-      </c>
-      <c r="C50" s="3">
-        <v>2</v>
-      </c>
-      <c r="D50" s="3">
-        <v>1500</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3">
-        <v>8</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
@@ -2011,24 +1362,12 @@
       <c r="A51" s="5">
         <v>49</v>
       </c>
-      <c r="B51" s="5">
-        <v>150.33099999999999</v>
-      </c>
-      <c r="C51" s="5">
-        <v>2</v>
-      </c>
-      <c r="D51" s="5">
-        <v>1504</v>
-      </c>
-      <c r="E51" s="5">
-        <v>1</v>
-      </c>
-      <c r="F51" s="5">
-        <v>8</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
     </row>
@@ -2036,24 +1375,12 @@
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="3">
-        <v>151.41200000000001</v>
-      </c>
-      <c r="C52" s="3">
-        <v>2</v>
-      </c>
-      <c r="D52" s="3">
-        <v>1514</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
@@ -2061,82 +1388,38 @@
       <c r="A53" s="5">
         <v>51</v>
       </c>
-      <c r="B53" s="5">
-        <v>156.1</v>
-      </c>
-      <c r="C53" s="5">
-        <v>1</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="5">
-        <v>1</v>
-      </c>
-      <c r="F53" s="5">
-        <v>8</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
     </row>
     <row r="54" spans="1:9" ht="18.95" customHeight="1">
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="3">
-        <v>156.9</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3">
-        <v>8</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
     </row>
     <row r="55" spans="1:9" ht="18.95" customHeight="1">
       <c r="A55" s="5">
         <v>53</v>
       </c>
-      <c r="B55" s="5">
-        <v>160.10300000000001</v>
-      </c>
-      <c r="C55" s="5">
-        <v>2</v>
-      </c>
-      <c r="D55" s="5">
-        <v>1602</v>
-      </c>
-      <c r="E55" s="5">
-        <v>1</v>
-      </c>
-      <c r="F55" s="5">
-        <v>8</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
     </row>
@@ -2144,24 +1427,12 @@
       <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="3">
-        <v>163.30600000000001</v>
-      </c>
-      <c r="C56" s="3">
-        <v>2</v>
-      </c>
-      <c r="D56" s="3">
-        <v>1634</v>
-      </c>
-      <c r="E56" s="3">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3">
-        <v>8</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
@@ -2169,24 +1440,12 @@
       <c r="A57" s="5">
         <v>55</v>
       </c>
-      <c r="B57" s="5">
-        <v>166.50899999999999</v>
-      </c>
-      <c r="C57" s="5">
-        <v>2</v>
-      </c>
-      <c r="D57" s="5">
-        <v>1666</v>
-      </c>
-      <c r="E57" s="5">
-        <v>1</v>
-      </c>
-      <c r="F57" s="5">
-        <v>8</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
     </row>
@@ -2194,24 +1453,12 @@
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="3">
-        <v>169.71199999999999</v>
-      </c>
-      <c r="C58" s="3">
-        <v>2</v>
-      </c>
-      <c r="D58" s="3">
-        <v>1698</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1</v>
-      </c>
-      <c r="F58" s="3">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
     </row>
@@ -2219,24 +1466,12 @@
       <c r="A59" s="5">
         <v>57</v>
       </c>
-      <c r="B59" s="5">
-        <v>172.91499999999999</v>
-      </c>
-      <c r="C59" s="5">
-        <v>2</v>
-      </c>
-      <c r="D59" s="5">
-        <v>1730</v>
-      </c>
-      <c r="E59" s="5">
-        <v>1</v>
-      </c>
-      <c r="F59" s="5">
-        <v>8</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
     </row>
@@ -2244,24 +1479,12 @@
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="3">
-        <v>176.11799999999999</v>
-      </c>
-      <c r="C60" s="3">
-        <v>2</v>
-      </c>
-      <c r="D60" s="3">
-        <v>1762</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="3">
-        <v>8</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
     </row>
@@ -2269,24 +1492,12 @@
       <c r="A61" s="5">
         <v>59</v>
       </c>
-      <c r="B61" s="5">
-        <v>179.321</v>
-      </c>
-      <c r="C61" s="5">
-        <v>2</v>
-      </c>
-      <c r="D61" s="5">
-        <v>1794</v>
-      </c>
-      <c r="E61" s="5">
-        <v>1</v>
-      </c>
-      <c r="F61" s="5">
-        <v>8</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
     </row>
@@ -2294,24 +1505,12 @@
       <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="3">
-        <v>182.524</v>
-      </c>
-      <c r="C62" s="3">
-        <v>2</v>
-      </c>
-      <c r="D62" s="3">
-        <v>1826</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1</v>
-      </c>
-      <c r="F62" s="3">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
     </row>
@@ -2319,24 +1518,12 @@
       <c r="A63" s="5">
         <v>61</v>
       </c>
-      <c r="B63" s="5">
-        <v>185.727</v>
-      </c>
-      <c r="C63" s="5">
-        <v>2</v>
-      </c>
-      <c r="D63" s="5">
-        <v>1858</v>
-      </c>
-      <c r="E63" s="5">
-        <v>1</v>
-      </c>
-      <c r="F63" s="5">
-        <v>8</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
     </row>
@@ -2344,24 +1531,12 @@
       <c r="A64" s="3">
         <v>62</v>
       </c>
-      <c r="B64" s="3">
-        <v>188.93</v>
-      </c>
-      <c r="C64" s="3">
-        <v>2</v>
-      </c>
-      <c r="D64" s="3">
-        <v>1890</v>
-      </c>
-      <c r="E64" s="3">
-        <v>1</v>
-      </c>
-      <c r="F64" s="3">
-        <v>8</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
     </row>
@@ -2369,82 +1544,38 @@
       <c r="A65" s="5">
         <v>63</v>
       </c>
-      <c r="B65" s="5">
-        <v>192.14</v>
-      </c>
-      <c r="C65" s="5">
-        <v>1</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="5">
-        <v>1</v>
-      </c>
-      <c r="F65" s="5">
-        <v>8</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
     </row>
     <row r="66" spans="1:9" ht="18.95" customHeight="1">
       <c r="A66" s="3">
         <v>64</v>
       </c>
-      <c r="B66" s="3">
-        <v>192.94</v>
-      </c>
-      <c r="C66" s="3">
-        <v>1</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1</v>
-      </c>
-      <c r="F66" s="3">
-        <v>8</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
     </row>
     <row r="67" spans="1:9" ht="18.95" customHeight="1">
       <c r="A67" s="5">
         <v>65</v>
       </c>
-      <c r="B67" s="5">
-        <v>195.977</v>
-      </c>
-      <c r="C67" s="5">
-        <v>2</v>
-      </c>
-      <c r="D67" s="5">
-        <v>1960</v>
-      </c>
-      <c r="E67" s="5">
-        <v>1</v>
-      </c>
-      <c r="F67" s="5">
-        <v>8</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
     </row>
@@ -2452,24 +1583,12 @@
       <c r="A68" s="3">
         <v>66</v>
       </c>
-      <c r="B68" s="3">
-        <v>199.01400000000001</v>
-      </c>
-      <c r="C68" s="3">
-        <v>2</v>
-      </c>
-      <c r="D68" s="3">
-        <v>1990</v>
-      </c>
-      <c r="E68" s="3">
-        <v>1</v>
-      </c>
-      <c r="F68" s="3">
-        <v>8</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
     </row>
@@ -2477,24 +1596,12 @@
       <c r="A69" s="5">
         <v>67</v>
       </c>
-      <c r="B69" s="5">
-        <v>202.05099999999999</v>
-      </c>
-      <c r="C69" s="5">
-        <v>2</v>
-      </c>
-      <c r="D69" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E69" s="5">
-        <v>1</v>
-      </c>
-      <c r="F69" s="5">
-        <v>8</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
     </row>
@@ -2502,24 +1609,12 @@
       <c r="A70" s="3">
         <v>68</v>
       </c>
-      <c r="B70" s="3">
-        <v>205.08799999999999</v>
-      </c>
-      <c r="C70" s="3">
-        <v>2</v>
-      </c>
-      <c r="D70" s="3">
-        <v>2052</v>
-      </c>
-      <c r="E70" s="3">
-        <v>1</v>
-      </c>
-      <c r="F70" s="3">
-        <v>8</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
     </row>
@@ -2527,24 +1622,12 @@
       <c r="A71" s="5">
         <v>69</v>
       </c>
-      <c r="B71" s="5">
-        <v>208.125</v>
-      </c>
-      <c r="C71" s="5">
-        <v>2</v>
-      </c>
-      <c r="D71" s="5">
-        <v>2082</v>
-      </c>
-      <c r="E71" s="5">
-        <v>1</v>
-      </c>
-      <c r="F71" s="5">
-        <v>8</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
     </row>
@@ -2552,24 +1635,12 @@
       <c r="A72" s="3">
         <v>70</v>
       </c>
-      <c r="B72" s="3">
-        <v>211.16200000000001</v>
-      </c>
-      <c r="C72" s="3">
-        <v>2</v>
-      </c>
-      <c r="D72" s="3">
-        <v>2112</v>
-      </c>
-      <c r="E72" s="3">
-        <v>1</v>
-      </c>
-      <c r="F72" s="3">
-        <v>8</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
     </row>
@@ -2577,24 +1648,12 @@
       <c r="A73" s="5">
         <v>71</v>
       </c>
-      <c r="B73" s="5">
-        <v>214.19900000000001</v>
-      </c>
-      <c r="C73" s="5">
-        <v>2</v>
-      </c>
-      <c r="D73" s="5">
-        <v>2142</v>
-      </c>
-      <c r="E73" s="5">
-        <v>1</v>
-      </c>
-      <c r="F73" s="5">
-        <v>8</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
     </row>
@@ -2602,24 +1661,12 @@
       <c r="A74" s="3">
         <v>72</v>
       </c>
-      <c r="B74" s="3">
-        <v>217.23599999999999</v>
-      </c>
-      <c r="C74" s="3">
-        <v>2</v>
-      </c>
-      <c r="D74" s="3">
-        <v>2172</v>
-      </c>
-      <c r="E74" s="3">
-        <v>1</v>
-      </c>
-      <c r="F74" s="3">
-        <v>8</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
     </row>
@@ -2627,24 +1674,12 @@
       <c r="A75" s="5">
         <v>73</v>
       </c>
-      <c r="B75" s="5">
-        <v>221.607</v>
-      </c>
-      <c r="C75" s="5">
-        <v>2</v>
-      </c>
-      <c r="D75" s="5">
-        <v>2216</v>
-      </c>
-      <c r="E75" s="5">
-        <v>1</v>
-      </c>
-      <c r="F75" s="5">
-        <v>8</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
     </row>
@@ -2652,30 +1687,14 @@
       <c r="A76" s="3">
         <v>74</v>
       </c>
-      <c r="B76" s="3">
-        <v>223.31</v>
-      </c>
-      <c r="C76" s="3">
-        <v>1</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E76" s="3">
-        <v>1</v>
-      </c>
-      <c r="F76" s="3">
-        <v>8</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
     </row>
     <row r="77" spans="1:9" ht="18.95" customHeight="1">
       <c r="A77" s="5">
@@ -14638,6 +13657,7 @@
       <c r="I996" s="3"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
@@ -14654,7 +13674,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14713,53 +13733,25 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="18.95" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>1.8180000000000001</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
@@ -14767,24 +13759,12 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
-        <v>3.2360000000000002</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>32</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
@@ -14792,24 +13772,12 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <v>4.6479999999999997</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>46</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
@@ -14817,24 +13785,12 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
-        <v>8.8960000000000008</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>90</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
@@ -14842,24 +13798,12 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
-        <v>13.132</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3">
-        <v>132</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
@@ -14867,24 +13811,12 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
-        <v>17.38</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5">
-        <v>174</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>2</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
@@ -14892,24 +13824,12 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
-        <v>21.66</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3">
-        <v>218</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
@@ -14917,24 +13837,12 @@
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
-        <v>25.908000000000001</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5">
-        <v>260</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5">
-        <v>3</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
@@ -14942,24 +13850,12 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <v>30.949000000000002</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3">
-        <v>310</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
@@ -14967,24 +13863,12 @@
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
-        <v>35.197000000000003</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2</v>
-      </c>
-      <c r="D13" s="5">
-        <v>352</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>4</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
@@ -14992,24 +13876,12 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
-        <v>39.445</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3">
-        <v>394</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
@@ -15017,82 +13889,38 @@
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
-        <v>43.7</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>4</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="18.95" customHeight="1">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
-        <v>44.5</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>4</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="18.95" customHeight="1">
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
-        <v>47.969000000000001</v>
-      </c>
-      <c r="C17" s="5">
-        <v>2</v>
-      </c>
-      <c r="D17" s="5">
-        <v>480</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>4</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
@@ -15100,24 +13928,12 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
-        <v>51.438000000000002</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3">
-        <v>514</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
@@ -15125,24 +13941,12 @@
       <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
-        <v>54.906999999999996</v>
-      </c>
-      <c r="C19" s="5">
-        <v>2</v>
-      </c>
-      <c r="D19" s="5">
-        <v>550</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>4</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
@@ -15150,24 +13954,12 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
-        <v>58.375999999999998</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3">
-        <v>584</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
@@ -15175,24 +13967,12 @@
       <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="5">
-        <v>61.844999999999999</v>
-      </c>
-      <c r="C21" s="5">
-        <v>2</v>
-      </c>
-      <c r="D21" s="5">
-        <v>618</v>
-      </c>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5">
-        <v>4</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
@@ -15200,24 +13980,12 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="3">
-        <v>65.313999999999993</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2</v>
-      </c>
-      <c r="D22" s="3">
-        <v>654</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
@@ -15225,24 +13993,12 @@
       <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="5">
-        <v>68.783000000000001</v>
-      </c>
-      <c r="C23" s="5">
-        <v>2</v>
-      </c>
-      <c r="D23" s="5">
-        <v>688</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1</v>
-      </c>
-      <c r="F23" s="5">
-        <v>4</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
@@ -15250,24 +14006,12 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="3">
-        <v>72.236999999999995</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3">
-        <v>722</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
@@ -15275,24 +14019,12 @@
       <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="5">
-        <v>75.706000000000003</v>
-      </c>
-      <c r="C25" s="5">
-        <v>2</v>
-      </c>
-      <c r="D25" s="5">
-        <v>758</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1</v>
-      </c>
-      <c r="F25" s="5">
-        <v>5</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
@@ -15300,24 +14032,12 @@
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="3">
-        <v>79.174999999999997</v>
-      </c>
-      <c r="C26" s="3">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3">
-        <v>792</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
@@ -15325,82 +14045,38 @@
       <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
-        <v>82.65</v>
-      </c>
-      <c r="C27" s="5">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="5">
-        <v>1</v>
-      </c>
-      <c r="F27" s="5">
-        <v>5</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9" ht="18.95" customHeight="1">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="3">
-        <v>83.45</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>5</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="18.95" customHeight="1">
       <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="5">
-        <v>86.512</v>
-      </c>
-      <c r="C29" s="5">
-        <v>2</v>
-      </c>
-      <c r="D29" s="5">
-        <v>866</v>
-      </c>
-      <c r="E29" s="5">
-        <v>1</v>
-      </c>
-      <c r="F29" s="5">
-        <v>5</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
@@ -15408,24 +14084,12 @@
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="3">
-        <v>89.573999999999998</v>
-      </c>
-      <c r="C30" s="3">
-        <v>2</v>
-      </c>
-      <c r="D30" s="3">
-        <v>896</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>5</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
@@ -15433,24 +14097,12 @@
       <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="5">
-        <v>92.635999999999996</v>
-      </c>
-      <c r="C31" s="5">
-        <v>2</v>
-      </c>
-      <c r="D31" s="5">
-        <v>926</v>
-      </c>
-      <c r="E31" s="5">
-        <v>1</v>
-      </c>
-      <c r="F31" s="5">
-        <v>5</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
@@ -15458,24 +14110,12 @@
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="3">
-        <v>95.697999999999993</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>958</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
@@ -15483,24 +14123,12 @@
       <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B33" s="5">
-        <v>98.76</v>
-      </c>
-      <c r="C33" s="5">
-        <v>2</v>
-      </c>
-      <c r="D33" s="5">
-        <v>988</v>
-      </c>
-      <c r="E33" s="5">
-        <v>1</v>
-      </c>
-      <c r="F33" s="5">
-        <v>5</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
@@ -15508,24 +14136,12 @@
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="3">
-        <v>101.822</v>
-      </c>
-      <c r="C34" s="3">
-        <v>2</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1018</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>5</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
@@ -15533,24 +14149,12 @@
       <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="B35" s="5">
-        <v>104.884</v>
-      </c>
-      <c r="C35" s="5">
-        <v>2</v>
-      </c>
-      <c r="D35" s="5">
-        <v>1050</v>
-      </c>
-      <c r="E35" s="5">
-        <v>1</v>
-      </c>
-      <c r="F35" s="5">
-        <v>5</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
@@ -15558,82 +14162,38 @@
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="3">
-        <v>107.95</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
-        <v>5</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" ht="18.95" customHeight="1">
       <c r="A37" s="5">
         <v>35</v>
       </c>
-      <c r="B37" s="5">
-        <v>108.75</v>
-      </c>
-      <c r="C37" s="5">
-        <v>1</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="5">
-        <v>1</v>
-      </c>
-      <c r="F37" s="5">
-        <v>5</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" ht="18.95" customHeight="1">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="3">
-        <v>113.43</v>
-      </c>
-      <c r="C38" s="3">
-        <v>2</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1134</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3">
-        <v>5</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
@@ -15641,24 +14201,12 @@
       <c r="A39" s="5">
         <v>37</v>
       </c>
-      <c r="B39" s="5">
-        <v>118.11</v>
-      </c>
-      <c r="C39" s="5">
-        <v>2</v>
-      </c>
-      <c r="D39" s="5">
-        <v>1182</v>
-      </c>
-      <c r="E39" s="5">
-        <v>1</v>
-      </c>
-      <c r="F39" s="5">
-        <v>5</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
@@ -15666,24 +14214,12 @@
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="3">
-        <v>122.79</v>
-      </c>
-      <c r="C40" s="3">
-        <v>2</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1228</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>5</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
@@ -15691,24 +14227,12 @@
       <c r="A41" s="5">
         <v>39</v>
       </c>
-      <c r="B41" s="5">
-        <v>127.562</v>
-      </c>
-      <c r="C41" s="5">
-        <v>2</v>
-      </c>
-      <c r="D41" s="5">
-        <v>1276</v>
-      </c>
-      <c r="E41" s="5">
-        <v>1</v>
-      </c>
-      <c r="F41" s="5">
-        <v>6</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
@@ -15716,24 +14240,12 @@
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="3">
-        <v>132.24199999999999</v>
-      </c>
-      <c r="C42" s="3">
-        <v>2</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1322</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>6</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
@@ -15741,24 +14253,12 @@
       <c r="A43" s="5">
         <v>41</v>
       </c>
-      <c r="B43" s="5">
-        <v>136.922</v>
-      </c>
-      <c r="C43" s="5">
-        <v>2</v>
-      </c>
-      <c r="D43" s="5">
-        <v>1370</v>
-      </c>
-      <c r="E43" s="5">
-        <v>1</v>
-      </c>
-      <c r="F43" s="5">
-        <v>6</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
@@ -15766,24 +14266,12 @@
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="3">
-        <v>142.07599999999999</v>
-      </c>
-      <c r="C44" s="3">
-        <v>2</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1422</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
-        <v>7</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
@@ -15791,24 +14279,12 @@
       <c r="A45" s="5">
         <v>43</v>
       </c>
-      <c r="B45" s="5">
-        <v>146.756</v>
-      </c>
-      <c r="C45" s="5">
-        <v>2</v>
-      </c>
-      <c r="D45" s="5">
-        <v>1468</v>
-      </c>
-      <c r="E45" s="5">
-        <v>1</v>
-      </c>
-      <c r="F45" s="5">
-        <v>7</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
@@ -15816,24 +14292,12 @@
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="3">
-        <v>147.44499999999999</v>
-      </c>
-      <c r="C46" s="3">
-        <v>2</v>
-      </c>
-      <c r="D46" s="3">
-        <v>1474</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
-        <v>7</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
@@ -15841,24 +14305,12 @@
       <c r="A47" s="5">
         <v>45</v>
       </c>
-      <c r="B47" s="5">
-        <v>149.072</v>
-      </c>
-      <c r="C47" s="5">
-        <v>2</v>
-      </c>
-      <c r="D47" s="5">
-        <v>1492</v>
-      </c>
-      <c r="E47" s="5">
-        <v>1</v>
-      </c>
-      <c r="F47" s="5">
-        <v>8</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
@@ -15866,24 +14318,12 @@
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="3">
-        <v>151.41200000000001</v>
-      </c>
-      <c r="C48" s="3">
-        <v>2</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1514</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3">
-        <v>8</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
@@ -15891,82 +14331,38 @@
       <c r="A49" s="5">
         <v>47</v>
       </c>
-      <c r="B49" s="5">
-        <v>156.1</v>
-      </c>
-      <c r="C49" s="5">
-        <v>1</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="5">
-        <v>1</v>
-      </c>
-      <c r="F49" s="5">
-        <v>8</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
     </row>
     <row r="50" spans="1:9" ht="18.95" customHeight="1">
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="3">
-        <v>156.9</v>
-      </c>
-      <c r="C50" s="3">
-        <v>1</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3">
-        <v>8</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9" ht="18.95" customHeight="1">
       <c r="A51" s="5">
         <v>49</v>
       </c>
-      <c r="B51" s="5">
-        <v>160.10300000000001</v>
-      </c>
-      <c r="C51" s="5">
-        <v>2</v>
-      </c>
-      <c r="D51" s="5">
-        <v>1602</v>
-      </c>
-      <c r="E51" s="5">
-        <v>1</v>
-      </c>
-      <c r="F51" s="5">
-        <v>8</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
     </row>
@@ -15974,24 +14370,12 @@
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="3">
-        <v>163.30600000000001</v>
-      </c>
-      <c r="C52" s="3">
-        <v>2</v>
-      </c>
-      <c r="D52" s="3">
-        <v>1634</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
@@ -15999,24 +14383,12 @@
       <c r="A53" s="5">
         <v>51</v>
       </c>
-      <c r="B53" s="5">
-        <v>166.50899999999999</v>
-      </c>
-      <c r="C53" s="5">
-        <v>2</v>
-      </c>
-      <c r="D53" s="5">
-        <v>1666</v>
-      </c>
-      <c r="E53" s="5">
-        <v>1</v>
-      </c>
-      <c r="F53" s="5">
-        <v>8</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
     </row>
@@ -16024,24 +14396,12 @@
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="3">
-        <v>169.71199999999999</v>
-      </c>
-      <c r="C54" s="3">
-        <v>2</v>
-      </c>
-      <c r="D54" s="3">
-        <v>1698</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3">
-        <v>8</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
@@ -16049,24 +14409,12 @@
       <c r="A55" s="5">
         <v>53</v>
       </c>
-      <c r="B55" s="5">
-        <v>172.91499999999999</v>
-      </c>
-      <c r="C55" s="5">
-        <v>2</v>
-      </c>
-      <c r="D55" s="5">
-        <v>1730</v>
-      </c>
-      <c r="E55" s="5">
-        <v>1</v>
-      </c>
-      <c r="F55" s="5">
-        <v>8</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
     </row>
@@ -16074,24 +14422,12 @@
       <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="3">
-        <v>176.11799999999999</v>
-      </c>
-      <c r="C56" s="3">
-        <v>2</v>
-      </c>
-      <c r="D56" s="3">
-        <v>1762</v>
-      </c>
-      <c r="E56" s="3">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3">
-        <v>8</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
@@ -16099,24 +14435,12 @@
       <c r="A57" s="5">
         <v>55</v>
       </c>
-      <c r="B57" s="5">
-        <v>179.321</v>
-      </c>
-      <c r="C57" s="5">
-        <v>2</v>
-      </c>
-      <c r="D57" s="5">
-        <v>1794</v>
-      </c>
-      <c r="E57" s="5">
-        <v>1</v>
-      </c>
-      <c r="F57" s="5">
-        <v>8</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
     </row>
@@ -16124,24 +14448,12 @@
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="3">
-        <v>182.524</v>
-      </c>
-      <c r="C58" s="3">
-        <v>2</v>
-      </c>
-      <c r="D58" s="3">
-        <v>1826</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1</v>
-      </c>
-      <c r="F58" s="3">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
     </row>
@@ -16149,24 +14461,12 @@
       <c r="A59" s="5">
         <v>57</v>
       </c>
-      <c r="B59" s="5">
-        <v>185.727</v>
-      </c>
-      <c r="C59" s="5">
-        <v>2</v>
-      </c>
-      <c r="D59" s="5">
-        <v>1858</v>
-      </c>
-      <c r="E59" s="5">
-        <v>1</v>
-      </c>
-      <c r="F59" s="5">
-        <v>8</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
     </row>
@@ -16174,24 +14474,12 @@
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="3">
-        <v>188.93</v>
-      </c>
-      <c r="C60" s="3">
-        <v>2</v>
-      </c>
-      <c r="D60" s="3">
-        <v>1890</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="3">
-        <v>8</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
     </row>
@@ -16199,82 +14487,38 @@
       <c r="A61" s="5">
         <v>59</v>
       </c>
-      <c r="B61" s="5">
-        <v>192.14</v>
-      </c>
-      <c r="C61" s="5">
-        <v>1</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="5">
-        <v>1</v>
-      </c>
-      <c r="F61" s="5">
-        <v>8</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
     </row>
     <row r="62" spans="1:9" ht="18.95" customHeight="1">
       <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="3">
-        <v>192.94</v>
-      </c>
-      <c r="C62" s="3">
-        <v>1</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1</v>
-      </c>
-      <c r="F62" s="3">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
     </row>
     <row r="63" spans="1:9" ht="18.95" customHeight="1">
       <c r="A63" s="5">
         <v>61</v>
       </c>
-      <c r="B63" s="5">
-        <v>195.977</v>
-      </c>
-      <c r="C63" s="5">
-        <v>2</v>
-      </c>
-      <c r="D63" s="5">
-        <v>1960</v>
-      </c>
-      <c r="E63" s="5">
-        <v>1</v>
-      </c>
-      <c r="F63" s="5">
-        <v>8</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
     </row>
@@ -16282,24 +14526,12 @@
       <c r="A64" s="3">
         <v>62</v>
       </c>
-      <c r="B64" s="3">
-        <v>199.01400000000001</v>
-      </c>
-      <c r="C64" s="3">
-        <v>2</v>
-      </c>
-      <c r="D64" s="3">
-        <v>1990</v>
-      </c>
-      <c r="E64" s="3">
-        <v>1</v>
-      </c>
-      <c r="F64" s="3">
-        <v>8</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
     </row>
@@ -16307,24 +14539,12 @@
       <c r="A65" s="5">
         <v>63</v>
       </c>
-      <c r="B65" s="5">
-        <v>202.05099999999999</v>
-      </c>
-      <c r="C65" s="5">
-        <v>2</v>
-      </c>
-      <c r="D65" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E65" s="5">
-        <v>1</v>
-      </c>
-      <c r="F65" s="5">
-        <v>8</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
     </row>
@@ -16332,24 +14552,12 @@
       <c r="A66" s="3">
         <v>64</v>
       </c>
-      <c r="B66" s="3">
-        <v>205.08799999999999</v>
-      </c>
-      <c r="C66" s="3">
-        <v>2</v>
-      </c>
-      <c r="D66" s="3">
-        <v>2052</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1</v>
-      </c>
-      <c r="F66" s="3">
-        <v>8</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
     </row>
@@ -16357,24 +14565,12 @@
       <c r="A67" s="5">
         <v>65</v>
       </c>
-      <c r="B67" s="5">
-        <v>208.125</v>
-      </c>
-      <c r="C67" s="5">
-        <v>2</v>
-      </c>
-      <c r="D67" s="5">
-        <v>2082</v>
-      </c>
-      <c r="E67" s="5">
-        <v>1</v>
-      </c>
-      <c r="F67" s="5">
-        <v>8</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
     </row>
@@ -16382,24 +14578,12 @@
       <c r="A68" s="3">
         <v>66</v>
       </c>
-      <c r="B68" s="3">
-        <v>211.16200000000001</v>
-      </c>
-      <c r="C68" s="3">
-        <v>2</v>
-      </c>
-      <c r="D68" s="3">
-        <v>2112</v>
-      </c>
-      <c r="E68" s="3">
-        <v>1</v>
-      </c>
-      <c r="F68" s="3">
-        <v>8</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
     </row>
@@ -16407,24 +14591,12 @@
       <c r="A69" s="5">
         <v>67</v>
       </c>
-      <c r="B69" s="5">
-        <v>214.19900000000001</v>
-      </c>
-      <c r="C69" s="5">
-        <v>2</v>
-      </c>
-      <c r="D69" s="5">
-        <v>2142</v>
-      </c>
-      <c r="E69" s="5">
-        <v>1</v>
-      </c>
-      <c r="F69" s="5">
-        <v>8</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
     </row>
@@ -16432,24 +14604,12 @@
       <c r="A70" s="3">
         <v>68</v>
       </c>
-      <c r="B70" s="3">
-        <v>217.23599999999999</v>
-      </c>
-      <c r="C70" s="3">
-        <v>2</v>
-      </c>
-      <c r="D70" s="3">
-        <v>2172</v>
-      </c>
-      <c r="E70" s="3">
-        <v>1</v>
-      </c>
-      <c r="F70" s="3">
-        <v>8</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
     </row>
@@ -16457,24 +14617,12 @@
       <c r="A71" s="5">
         <v>69</v>
       </c>
-      <c r="B71" s="5">
-        <v>220.273</v>
-      </c>
-      <c r="C71" s="5">
-        <v>2</v>
-      </c>
-      <c r="D71" s="5">
-        <v>2204</v>
-      </c>
-      <c r="E71" s="5">
-        <v>1</v>
-      </c>
-      <c r="F71" s="5">
-        <v>8</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
     </row>
@@ -16482,24 +14630,12 @@
       <c r="A72" s="3">
         <v>70</v>
       </c>
-      <c r="B72" s="3">
-        <v>221.95</v>
-      </c>
-      <c r="C72" s="3">
-        <v>2</v>
-      </c>
-      <c r="D72" s="3">
-        <v>2220</v>
-      </c>
-      <c r="E72" s="3">
-        <v>1</v>
-      </c>
-      <c r="F72" s="3">
-        <v>8</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
     </row>
@@ -16507,30 +14643,14 @@
       <c r="A73" s="5">
         <v>71</v>
       </c>
-      <c r="B73" s="5">
-        <v>223.31</v>
-      </c>
-      <c r="C73" s="5">
-        <v>1</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73" s="5">
-        <v>1</v>
-      </c>
-      <c r="F73" s="5">
-        <v>8</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
     </row>
     <row r="74" spans="1:9" ht="18.95" customHeight="1">
       <c r="A74" s="3">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/信号机数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/信号机数据_single.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="3915" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="3915"/>
   </bookViews>
   <sheets>
     <sheet name="上行" sheetId="3" r:id="rId1"/>
@@ -677,9 +677,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I996"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:G12"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13672,9 +13672,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I996"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/信号机数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/信号机数据_single.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="26">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -188,10 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所属车站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -211,6 +207,55 @@
   <si>
     <t>下行信号机数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属车站/电分相名</t>
+  </si>
+  <si>
+    <t>所属车站/电分相名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>海口</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>D1K</t>
+  </si>
+  <si>
+    <t>老城</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D2K</t>
+  </si>
+  <si>
+    <t>临高</t>
+  </si>
+  <si>
+    <t>无名</t>
+  </si>
+  <si>
+    <t>新盈</t>
+  </si>
+  <si>
+    <t>10.860+1:10.960+1:11.060+1:200.000</t>
+  </si>
+  <si>
+    <t>39.906+2:40.106+2:40.306+2:400.000</t>
+  </si>
+  <si>
+    <t>58.335+4:58.535+4:58.735+4:400.000</t>
+  </si>
+  <si>
+    <t>21.546+2:21.746+2:21.946+2:400.000</t>
   </si>
 </sst>
 </file>
@@ -679,7 +724,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:I23"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -694,7 +739,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -728,35 +773,61 @@
         <v>6</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.95" customHeight="1">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="18.95" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="B4" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
@@ -764,12 +835,24 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="B5" s="5">
+        <v>3.9</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>40</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
@@ -777,12 +860,24 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="B6" s="3">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>70</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
@@ -790,12 +885,24 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="B7" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>86</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
@@ -803,12 +910,24 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="3">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
@@ -816,12 +935,24 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="B9" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>116</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
@@ -829,38 +960,78 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="3">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="18.95" customHeight="1">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="5">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="18.95" customHeight="1">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="3">
+        <v>16.206</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>162</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
@@ -868,12 +1039,24 @@
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="B13" s="5">
+        <v>18.475999999999999</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>186</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
@@ -881,12 +1064,24 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="B14" s="3">
+        <v>20.745999999999999</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>208</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
@@ -894,25 +1089,51 @@
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="B15" s="5">
+        <v>21.545999999999999</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="18.95" customHeight="1">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="B16" s="3">
+        <v>23.015999999999998</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>230</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
@@ -920,12 +1141,24 @@
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="B17" s="5">
+        <v>25.286000000000001</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5">
+        <v>254</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
@@ -933,12 +1166,24 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="B18" s="3">
+        <v>27.556000000000001</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>276</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
@@ -946,12 +1191,24 @@
       <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="B19" s="5">
+        <v>29.826000000000001</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>298</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
@@ -959,12 +1216,24 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="B20" s="3">
+        <v>32.095999999999997</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>322</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
@@ -972,12 +1241,24 @@
       <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="B21" s="5">
+        <v>34.366</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5">
+        <v>344</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
@@ -985,12 +1266,24 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="B22" s="3">
+        <v>36.636000000000003</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>366</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
@@ -998,12 +1291,24 @@
       <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="B23" s="5">
+        <v>38.905999999999999</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>390</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
@@ -1011,12 +1316,24 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="B24" s="3">
+        <v>41.176000000000002</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>412</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
@@ -1024,12 +1341,24 @@
       <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="B25" s="5">
+        <v>43.459000000000003</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5">
+        <v>436</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
+        <v>3</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
@@ -1037,12 +1366,24 @@
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="B26" s="3">
+        <v>45.728999999999999</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>458</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
@@ -1050,38 +1391,78 @@
       <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="B27" s="5">
+        <v>48</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5">
+        <v>3</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="18.95" customHeight="1">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="B28" s="3">
+        <v>49</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="18.95" customHeight="1">
       <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="B29" s="5">
+        <v>50.83</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2</v>
+      </c>
+      <c r="D29" s="5">
+        <v>508</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>4</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
@@ -1089,12 +1470,24 @@
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="B30" s="3">
+        <v>52.2</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3">
+        <v>522</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>4</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
@@ -1102,12 +1495,24 @@
       <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="B31" s="5">
+        <v>53.54</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2</v>
+      </c>
+      <c r="D31" s="5">
+        <v>536</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>4</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
@@ -1115,12 +1520,24 @@
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="B32" s="3">
+        <v>54.88</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>550</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
@@ -1128,12 +1545,24 @@
       <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="B33" s="5">
+        <v>56.22</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2</v>
+      </c>
+      <c r="D33" s="5">
+        <v>562</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>4</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
@@ -1141,12 +1570,24 @@
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="B34" s="3">
+        <v>57.56</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3">
+        <v>576</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>4</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
@@ -1154,12 +1595,24 @@
       <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="B35" s="5">
+        <v>58.9</v>
+      </c>
+      <c r="C35" s="5">
+        <v>2</v>
+      </c>
+      <c r="D35" s="5">
+        <v>590</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
+        <v>4</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
@@ -1167,12 +1620,24 @@
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="B36" s="3">
+        <v>60.24</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>602</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>4</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
@@ -1180,12 +1645,24 @@
       <c r="A37" s="5">
         <v>35</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="B37" s="5">
+        <v>61.58</v>
+      </c>
+      <c r="C37" s="5">
+        <v>2</v>
+      </c>
+      <c r="D37" s="5">
+        <v>616</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5">
+        <v>4</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
@@ -1193,12 +1670,24 @@
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
+      <c r="B38" s="3">
+        <v>62.923000000000002</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3">
+        <v>630</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>5</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
@@ -1206,12 +1695,24 @@
       <c r="A39" s="5">
         <v>37</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="B39" s="5">
+        <v>64.263000000000005</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2</v>
+      </c>
+      <c r="D39" s="5">
+        <v>644</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5">
+        <v>5</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
@@ -1219,12 +1720,24 @@
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+      <c r="B40" s="3">
+        <v>65.599000000000004</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3">
+        <v>656</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>5</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
@@ -1232,12 +1745,24 @@
       <c r="A41" s="5">
         <v>39</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
+      <c r="B41" s="5">
+        <v>67.039000000000001</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2</v>
+      </c>
+      <c r="D41" s="5">
+        <v>670</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5">
+        <v>5</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
@@ -1245,12 +1770,24 @@
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
+      <c r="B42" s="3">
+        <v>68.478999999999999</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2</v>
+      </c>
+      <c r="D42" s="3">
+        <v>686</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
@@ -1258,12 +1795,24 @@
       <c r="A43" s="5">
         <v>41</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
+      <c r="B43" s="5">
+        <v>69.918999999999997</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2</v>
+      </c>
+      <c r="D43" s="5">
+        <v>700</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5">
+        <v>5</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
@@ -1271,12 +1820,24 @@
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
+      <c r="B44" s="3">
+        <v>71.358999999999995</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2</v>
+      </c>
+      <c r="D44" s="3">
+        <v>714</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
@@ -1284,12 +1845,24 @@
       <c r="A45" s="5">
         <v>43</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
+      <c r="B45" s="5">
+        <v>72.799000000000007</v>
+      </c>
+      <c r="C45" s="5">
+        <v>2</v>
+      </c>
+      <c r="D45" s="5">
+        <v>728</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5">
+        <v>5</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
@@ -1297,12 +1870,24 @@
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+      <c r="B46" s="3">
+        <v>74.239000000000004</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2</v>
+      </c>
+      <c r="D46" s="3">
+        <v>742</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
@@ -1310,12 +1895,24 @@
       <c r="A47" s="5">
         <v>45</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="B47" s="5">
+        <v>75.679000000000002</v>
+      </c>
+      <c r="C47" s="5">
+        <v>2</v>
+      </c>
+      <c r="D47" s="5">
+        <v>758</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1</v>
+      </c>
+      <c r="F47" s="5">
+        <v>5</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
@@ -1323,12 +1920,24 @@
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="B48" s="3">
+        <v>77.119</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2</v>
+      </c>
+      <c r="D48" s="3">
+        <v>772</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
@@ -1336,12 +1945,24 @@
       <c r="A49" s="5">
         <v>47</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
+      <c r="B49" s="5">
+        <v>78.558999999999997</v>
+      </c>
+      <c r="C49" s="5">
+        <v>2</v>
+      </c>
+      <c r="D49" s="5">
+        <v>786</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1</v>
+      </c>
+      <c r="F49" s="5">
+        <v>5</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
     </row>
@@ -1349,14 +1970,28 @@
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
+      <c r="B50" s="3">
+        <v>80</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
       <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>5</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="51" spans="1:9" ht="18.95" customHeight="1">
       <c r="A51" s="5">
@@ -13674,7 +14309,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:I20"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13689,7 +14324,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -13723,35 +14358,61 @@
         <v>6</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.95" customHeight="1">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="18.95" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="B4" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
@@ -13759,12 +14420,24 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>41</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
@@ -13772,12 +14445,24 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="B6" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>55</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
@@ -13785,12 +14470,24 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="B7" s="5">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>71</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
@@ -13798,12 +14495,24 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="3">
+        <v>8.43</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>85</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
@@ -13811,12 +14520,24 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="B9" s="5">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>101</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
@@ -13824,25 +14545,51 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="B10" s="3">
+        <v>10.86</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="18.95" customHeight="1">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="B11" s="5">
+        <v>11.837999999999999</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>119</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
@@ -13850,38 +14597,78 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="3">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="18.95" customHeight="1">
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="5">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="18.95" customHeight="1">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="B14" s="3">
+        <v>15.426</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>155</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
@@ -13889,12 +14676,24 @@
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="B15" s="5">
+        <v>16.905999999999999</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5">
+        <v>169</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
@@ -13902,12 +14701,24 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="B16" s="3">
+        <v>18.385999999999999</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>185</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
@@ -13915,12 +14726,24 @@
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="B17" s="5">
+        <v>19.866</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5">
+        <v>199</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
@@ -13928,12 +14751,24 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="B18" s="3">
+        <v>21.346</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>213</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
@@ -13941,12 +14776,24 @@
       <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="B19" s="5">
+        <v>22.826000000000001</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>229</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
@@ -13954,12 +14801,24 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="B20" s="3">
+        <v>24.306000000000001</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>243</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
@@ -13967,12 +14826,24 @@
       <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="B21" s="5">
+        <v>25.786000000000001</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5">
+        <v>259</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
@@ -13980,12 +14851,24 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="B22" s="3">
+        <v>27.265999999999998</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>273</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
@@ -13993,12 +14876,24 @@
       <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="B23" s="5">
+        <v>28.745999999999999</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>287</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
@@ -14006,12 +14901,24 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="B24" s="3">
+        <v>30.225999999999999</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>303</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
@@ -14019,12 +14926,24 @@
       <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="B25" s="5">
+        <v>31.706</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5">
+        <v>317</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
@@ -14032,12 +14951,24 @@
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="B26" s="3">
+        <v>33.186</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>333</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
@@ -14045,12 +14976,24 @@
       <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="B27" s="5">
+        <v>34.665999999999997</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5">
+        <v>347</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
@@ -14058,12 +15001,24 @@
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="B28" s="3">
+        <v>36.146000000000001</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>361</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
@@ -14071,12 +15026,24 @@
       <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="B29" s="5">
+        <v>37.625999999999998</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2</v>
+      </c>
+      <c r="D29" s="5">
+        <v>377</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>2</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
@@ -14084,12 +15051,24 @@
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="B30" s="3">
+        <v>39.106000000000002</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3">
+        <v>391</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
@@ -14097,25 +15076,51 @@
       <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+      <c r="B31" s="5">
+        <v>39.905999999999999</v>
+      </c>
+      <c r="C31" s="5">
+        <v>3</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>2</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" ht="18.95" customHeight="1">
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="B32" s="3">
+        <v>40.585999999999999</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>407</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
@@ -14123,12 +15128,24 @@
       <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="B33" s="5">
+        <v>42.066000000000003</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2</v>
+      </c>
+      <c r="D33" s="5">
+        <v>421</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>2</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
@@ -14136,12 +15153,24 @@
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="B34" s="3">
+        <v>43.558999999999997</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3">
+        <v>437</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>3</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
@@ -14149,12 +15178,24 @@
       <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="B35" s="5">
+        <v>45.039000000000001</v>
+      </c>
+      <c r="C35" s="5">
+        <v>2</v>
+      </c>
+      <c r="D35" s="5">
+        <v>451</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
+        <v>3</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
@@ -14162,12 +15203,24 @@
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="B36" s="3">
+        <v>46.518999999999998</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>465</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>3</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
@@ -14175,38 +15228,78 @@
       <c r="A37" s="5">
         <v>35</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="B37" s="5">
+        <v>48</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
       <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5">
+        <v>3</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="38" spans="1:9" ht="18.95" customHeight="1">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="B38" s="3">
+        <v>49</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
       <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>3</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="39" spans="1:9" ht="18.95" customHeight="1">
       <c r="A39" s="5">
         <v>37</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="B39" s="5">
+        <v>49.634999999999998</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2</v>
+      </c>
+      <c r="D39" s="5">
+        <v>497</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5">
+        <v>4</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
@@ -14214,12 +15307,24 @@
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+      <c r="B40" s="3">
+        <v>51.015000000000001</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3">
+        <v>511</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>4</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
@@ -14227,12 +15332,24 @@
       <c r="A41" s="5">
         <v>39</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
+      <c r="B41" s="5">
+        <v>52.395000000000003</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2</v>
+      </c>
+      <c r="D41" s="5">
+        <v>525</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5">
+        <v>4</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
@@ -14240,12 +15357,24 @@
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
+      <c r="B42" s="3">
+        <v>53.774999999999999</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2</v>
+      </c>
+      <c r="D42" s="3">
+        <v>539</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
@@ -14253,12 +15382,24 @@
       <c r="A43" s="5">
         <v>41</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
+      <c r="B43" s="5">
+        <v>55.155000000000001</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2</v>
+      </c>
+      <c r="D43" s="5">
+        <v>553</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5">
+        <v>4</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
@@ -14266,12 +15407,24 @@
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
+      <c r="B44" s="3">
+        <v>56.534999999999997</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2</v>
+      </c>
+      <c r="D44" s="3">
+        <v>565</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
@@ -14279,25 +15432,51 @@
       <c r="A45" s="5">
         <v>43</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
+      <c r="B45" s="5">
+        <v>58.335000000000001</v>
+      </c>
+      <c r="C45" s="5">
+        <v>3</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5">
+        <v>4</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9" ht="18.95" customHeight="1">
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+      <c r="B46" s="3">
+        <v>60.674999999999997</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2</v>
+      </c>
+      <c r="D46" s="3">
+        <v>607</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>4</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
@@ -14305,12 +15484,24 @@
       <c r="A47" s="5">
         <v>45</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="B47" s="5">
+        <v>62.058999999999997</v>
+      </c>
+      <c r="C47" s="5">
+        <v>2</v>
+      </c>
+      <c r="D47" s="5">
+        <v>621</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1</v>
+      </c>
+      <c r="F47" s="5">
+        <v>5</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
@@ -14318,12 +15509,24 @@
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="B48" s="3">
+        <v>63.439</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2</v>
+      </c>
+      <c r="D48" s="3">
+        <v>635</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
@@ -14331,12 +15534,24 @@
       <c r="A49" s="5">
         <v>47</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
+      <c r="B49" s="5">
+        <v>64.819000000000003</v>
+      </c>
+      <c r="C49" s="5">
+        <v>2</v>
+      </c>
+      <c r="D49" s="5">
+        <v>649</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1</v>
+      </c>
+      <c r="F49" s="5">
+        <v>5</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
     </row>
@@ -14344,12 +15559,24 @@
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="B50" s="3">
+        <v>66.198999999999998</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2</v>
+      </c>
+      <c r="D50" s="3">
+        <v>663</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>5</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
@@ -14357,12 +15584,24 @@
       <c r="A51" s="5">
         <v>49</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
+      <c r="B51" s="5">
+        <v>67.578999999999994</v>
+      </c>
+      <c r="C51" s="5">
+        <v>2</v>
+      </c>
+      <c r="D51" s="5">
+        <v>677</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5">
+        <v>5</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
     </row>
@@ -14370,12 +15609,24 @@
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+      <c r="B52" s="3">
+        <v>68.959000000000003</v>
+      </c>
+      <c r="C52" s="3">
+        <v>2</v>
+      </c>
+      <c r="D52" s="3">
+        <v>691</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
@@ -14383,12 +15634,24 @@
       <c r="A53" s="5">
         <v>51</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
+      <c r="B53" s="5">
+        <v>70.338999999999999</v>
+      </c>
+      <c r="C53" s="5">
+        <v>2</v>
+      </c>
+      <c r="D53" s="5">
+        <v>703</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1</v>
+      </c>
+      <c r="F53" s="5">
+        <v>5</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
     </row>
@@ -14396,12 +15659,24 @@
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
+      <c r="B54" s="3">
+        <v>71.718999999999994</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2</v>
+      </c>
+      <c r="D54" s="3">
+        <v>717</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
@@ -14409,12 +15684,24 @@
       <c r="A55" s="5">
         <v>53</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
+      <c r="B55" s="5">
+        <v>73.099000000000004</v>
+      </c>
+      <c r="C55" s="5">
+        <v>2</v>
+      </c>
+      <c r="D55" s="5">
+        <v>731</v>
+      </c>
+      <c r="E55" s="5">
+        <v>1</v>
+      </c>
+      <c r="F55" s="5">
+        <v>5</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
     </row>
@@ -14422,12 +15709,24 @@
       <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+      <c r="B56" s="3">
+        <v>74.478999999999999</v>
+      </c>
+      <c r="C56" s="3">
+        <v>2</v>
+      </c>
+      <c r="D56" s="3">
+        <v>745</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>5</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
@@ -14435,12 +15734,24 @@
       <c r="A57" s="5">
         <v>55</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
+      <c r="B57" s="5">
+        <v>75.858999999999995</v>
+      </c>
+      <c r="C57" s="5">
+        <v>2</v>
+      </c>
+      <c r="D57" s="5">
+        <v>759</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1</v>
+      </c>
+      <c r="F57" s="5">
+        <v>5</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
     </row>
@@ -14448,12 +15759,24 @@
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
+      <c r="B58" s="3">
+        <v>77.239000000000004</v>
+      </c>
+      <c r="C58" s="3">
+        <v>2</v>
+      </c>
+      <c r="D58" s="3">
+        <v>773</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
     </row>
@@ -14461,12 +15784,24 @@
       <c r="A59" s="5">
         <v>57</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
+      <c r="B59" s="5">
+        <v>78.619</v>
+      </c>
+      <c r="C59" s="5">
+        <v>2</v>
+      </c>
+      <c r="D59" s="5">
+        <v>787</v>
+      </c>
+      <c r="E59" s="5">
+        <v>1</v>
+      </c>
+      <c r="F59" s="5">
+        <v>5</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
     </row>
@@ -14474,14 +15809,28 @@
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
+      <c r="B60" s="3">
+        <v>80</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
       <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3">
+        <v>5</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="61" spans="1:9" ht="18.95" customHeight="1">
       <c r="A61" s="5">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/信号机数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/信号机数据_single.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -214,48 +214,6 @@
   <si>
     <t>所属车站/电分相名</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DK</t>
-  </si>
-  <si>
-    <t>海口</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>D1K</t>
-  </si>
-  <si>
-    <t>老城</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D2K</t>
-  </si>
-  <si>
-    <t>临高</t>
-  </si>
-  <si>
-    <t>无名</t>
-  </si>
-  <si>
-    <t>新盈</t>
-  </si>
-  <si>
-    <t>10.860+1:10.960+1:11.060+1:200.000</t>
-  </si>
-  <si>
-    <t>39.906+2:40.106+2:40.306+2:400.000</t>
-  </si>
-  <si>
-    <t>58.335+4:58.535+4:58.735+4:400.000</t>
-  </si>
-  <si>
-    <t>21.546+2:21.746+2:21.946+2:400.000</t>
   </si>
 </sst>
 </file>
@@ -783,51 +741,25 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="18.95" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
-        <v>26</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
@@ -835,24 +767,12 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
-        <v>3.9</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>40</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
@@ -860,24 +780,12 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>70</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
@@ -885,24 +793,12 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
-        <v>8.5</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>86</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
@@ -910,24 +806,12 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3">
-        <v>100</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
@@ -935,24 +819,12 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
-        <v>11.5</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5">
-        <v>116</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
@@ -960,78 +832,38 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="18.95" customHeight="1">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
-        <v>14</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="18.95" customHeight="1">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <v>16.206</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3">
-        <v>162</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
@@ -1039,24 +871,12 @@
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
-        <v>18.475999999999999</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2</v>
-      </c>
-      <c r="D13" s="5">
-        <v>186</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>2</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
@@ -1064,24 +884,12 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
-        <v>20.745999999999999</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3">
-        <v>208</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
@@ -1089,51 +897,25 @@
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
-        <v>21.545999999999999</v>
-      </c>
-      <c r="C15" s="5">
-        <v>3</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>2</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="18.95" customHeight="1">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
-        <v>23.015999999999998</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2</v>
-      </c>
-      <c r="D16" s="3">
-        <v>230</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
@@ -1141,24 +923,12 @@
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
-        <v>25.286000000000001</v>
-      </c>
-      <c r="C17" s="5">
-        <v>2</v>
-      </c>
-      <c r="D17" s="5">
-        <v>254</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>2</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
@@ -1166,24 +936,12 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
-        <v>27.556000000000001</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3">
-        <v>276</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
@@ -1191,24 +949,12 @@
       <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
-        <v>29.826000000000001</v>
-      </c>
-      <c r="C19" s="5">
-        <v>2</v>
-      </c>
-      <c r="D19" s="5">
-        <v>298</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>2</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
@@ -1216,24 +962,12 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
-        <v>32.095999999999997</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3">
-        <v>322</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
@@ -1241,24 +975,12 @@
       <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="5">
-        <v>34.366</v>
-      </c>
-      <c r="C21" s="5">
-        <v>2</v>
-      </c>
-      <c r="D21" s="5">
-        <v>344</v>
-      </c>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5">
-        <v>2</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
@@ -1266,24 +988,12 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="3">
-        <v>36.636000000000003</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2</v>
-      </c>
-      <c r="D22" s="3">
-        <v>366</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
@@ -1291,24 +1001,12 @@
       <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="5">
-        <v>38.905999999999999</v>
-      </c>
-      <c r="C23" s="5">
-        <v>2</v>
-      </c>
-      <c r="D23" s="5">
-        <v>390</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1</v>
-      </c>
-      <c r="F23" s="5">
-        <v>2</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
@@ -1316,24 +1014,12 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="3">
-        <v>41.176000000000002</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3">
-        <v>412</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
@@ -1341,24 +1027,12 @@
       <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="5">
-        <v>43.459000000000003</v>
-      </c>
-      <c r="C25" s="5">
-        <v>2</v>
-      </c>
-      <c r="D25" s="5">
-        <v>436</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1</v>
-      </c>
-      <c r="F25" s="5">
-        <v>3</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
@@ -1366,24 +1040,12 @@
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="3">
-        <v>45.728999999999999</v>
-      </c>
-      <c r="C26" s="3">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3">
-        <v>458</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
@@ -1391,78 +1053,38 @@
       <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
-        <v>48</v>
-      </c>
-      <c r="C27" s="5">
-        <v>1</v>
-      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5">
-        <v>1</v>
-      </c>
-      <c r="F27" s="5">
-        <v>3</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9" ht="18.95" customHeight="1">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="3">
-        <v>49</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>3</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="18.95" customHeight="1">
       <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="5">
-        <v>50.83</v>
-      </c>
-      <c r="C29" s="5">
-        <v>2</v>
-      </c>
-      <c r="D29" s="5">
-        <v>508</v>
-      </c>
-      <c r="E29" s="5">
-        <v>1</v>
-      </c>
-      <c r="F29" s="5">
-        <v>4</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
@@ -1470,24 +1092,12 @@
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="3">
-        <v>52.2</v>
-      </c>
-      <c r="C30" s="3">
-        <v>2</v>
-      </c>
-      <c r="D30" s="3">
-        <v>522</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>4</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
@@ -1495,24 +1105,12 @@
       <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="5">
-        <v>53.54</v>
-      </c>
-      <c r="C31" s="5">
-        <v>2</v>
-      </c>
-      <c r="D31" s="5">
-        <v>536</v>
-      </c>
-      <c r="E31" s="5">
-        <v>1</v>
-      </c>
-      <c r="F31" s="5">
-        <v>4</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
@@ -1520,24 +1118,12 @@
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="3">
-        <v>54.88</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>550</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
@@ -1545,24 +1131,12 @@
       <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B33" s="5">
-        <v>56.22</v>
-      </c>
-      <c r="C33" s="5">
-        <v>2</v>
-      </c>
-      <c r="D33" s="5">
-        <v>562</v>
-      </c>
-      <c r="E33" s="5">
-        <v>1</v>
-      </c>
-      <c r="F33" s="5">
-        <v>4</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
@@ -1570,24 +1144,12 @@
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="3">
-        <v>57.56</v>
-      </c>
-      <c r="C34" s="3">
-        <v>2</v>
-      </c>
-      <c r="D34" s="3">
-        <v>576</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>4</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
@@ -1595,24 +1157,12 @@
       <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="B35" s="5">
-        <v>58.9</v>
-      </c>
-      <c r="C35" s="5">
-        <v>2</v>
-      </c>
-      <c r="D35" s="5">
-        <v>590</v>
-      </c>
-      <c r="E35" s="5">
-        <v>1</v>
-      </c>
-      <c r="F35" s="5">
-        <v>4</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
@@ -1620,24 +1170,12 @@
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="3">
-        <v>60.24</v>
-      </c>
-      <c r="C36" s="3">
-        <v>2</v>
-      </c>
-      <c r="D36" s="3">
-        <v>602</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
-        <v>4</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
@@ -1645,24 +1183,12 @@
       <c r="A37" s="5">
         <v>35</v>
       </c>
-      <c r="B37" s="5">
-        <v>61.58</v>
-      </c>
-      <c r="C37" s="5">
-        <v>2</v>
-      </c>
-      <c r="D37" s="5">
-        <v>616</v>
-      </c>
-      <c r="E37" s="5">
-        <v>1</v>
-      </c>
-      <c r="F37" s="5">
-        <v>4</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
@@ -1670,24 +1196,12 @@
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="3">
-        <v>62.923000000000002</v>
-      </c>
-      <c r="C38" s="3">
-        <v>2</v>
-      </c>
-      <c r="D38" s="3">
-        <v>630</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3">
-        <v>5</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
@@ -1695,24 +1209,12 @@
       <c r="A39" s="5">
         <v>37</v>
       </c>
-      <c r="B39" s="5">
-        <v>64.263000000000005</v>
-      </c>
-      <c r="C39" s="5">
-        <v>2</v>
-      </c>
-      <c r="D39" s="5">
-        <v>644</v>
-      </c>
-      <c r="E39" s="5">
-        <v>1</v>
-      </c>
-      <c r="F39" s="5">
-        <v>5</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
@@ -1720,24 +1222,12 @@
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="3">
-        <v>65.599000000000004</v>
-      </c>
-      <c r="C40" s="3">
-        <v>2</v>
-      </c>
-      <c r="D40" s="3">
-        <v>656</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>5</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
@@ -1745,24 +1235,12 @@
       <c r="A41" s="5">
         <v>39</v>
       </c>
-      <c r="B41" s="5">
-        <v>67.039000000000001</v>
-      </c>
-      <c r="C41" s="5">
-        <v>2</v>
-      </c>
-      <c r="D41" s="5">
-        <v>670</v>
-      </c>
-      <c r="E41" s="5">
-        <v>1</v>
-      </c>
-      <c r="F41" s="5">
-        <v>5</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
@@ -1770,24 +1248,12 @@
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="3">
-        <v>68.478999999999999</v>
-      </c>
-      <c r="C42" s="3">
-        <v>2</v>
-      </c>
-      <c r="D42" s="3">
-        <v>686</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
@@ -1795,24 +1261,12 @@
       <c r="A43" s="5">
         <v>41</v>
       </c>
-      <c r="B43" s="5">
-        <v>69.918999999999997</v>
-      </c>
-      <c r="C43" s="5">
-        <v>2</v>
-      </c>
-      <c r="D43" s="5">
-        <v>700</v>
-      </c>
-      <c r="E43" s="5">
-        <v>1</v>
-      </c>
-      <c r="F43" s="5">
-        <v>5</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
@@ -1820,24 +1274,12 @@
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="3">
-        <v>71.358999999999995</v>
-      </c>
-      <c r="C44" s="3">
-        <v>2</v>
-      </c>
-      <c r="D44" s="3">
-        <v>714</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
@@ -1845,24 +1287,12 @@
       <c r="A45" s="5">
         <v>43</v>
       </c>
-      <c r="B45" s="5">
-        <v>72.799000000000007</v>
-      </c>
-      <c r="C45" s="5">
-        <v>2</v>
-      </c>
-      <c r="D45" s="5">
-        <v>728</v>
-      </c>
-      <c r="E45" s="5">
-        <v>1</v>
-      </c>
-      <c r="F45" s="5">
-        <v>5</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
@@ -1870,24 +1300,12 @@
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="3">
-        <v>74.239000000000004</v>
-      </c>
-      <c r="C46" s="3">
-        <v>2</v>
-      </c>
-      <c r="D46" s="3">
-        <v>742</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
@@ -1895,24 +1313,12 @@
       <c r="A47" s="5">
         <v>45</v>
       </c>
-      <c r="B47" s="5">
-        <v>75.679000000000002</v>
-      </c>
-      <c r="C47" s="5">
-        <v>2</v>
-      </c>
-      <c r="D47" s="5">
-        <v>758</v>
-      </c>
-      <c r="E47" s="5">
-        <v>1</v>
-      </c>
-      <c r="F47" s="5">
-        <v>5</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
@@ -1920,24 +1326,12 @@
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="3">
-        <v>77.119</v>
-      </c>
-      <c r="C48" s="3">
-        <v>2</v>
-      </c>
-      <c r="D48" s="3">
-        <v>772</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
@@ -1945,24 +1339,12 @@
       <c r="A49" s="5">
         <v>47</v>
       </c>
-      <c r="B49" s="5">
-        <v>78.558999999999997</v>
-      </c>
-      <c r="C49" s="5">
-        <v>2</v>
-      </c>
-      <c r="D49" s="5">
-        <v>786</v>
-      </c>
-      <c r="E49" s="5">
-        <v>1</v>
-      </c>
-      <c r="F49" s="5">
-        <v>5</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
     </row>
@@ -1970,28 +1352,14 @@
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="3">
-        <v>80</v>
-      </c>
-      <c r="C50" s="3">
-        <v>1</v>
-      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3">
-        <v>5</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9" ht="18.95" customHeight="1">
       <c r="A51" s="5">
@@ -14368,51 +13736,25 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="18.95" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
-        <v>25</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
@@ -14420,24 +13762,12 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>41</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
@@ -14445,24 +13775,12 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>55</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
@@ -14470,24 +13788,12 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>71</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
@@ -14495,24 +13801,12 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
-        <v>8.43</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3">
-        <v>85</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
@@ -14520,24 +13814,12 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5">
-        <v>101</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
@@ -14545,51 +13827,25 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
-        <v>10.86</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="18.95" customHeight="1">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
-        <v>11.837999999999999</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5">
-        <v>119</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
@@ -14597,78 +13853,38 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="18.95" customHeight="1">
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
-        <v>14</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" ht="18.95" customHeight="1">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
-        <v>15.426</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3">
-        <v>155</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
@@ -14676,24 +13892,12 @@
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
-        <v>16.905999999999999</v>
-      </c>
-      <c r="C15" s="5">
-        <v>2</v>
-      </c>
-      <c r="D15" s="5">
-        <v>169</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>2</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
@@ -14701,24 +13905,12 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
-        <v>18.385999999999999</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2</v>
-      </c>
-      <c r="D16" s="3">
-        <v>185</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
@@ -14726,24 +13918,12 @@
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
-        <v>19.866</v>
-      </c>
-      <c r="C17" s="5">
-        <v>2</v>
-      </c>
-      <c r="D17" s="5">
-        <v>199</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>2</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
@@ -14751,24 +13931,12 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
-        <v>21.346</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3">
-        <v>213</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
@@ -14776,24 +13944,12 @@
       <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
-        <v>22.826000000000001</v>
-      </c>
-      <c r="C19" s="5">
-        <v>2</v>
-      </c>
-      <c r="D19" s="5">
-        <v>229</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>2</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
@@ -14801,24 +13957,12 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
-        <v>24.306000000000001</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3">
-        <v>243</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
@@ -14826,24 +13970,12 @@
       <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="5">
-        <v>25.786000000000001</v>
-      </c>
-      <c r="C21" s="5">
-        <v>2</v>
-      </c>
-      <c r="D21" s="5">
-        <v>259</v>
-      </c>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5">
-        <v>2</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
@@ -14851,24 +13983,12 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="3">
-        <v>27.265999999999998</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2</v>
-      </c>
-      <c r="D22" s="3">
-        <v>273</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
@@ -14876,24 +13996,12 @@
       <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="5">
-        <v>28.745999999999999</v>
-      </c>
-      <c r="C23" s="5">
-        <v>2</v>
-      </c>
-      <c r="D23" s="5">
-        <v>287</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1</v>
-      </c>
-      <c r="F23" s="5">
-        <v>2</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
@@ -14901,24 +14009,12 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="3">
-        <v>30.225999999999999</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3">
-        <v>303</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
@@ -14926,24 +14022,12 @@
       <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="5">
-        <v>31.706</v>
-      </c>
-      <c r="C25" s="5">
-        <v>2</v>
-      </c>
-      <c r="D25" s="5">
-        <v>317</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1</v>
-      </c>
-      <c r="F25" s="5">
-        <v>2</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
@@ -14951,24 +14035,12 @@
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="3">
-        <v>33.186</v>
-      </c>
-      <c r="C26" s="3">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3">
-        <v>333</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
@@ -14976,24 +14048,12 @@
       <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
-        <v>34.665999999999997</v>
-      </c>
-      <c r="C27" s="5">
-        <v>2</v>
-      </c>
-      <c r="D27" s="5">
-        <v>347</v>
-      </c>
-      <c r="E27" s="5">
-        <v>1</v>
-      </c>
-      <c r="F27" s="5">
-        <v>2</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
@@ -15001,24 +14061,12 @@
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="3">
-        <v>36.146000000000001</v>
-      </c>
-      <c r="C28" s="3">
-        <v>2</v>
-      </c>
-      <c r="D28" s="3">
-        <v>361</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>2</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
@@ -15026,24 +14074,12 @@
       <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="5">
-        <v>37.625999999999998</v>
-      </c>
-      <c r="C29" s="5">
-        <v>2</v>
-      </c>
-      <c r="D29" s="5">
-        <v>377</v>
-      </c>
-      <c r="E29" s="5">
-        <v>1</v>
-      </c>
-      <c r="F29" s="5">
-        <v>2</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
@@ -15051,24 +14087,12 @@
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="3">
-        <v>39.106000000000002</v>
-      </c>
-      <c r="C30" s="3">
-        <v>2</v>
-      </c>
-      <c r="D30" s="3">
-        <v>391</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>2</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
@@ -15076,51 +14100,25 @@
       <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="5">
-        <v>39.905999999999999</v>
-      </c>
-      <c r="C31" s="5">
-        <v>3</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="5">
-        <v>1</v>
-      </c>
-      <c r="F31" s="5">
-        <v>2</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" ht="18.95" customHeight="1">
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="3">
-        <v>40.585999999999999</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>407</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
@@ -15128,24 +14126,12 @@
       <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B33" s="5">
-        <v>42.066000000000003</v>
-      </c>
-      <c r="C33" s="5">
-        <v>2</v>
-      </c>
-      <c r="D33" s="5">
-        <v>421</v>
-      </c>
-      <c r="E33" s="5">
-        <v>1</v>
-      </c>
-      <c r="F33" s="5">
-        <v>2</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
@@ -15153,24 +14139,12 @@
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="3">
-        <v>43.558999999999997</v>
-      </c>
-      <c r="C34" s="3">
-        <v>2</v>
-      </c>
-      <c r="D34" s="3">
-        <v>437</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>3</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
@@ -15178,24 +14152,12 @@
       <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="B35" s="5">
-        <v>45.039000000000001</v>
-      </c>
-      <c r="C35" s="5">
-        <v>2</v>
-      </c>
-      <c r="D35" s="5">
-        <v>451</v>
-      </c>
-      <c r="E35" s="5">
-        <v>1</v>
-      </c>
-      <c r="F35" s="5">
-        <v>3</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
@@ -15203,24 +14165,12 @@
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="3">
-        <v>46.518999999999998</v>
-      </c>
-      <c r="C36" s="3">
-        <v>2</v>
-      </c>
-      <c r="D36" s="3">
-        <v>465</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
-        <v>3</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
@@ -15228,78 +14178,38 @@
       <c r="A37" s="5">
         <v>35</v>
       </c>
-      <c r="B37" s="5">
-        <v>48</v>
-      </c>
-      <c r="C37" s="5">
-        <v>1</v>
-      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="5">
-        <v>1</v>
-      </c>
-      <c r="F37" s="5">
-        <v>3</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" ht="18.95" customHeight="1">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="3">
-        <v>49</v>
-      </c>
-      <c r="C38" s="3">
-        <v>1</v>
-      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3">
-        <v>3</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9" ht="18.95" customHeight="1">
       <c r="A39" s="5">
         <v>37</v>
       </c>
-      <c r="B39" s="5">
-        <v>49.634999999999998</v>
-      </c>
-      <c r="C39" s="5">
-        <v>2</v>
-      </c>
-      <c r="D39" s="5">
-        <v>497</v>
-      </c>
-      <c r="E39" s="5">
-        <v>1</v>
-      </c>
-      <c r="F39" s="5">
-        <v>4</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
@@ -15307,24 +14217,12 @@
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="3">
-        <v>51.015000000000001</v>
-      </c>
-      <c r="C40" s="3">
-        <v>2</v>
-      </c>
-      <c r="D40" s="3">
-        <v>511</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>4</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
@@ -15332,24 +14230,12 @@
       <c r="A41" s="5">
         <v>39</v>
       </c>
-      <c r="B41" s="5">
-        <v>52.395000000000003</v>
-      </c>
-      <c r="C41" s="5">
-        <v>2</v>
-      </c>
-      <c r="D41" s="5">
-        <v>525</v>
-      </c>
-      <c r="E41" s="5">
-        <v>1</v>
-      </c>
-      <c r="F41" s="5">
-        <v>4</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
@@ -15357,24 +14243,12 @@
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="3">
-        <v>53.774999999999999</v>
-      </c>
-      <c r="C42" s="3">
-        <v>2</v>
-      </c>
-      <c r="D42" s="3">
-        <v>539</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
@@ -15382,24 +14256,12 @@
       <c r="A43" s="5">
         <v>41</v>
       </c>
-      <c r="B43" s="5">
-        <v>55.155000000000001</v>
-      </c>
-      <c r="C43" s="5">
-        <v>2</v>
-      </c>
-      <c r="D43" s="5">
-        <v>553</v>
-      </c>
-      <c r="E43" s="5">
-        <v>1</v>
-      </c>
-      <c r="F43" s="5">
-        <v>4</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
@@ -15407,24 +14269,12 @@
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="3">
-        <v>56.534999999999997</v>
-      </c>
-      <c r="C44" s="3">
-        <v>2</v>
-      </c>
-      <c r="D44" s="3">
-        <v>565</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
@@ -15432,51 +14282,25 @@
       <c r="A45" s="5">
         <v>43</v>
       </c>
-      <c r="B45" s="5">
-        <v>58.335000000000001</v>
-      </c>
-      <c r="C45" s="5">
-        <v>3</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="5">
-        <v>1</v>
-      </c>
-      <c r="F45" s="5">
-        <v>4</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9" ht="18.95" customHeight="1">
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="3">
-        <v>60.674999999999997</v>
-      </c>
-      <c r="C46" s="3">
-        <v>2</v>
-      </c>
-      <c r="D46" s="3">
-        <v>607</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
-        <v>4</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
@@ -15484,24 +14308,12 @@
       <c r="A47" s="5">
         <v>45</v>
       </c>
-      <c r="B47" s="5">
-        <v>62.058999999999997</v>
-      </c>
-      <c r="C47" s="5">
-        <v>2</v>
-      </c>
-      <c r="D47" s="5">
-        <v>621</v>
-      </c>
-      <c r="E47" s="5">
-        <v>1</v>
-      </c>
-      <c r="F47" s="5">
-        <v>5</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
@@ -15509,24 +14321,12 @@
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="3">
-        <v>63.439</v>
-      </c>
-      <c r="C48" s="3">
-        <v>2</v>
-      </c>
-      <c r="D48" s="3">
-        <v>635</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
@@ -15534,24 +14334,12 @@
       <c r="A49" s="5">
         <v>47</v>
       </c>
-      <c r="B49" s="5">
-        <v>64.819000000000003</v>
-      </c>
-      <c r="C49" s="5">
-        <v>2</v>
-      </c>
-      <c r="D49" s="5">
-        <v>649</v>
-      </c>
-      <c r="E49" s="5">
-        <v>1</v>
-      </c>
-      <c r="F49" s="5">
-        <v>5</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
     </row>
@@ -15559,24 +14347,12 @@
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="3">
-        <v>66.198999999999998</v>
-      </c>
-      <c r="C50" s="3">
-        <v>2</v>
-      </c>
-      <c r="D50" s="3">
-        <v>663</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3">
-        <v>5</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
@@ -15584,24 +14360,12 @@
       <c r="A51" s="5">
         <v>49</v>
       </c>
-      <c r="B51" s="5">
-        <v>67.578999999999994</v>
-      </c>
-      <c r="C51" s="5">
-        <v>2</v>
-      </c>
-      <c r="D51" s="5">
-        <v>677</v>
-      </c>
-      <c r="E51" s="5">
-        <v>1</v>
-      </c>
-      <c r="F51" s="5">
-        <v>5</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
     </row>
@@ -15609,24 +14373,12 @@
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="3">
-        <v>68.959000000000003</v>
-      </c>
-      <c r="C52" s="3">
-        <v>2</v>
-      </c>
-      <c r="D52" s="3">
-        <v>691</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
@@ -15634,24 +14386,12 @@
       <c r="A53" s="5">
         <v>51</v>
       </c>
-      <c r="B53" s="5">
-        <v>70.338999999999999</v>
-      </c>
-      <c r="C53" s="5">
-        <v>2</v>
-      </c>
-      <c r="D53" s="5">
-        <v>703</v>
-      </c>
-      <c r="E53" s="5">
-        <v>1</v>
-      </c>
-      <c r="F53" s="5">
-        <v>5</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
     </row>
@@ -15659,24 +14399,12 @@
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="3">
-        <v>71.718999999999994</v>
-      </c>
-      <c r="C54" s="3">
-        <v>2</v>
-      </c>
-      <c r="D54" s="3">
-        <v>717</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
@@ -15684,24 +14412,12 @@
       <c r="A55" s="5">
         <v>53</v>
       </c>
-      <c r="B55" s="5">
-        <v>73.099000000000004</v>
-      </c>
-      <c r="C55" s="5">
-        <v>2</v>
-      </c>
-      <c r="D55" s="5">
-        <v>731</v>
-      </c>
-      <c r="E55" s="5">
-        <v>1</v>
-      </c>
-      <c r="F55" s="5">
-        <v>5</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
     </row>
@@ -15709,24 +14425,12 @@
       <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="3">
-        <v>74.478999999999999</v>
-      </c>
-      <c r="C56" s="3">
-        <v>2</v>
-      </c>
-      <c r="D56" s="3">
-        <v>745</v>
-      </c>
-      <c r="E56" s="3">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3">
-        <v>5</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
@@ -15734,24 +14438,12 @@
       <c r="A57" s="5">
         <v>55</v>
       </c>
-      <c r="B57" s="5">
-        <v>75.858999999999995</v>
-      </c>
-      <c r="C57" s="5">
-        <v>2</v>
-      </c>
-      <c r="D57" s="5">
-        <v>759</v>
-      </c>
-      <c r="E57" s="5">
-        <v>1</v>
-      </c>
-      <c r="F57" s="5">
-        <v>5</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
     </row>
@@ -15759,24 +14451,12 @@
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="3">
-        <v>77.239000000000004</v>
-      </c>
-      <c r="C58" s="3">
-        <v>2</v>
-      </c>
-      <c r="D58" s="3">
-        <v>773</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1</v>
-      </c>
-      <c r="F58" s="3">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
     </row>
@@ -15784,24 +14464,12 @@
       <c r="A59" s="5">
         <v>57</v>
       </c>
-      <c r="B59" s="5">
-        <v>78.619</v>
-      </c>
-      <c r="C59" s="5">
-        <v>2</v>
-      </c>
-      <c r="D59" s="5">
-        <v>787</v>
-      </c>
-      <c r="E59" s="5">
-        <v>1</v>
-      </c>
-      <c r="F59" s="5">
-        <v>5</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
     </row>
@@ -15809,28 +14477,14 @@
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="3">
-        <v>80</v>
-      </c>
-      <c r="C60" s="3">
-        <v>1</v>
-      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="3">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
     </row>
     <row r="61" spans="1:9" ht="18.95" customHeight="1">
       <c r="A61" s="5">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/信号机数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/信号机数据_single.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="69">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -349,6 +349,42 @@
   </si>
   <si>
     <t>昆明南</t>
+  </si>
+  <si>
+    <t>XI</t>
+  </si>
+  <si>
+    <t>331.868+1:332.098+1:332.657+1:789.000</t>
+  </si>
+  <si>
+    <t>那坡隧道分区所（下行）</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>375.308+3:375.545+3:376.115+3:807.000</t>
+  </si>
+  <si>
+    <t>无名</t>
+  </si>
+  <si>
+    <t>390.440+3:390.659+3:391.197+3:757.000</t>
+  </si>
+  <si>
+    <t>415.670+3:415.915+3:416.440+3:770.000</t>
+  </si>
+  <si>
+    <t>429.386+4:429.628+4:430.207+4:821.000</t>
+  </si>
+  <si>
+    <t>447.683+5:447.934+5:448.502+5:819.000</t>
+  </si>
+  <si>
+    <t>476.357+5:476.607+5:477.196+5:839.000</t>
+  </si>
+  <si>
+    <t>497.831+6:498.076+6:498.630+6:799.000</t>
   </si>
 </sst>
 </file>
@@ -883,25 +919,53 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="B3" s="6">
+        <v>310.19299999999998</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="B4" s="3">
+        <v>311.78300000000002</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3118</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
@@ -909,12 +973,24 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="B5" s="5">
+        <v>313.33300000000003</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3134</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
@@ -922,12 +998,24 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="B6" s="3">
+        <v>314.88299999999998</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3150</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
@@ -935,12 +1023,24 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="B7" s="5">
+        <v>316.43299999999999</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3164</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
@@ -948,12 +1048,24 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="3">
+        <v>317.983</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3180</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
@@ -961,12 +1073,24 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="B9" s="5">
+        <v>319.53300000000002</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3196</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
@@ -974,12 +1098,24 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="B10" s="3">
+        <v>321.08300000000003</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3212</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
@@ -987,12 +1123,24 @@
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="B11" s="5">
+        <v>322.63299999999998</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3226</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
@@ -1000,12 +1148,24 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="3">
+        <v>324.18299999999999</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3242</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
@@ -1013,12 +1173,24 @@
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="B13" s="5">
+        <v>325.733</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3258</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
@@ -1026,12 +1198,24 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="B14" s="3">
+        <v>327.28300000000002</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3274</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
@@ -1039,12 +1223,24 @@
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="B15" s="5">
+        <v>328.83300000000003</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3288</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
@@ -1052,12 +1248,24 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="B16" s="3">
+        <v>330.38299999999998</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3304</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
@@ -1065,12 +1273,24 @@
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="B17" s="5">
+        <v>331.58300000000003</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3316</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
@@ -1078,25 +1298,51 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="B18" s="3">
+        <v>331.86799999999999</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="B19" s="5">
+        <v>333.483</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>3336</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
@@ -1104,12 +1350,24 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="B20" s="3">
+        <v>335.03300000000002</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3350</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
@@ -1117,12 +1375,24 @@
       <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="B21" s="5">
+        <v>336.58300000000003</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5">
+        <v>3366</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
@@ -1130,12 +1400,24 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="B22" s="3">
+        <v>338.13299999999998</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3382</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
@@ -1143,12 +1425,24 @@
       <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="B23" s="5">
+        <v>339.68299999999999</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3398</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
@@ -1156,12 +1450,24 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="B24" s="3">
+        <v>341.233</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3412</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
@@ -1169,12 +1475,24 @@
       <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="B25" s="5">
+        <v>342.68299999999999</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5">
+        <v>3428</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
@@ -1182,12 +1500,24 @@
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="B26" s="3">
+        <v>344.13299999999998</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3442</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
@@ -1195,12 +1525,24 @@
       <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="B27" s="5">
+        <v>345.58300000000003</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5">
+        <v>3456</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
@@ -1208,12 +1550,24 @@
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="B28" s="3">
+        <v>347.13299999999998</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3472</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
@@ -1221,12 +1575,24 @@
       <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="B29" s="5">
+        <v>348.68299999999999</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2</v>
+      </c>
+      <c r="D29" s="5">
+        <v>3488</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
@@ -1234,12 +1600,24 @@
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="B30" s="3">
+        <v>350.233</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3">
+        <v>3502</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
@@ -1247,12 +1625,24 @@
       <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="B31" s="5">
+        <v>351.78300000000002</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2</v>
+      </c>
+      <c r="D31" s="5">
+        <v>3518</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
@@ -1260,12 +1650,24 @@
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="B32" s="3">
+        <v>353.233</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>3532</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
@@ -1273,12 +1675,24 @@
       <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="B33" s="5">
+        <v>354.96199999999999</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2</v>
+      </c>
+      <c r="D33" s="5">
+        <v>3550</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
@@ -1286,38 +1700,82 @@
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="B34" s="3">
+        <v>356.202</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
+      <c r="B35" s="5">
+        <v>356.81599999999997</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
+        <v>2</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="B36" s="3">
+        <v>358.40600000000001</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3584</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
@@ -1325,12 +1783,24 @@
       <c r="A37" s="5">
         <v>35</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="B37" s="5">
+        <v>359.98599999999999</v>
+      </c>
+      <c r="C37" s="5">
+        <v>2</v>
+      </c>
+      <c r="D37" s="5">
+        <v>3600</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5">
+        <v>2</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
@@ -1338,12 +1808,24 @@
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
+      <c r="B38" s="3">
+        <v>361.56599999999997</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3">
+        <v>3616</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
@@ -1351,12 +1833,24 @@
       <c r="A39" s="5">
         <v>37</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="B39" s="5">
+        <v>363.14600000000002</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2</v>
+      </c>
+      <c r="D39" s="5">
+        <v>3632</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5">
+        <v>2</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
@@ -1364,12 +1858,24 @@
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+      <c r="B40" s="3">
+        <v>364.726</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3648</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
@@ -1377,12 +1883,24 @@
       <c r="A41" s="5">
         <v>39</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
+      <c r="B41" s="5">
+        <v>366.30599999999998</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2</v>
+      </c>
+      <c r="D41" s="5">
+        <v>3664</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5">
+        <v>2</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
@@ -1390,12 +1908,24 @@
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
+      <c r="B42" s="3">
+        <v>367.88600000000002</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2</v>
+      </c>
+      <c r="D42" s="3">
+        <v>3680</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
@@ -1403,12 +1933,24 @@
       <c r="A43" s="5">
         <v>41</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
+      <c r="B43" s="5">
+        <v>369.46600000000001</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2</v>
+      </c>
+      <c r="D43" s="5">
+        <v>3696</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5">
+        <v>2</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
@@ -1416,12 +1958,24 @@
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
+      <c r="B44" s="3">
+        <v>371.18200000000002</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2</v>
+      </c>
+      <c r="D44" s="3">
+        <v>3712</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
@@ -1429,12 +1983,24 @@
       <c r="A45" s="5">
         <v>43</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
+      <c r="B45" s="5">
+        <v>372.98200000000003</v>
+      </c>
+      <c r="C45" s="5">
+        <v>2</v>
+      </c>
+      <c r="D45" s="5">
+        <v>3730</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5">
+        <v>3</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
@@ -1442,12 +2008,24 @@
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+      <c r="B46" s="3">
+        <v>374.58199999999999</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2</v>
+      </c>
+      <c r="D46" s="3">
+        <v>3746</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>3</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
@@ -1455,25 +2033,51 @@
       <c r="A47" s="5">
         <v>45</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
+      <c r="B47" s="5">
+        <v>375.30799999999999</v>
+      </c>
+      <c r="C47" s="5">
+        <v>3</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1</v>
+      </c>
+      <c r="F47" s="5">
+        <v>3</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="B48" s="3">
+        <v>376.44799999999998</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2</v>
+      </c>
+      <c r="D48" s="3">
+        <v>3764</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
@@ -1481,12 +2085,24 @@
       <c r="A49" s="5">
         <v>47</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
+      <c r="B49" s="5">
+        <v>377.65199999999999</v>
+      </c>
+      <c r="C49" s="5">
+        <v>2</v>
+      </c>
+      <c r="D49" s="5">
+        <v>3778</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1</v>
+      </c>
+      <c r="F49" s="5">
+        <v>3</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
     </row>
@@ -1494,12 +2110,24 @@
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="B50" s="3">
+        <v>379.08199999999999</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2</v>
+      </c>
+      <c r="D50" s="3">
+        <v>3792</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>3</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
@@ -1507,12 +2135,24 @@
       <c r="A51" s="5">
         <v>49</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
+      <c r="B51" s="5">
+        <v>380.66199999999998</v>
+      </c>
+      <c r="C51" s="5">
+        <v>2</v>
+      </c>
+      <c r="D51" s="5">
+        <v>3808</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5">
+        <v>3</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
     </row>
@@ -1520,12 +2160,24 @@
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+      <c r="B52" s="3">
+        <v>382.142</v>
+      </c>
+      <c r="C52" s="3">
+        <v>2</v>
+      </c>
+      <c r="D52" s="3">
+        <v>3822</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
@@ -1533,12 +2185,24 @@
       <c r="A53" s="5">
         <v>51</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
+      <c r="B53" s="5">
+        <v>383.68200000000002</v>
+      </c>
+      <c r="C53" s="5">
+        <v>2</v>
+      </c>
+      <c r="D53" s="5">
+        <v>3838</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1</v>
+      </c>
+      <c r="F53" s="5">
+        <v>3</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
     </row>
@@ -1546,12 +2210,24 @@
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
+      <c r="B54" s="3">
+        <v>385.28199999999998</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2</v>
+      </c>
+      <c r="D54" s="3">
+        <v>3854</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>3</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
@@ -1559,12 +2235,24 @@
       <c r="A55" s="5">
         <v>53</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
+      <c r="B55" s="5">
+        <v>386.98200000000003</v>
+      </c>
+      <c r="C55" s="5">
+        <v>2</v>
+      </c>
+      <c r="D55" s="5">
+        <v>3870</v>
+      </c>
+      <c r="E55" s="5">
+        <v>1</v>
+      </c>
+      <c r="F55" s="5">
+        <v>3</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
     </row>
@@ -1572,12 +2260,24 @@
       <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+      <c r="B56" s="3">
+        <v>388.68200000000002</v>
+      </c>
+      <c r="C56" s="3">
+        <v>2</v>
+      </c>
+      <c r="D56" s="3">
+        <v>3888</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>3</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
@@ -1585,12 +2285,24 @@
       <c r="A57" s="5">
         <v>55</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
+      <c r="B57" s="5">
+        <v>390.09199999999998</v>
+      </c>
+      <c r="C57" s="5">
+        <v>2</v>
+      </c>
+      <c r="D57" s="5">
+        <v>3902</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1</v>
+      </c>
+      <c r="F57" s="5">
+        <v>3</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
     </row>
@@ -1598,25 +2310,51 @@
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
+      <c r="B58" s="3">
+        <v>390.44</v>
+      </c>
+      <c r="C58" s="3">
+        <v>3</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="I58" s="3"/>
     </row>
     <row r="59" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
         <v>57</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
+      <c r="B59" s="5">
+        <v>391.72199999999998</v>
+      </c>
+      <c r="C59" s="5">
+        <v>2</v>
+      </c>
+      <c r="D59" s="5">
+        <v>3918</v>
+      </c>
+      <c r="E59" s="5">
+        <v>1</v>
+      </c>
+      <c r="F59" s="5">
+        <v>3</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
     </row>
@@ -1624,38 +2362,82 @@
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
+      <c r="B60" s="3">
+        <v>393.29700000000003</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="61" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5">
         <v>59</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
+      <c r="B61" s="5">
+        <v>394.49099999999999</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1</v>
+      </c>
+      <c r="F61" s="5">
+        <v>3</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="62" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
+      <c r="B62" s="3">
+        <v>396.02100000000002</v>
+      </c>
+      <c r="C62" s="3">
+        <v>2</v>
+      </c>
+      <c r="D62" s="3">
+        <v>3960</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
     </row>
@@ -1663,12 +2445,24 @@
       <c r="A63" s="5">
         <v>61</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
+      <c r="B63" s="5">
+        <v>397.53100000000001</v>
+      </c>
+      <c r="C63" s="5">
+        <v>2</v>
+      </c>
+      <c r="D63" s="5">
+        <v>3976</v>
+      </c>
+      <c r="E63" s="5">
+        <v>1</v>
+      </c>
+      <c r="F63" s="5">
+        <v>3</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
     </row>
@@ -1676,12 +2470,24 @@
       <c r="A64" s="3">
         <v>62</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
+      <c r="B64" s="3">
+        <v>399.041</v>
+      </c>
+      <c r="C64" s="3">
+        <v>2</v>
+      </c>
+      <c r="D64" s="3">
+        <v>3990</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+      <c r="F64" s="3">
+        <v>3</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
     </row>
@@ -1689,12 +2495,24 @@
       <c r="A65" s="5">
         <v>63</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
+      <c r="B65" s="5">
+        <v>400.55099999999999</v>
+      </c>
+      <c r="C65" s="5">
+        <v>2</v>
+      </c>
+      <c r="D65" s="5">
+        <v>4006</v>
+      </c>
+      <c r="E65" s="5">
+        <v>1</v>
+      </c>
+      <c r="F65" s="5">
+        <v>3</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
     </row>
@@ -1702,12 +2520,24 @@
       <c r="A66" s="3">
         <v>64</v>
       </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
+      <c r="B66" s="3">
+        <v>402.06099999999998</v>
+      </c>
+      <c r="C66" s="3">
+        <v>2</v>
+      </c>
+      <c r="D66" s="3">
+        <v>4022</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3">
+        <v>3</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
     </row>
@@ -1715,12 +2545,24 @@
       <c r="A67" s="5">
         <v>65</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
+      <c r="B67" s="5">
+        <v>403.541</v>
+      </c>
+      <c r="C67" s="5">
+        <v>2</v>
+      </c>
+      <c r="D67" s="5">
+        <v>4036</v>
+      </c>
+      <c r="E67" s="5">
+        <v>1</v>
+      </c>
+      <c r="F67" s="5">
+        <v>3</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
     </row>
@@ -1728,12 +2570,24 @@
       <c r="A68" s="3">
         <v>66</v>
       </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
+      <c r="B68" s="3">
+        <v>404.99099999999999</v>
+      </c>
+      <c r="C68" s="3">
+        <v>2</v>
+      </c>
+      <c r="D68" s="3">
+        <v>4050</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3">
+        <v>3</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
     </row>
@@ -1741,12 +2595,24 @@
       <c r="A69" s="5">
         <v>67</v>
       </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
+      <c r="B69" s="5">
+        <v>406.44099999999997</v>
+      </c>
+      <c r="C69" s="5">
+        <v>2</v>
+      </c>
+      <c r="D69" s="5">
+        <v>4064</v>
+      </c>
+      <c r="E69" s="5">
+        <v>1</v>
+      </c>
+      <c r="F69" s="5">
+        <v>3</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
     </row>
@@ -1754,12 +2620,24 @@
       <c r="A70" s="3">
         <v>68</v>
       </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
+      <c r="B70" s="3">
+        <v>407.89100000000002</v>
+      </c>
+      <c r="C70" s="3">
+        <v>2</v>
+      </c>
+      <c r="D70" s="3">
+        <v>4080</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1</v>
+      </c>
+      <c r="F70" s="3">
+        <v>3</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
     </row>
@@ -1767,12 +2645,24 @@
       <c r="A71" s="5">
         <v>69</v>
       </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
+      <c r="B71" s="5">
+        <v>409.34100000000001</v>
+      </c>
+      <c r="C71" s="5">
+        <v>2</v>
+      </c>
+      <c r="D71" s="5">
+        <v>4094</v>
+      </c>
+      <c r="E71" s="5">
+        <v>1</v>
+      </c>
+      <c r="F71" s="5">
+        <v>3</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
     </row>
@@ -1780,12 +2670,24 @@
       <c r="A72" s="3">
         <v>70</v>
       </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
+      <c r="B72" s="3">
+        <v>410.791</v>
+      </c>
+      <c r="C72" s="3">
+        <v>2</v>
+      </c>
+      <c r="D72" s="3">
+        <v>4108</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1</v>
+      </c>
+      <c r="F72" s="3">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
     </row>
@@ -1793,12 +2695,24 @@
       <c r="A73" s="5">
         <v>71</v>
       </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
+      <c r="B73" s="5">
+        <v>412.24099999999999</v>
+      </c>
+      <c r="C73" s="5">
+        <v>2</v>
+      </c>
+      <c r="D73" s="5">
+        <v>4122</v>
+      </c>
+      <c r="E73" s="5">
+        <v>1</v>
+      </c>
+      <c r="F73" s="5">
+        <v>3</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
     </row>
@@ -1806,12 +2720,24 @@
       <c r="A74" s="3">
         <v>72</v>
       </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
+      <c r="B74" s="3">
+        <v>413.69099999999997</v>
+      </c>
+      <c r="C74" s="3">
+        <v>2</v>
+      </c>
+      <c r="D74" s="3">
+        <v>4138</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1</v>
+      </c>
+      <c r="F74" s="3">
+        <v>3</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
     </row>
@@ -1819,12 +2745,24 @@
       <c r="A75" s="5">
         <v>73</v>
       </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
+      <c r="B75" s="5">
+        <v>415.14100000000002</v>
+      </c>
+      <c r="C75" s="5">
+        <v>2</v>
+      </c>
+      <c r="D75" s="5">
+        <v>4152</v>
+      </c>
+      <c r="E75" s="5">
+        <v>1</v>
+      </c>
+      <c r="F75" s="5">
+        <v>3</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
     </row>
@@ -1832,25 +2770,51 @@
       <c r="A76" s="3">
         <v>74</v>
       </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
+      <c r="B76" s="3">
+        <v>415.67</v>
+      </c>
+      <c r="C76" s="3">
+        <v>3</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3">
+        <v>3</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="I76" s="3"/>
     </row>
     <row r="77" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="5">
         <v>75</v>
       </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
+      <c r="B77" s="5">
+        <v>416.86099999999999</v>
+      </c>
+      <c r="C77" s="5">
+        <v>2</v>
+      </c>
+      <c r="D77" s="5">
+        <v>4170</v>
+      </c>
+      <c r="E77" s="5">
+        <v>1</v>
+      </c>
+      <c r="F77" s="5">
+        <v>3</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
     </row>
@@ -1858,12 +2822,24 @@
       <c r="A78" s="3">
         <v>76</v>
       </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
+      <c r="B78" s="3">
+        <v>418.721</v>
+      </c>
+      <c r="C78" s="3">
+        <v>2</v>
+      </c>
+      <c r="D78" s="3">
+        <v>4188</v>
+      </c>
+      <c r="E78" s="3">
+        <v>1</v>
+      </c>
+      <c r="F78" s="3">
+        <v>3</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
     </row>
@@ -1871,12 +2847,24 @@
       <c r="A79" s="5">
         <v>77</v>
       </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
+      <c r="B79" s="5">
+        <v>420.29300000000001</v>
+      </c>
+      <c r="C79" s="5">
+        <v>2</v>
+      </c>
+      <c r="D79" s="5">
+        <v>4204</v>
+      </c>
+      <c r="E79" s="5">
+        <v>1</v>
+      </c>
+      <c r="F79" s="5">
+        <v>4</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
     </row>
@@ -1884,12 +2872,24 @@
       <c r="A80" s="3">
         <v>78</v>
       </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
+      <c r="B80" s="3">
+        <v>421.85300000000001</v>
+      </c>
+      <c r="C80" s="3">
+        <v>2</v>
+      </c>
+      <c r="D80" s="3">
+        <v>4220</v>
+      </c>
+      <c r="E80" s="3">
+        <v>1</v>
+      </c>
+      <c r="F80" s="3">
+        <v>4</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
     </row>
@@ -1897,12 +2897,24 @@
       <c r="A81" s="5">
         <v>79</v>
       </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
+      <c r="B81" s="5">
+        <v>423.41300000000001</v>
+      </c>
+      <c r="C81" s="5">
+        <v>2</v>
+      </c>
+      <c r="D81" s="5">
+        <v>4234</v>
+      </c>
+      <c r="E81" s="5">
+        <v>1</v>
+      </c>
+      <c r="F81" s="5">
+        <v>4</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
     </row>
@@ -1910,12 +2922,24 @@
       <c r="A82" s="3">
         <v>80</v>
       </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
+      <c r="B82" s="3">
+        <v>424.97300000000001</v>
+      </c>
+      <c r="C82" s="3">
+        <v>2</v>
+      </c>
+      <c r="D82" s="3">
+        <v>4250</v>
+      </c>
+      <c r="E82" s="3">
+        <v>1</v>
+      </c>
+      <c r="F82" s="3">
+        <v>4</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
     </row>
@@ -1923,38 +2947,82 @@
       <c r="A83" s="5">
         <v>81</v>
       </c>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
+      <c r="B83" s="5">
+        <v>426.233</v>
+      </c>
+      <c r="C83" s="5">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E83" s="5">
+        <v>1</v>
+      </c>
+      <c r="F83" s="5">
+        <v>4</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="84" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
         <v>82</v>
       </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
+      <c r="B84" s="3">
+        <v>427.91800000000001</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E84" s="3">
+        <v>1</v>
+      </c>
+      <c r="F84" s="3">
+        <v>4</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="85" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="5">
         <v>83</v>
       </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
+      <c r="B85" s="5">
+        <v>429.06799999999998</v>
+      </c>
+      <c r="C85" s="5">
+        <v>2</v>
+      </c>
+      <c r="D85" s="5">
+        <v>4292</v>
+      </c>
+      <c r="E85" s="5">
+        <v>1</v>
+      </c>
+      <c r="F85" s="5">
+        <v>4</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
     </row>
@@ -1962,25 +3030,51 @@
       <c r="A86" s="3">
         <v>84</v>
       </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
+      <c r="B86" s="3">
+        <v>429.38600000000002</v>
+      </c>
+      <c r="C86" s="3">
+        <v>3</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E86" s="3">
+        <v>1</v>
+      </c>
+      <c r="F86" s="3">
+        <v>4</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="5">
         <v>85</v>
       </c>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
+      <c r="B87" s="5">
+        <v>432.60500000000002</v>
+      </c>
+      <c r="C87" s="5">
+        <v>2</v>
+      </c>
+      <c r="D87" s="5">
+        <v>4326</v>
+      </c>
+      <c r="E87" s="5">
+        <v>1</v>
+      </c>
+      <c r="F87" s="5">
+        <v>5</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
     </row>
@@ -1988,12 +3082,24 @@
       <c r="A88" s="3">
         <v>86</v>
       </c>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
+      <c r="B88" s="3">
+        <v>434.11500000000001</v>
+      </c>
+      <c r="C88" s="3">
+        <v>2</v>
+      </c>
+      <c r="D88" s="3">
+        <v>4342</v>
+      </c>
+      <c r="E88" s="3">
+        <v>1</v>
+      </c>
+      <c r="F88" s="3">
+        <v>5</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
     </row>
@@ -2001,12 +3107,24 @@
       <c r="A89" s="5">
         <v>87</v>
       </c>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
+      <c r="B89" s="5">
+        <v>435.625</v>
+      </c>
+      <c r="C89" s="5">
+        <v>2</v>
+      </c>
+      <c r="D89" s="5">
+        <v>4356</v>
+      </c>
+      <c r="E89" s="5">
+        <v>1</v>
+      </c>
+      <c r="F89" s="5">
+        <v>5</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
     </row>
@@ -2014,12 +3132,24 @@
       <c r="A90" s="3">
         <v>88</v>
       </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
+      <c r="B90" s="3">
+        <v>437.13499999999999</v>
+      </c>
+      <c r="C90" s="3">
+        <v>2</v>
+      </c>
+      <c r="D90" s="3">
+        <v>4372</v>
+      </c>
+      <c r="E90" s="3">
+        <v>1</v>
+      </c>
+      <c r="F90" s="3">
+        <v>5</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
     </row>
@@ -2027,12 +3157,24 @@
       <c r="A91" s="5">
         <v>89</v>
       </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
+      <c r="B91" s="5">
+        <v>438.64499999999998</v>
+      </c>
+      <c r="C91" s="5">
+        <v>2</v>
+      </c>
+      <c r="D91" s="5">
+        <v>4386</v>
+      </c>
+      <c r="E91" s="5">
+        <v>1</v>
+      </c>
+      <c r="F91" s="5">
+        <v>5</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
     </row>
@@ -2040,12 +3182,24 @@
       <c r="A92" s="3">
         <v>90</v>
       </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
+      <c r="B92" s="3">
+        <v>440.09500000000003</v>
+      </c>
+      <c r="C92" s="3">
+        <v>2</v>
+      </c>
+      <c r="D92" s="3">
+        <v>4402</v>
+      </c>
+      <c r="E92" s="3">
+        <v>1</v>
+      </c>
+      <c r="F92" s="3">
+        <v>5</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
     </row>
@@ -2053,12 +3207,24 @@
       <c r="A93" s="5">
         <v>91</v>
       </c>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
+      <c r="B93" s="5">
+        <v>441.54500000000002</v>
+      </c>
+      <c r="C93" s="5">
+        <v>2</v>
+      </c>
+      <c r="D93" s="5">
+        <v>4416</v>
+      </c>
+      <c r="E93" s="5">
+        <v>1</v>
+      </c>
+      <c r="F93" s="5">
+        <v>5</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
     </row>
@@ -2066,12 +3232,24 @@
       <c r="A94" s="3">
         <v>92</v>
       </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
+      <c r="B94" s="3">
+        <v>442.89499999999998</v>
+      </c>
+      <c r="C94" s="3">
+        <v>2</v>
+      </c>
+      <c r="D94" s="3">
+        <v>4430</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1</v>
+      </c>
+      <c r="F94" s="3">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
     </row>
@@ -2079,12 +3257,24 @@
       <c r="A95" s="5">
         <v>93</v>
       </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
+      <c r="B95" s="5">
+        <v>444.245</v>
+      </c>
+      <c r="C95" s="5">
+        <v>2</v>
+      </c>
+      <c r="D95" s="5">
+        <v>4442</v>
+      </c>
+      <c r="E95" s="5">
+        <v>1</v>
+      </c>
+      <c r="F95" s="5">
+        <v>5</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
     </row>
@@ -2092,12 +3282,24 @@
       <c r="A96" s="3">
         <v>94</v>
       </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
+      <c r="B96" s="3">
+        <v>445.79500000000002</v>
+      </c>
+      <c r="C96" s="3">
+        <v>2</v>
+      </c>
+      <c r="D96" s="3">
+        <v>4458</v>
+      </c>
+      <c r="E96" s="3">
+        <v>1</v>
+      </c>
+      <c r="F96" s="3">
+        <v>5</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
     </row>
@@ -2105,12 +3307,24 @@
       <c r="A97" s="5">
         <v>95</v>
       </c>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
+      <c r="B97" s="5">
+        <v>447.34500000000003</v>
+      </c>
+      <c r="C97" s="5">
+        <v>2</v>
+      </c>
+      <c r="D97" s="5">
+        <v>4474</v>
+      </c>
+      <c r="E97" s="5">
+        <v>1</v>
+      </c>
+      <c r="F97" s="5">
+        <v>5</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
     </row>
@@ -2118,25 +3332,51 @@
       <c r="A98" s="3">
         <v>96</v>
       </c>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
+      <c r="B98" s="3">
+        <v>447.68299999999999</v>
+      </c>
+      <c r="C98" s="3">
+        <v>3</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E98" s="3">
+        <v>1</v>
+      </c>
+      <c r="F98" s="3">
+        <v>5</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="5">
         <v>97</v>
       </c>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
+      <c r="B99" s="5">
+        <v>449.21499999999997</v>
+      </c>
+      <c r="C99" s="5">
+        <v>2</v>
+      </c>
+      <c r="D99" s="5">
+        <v>4492</v>
+      </c>
+      <c r="E99" s="5">
+        <v>1</v>
+      </c>
+      <c r="F99" s="5">
+        <v>5</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
     </row>
@@ -2144,12 +3384,24 @@
       <c r="A100" s="3">
         <v>98</v>
       </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
+      <c r="B100" s="3">
+        <v>450.72500000000002</v>
+      </c>
+      <c r="C100" s="3">
+        <v>2</v>
+      </c>
+      <c r="D100" s="3">
+        <v>4508</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1</v>
+      </c>
+      <c r="F100" s="3">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
     </row>
@@ -2157,12 +3409,24 @@
       <c r="A101" s="5">
         <v>99</v>
       </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
+      <c r="B101" s="5">
+        <v>452.23500000000001</v>
+      </c>
+      <c r="C101" s="5">
+        <v>2</v>
+      </c>
+      <c r="D101" s="5">
+        <v>4522</v>
+      </c>
+      <c r="E101" s="5">
+        <v>1</v>
+      </c>
+      <c r="F101" s="5">
+        <v>5</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
     </row>
@@ -2170,12 +3434,24 @@
       <c r="A102" s="3">
         <v>100</v>
       </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
+      <c r="B102" s="3">
+        <v>453.745</v>
+      </c>
+      <c r="C102" s="3">
+        <v>2</v>
+      </c>
+      <c r="D102" s="3">
+        <v>4538</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1</v>
+      </c>
+      <c r="F102" s="3">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
     </row>
@@ -2183,12 +3459,24 @@
       <c r="A103" s="5">
         <v>101</v>
       </c>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
+      <c r="B103" s="5">
+        <v>455.255</v>
+      </c>
+      <c r="C103" s="5">
+        <v>2</v>
+      </c>
+      <c r="D103" s="5">
+        <v>4554</v>
+      </c>
+      <c r="E103" s="5">
+        <v>1</v>
+      </c>
+      <c r="F103" s="5">
+        <v>5</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
     </row>
@@ -2196,12 +3484,24 @@
       <c r="A104" s="3">
         <v>102</v>
       </c>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
+      <c r="B104" s="3">
+        <v>456.76499999999999</v>
+      </c>
+      <c r="C104" s="3">
+        <v>2</v>
+      </c>
+      <c r="D104" s="3">
+        <v>4568</v>
+      </c>
+      <c r="E104" s="3">
+        <v>1</v>
+      </c>
+      <c r="F104" s="3">
+        <v>5</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
     </row>
@@ -2209,12 +3509,24 @@
       <c r="A105" s="5">
         <v>103</v>
       </c>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
+      <c r="B105" s="5">
+        <v>458.27499999999998</v>
+      </c>
+      <c r="C105" s="5">
+        <v>2</v>
+      </c>
+      <c r="D105" s="5">
+        <v>4584</v>
+      </c>
+      <c r="E105" s="5">
+        <v>1</v>
+      </c>
+      <c r="F105" s="5">
+        <v>5</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
     </row>
@@ -2222,12 +3534,24 @@
       <c r="A106" s="3">
         <v>104</v>
       </c>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
+      <c r="B106" s="3">
+        <v>459.78500000000003</v>
+      </c>
+      <c r="C106" s="3">
+        <v>2</v>
+      </c>
+      <c r="D106" s="3">
+        <v>4598</v>
+      </c>
+      <c r="E106" s="3">
+        <v>1</v>
+      </c>
+      <c r="F106" s="3">
+        <v>5</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
     </row>
@@ -2235,12 +3559,24 @@
       <c r="A107" s="5">
         <v>105</v>
       </c>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
+      <c r="B107" s="5">
+        <v>461.29500000000002</v>
+      </c>
+      <c r="C107" s="5">
+        <v>2</v>
+      </c>
+      <c r="D107" s="5">
+        <v>4614</v>
+      </c>
+      <c r="E107" s="5">
+        <v>1</v>
+      </c>
+      <c r="F107" s="5">
+        <v>5</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
     </row>
@@ -2248,12 +3584,24 @@
       <c r="A108" s="3">
         <v>106</v>
       </c>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
+      <c r="B108" s="3">
+        <v>462.80500000000001</v>
+      </c>
+      <c r="C108" s="3">
+        <v>2</v>
+      </c>
+      <c r="D108" s="3">
+        <v>4628</v>
+      </c>
+      <c r="E108" s="3">
+        <v>1</v>
+      </c>
+      <c r="F108" s="3">
+        <v>5</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
     </row>
@@ -2261,12 +3609,24 @@
       <c r="A109" s="5">
         <v>107</v>
       </c>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
+      <c r="B109" s="5">
+        <v>464.315</v>
+      </c>
+      <c r="C109" s="5">
+        <v>2</v>
+      </c>
+      <c r="D109" s="5">
+        <v>4644</v>
+      </c>
+      <c r="E109" s="5">
+        <v>1</v>
+      </c>
+      <c r="F109" s="5">
+        <v>5</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
     </row>
@@ -2274,12 +3634,24 @@
       <c r="A110" s="3">
         <v>108</v>
       </c>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
+      <c r="B110" s="3">
+        <v>465.82499999999999</v>
+      </c>
+      <c r="C110" s="3">
+        <v>2</v>
+      </c>
+      <c r="D110" s="3">
+        <v>4658</v>
+      </c>
+      <c r="E110" s="3">
+        <v>1</v>
+      </c>
+      <c r="F110" s="3">
+        <v>5</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
     </row>
@@ -2287,12 +3659,24 @@
       <c r="A111" s="5">
         <v>109</v>
       </c>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
+      <c r="B111" s="5">
+        <v>467.33499999999998</v>
+      </c>
+      <c r="C111" s="5">
+        <v>2</v>
+      </c>
+      <c r="D111" s="5">
+        <v>4674</v>
+      </c>
+      <c r="E111" s="5">
+        <v>1</v>
+      </c>
+      <c r="F111" s="5">
+        <v>5</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
     </row>
@@ -2300,12 +3684,24 @@
       <c r="A112" s="3">
         <v>110</v>
       </c>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
+      <c r="B112" s="3">
+        <v>468.84500000000003</v>
+      </c>
+      <c r="C112" s="3">
+        <v>2</v>
+      </c>
+      <c r="D112" s="3">
+        <v>4688</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1</v>
+      </c>
+      <c r="F112" s="3">
+        <v>5</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
     </row>
@@ -2313,12 +3709,24 @@
       <c r="A113" s="5">
         <v>111</v>
       </c>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
+      <c r="B113" s="5">
+        <v>470.35500000000002</v>
+      </c>
+      <c r="C113" s="5">
+        <v>2</v>
+      </c>
+      <c r="D113" s="5">
+        <v>4704</v>
+      </c>
+      <c r="E113" s="5">
+        <v>1</v>
+      </c>
+      <c r="F113" s="5">
+        <v>5</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
     </row>
@@ -2326,12 +3734,24 @@
       <c r="A114" s="3">
         <v>112</v>
       </c>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
+      <c r="B114" s="3">
+        <v>471.86500000000001</v>
+      </c>
+      <c r="C114" s="3">
+        <v>2</v>
+      </c>
+      <c r="D114" s="3">
+        <v>4720</v>
+      </c>
+      <c r="E114" s="3">
+        <v>1</v>
+      </c>
+      <c r="F114" s="3">
+        <v>5</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
     </row>
@@ -2339,38 +3759,82 @@
       <c r="A115" s="5">
         <v>113</v>
       </c>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
+      <c r="B115" s="5">
+        <v>473.37200000000001</v>
+      </c>
+      <c r="C115" s="5">
+        <v>1</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E115" s="5">
+        <v>1</v>
+      </c>
+      <c r="F115" s="5">
+        <v>5</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="116" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="3">
         <v>114</v>
       </c>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
+      <c r="B116" s="3">
+        <v>474.72</v>
+      </c>
+      <c r="C116" s="3">
+        <v>1</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E116" s="3">
+        <v>1</v>
+      </c>
+      <c r="F116" s="3">
+        <v>5</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="117" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="5">
         <v>115</v>
       </c>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
+      <c r="B117" s="5">
+        <v>476.12</v>
+      </c>
+      <c r="C117" s="5">
+        <v>2</v>
+      </c>
+      <c r="D117" s="5">
+        <v>4762</v>
+      </c>
+      <c r="E117" s="5">
+        <v>1</v>
+      </c>
+      <c r="F117" s="5">
+        <v>5</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
     </row>
@@ -2378,25 +3842,51 @@
       <c r="A118" s="3">
         <v>116</v>
       </c>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
+      <c r="B118" s="3">
+        <v>476.35700000000003</v>
+      </c>
+      <c r="C118" s="3">
+        <v>3</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E118" s="3">
+        <v>1</v>
+      </c>
+      <c r="F118" s="3">
+        <v>5</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="I118" s="3"/>
     </row>
     <row r="119" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="5">
         <v>117</v>
       </c>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
+      <c r="B119" s="5">
+        <v>478.05</v>
+      </c>
+      <c r="C119" s="5">
+        <v>2</v>
+      </c>
+      <c r="D119" s="5">
+        <v>4780</v>
+      </c>
+      <c r="E119" s="5">
+        <v>1</v>
+      </c>
+      <c r="F119" s="5">
+        <v>5</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
     </row>
@@ -2404,12 +3894,24 @@
       <c r="A120" s="3">
         <v>118</v>
       </c>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
+      <c r="B120" s="3">
+        <v>479.64</v>
+      </c>
+      <c r="C120" s="3">
+        <v>2</v>
+      </c>
+      <c r="D120" s="3">
+        <v>4796</v>
+      </c>
+      <c r="E120" s="3">
+        <v>1</v>
+      </c>
+      <c r="F120" s="3">
+        <v>5</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
     </row>
@@ -2417,12 +3919,24 @@
       <c r="A121" s="5">
         <v>119</v>
       </c>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
+      <c r="B121" s="5">
+        <v>481.33</v>
+      </c>
+      <c r="C121" s="5">
+        <v>2</v>
+      </c>
+      <c r="D121" s="5">
+        <v>4814</v>
+      </c>
+      <c r="E121" s="5">
+        <v>1</v>
+      </c>
+      <c r="F121" s="5">
+        <v>5</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
     </row>
@@ -2430,12 +3944,24 @@
       <c r="A122" s="3">
         <v>120</v>
       </c>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
+      <c r="B122" s="3">
+        <v>482.87</v>
+      </c>
+      <c r="C122" s="3">
+        <v>2</v>
+      </c>
+      <c r="D122" s="3">
+        <v>4830</v>
+      </c>
+      <c r="E122" s="3">
+        <v>1</v>
+      </c>
+      <c r="F122" s="3">
+        <v>5</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
     </row>
@@ -2443,12 +3969,24 @@
       <c r="A123" s="5">
         <v>121</v>
       </c>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
+      <c r="B123" s="5">
+        <v>484.41</v>
+      </c>
+      <c r="C123" s="5">
+        <v>2</v>
+      </c>
+      <c r="D123" s="5">
+        <v>4844</v>
+      </c>
+      <c r="E123" s="5">
+        <v>1</v>
+      </c>
+      <c r="F123" s="5">
+        <v>5</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
     </row>
@@ -2456,12 +3994,24 @@
       <c r="A124" s="3">
         <v>122</v>
       </c>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
+      <c r="B124" s="3">
+        <v>486</v>
+      </c>
+      <c r="C124" s="3">
+        <v>2</v>
+      </c>
+      <c r="D124" s="3">
+        <v>4860</v>
+      </c>
+      <c r="E124" s="3">
+        <v>1</v>
+      </c>
+      <c r="F124" s="3">
+        <v>5</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
     </row>
@@ -2469,12 +4019,24 @@
       <c r="A125" s="5">
         <v>123</v>
       </c>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
+      <c r="B125" s="5">
+        <v>487.59</v>
+      </c>
+      <c r="C125" s="5">
+        <v>2</v>
+      </c>
+      <c r="D125" s="5">
+        <v>4876</v>
+      </c>
+      <c r="E125" s="5">
+        <v>1</v>
+      </c>
+      <c r="F125" s="5">
+        <v>5</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
     </row>
@@ -2482,12 +4044,24 @@
       <c r="A126" s="3">
         <v>124</v>
       </c>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
+      <c r="B126" s="3">
+        <v>489.3</v>
+      </c>
+      <c r="C126" s="3">
+        <v>2</v>
+      </c>
+      <c r="D126" s="3">
+        <v>4894</v>
+      </c>
+      <c r="E126" s="3">
+        <v>1</v>
+      </c>
+      <c r="F126" s="3">
+        <v>5</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
     </row>
@@ -2495,12 +4069,24 @@
       <c r="A127" s="5">
         <v>125</v>
       </c>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
+      <c r="B127" s="5">
+        <v>491.01</v>
+      </c>
+      <c r="C127" s="5">
+        <v>2</v>
+      </c>
+      <c r="D127" s="5">
+        <v>4910</v>
+      </c>
+      <c r="E127" s="5">
+        <v>1</v>
+      </c>
+      <c r="F127" s="5">
+        <v>5</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
     </row>
@@ -2508,12 +4094,24 @@
       <c r="A128" s="3">
         <v>126</v>
       </c>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
+      <c r="B128" s="3">
+        <v>492.72</v>
+      </c>
+      <c r="C128" s="3">
+        <v>2</v>
+      </c>
+      <c r="D128" s="3">
+        <v>4928</v>
+      </c>
+      <c r="E128" s="3">
+        <v>1</v>
+      </c>
+      <c r="F128" s="3">
+        <v>5</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
     </row>
@@ -2521,12 +4119,24 @@
       <c r="A129" s="5">
         <v>127</v>
       </c>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
+      <c r="B129" s="5">
+        <v>494.43</v>
+      </c>
+      <c r="C129" s="5">
+        <v>2</v>
+      </c>
+      <c r="D129" s="5">
+        <v>4944</v>
+      </c>
+      <c r="E129" s="5">
+        <v>1</v>
+      </c>
+      <c r="F129" s="5">
+        <v>5</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
     </row>
@@ -2534,12 +4144,24 @@
       <c r="A130" s="3">
         <v>128</v>
       </c>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
+      <c r="B130" s="3">
+        <v>496.14</v>
+      </c>
+      <c r="C130" s="3">
+        <v>2</v>
+      </c>
+      <c r="D130" s="3">
+        <v>4962</v>
+      </c>
+      <c r="E130" s="3">
+        <v>1</v>
+      </c>
+      <c r="F130" s="3">
+        <v>5</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
     </row>
@@ -2547,12 +4169,24 @@
       <c r="A131" s="5">
         <v>129</v>
       </c>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
+      <c r="B131" s="5">
+        <v>497.44099999999997</v>
+      </c>
+      <c r="C131" s="5">
+        <v>2</v>
+      </c>
+      <c r="D131" s="5">
+        <v>4974</v>
+      </c>
+      <c r="E131" s="5">
+        <v>1</v>
+      </c>
+      <c r="F131" s="5">
+        <v>6</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
     </row>
@@ -2560,25 +4194,51 @@
       <c r="A132" s="3">
         <v>130</v>
       </c>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
+      <c r="B132" s="3">
+        <v>497.83100000000002</v>
+      </c>
+      <c r="C132" s="3">
+        <v>3</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E132" s="3">
+        <v>1</v>
+      </c>
+      <c r="F132" s="3">
+        <v>6</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="I132" s="3"/>
     </row>
     <row r="133" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="5">
         <v>131</v>
       </c>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
+      <c r="B133" s="5">
+        <v>499.20100000000002</v>
+      </c>
+      <c r="C133" s="5">
+        <v>2</v>
+      </c>
+      <c r="D133" s="5">
+        <v>4992</v>
+      </c>
+      <c r="E133" s="5">
+        <v>1</v>
+      </c>
+      <c r="F133" s="5">
+        <v>6</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
     </row>
@@ -2586,12 +4246,24 @@
       <c r="A134" s="3">
         <v>132</v>
       </c>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
+      <c r="B134" s="3">
+        <v>500.71100000000001</v>
+      </c>
+      <c r="C134" s="3">
+        <v>2</v>
+      </c>
+      <c r="D134" s="3">
+        <v>5008</v>
+      </c>
+      <c r="E134" s="3">
+        <v>1</v>
+      </c>
+      <c r="F134" s="3">
+        <v>6</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
     </row>
@@ -2599,12 +4271,24 @@
       <c r="A135" s="5">
         <v>133</v>
       </c>
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
+      <c r="B135" s="5">
+        <v>502.221</v>
+      </c>
+      <c r="C135" s="5">
+        <v>2</v>
+      </c>
+      <c r="D135" s="5">
+        <v>5022</v>
+      </c>
+      <c r="E135" s="5">
+        <v>1</v>
+      </c>
+      <c r="F135" s="5">
+        <v>6</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
     </row>
@@ -2612,12 +4296,24 @@
       <c r="A136" s="3">
         <v>134</v>
       </c>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
+      <c r="B136" s="3">
+        <v>503.73099999999999</v>
+      </c>
+      <c r="C136" s="3">
+        <v>2</v>
+      </c>
+      <c r="D136" s="3">
+        <v>5038</v>
+      </c>
+      <c r="E136" s="3">
+        <v>1</v>
+      </c>
+      <c r="F136" s="3">
+        <v>6</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
     </row>
@@ -2625,12 +4321,24 @@
       <c r="A137" s="5">
         <v>135</v>
       </c>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
+      <c r="B137" s="5">
+        <v>505.24099999999999</v>
+      </c>
+      <c r="C137" s="5">
+        <v>2</v>
+      </c>
+      <c r="D137" s="5">
+        <v>5052</v>
+      </c>
+      <c r="E137" s="5">
+        <v>1</v>
+      </c>
+      <c r="F137" s="5">
+        <v>6</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
     </row>
@@ -2638,12 +4346,24 @@
       <c r="A138" s="3">
         <v>136</v>
       </c>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
+      <c r="B138" s="3">
+        <v>506.75099999999998</v>
+      </c>
+      <c r="C138" s="3">
+        <v>2</v>
+      </c>
+      <c r="D138" s="3">
+        <v>5068</v>
+      </c>
+      <c r="E138" s="3">
+        <v>1</v>
+      </c>
+      <c r="F138" s="3">
+        <v>6</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
     </row>
@@ -2651,12 +4371,24 @@
       <c r="A139" s="5">
         <v>137</v>
       </c>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
+      <c r="B139" s="5">
+        <v>508.161</v>
+      </c>
+      <c r="C139" s="5">
+        <v>2</v>
+      </c>
+      <c r="D139" s="5">
+        <v>5082</v>
+      </c>
+      <c r="E139" s="5">
+        <v>1</v>
+      </c>
+      <c r="F139" s="5">
+        <v>6</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
     </row>
@@ -2664,12 +4396,24 @@
       <c r="A140" s="3">
         <v>138</v>
       </c>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
+      <c r="B140" s="3">
+        <v>509.71100000000001</v>
+      </c>
+      <c r="C140" s="3">
+        <v>2</v>
+      </c>
+      <c r="D140" s="3">
+        <v>5098</v>
+      </c>
+      <c r="E140" s="3">
+        <v>1</v>
+      </c>
+      <c r="F140" s="3">
+        <v>6</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
     </row>
@@ -2677,12 +4421,24 @@
       <c r="A141" s="5">
         <v>139</v>
       </c>
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
+      <c r="B141" s="5">
+        <v>511.14100000000002</v>
+      </c>
+      <c r="C141" s="5">
+        <v>2</v>
+      </c>
+      <c r="D141" s="5">
+        <v>5112</v>
+      </c>
+      <c r="E141" s="5">
+        <v>1</v>
+      </c>
+      <c r="F141" s="5">
+        <v>6</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
     </row>
@@ -2690,12 +4446,24 @@
       <c r="A142" s="3">
         <v>140</v>
       </c>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
-      <c r="G142" s="3"/>
+      <c r="B142" s="3">
+        <v>513.12099999999998</v>
+      </c>
+      <c r="C142" s="3">
+        <v>2</v>
+      </c>
+      <c r="D142" s="3">
+        <v>5132</v>
+      </c>
+      <c r="E142" s="3">
+        <v>1</v>
+      </c>
+      <c r="F142" s="3">
+        <v>6</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
     </row>
@@ -2703,12 +4471,24 @@
       <c r="A143" s="5">
         <v>141</v>
       </c>
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
+      <c r="B143" s="5">
+        <v>514.78099999999995</v>
+      </c>
+      <c r="C143" s="5">
+        <v>2</v>
+      </c>
+      <c r="D143" s="5">
+        <v>5148</v>
+      </c>
+      <c r="E143" s="5">
+        <v>1</v>
+      </c>
+      <c r="F143" s="5">
+        <v>6</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
     </row>
@@ -2716,12 +4496,24 @@
       <c r="A144" s="3">
         <v>142</v>
       </c>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
+      <c r="B144" s="3">
+        <v>516.44100000000003</v>
+      </c>
+      <c r="C144" s="3">
+        <v>2</v>
+      </c>
+      <c r="D144" s="3">
+        <v>5164</v>
+      </c>
+      <c r="E144" s="3">
+        <v>1</v>
+      </c>
+      <c r="F144" s="3">
+        <v>6</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
     </row>
@@ -2729,12 +4521,24 @@
       <c r="A145" s="5">
         <v>143</v>
       </c>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
+      <c r="B145" s="5">
+        <v>517.80100000000004</v>
+      </c>
+      <c r="C145" s="5">
+        <v>2</v>
+      </c>
+      <c r="D145" s="5">
+        <v>5178</v>
+      </c>
+      <c r="E145" s="5">
+        <v>1</v>
+      </c>
+      <c r="F145" s="5">
+        <v>6</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
     </row>
@@ -2742,38 +4546,82 @@
       <c r="A146" s="3">
         <v>144</v>
       </c>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
-      <c r="I146" s="3"/>
+      <c r="B146" s="3">
+        <v>519.39300000000003</v>
+      </c>
+      <c r="C146" s="3">
+        <v>1</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E146" s="3">
+        <v>1</v>
+      </c>
+      <c r="F146" s="3">
+        <v>6</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="147" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="5">
         <v>145</v>
       </c>
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
+      <c r="B147" s="5">
+        <v>521.40200000000004</v>
+      </c>
+      <c r="C147" s="5">
+        <v>1</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E147" s="5">
+        <v>1</v>
+      </c>
+      <c r="F147" s="5">
+        <v>6</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I147" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="148" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="3">
         <v>146</v>
       </c>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
+      <c r="B148" s="3">
+        <v>522.93200000000002</v>
+      </c>
+      <c r="C148" s="3">
+        <v>2</v>
+      </c>
+      <c r="D148" s="3">
+        <v>5230</v>
+      </c>
+      <c r="E148" s="3">
+        <v>1</v>
+      </c>
+      <c r="F148" s="3">
+        <v>6</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
     </row>
@@ -2781,12 +4629,24 @@
       <c r="A149" s="5">
         <v>147</v>
       </c>
-      <c r="B149" s="5"/>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5"/>
-      <c r="G149" s="5"/>
+      <c r="B149" s="5">
+        <v>524.46199999999999</v>
+      </c>
+      <c r="C149" s="5">
+        <v>2</v>
+      </c>
+      <c r="D149" s="5">
+        <v>5246</v>
+      </c>
+      <c r="E149" s="5">
+        <v>1</v>
+      </c>
+      <c r="F149" s="5">
+        <v>6</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
     </row>
@@ -2794,12 +4654,24 @@
       <c r="A150" s="3">
         <v>148</v>
       </c>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
+      <c r="B150" s="3">
+        <v>525.99199999999996</v>
+      </c>
+      <c r="C150" s="3">
+        <v>2</v>
+      </c>
+      <c r="D150" s="3">
+        <v>5260</v>
+      </c>
+      <c r="E150" s="3">
+        <v>1</v>
+      </c>
+      <c r="F150" s="3">
+        <v>6</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
     </row>
@@ -2807,12 +4679,24 @@
       <c r="A151" s="5">
         <v>149</v>
       </c>
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
+      <c r="B151" s="5">
+        <v>527.52200000000005</v>
+      </c>
+      <c r="C151" s="5">
+        <v>2</v>
+      </c>
+      <c r="D151" s="5">
+        <v>5276</v>
+      </c>
+      <c r="E151" s="5">
+        <v>1</v>
+      </c>
+      <c r="F151" s="5">
+        <v>6</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
     </row>
@@ -2820,12 +4704,24 @@
       <c r="A152" s="3">
         <v>150</v>
       </c>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
+      <c r="B152" s="3">
+        <v>529.05200000000002</v>
+      </c>
+      <c r="C152" s="3">
+        <v>2</v>
+      </c>
+      <c r="D152" s="3">
+        <v>5292</v>
+      </c>
+      <c r="E152" s="3">
+        <v>1</v>
+      </c>
+      <c r="F152" s="3">
+        <v>6</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
     </row>
@@ -2833,12 +4729,24 @@
       <c r="A153" s="5">
         <v>151</v>
       </c>
-      <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
+      <c r="B153" s="5">
+        <v>530.58199999999999</v>
+      </c>
+      <c r="C153" s="5">
+        <v>2</v>
+      </c>
+      <c r="D153" s="5">
+        <v>5306</v>
+      </c>
+      <c r="E153" s="5">
+        <v>1</v>
+      </c>
+      <c r="F153" s="5">
+        <v>6</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
     </row>
@@ -2846,12 +4754,24 @@
       <c r="A154" s="3">
         <v>152</v>
       </c>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
+      <c r="B154" s="3">
+        <v>532.11199999999997</v>
+      </c>
+      <c r="C154" s="3">
+        <v>2</v>
+      </c>
+      <c r="D154" s="3">
+        <v>5322</v>
+      </c>
+      <c r="E154" s="3">
+        <v>1</v>
+      </c>
+      <c r="F154" s="3">
+        <v>6</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
     </row>
@@ -2859,12 +4779,24 @@
       <c r="A155" s="5">
         <v>153</v>
       </c>
-      <c r="B155" s="5"/>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
+      <c r="B155" s="5">
+        <v>533.64200000000005</v>
+      </c>
+      <c r="C155" s="5">
+        <v>2</v>
+      </c>
+      <c r="D155" s="5">
+        <v>5336</v>
+      </c>
+      <c r="E155" s="5">
+        <v>1</v>
+      </c>
+      <c r="F155" s="5">
+        <v>6</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
     </row>
@@ -2872,12 +4804,24 @@
       <c r="A156" s="3">
         <v>154</v>
       </c>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="3"/>
-      <c r="G156" s="3"/>
+      <c r="B156" s="3">
+        <v>535.17200000000003</v>
+      </c>
+      <c r="C156" s="3">
+        <v>2</v>
+      </c>
+      <c r="D156" s="3">
+        <v>5352</v>
+      </c>
+      <c r="E156" s="3">
+        <v>1</v>
+      </c>
+      <c r="F156" s="3">
+        <v>6</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
     </row>
@@ -2885,12 +4829,24 @@
       <c r="A157" s="5">
         <v>155</v>
       </c>
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="5"/>
+      <c r="B157" s="5">
+        <v>536.702</v>
+      </c>
+      <c r="C157" s="5">
+        <v>2</v>
+      </c>
+      <c r="D157" s="5">
+        <v>5368</v>
+      </c>
+      <c r="E157" s="5">
+        <v>1</v>
+      </c>
+      <c r="F157" s="5">
+        <v>6</v>
+      </c>
+      <c r="G157" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
     </row>
@@ -2898,12 +4854,24 @@
       <c r="A158" s="3">
         <v>156</v>
       </c>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
-      <c r="G158" s="3"/>
+      <c r="B158" s="3">
+        <v>538.23199999999997</v>
+      </c>
+      <c r="C158" s="3">
+        <v>2</v>
+      </c>
+      <c r="D158" s="3">
+        <v>5382</v>
+      </c>
+      <c r="E158" s="3">
+        <v>1</v>
+      </c>
+      <c r="F158" s="3">
+        <v>6</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
     </row>
@@ -2911,12 +4879,24 @@
       <c r="A159" s="5">
         <v>157</v>
       </c>
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="5"/>
+      <c r="B159" s="5">
+        <v>539.76199999999994</v>
+      </c>
+      <c r="C159" s="5">
+        <v>2</v>
+      </c>
+      <c r="D159" s="5">
+        <v>5398</v>
+      </c>
+      <c r="E159" s="5">
+        <v>1</v>
+      </c>
+      <c r="F159" s="5">
+        <v>6</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
     </row>
@@ -2924,12 +4904,24 @@
       <c r="A160" s="3">
         <v>158</v>
       </c>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
+      <c r="B160" s="3">
+        <v>541.29200000000003</v>
+      </c>
+      <c r="C160" s="3">
+        <v>2</v>
+      </c>
+      <c r="D160" s="3">
+        <v>5414</v>
+      </c>
+      <c r="E160" s="3">
+        <v>1</v>
+      </c>
+      <c r="F160" s="3">
+        <v>6</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
     </row>
@@ -2937,12 +4929,24 @@
       <c r="A161" s="5">
         <v>159</v>
       </c>
-      <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="5"/>
+      <c r="B161" s="5">
+        <v>542.822</v>
+      </c>
+      <c r="C161" s="5">
+        <v>2</v>
+      </c>
+      <c r="D161" s="5">
+        <v>5428</v>
+      </c>
+      <c r="E161" s="5">
+        <v>1</v>
+      </c>
+      <c r="F161" s="5">
+        <v>6</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
     </row>
@@ -2950,12 +4954,24 @@
       <c r="A162" s="3">
         <v>160</v>
       </c>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3"/>
+      <c r="B162" s="3">
+        <v>544.35199999999998</v>
+      </c>
+      <c r="C162" s="3">
+        <v>2</v>
+      </c>
+      <c r="D162" s="3">
+        <v>5444</v>
+      </c>
+      <c r="E162" s="3">
+        <v>1</v>
+      </c>
+      <c r="F162" s="3">
+        <v>6</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
     </row>
@@ -2963,12 +4979,24 @@
       <c r="A163" s="5">
         <v>161</v>
       </c>
-      <c r="B163" s="5"/>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
-      <c r="G163" s="5"/>
+      <c r="B163" s="5">
+        <v>545.96199999999999</v>
+      </c>
+      <c r="C163" s="5">
+        <v>2</v>
+      </c>
+      <c r="D163" s="5">
+        <v>5460</v>
+      </c>
+      <c r="E163" s="5">
+        <v>1</v>
+      </c>
+      <c r="F163" s="5">
+        <v>6</v>
+      </c>
+      <c r="G163" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
     </row>
@@ -2976,12 +5004,24 @@
       <c r="A164" s="3">
         <v>162</v>
       </c>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
+      <c r="B164" s="3">
+        <v>547.49199999999996</v>
+      </c>
+      <c r="C164" s="3">
+        <v>2</v>
+      </c>
+      <c r="D164" s="3">
+        <v>5476</v>
+      </c>
+      <c r="E164" s="3">
+        <v>1</v>
+      </c>
+      <c r="F164" s="3">
+        <v>6</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
     </row>
@@ -2989,12 +5029,24 @@
       <c r="A165" s="5">
         <v>163</v>
       </c>
-      <c r="B165" s="5"/>
-      <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="5"/>
+      <c r="B165" s="5">
+        <v>549.02300000000002</v>
+      </c>
+      <c r="C165" s="5">
+        <v>2</v>
+      </c>
+      <c r="D165" s="5">
+        <v>5490</v>
+      </c>
+      <c r="E165" s="5">
+        <v>1</v>
+      </c>
+      <c r="F165" s="5">
+        <v>6</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
     </row>
@@ -3002,12 +5054,24 @@
       <c r="A166" s="3">
         <v>164</v>
       </c>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
+      <c r="B166" s="3">
+        <v>550.55399999999997</v>
+      </c>
+      <c r="C166" s="3">
+        <v>2</v>
+      </c>
+      <c r="D166" s="3">
+        <v>5506</v>
+      </c>
+      <c r="E166" s="3">
+        <v>1</v>
+      </c>
+      <c r="F166" s="3">
+        <v>6</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
     </row>
@@ -3015,12 +5079,24 @@
       <c r="A167" s="5">
         <v>165</v>
       </c>
-      <c r="B167" s="5"/>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
-      <c r="F167" s="5"/>
-      <c r="G167" s="5"/>
+      <c r="B167" s="5">
+        <v>552.57399999999996</v>
+      </c>
+      <c r="C167" s="5">
+        <v>2</v>
+      </c>
+      <c r="D167" s="5">
+        <v>5526</v>
+      </c>
+      <c r="E167" s="5">
+        <v>1</v>
+      </c>
+      <c r="F167" s="5">
+        <v>6</v>
+      </c>
+      <c r="G167" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
     </row>
@@ -3028,12 +5104,24 @@
       <c r="A168" s="3">
         <v>166</v>
       </c>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
+      <c r="B168" s="3">
+        <v>554.23400000000004</v>
+      </c>
+      <c r="C168" s="3">
+        <v>2</v>
+      </c>
+      <c r="D168" s="3">
+        <v>5542</v>
+      </c>
+      <c r="E168" s="3">
+        <v>1</v>
+      </c>
+      <c r="F168" s="3">
+        <v>6</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
     </row>
@@ -3041,12 +5129,24 @@
       <c r="A169" s="5">
         <v>167</v>
       </c>
-      <c r="B169" s="5"/>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
-      <c r="G169" s="5"/>
+      <c r="B169" s="5">
+        <v>555.89400000000001</v>
+      </c>
+      <c r="C169" s="5">
+        <v>2</v>
+      </c>
+      <c r="D169" s="5">
+        <v>5560</v>
+      </c>
+      <c r="E169" s="5">
+        <v>1</v>
+      </c>
+      <c r="F169" s="5">
+        <v>6</v>
+      </c>
+      <c r="G169" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
     </row>
@@ -3054,12 +5154,24 @@
       <c r="A170" s="3">
         <v>168</v>
       </c>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
+      <c r="B170" s="3">
+        <v>557.55399999999997</v>
+      </c>
+      <c r="C170" s="3">
+        <v>2</v>
+      </c>
+      <c r="D170" s="3">
+        <v>5576</v>
+      </c>
+      <c r="E170" s="3">
+        <v>1</v>
+      </c>
+      <c r="F170" s="3">
+        <v>6</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
     </row>
@@ -3067,12 +5179,24 @@
       <c r="A171" s="5">
         <v>169</v>
       </c>
-      <c r="B171" s="5"/>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
-      <c r="G171" s="5"/>
+      <c r="B171" s="5">
+        <v>559.21400000000006</v>
+      </c>
+      <c r="C171" s="5">
+        <v>2</v>
+      </c>
+      <c r="D171" s="5">
+        <v>5592</v>
+      </c>
+      <c r="E171" s="5">
+        <v>1</v>
+      </c>
+      <c r="F171" s="5">
+        <v>6</v>
+      </c>
+      <c r="G171" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
     </row>
@@ -3080,12 +5204,24 @@
       <c r="A172" s="3">
         <v>170</v>
       </c>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
+      <c r="B172" s="3">
+        <v>560.87400000000002</v>
+      </c>
+      <c r="C172" s="3">
+        <v>2</v>
+      </c>
+      <c r="D172" s="3">
+        <v>5610</v>
+      </c>
+      <c r="E172" s="3">
+        <v>1</v>
+      </c>
+      <c r="F172" s="3">
+        <v>6</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
     </row>
@@ -3093,12 +5229,24 @@
       <c r="A173" s="5">
         <v>171</v>
       </c>
-      <c r="B173" s="5"/>
-      <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
-      <c r="G173" s="5"/>
+      <c r="B173" s="5">
+        <v>562.53399999999999</v>
+      </c>
+      <c r="C173" s="5">
+        <v>2</v>
+      </c>
+      <c r="D173" s="5">
+        <v>5626</v>
+      </c>
+      <c r="E173" s="5">
+        <v>1</v>
+      </c>
+      <c r="F173" s="5">
+        <v>6</v>
+      </c>
+      <c r="G173" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H173" s="5"/>
       <c r="I173" s="5"/>
     </row>
@@ -3106,12 +5254,24 @@
       <c r="A174" s="3">
         <v>172</v>
       </c>
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3"/>
-      <c r="G174" s="3"/>
+      <c r="B174" s="3">
+        <v>564.19399999999996</v>
+      </c>
+      <c r="C174" s="3">
+        <v>2</v>
+      </c>
+      <c r="D174" s="3">
+        <v>5642</v>
+      </c>
+      <c r="E174" s="3">
+        <v>1</v>
+      </c>
+      <c r="F174" s="3">
+        <v>6</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
     </row>
@@ -3119,12 +5279,24 @@
       <c r="A175" s="5">
         <v>173</v>
       </c>
-      <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
-      <c r="G175" s="5"/>
+      <c r="B175" s="5">
+        <v>565.85400000000004</v>
+      </c>
+      <c r="C175" s="5">
+        <v>2</v>
+      </c>
+      <c r="D175" s="5">
+        <v>5660</v>
+      </c>
+      <c r="E175" s="5">
+        <v>1</v>
+      </c>
+      <c r="F175" s="5">
+        <v>6</v>
+      </c>
+      <c r="G175" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
     </row>
@@ -3132,12 +5304,24 @@
       <c r="A176" s="3">
         <v>174</v>
       </c>
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
+      <c r="B176" s="3">
+        <v>567.51400000000001</v>
+      </c>
+      <c r="C176" s="3">
+        <v>2</v>
+      </c>
+      <c r="D176" s="3">
+        <v>5676</v>
+      </c>
+      <c r="E176" s="3">
+        <v>1</v>
+      </c>
+      <c r="F176" s="3">
+        <v>6</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
     </row>
@@ -3145,38 +5329,82 @@
       <c r="A177" s="5">
         <v>175</v>
       </c>
-      <c r="B177" s="5"/>
-      <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
-      <c r="F177" s="5"/>
-      <c r="G177" s="5"/>
-      <c r="H177" s="5"/>
-      <c r="I177" s="5"/>
+      <c r="B177" s="5">
+        <v>568.87400000000002</v>
+      </c>
+      <c r="C177" s="5">
+        <v>1</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E177" s="5">
+        <v>1</v>
+      </c>
+      <c r="F177" s="5">
+        <v>6</v>
+      </c>
+      <c r="G177" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H177" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I177" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="178" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="3">
         <v>176</v>
       </c>
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
-      <c r="H178" s="3"/>
-      <c r="I178" s="3"/>
+      <c r="B178" s="3">
+        <v>570.33600000000001</v>
+      </c>
+      <c r="C178" s="3">
+        <v>1</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E178" s="3">
+        <v>1</v>
+      </c>
+      <c r="F178" s="3">
+        <v>6</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="179" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="5">
         <v>177</v>
       </c>
-      <c r="B179" s="5"/>
-      <c r="C179" s="5"/>
-      <c r="D179" s="5"/>
-      <c r="E179" s="5"/>
-      <c r="F179" s="5"/>
-      <c r="G179" s="5"/>
+      <c r="B179" s="5">
+        <v>571.93600000000004</v>
+      </c>
+      <c r="C179" s="5">
+        <v>2</v>
+      </c>
+      <c r="D179" s="5">
+        <v>5720</v>
+      </c>
+      <c r="E179" s="5">
+        <v>1</v>
+      </c>
+      <c r="F179" s="5">
+        <v>6</v>
+      </c>
+      <c r="G179" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
     </row>
@@ -3184,12 +5412,24 @@
       <c r="A180" s="3">
         <v>178</v>
       </c>
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
+      <c r="B180" s="3">
+        <v>573.53599999999994</v>
+      </c>
+      <c r="C180" s="3">
+        <v>2</v>
+      </c>
+      <c r="D180" s="3">
+        <v>5736</v>
+      </c>
+      <c r="E180" s="3">
+        <v>1</v>
+      </c>
+      <c r="F180" s="3">
+        <v>6</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
     </row>
@@ -3197,12 +5437,24 @@
       <c r="A181" s="5">
         <v>179</v>
       </c>
-      <c r="B181" s="5"/>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="5"/>
-      <c r="G181" s="5"/>
+      <c r="B181" s="5">
+        <v>575.13599999999997</v>
+      </c>
+      <c r="C181" s="5">
+        <v>2</v>
+      </c>
+      <c r="D181" s="5">
+        <v>5752</v>
+      </c>
+      <c r="E181" s="5">
+        <v>1</v>
+      </c>
+      <c r="F181" s="5">
+        <v>6</v>
+      </c>
+      <c r="G181" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H181" s="5"/>
       <c r="I181" s="5"/>
     </row>
@@ -3210,12 +5462,24 @@
       <c r="A182" s="3">
         <v>180</v>
       </c>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3"/>
+      <c r="B182" s="3">
+        <v>576.73599999999999</v>
+      </c>
+      <c r="C182" s="3">
+        <v>2</v>
+      </c>
+      <c r="D182" s="3">
+        <v>5768</v>
+      </c>
+      <c r="E182" s="3">
+        <v>1</v>
+      </c>
+      <c r="F182" s="3">
+        <v>6</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
     </row>
@@ -3223,12 +5487,24 @@
       <c r="A183" s="5">
         <v>181</v>
       </c>
-      <c r="B183" s="5"/>
-      <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
-      <c r="F183" s="5"/>
-      <c r="G183" s="5"/>
+      <c r="B183" s="5">
+        <v>578.33600000000001</v>
+      </c>
+      <c r="C183" s="5">
+        <v>2</v>
+      </c>
+      <c r="D183" s="5">
+        <v>5784</v>
+      </c>
+      <c r="E183" s="5">
+        <v>1</v>
+      </c>
+      <c r="F183" s="5">
+        <v>6</v>
+      </c>
+      <c r="G183" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
     </row>
@@ -3236,12 +5512,24 @@
       <c r="A184" s="3">
         <v>182</v>
       </c>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3"/>
-      <c r="G184" s="3"/>
+      <c r="B184" s="3">
+        <v>580.01599999999996</v>
+      </c>
+      <c r="C184" s="3">
+        <v>2</v>
+      </c>
+      <c r="D184" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E184" s="3">
+        <v>1</v>
+      </c>
+      <c r="F184" s="3">
+        <v>6</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
     </row>
@@ -3249,12 +5537,24 @@
       <c r="A185" s="5">
         <v>183</v>
       </c>
-      <c r="B185" s="5"/>
-      <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
-      <c r="E185" s="5"/>
-      <c r="F185" s="5"/>
-      <c r="G185" s="5"/>
+      <c r="B185" s="5">
+        <v>582.06600000000003</v>
+      </c>
+      <c r="C185" s="5">
+        <v>2</v>
+      </c>
+      <c r="D185" s="5">
+        <v>5820</v>
+      </c>
+      <c r="E185" s="5">
+        <v>1</v>
+      </c>
+      <c r="F185" s="5">
+        <v>6</v>
+      </c>
+      <c r="G185" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H185" s="5"/>
       <c r="I185" s="5"/>
     </row>
@@ -3262,12 +5562,24 @@
       <c r="A186" s="3">
         <v>184</v>
       </c>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
+      <c r="B186" s="3">
+        <v>583.83600000000001</v>
+      </c>
+      <c r="C186" s="3">
+        <v>2</v>
+      </c>
+      <c r="D186" s="3">
+        <v>5838</v>
+      </c>
+      <c r="E186" s="3">
+        <v>1</v>
+      </c>
+      <c r="F186" s="3">
+        <v>6</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
     </row>
@@ -3275,12 +5587,24 @@
       <c r="A187" s="5">
         <v>185</v>
       </c>
-      <c r="B187" s="5"/>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
-      <c r="E187" s="5"/>
-      <c r="F187" s="5"/>
-      <c r="G187" s="5"/>
+      <c r="B187" s="5">
+        <v>585.60599999999999</v>
+      </c>
+      <c r="C187" s="5">
+        <v>2</v>
+      </c>
+      <c r="D187" s="5">
+        <v>5856</v>
+      </c>
+      <c r="E187" s="5">
+        <v>1</v>
+      </c>
+      <c r="F187" s="5">
+        <v>6</v>
+      </c>
+      <c r="G187" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
     </row>
@@ -3288,12 +5612,24 @@
       <c r="A188" s="3">
         <v>186</v>
       </c>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
+      <c r="B188" s="3">
+        <v>587.37599999999998</v>
+      </c>
+      <c r="C188" s="3">
+        <v>2</v>
+      </c>
+      <c r="D188" s="3">
+        <v>5874</v>
+      </c>
+      <c r="E188" s="3">
+        <v>1</v>
+      </c>
+      <c r="F188" s="3">
+        <v>6</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
     </row>
@@ -3301,12 +5637,24 @@
       <c r="A189" s="5">
         <v>187</v>
       </c>
-      <c r="B189" s="5"/>
-      <c r="C189" s="5"/>
-      <c r="D189" s="5"/>
-      <c r="E189" s="5"/>
-      <c r="F189" s="5"/>
-      <c r="G189" s="5"/>
+      <c r="B189" s="5">
+        <v>589.14599999999996</v>
+      </c>
+      <c r="C189" s="5">
+        <v>2</v>
+      </c>
+      <c r="D189" s="5">
+        <v>5892</v>
+      </c>
+      <c r="E189" s="5">
+        <v>1</v>
+      </c>
+      <c r="F189" s="5">
+        <v>6</v>
+      </c>
+      <c r="G189" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H189" s="5"/>
       <c r="I189" s="5"/>
     </row>
@@ -3314,12 +5662,24 @@
       <c r="A190" s="3">
         <v>188</v>
       </c>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
+      <c r="B190" s="3">
+        <v>590.91600000000005</v>
+      </c>
+      <c r="C190" s="3">
+        <v>2</v>
+      </c>
+      <c r="D190" s="3">
+        <v>5910</v>
+      </c>
+      <c r="E190" s="3">
+        <v>1</v>
+      </c>
+      <c r="F190" s="3">
+        <v>6</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
     </row>
@@ -3327,12 +5687,24 @@
       <c r="A191" s="5">
         <v>189</v>
       </c>
-      <c r="B191" s="5"/>
-      <c r="C191" s="5"/>
-      <c r="D191" s="5"/>
-      <c r="E191" s="5"/>
-      <c r="F191" s="5"/>
-      <c r="G191" s="5"/>
+      <c r="B191" s="5">
+        <v>592.68600000000004</v>
+      </c>
+      <c r="C191" s="5">
+        <v>2</v>
+      </c>
+      <c r="D191" s="5">
+        <v>5926</v>
+      </c>
+      <c r="E191" s="5">
+        <v>1</v>
+      </c>
+      <c r="F191" s="5">
+        <v>6</v>
+      </c>
+      <c r="G191" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
     </row>
@@ -3340,12 +5712,24 @@
       <c r="A192" s="3">
         <v>190</v>
       </c>
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
+      <c r="B192" s="3">
+        <v>594.45600000000002</v>
+      </c>
+      <c r="C192" s="3">
+        <v>2</v>
+      </c>
+      <c r="D192" s="3">
+        <v>5944</v>
+      </c>
+      <c r="E192" s="3">
+        <v>1</v>
+      </c>
+      <c r="F192" s="3">
+        <v>6</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
     </row>
@@ -3353,12 +5737,24 @@
       <c r="A193" s="5">
         <v>191</v>
       </c>
-      <c r="B193" s="5"/>
-      <c r="C193" s="5"/>
-      <c r="D193" s="5"/>
-      <c r="E193" s="5"/>
-      <c r="F193" s="5"/>
-      <c r="G193" s="5"/>
+      <c r="B193" s="5">
+        <v>596.226</v>
+      </c>
+      <c r="C193" s="5">
+        <v>2</v>
+      </c>
+      <c r="D193" s="5">
+        <v>5962</v>
+      </c>
+      <c r="E193" s="5">
+        <v>1</v>
+      </c>
+      <c r="F193" s="5">
+        <v>6</v>
+      </c>
+      <c r="G193" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
     </row>
@@ -3366,12 +5762,24 @@
       <c r="A194" s="3">
         <v>192</v>
       </c>
-      <c r="B194" s="3"/>
-      <c r="C194" s="3"/>
-      <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
+      <c r="B194" s="3">
+        <v>597.99599999999998</v>
+      </c>
+      <c r="C194" s="3">
+        <v>2</v>
+      </c>
+      <c r="D194" s="3">
+        <v>5980</v>
+      </c>
+      <c r="E194" s="3">
+        <v>1</v>
+      </c>
+      <c r="F194" s="3">
+        <v>6</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
     </row>
@@ -3379,12 +5787,24 @@
       <c r="A195" s="5">
         <v>193</v>
       </c>
-      <c r="B195" s="5"/>
-      <c r="C195" s="5"/>
-      <c r="D195" s="5"/>
-      <c r="E195" s="5"/>
-      <c r="F195" s="5"/>
-      <c r="G195" s="5"/>
+      <c r="B195" s="5">
+        <v>599.76599999999996</v>
+      </c>
+      <c r="C195" s="5">
+        <v>2</v>
+      </c>
+      <c r="D195" s="5">
+        <v>5998</v>
+      </c>
+      <c r="E195" s="5">
+        <v>1</v>
+      </c>
+      <c r="F195" s="5">
+        <v>6</v>
+      </c>
+      <c r="G195" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
     </row>
@@ -3392,12 +5812,24 @@
       <c r="A196" s="3">
         <v>194</v>
       </c>
-      <c r="B196" s="3"/>
-      <c r="C196" s="3"/>
-      <c r="D196" s="3"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
+      <c r="B196" s="3">
+        <v>601.33600000000001</v>
+      </c>
+      <c r="C196" s="3">
+        <v>2</v>
+      </c>
+      <c r="D196" s="3">
+        <v>6014</v>
+      </c>
+      <c r="E196" s="3">
+        <v>1</v>
+      </c>
+      <c r="F196" s="3">
+        <v>6</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
     </row>
@@ -3405,12 +5837,24 @@
       <c r="A197" s="5">
         <v>195</v>
       </c>
-      <c r="B197" s="5"/>
-      <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
-      <c r="E197" s="5"/>
-      <c r="F197" s="5"/>
-      <c r="G197" s="5"/>
+      <c r="B197" s="5">
+        <v>602.625</v>
+      </c>
+      <c r="C197" s="5">
+        <v>2</v>
+      </c>
+      <c r="D197" s="5">
+        <v>6026</v>
+      </c>
+      <c r="E197" s="5">
+        <v>1</v>
+      </c>
+      <c r="F197" s="5">
+        <v>7</v>
+      </c>
+      <c r="G197" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
     </row>
@@ -3418,12 +5862,24 @@
       <c r="A198" s="3">
         <v>196</v>
       </c>
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
-      <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
+      <c r="B198" s="3">
+        <v>604.13499999999999</v>
+      </c>
+      <c r="C198" s="3">
+        <v>2</v>
+      </c>
+      <c r="D198" s="3">
+        <v>6042</v>
+      </c>
+      <c r="E198" s="3">
+        <v>1</v>
+      </c>
+      <c r="F198" s="3">
+        <v>7</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
     </row>
@@ -3431,12 +5887,24 @@
       <c r="A199" s="5">
         <v>197</v>
       </c>
-      <c r="B199" s="5"/>
-      <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
-      <c r="F199" s="5"/>
-      <c r="G199" s="5"/>
+      <c r="B199" s="5">
+        <v>605.64499999999998</v>
+      </c>
+      <c r="C199" s="5">
+        <v>2</v>
+      </c>
+      <c r="D199" s="5">
+        <v>6056</v>
+      </c>
+      <c r="E199" s="5">
+        <v>1</v>
+      </c>
+      <c r="F199" s="5">
+        <v>7</v>
+      </c>
+      <c r="G199" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
     </row>
@@ -3444,12 +5912,24 @@
       <c r="A200" s="3">
         <v>198</v>
       </c>
-      <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
+      <c r="B200" s="3">
+        <v>607.15499999999997</v>
+      </c>
+      <c r="C200" s="3">
+        <v>2</v>
+      </c>
+      <c r="D200" s="3">
+        <v>6072</v>
+      </c>
+      <c r="E200" s="3">
+        <v>1</v>
+      </c>
+      <c r="F200" s="3">
+        <v>7</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
     </row>
@@ -3457,12 +5937,24 @@
       <c r="A201" s="5">
         <v>199</v>
       </c>
-      <c r="B201" s="5"/>
-      <c r="C201" s="5"/>
-      <c r="D201" s="5"/>
-      <c r="E201" s="5"/>
-      <c r="F201" s="5"/>
-      <c r="G201" s="5"/>
+      <c r="B201" s="5">
+        <v>608.66499999999996</v>
+      </c>
+      <c r="C201" s="5">
+        <v>2</v>
+      </c>
+      <c r="D201" s="5">
+        <v>6086</v>
+      </c>
+      <c r="E201" s="5">
+        <v>1</v>
+      </c>
+      <c r="F201" s="5">
+        <v>7</v>
+      </c>
+      <c r="G201" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
     </row>
@@ -3470,12 +5962,24 @@
       <c r="A202" s="3">
         <v>200</v>
       </c>
-      <c r="B202" s="3"/>
-      <c r="C202" s="3"/>
-      <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
-      <c r="F202" s="3"/>
-      <c r="G202" s="3"/>
+      <c r="B202" s="3">
+        <v>610.17499999999995</v>
+      </c>
+      <c r="C202" s="3">
+        <v>2</v>
+      </c>
+      <c r="D202" s="3">
+        <v>6102</v>
+      </c>
+      <c r="E202" s="3">
+        <v>1</v>
+      </c>
+      <c r="F202" s="3">
+        <v>7</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
     </row>
@@ -3483,12 +5987,24 @@
       <c r="A203" s="5">
         <v>201</v>
       </c>
-      <c r="B203" s="5"/>
-      <c r="C203" s="5"/>
-      <c r="D203" s="5"/>
-      <c r="E203" s="5"/>
-      <c r="F203" s="5"/>
-      <c r="G203" s="5"/>
+      <c r="B203" s="5">
+        <v>611.68499999999995</v>
+      </c>
+      <c r="C203" s="5">
+        <v>2</v>
+      </c>
+      <c r="D203" s="5">
+        <v>6116</v>
+      </c>
+      <c r="E203" s="5">
+        <v>1</v>
+      </c>
+      <c r="F203" s="5">
+        <v>7</v>
+      </c>
+      <c r="G203" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
     </row>
@@ -3496,12 +6012,24 @@
       <c r="A204" s="3">
         <v>202</v>
       </c>
-      <c r="B204" s="3"/>
-      <c r="C204" s="3"/>
-      <c r="D204" s="3"/>
-      <c r="E204" s="3"/>
-      <c r="F204" s="3"/>
-      <c r="G204" s="3"/>
+      <c r="B204" s="3">
+        <v>613.19500000000005</v>
+      </c>
+      <c r="C204" s="3">
+        <v>2</v>
+      </c>
+      <c r="D204" s="3">
+        <v>6132</v>
+      </c>
+      <c r="E204" s="3">
+        <v>1</v>
+      </c>
+      <c r="F204" s="3">
+        <v>7</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
     </row>
@@ -3509,12 +6037,24 @@
       <c r="A205" s="5">
         <v>203</v>
       </c>
-      <c r="B205" s="5"/>
-      <c r="C205" s="5"/>
-      <c r="D205" s="5"/>
-      <c r="E205" s="5"/>
-      <c r="F205" s="5"/>
-      <c r="G205" s="5"/>
+      <c r="B205" s="5">
+        <v>615.255</v>
+      </c>
+      <c r="C205" s="5">
+        <v>2</v>
+      </c>
+      <c r="D205" s="5">
+        <v>6152</v>
+      </c>
+      <c r="E205" s="5">
+        <v>1</v>
+      </c>
+      <c r="F205" s="5">
+        <v>7</v>
+      </c>
+      <c r="G205" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H205" s="5"/>
       <c r="I205" s="5"/>
     </row>
@@ -3522,12 +6062,24 @@
       <c r="A206" s="3">
         <v>204</v>
       </c>
-      <c r="B206" s="3"/>
-      <c r="C206" s="3"/>
-      <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
+      <c r="B206" s="3">
+        <v>616.91499999999996</v>
+      </c>
+      <c r="C206" s="3">
+        <v>2</v>
+      </c>
+      <c r="D206" s="3">
+        <v>6170</v>
+      </c>
+      <c r="E206" s="3">
+        <v>1</v>
+      </c>
+      <c r="F206" s="3">
+        <v>7</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
     </row>
@@ -3535,12 +6087,24 @@
       <c r="A207" s="5">
         <v>205</v>
       </c>
-      <c r="B207" s="5"/>
-      <c r="C207" s="5"/>
-      <c r="D207" s="5"/>
-      <c r="E207" s="5"/>
-      <c r="F207" s="5"/>
-      <c r="G207" s="5"/>
+      <c r="B207" s="5">
+        <v>618.57399999999996</v>
+      </c>
+      <c r="C207" s="5">
+        <v>2</v>
+      </c>
+      <c r="D207" s="5">
+        <v>6186</v>
+      </c>
+      <c r="E207" s="5">
+        <v>1</v>
+      </c>
+      <c r="F207" s="5">
+        <v>7</v>
+      </c>
+      <c r="G207" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H207" s="5"/>
       <c r="I207" s="5"/>
     </row>
@@ -3548,38 +6112,82 @@
       <c r="A208" s="3">
         <v>206</v>
       </c>
-      <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
-      <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
-      <c r="F208" s="3"/>
-      <c r="G208" s="3"/>
-      <c r="H208" s="3"/>
-      <c r="I208" s="3"/>
+      <c r="B208" s="3">
+        <v>619.83500000000004</v>
+      </c>
+      <c r="C208" s="3">
+        <v>1</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E208" s="3">
+        <v>1</v>
+      </c>
+      <c r="F208" s="3">
+        <v>7</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I208" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="209" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="5">
         <v>207</v>
       </c>
-      <c r="B209" s="5"/>
-      <c r="C209" s="5"/>
-      <c r="D209" s="5"/>
-      <c r="E209" s="5"/>
-      <c r="F209" s="5"/>
-      <c r="G209" s="5"/>
-      <c r="H209" s="5"/>
-      <c r="I209" s="5"/>
+      <c r="B209" s="5">
+        <v>621.55499999999995</v>
+      </c>
+      <c r="C209" s="5">
+        <v>1</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E209" s="5">
+        <v>1</v>
+      </c>
+      <c r="F209" s="5">
+        <v>7</v>
+      </c>
+      <c r="G209" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H209" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I209" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="210" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="3">
         <v>208</v>
       </c>
-      <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="3"/>
-      <c r="G210" s="3"/>
+      <c r="B210" s="3">
+        <v>622.65499999999997</v>
+      </c>
+      <c r="C210" s="3">
+        <v>2</v>
+      </c>
+      <c r="D210" s="3">
+        <v>6226</v>
+      </c>
+      <c r="E210" s="3">
+        <v>1</v>
+      </c>
+      <c r="F210" s="3">
+        <v>7</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
     </row>
@@ -3587,12 +6195,24 @@
       <c r="A211" s="5">
         <v>209</v>
       </c>
-      <c r="B211" s="5"/>
-      <c r="C211" s="5"/>
-      <c r="D211" s="5"/>
-      <c r="E211" s="5"/>
-      <c r="F211" s="5"/>
-      <c r="G211" s="5"/>
+      <c r="B211" s="5">
+        <v>624.71500000000003</v>
+      </c>
+      <c r="C211" s="5">
+        <v>2</v>
+      </c>
+      <c r="D211" s="5">
+        <v>6248</v>
+      </c>
+      <c r="E211" s="5">
+        <v>1</v>
+      </c>
+      <c r="F211" s="5">
+        <v>7</v>
+      </c>
+      <c r="G211" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H211" s="5"/>
       <c r="I211" s="5"/>
     </row>
@@ -3600,12 +6220,24 @@
       <c r="A212" s="3">
         <v>210</v>
       </c>
-      <c r="B212" s="3"/>
-      <c r="C212" s="3"/>
-      <c r="D212" s="3"/>
-      <c r="E212" s="3"/>
-      <c r="F212" s="3"/>
-      <c r="G212" s="3"/>
+      <c r="B212" s="3">
+        <v>626.28499999999997</v>
+      </c>
+      <c r="C212" s="3">
+        <v>2</v>
+      </c>
+      <c r="D212" s="3">
+        <v>6262</v>
+      </c>
+      <c r="E212" s="3">
+        <v>1</v>
+      </c>
+      <c r="F212" s="3">
+        <v>7</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
     </row>
@@ -3613,12 +6245,24 @@
       <c r="A213" s="5">
         <v>211</v>
       </c>
-      <c r="B213" s="5"/>
-      <c r="C213" s="5"/>
-      <c r="D213" s="5"/>
-      <c r="E213" s="5"/>
-      <c r="F213" s="5"/>
-      <c r="G213" s="5"/>
+      <c r="B213" s="5">
+        <v>627.85500000000002</v>
+      </c>
+      <c r="C213" s="5">
+        <v>2</v>
+      </c>
+      <c r="D213" s="5">
+        <v>6278</v>
+      </c>
+      <c r="E213" s="5">
+        <v>1</v>
+      </c>
+      <c r="F213" s="5">
+        <v>7</v>
+      </c>
+      <c r="G213" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H213" s="5"/>
       <c r="I213" s="5"/>
     </row>
@@ -3626,12 +6270,24 @@
       <c r="A214" s="3">
         <v>212</v>
       </c>
-      <c r="B214" s="3"/>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="3"/>
-      <c r="G214" s="3"/>
+      <c r="B214" s="3">
+        <v>629.42499999999995</v>
+      </c>
+      <c r="C214" s="3">
+        <v>2</v>
+      </c>
+      <c r="D214" s="3">
+        <v>6294</v>
+      </c>
+      <c r="E214" s="3">
+        <v>1</v>
+      </c>
+      <c r="F214" s="3">
+        <v>7</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
     </row>
@@ -3639,38 +6295,82 @@
       <c r="A215" s="5">
         <v>213</v>
       </c>
-      <c r="B215" s="5"/>
-      <c r="C215" s="5"/>
-      <c r="D215" s="5"/>
-      <c r="E215" s="5"/>
-      <c r="F215" s="5"/>
-      <c r="G215" s="5"/>
-      <c r="H215" s="5"/>
-      <c r="I215" s="5"/>
+      <c r="B215" s="5">
+        <v>631.70299999999997</v>
+      </c>
+      <c r="C215" s="5">
+        <v>1</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E215" s="5">
+        <v>1</v>
+      </c>
+      <c r="F215" s="5">
+        <v>8</v>
+      </c>
+      <c r="G215" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H215" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I215" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="216" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="3">
         <v>214</v>
       </c>
-      <c r="B216" s="3"/>
-      <c r="C216" s="3"/>
-      <c r="D216" s="3"/>
-      <c r="E216" s="3"/>
-      <c r="F216" s="3"/>
-      <c r="G216" s="3"/>
-      <c r="H216" s="3"/>
-      <c r="I216" s="3"/>
+      <c r="B216" s="3">
+        <v>633.69000000000005</v>
+      </c>
+      <c r="C216" s="3">
+        <v>1</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E216" s="3">
+        <v>1</v>
+      </c>
+      <c r="F216" s="3">
+        <v>8</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="217" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="5">
         <v>215</v>
       </c>
-      <c r="B217" s="5"/>
-      <c r="C217" s="5"/>
-      <c r="D217" s="5"/>
-      <c r="E217" s="5"/>
-      <c r="F217" s="5"/>
-      <c r="G217" s="5"/>
+      <c r="B217" s="5">
+        <v>635.29</v>
+      </c>
+      <c r="C217" s="5">
+        <v>2</v>
+      </c>
+      <c r="D217" s="5">
+        <v>6352</v>
+      </c>
+      <c r="E217" s="5">
+        <v>1</v>
+      </c>
+      <c r="F217" s="5">
+        <v>8</v>
+      </c>
+      <c r="G217" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H217" s="5"/>
       <c r="I217" s="5"/>
     </row>
@@ -3678,12 +6378,24 @@
       <c r="A218" s="3">
         <v>216</v>
       </c>
-      <c r="B218" s="3"/>
-      <c r="C218" s="3"/>
-      <c r="D218" s="3"/>
-      <c r="E218" s="3"/>
-      <c r="F218" s="3"/>
-      <c r="G218" s="3"/>
+      <c r="B218" s="3">
+        <v>636.74</v>
+      </c>
+      <c r="C218" s="3">
+        <v>2</v>
+      </c>
+      <c r="D218" s="3">
+        <v>6368</v>
+      </c>
+      <c r="E218" s="3">
+        <v>1</v>
+      </c>
+      <c r="F218" s="3">
+        <v>8</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
     </row>
@@ -3691,12 +6403,24 @@
       <c r="A219" s="5">
         <v>217</v>
       </c>
-      <c r="B219" s="5"/>
-      <c r="C219" s="5"/>
-      <c r="D219" s="5"/>
-      <c r="E219" s="5"/>
-      <c r="F219" s="5"/>
-      <c r="G219" s="5"/>
+      <c r="B219" s="5">
+        <v>638.19000000000005</v>
+      </c>
+      <c r="C219" s="5">
+        <v>2</v>
+      </c>
+      <c r="D219" s="5">
+        <v>6382</v>
+      </c>
+      <c r="E219" s="5">
+        <v>1</v>
+      </c>
+      <c r="F219" s="5">
+        <v>8</v>
+      </c>
+      <c r="G219" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H219" s="5"/>
       <c r="I219" s="5"/>
     </row>
@@ -3704,12 +6428,24 @@
       <c r="A220" s="3">
         <v>218</v>
       </c>
-      <c r="B220" s="3"/>
-      <c r="C220" s="3"/>
-      <c r="D220" s="3"/>
-      <c r="E220" s="3"/>
-      <c r="F220" s="3"/>
-      <c r="G220" s="3"/>
+      <c r="B220" s="3">
+        <v>639.69000000000005</v>
+      </c>
+      <c r="C220" s="3">
+        <v>2</v>
+      </c>
+      <c r="D220" s="3">
+        <v>6396</v>
+      </c>
+      <c r="E220" s="3">
+        <v>1</v>
+      </c>
+      <c r="F220" s="3">
+        <v>8</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
     </row>
@@ -3717,12 +6453,24 @@
       <c r="A221" s="5">
         <v>219</v>
       </c>
-      <c r="B221" s="5"/>
-      <c r="C221" s="5"/>
-      <c r="D221" s="5"/>
-      <c r="E221" s="5"/>
-      <c r="F221" s="5"/>
-      <c r="G221" s="5"/>
+      <c r="B221" s="5">
+        <v>641.19000000000005</v>
+      </c>
+      <c r="C221" s="5">
+        <v>2</v>
+      </c>
+      <c r="D221" s="5">
+        <v>6412</v>
+      </c>
+      <c r="E221" s="5">
+        <v>1</v>
+      </c>
+      <c r="F221" s="5">
+        <v>8</v>
+      </c>
+      <c r="G221" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H221" s="5"/>
       <c r="I221" s="5"/>
     </row>
@@ -3730,12 +6478,24 @@
       <c r="A222" s="3">
         <v>220</v>
       </c>
-      <c r="B222" s="3"/>
-      <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
-      <c r="G222" s="3"/>
+      <c r="B222" s="3">
+        <v>642.69000000000005</v>
+      </c>
+      <c r="C222" s="3">
+        <v>2</v>
+      </c>
+      <c r="D222" s="3">
+        <v>6426</v>
+      </c>
+      <c r="E222" s="3">
+        <v>1</v>
+      </c>
+      <c r="F222" s="3">
+        <v>8</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
     </row>
@@ -3743,12 +6503,24 @@
       <c r="A223" s="5">
         <v>221</v>
       </c>
-      <c r="B223" s="5"/>
-      <c r="C223" s="5"/>
-      <c r="D223" s="5"/>
-      <c r="E223" s="5"/>
-      <c r="F223" s="5"/>
-      <c r="G223" s="5"/>
+      <c r="B223" s="5">
+        <v>644.19000000000005</v>
+      </c>
+      <c r="C223" s="5">
+        <v>2</v>
+      </c>
+      <c r="D223" s="5">
+        <v>6442</v>
+      </c>
+      <c r="E223" s="5">
+        <v>1</v>
+      </c>
+      <c r="F223" s="5">
+        <v>8</v>
+      </c>
+      <c r="G223" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H223" s="5"/>
       <c r="I223" s="5"/>
     </row>
@@ -3756,12 +6528,24 @@
       <c r="A224" s="3">
         <v>222</v>
       </c>
-      <c r="B224" s="3"/>
-      <c r="C224" s="3"/>
-      <c r="D224" s="3"/>
-      <c r="E224" s="3"/>
-      <c r="F224" s="3"/>
-      <c r="G224" s="3"/>
+      <c r="B224" s="3">
+        <v>645.69000000000005</v>
+      </c>
+      <c r="C224" s="3">
+        <v>2</v>
+      </c>
+      <c r="D224" s="3">
+        <v>6456</v>
+      </c>
+      <c r="E224" s="3">
+        <v>1</v>
+      </c>
+      <c r="F224" s="3">
+        <v>8</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
     </row>
@@ -3769,12 +6553,24 @@
       <c r="A225" s="5">
         <v>223</v>
       </c>
-      <c r="B225" s="5"/>
-      <c r="C225" s="5"/>
-      <c r="D225" s="5"/>
-      <c r="E225" s="5"/>
-      <c r="F225" s="5"/>
-      <c r="G225" s="5"/>
+      <c r="B225" s="5">
+        <v>647.09</v>
+      </c>
+      <c r="C225" s="5">
+        <v>2</v>
+      </c>
+      <c r="D225" s="5">
+        <v>6470</v>
+      </c>
+      <c r="E225" s="5">
+        <v>1</v>
+      </c>
+      <c r="F225" s="5">
+        <v>8</v>
+      </c>
+      <c r="G225" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H225" s="5"/>
       <c r="I225" s="5"/>
     </row>
@@ -3782,12 +6578,24 @@
       <c r="A226" s="3">
         <v>224</v>
       </c>
-      <c r="B226" s="3"/>
-      <c r="C226" s="3"/>
-      <c r="D226" s="3"/>
-      <c r="E226" s="3"/>
-      <c r="F226" s="3"/>
-      <c r="G226" s="3"/>
+      <c r="B226" s="3">
+        <v>648.49</v>
+      </c>
+      <c r="C226" s="3">
+        <v>2</v>
+      </c>
+      <c r="D226" s="3">
+        <v>6484</v>
+      </c>
+      <c r="E226" s="3">
+        <v>1</v>
+      </c>
+      <c r="F226" s="3">
+        <v>8</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
     </row>
@@ -3795,12 +6603,24 @@
       <c r="A227" s="5">
         <v>225</v>
       </c>
-      <c r="B227" s="5"/>
-      <c r="C227" s="5"/>
-      <c r="D227" s="5"/>
-      <c r="E227" s="5"/>
-      <c r="F227" s="5"/>
-      <c r="G227" s="5"/>
+      <c r="B227" s="5">
+        <v>649.89</v>
+      </c>
+      <c r="C227" s="5">
+        <v>2</v>
+      </c>
+      <c r="D227" s="5">
+        <v>6498</v>
+      </c>
+      <c r="E227" s="5">
+        <v>1</v>
+      </c>
+      <c r="F227" s="5">
+        <v>8</v>
+      </c>
+      <c r="G227" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H227" s="5"/>
       <c r="I227" s="5"/>
     </row>
@@ -3808,12 +6628,24 @@
       <c r="A228" s="3">
         <v>226</v>
       </c>
-      <c r="B228" s="3"/>
-      <c r="C228" s="3"/>
-      <c r="D228" s="3"/>
-      <c r="E228" s="3"/>
-      <c r="F228" s="3"/>
-      <c r="G228" s="3"/>
+      <c r="B228" s="3">
+        <v>651.69000000000005</v>
+      </c>
+      <c r="C228" s="3">
+        <v>2</v>
+      </c>
+      <c r="D228" s="3">
+        <v>6516</v>
+      </c>
+      <c r="E228" s="3">
+        <v>1</v>
+      </c>
+      <c r="F228" s="3">
+        <v>8</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
     </row>
@@ -3821,12 +6653,24 @@
       <c r="A229" s="5">
         <v>227</v>
       </c>
-      <c r="B229" s="5"/>
-      <c r="C229" s="5"/>
-      <c r="D229" s="5"/>
-      <c r="E229" s="5"/>
-      <c r="F229" s="5"/>
-      <c r="G229" s="5"/>
+      <c r="B229" s="5">
+        <v>653.19000000000005</v>
+      </c>
+      <c r="C229" s="5">
+        <v>2</v>
+      </c>
+      <c r="D229" s="5">
+        <v>6532</v>
+      </c>
+      <c r="E229" s="5">
+        <v>1</v>
+      </c>
+      <c r="F229" s="5">
+        <v>8</v>
+      </c>
+      <c r="G229" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H229" s="5"/>
       <c r="I229" s="5"/>
     </row>
@@ -3834,12 +6678,24 @@
       <c r="A230" s="3">
         <v>228</v>
       </c>
-      <c r="B230" s="3"/>
-      <c r="C230" s="3"/>
-      <c r="D230" s="3"/>
-      <c r="E230" s="3"/>
-      <c r="F230" s="3"/>
-      <c r="G230" s="3"/>
+      <c r="B230" s="3">
+        <v>654.69000000000005</v>
+      </c>
+      <c r="C230" s="3">
+        <v>2</v>
+      </c>
+      <c r="D230" s="3">
+        <v>6546</v>
+      </c>
+      <c r="E230" s="3">
+        <v>1</v>
+      </c>
+      <c r="F230" s="3">
+        <v>8</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
     </row>
@@ -3847,12 +6703,24 @@
       <c r="A231" s="5">
         <v>229</v>
       </c>
-      <c r="B231" s="5"/>
-      <c r="C231" s="5"/>
-      <c r="D231" s="5"/>
-      <c r="E231" s="5"/>
-      <c r="F231" s="5"/>
-      <c r="G231" s="5"/>
+      <c r="B231" s="5">
+        <v>656.19</v>
+      </c>
+      <c r="C231" s="5">
+        <v>2</v>
+      </c>
+      <c r="D231" s="5">
+        <v>6562</v>
+      </c>
+      <c r="E231" s="5">
+        <v>1</v>
+      </c>
+      <c r="F231" s="5">
+        <v>8</v>
+      </c>
+      <c r="G231" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H231" s="5"/>
       <c r="I231" s="5"/>
     </row>
@@ -3860,12 +6728,24 @@
       <c r="A232" s="3">
         <v>230</v>
       </c>
-      <c r="B232" s="3"/>
-      <c r="C232" s="3"/>
-      <c r="D232" s="3"/>
-      <c r="E232" s="3"/>
-      <c r="F232" s="3"/>
-      <c r="G232" s="3"/>
+      <c r="B232" s="3">
+        <v>657.69</v>
+      </c>
+      <c r="C232" s="3">
+        <v>2</v>
+      </c>
+      <c r="D232" s="3">
+        <v>6576</v>
+      </c>
+      <c r="E232" s="3">
+        <v>1</v>
+      </c>
+      <c r="F232" s="3">
+        <v>8</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
     </row>
@@ -3873,12 +6753,24 @@
       <c r="A233" s="5">
         <v>231</v>
       </c>
-      <c r="B233" s="5"/>
-      <c r="C233" s="5"/>
-      <c r="D233" s="5"/>
-      <c r="E233" s="5"/>
-      <c r="F233" s="5"/>
-      <c r="G233" s="5"/>
+      <c r="B233" s="5">
+        <v>659.19</v>
+      </c>
+      <c r="C233" s="5">
+        <v>2</v>
+      </c>
+      <c r="D233" s="5">
+        <v>6592</v>
+      </c>
+      <c r="E233" s="5">
+        <v>1</v>
+      </c>
+      <c r="F233" s="5">
+        <v>8</v>
+      </c>
+      <c r="G233" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H233" s="5"/>
       <c r="I233" s="5"/>
     </row>
@@ -3886,12 +6778,24 @@
       <c r="A234" s="3">
         <v>232</v>
       </c>
-      <c r="B234" s="3"/>
-      <c r="C234" s="3"/>
-      <c r="D234" s="3"/>
-      <c r="E234" s="3"/>
-      <c r="F234" s="3"/>
-      <c r="G234" s="3"/>
+      <c r="B234" s="3">
+        <v>660.69</v>
+      </c>
+      <c r="C234" s="3">
+        <v>2</v>
+      </c>
+      <c r="D234" s="3">
+        <v>6606</v>
+      </c>
+      <c r="E234" s="3">
+        <v>1</v>
+      </c>
+      <c r="F234" s="3">
+        <v>8</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
     </row>
@@ -3899,12 +6803,24 @@
       <c r="A235" s="5">
         <v>233</v>
       </c>
-      <c r="B235" s="5"/>
-      <c r="C235" s="5"/>
-      <c r="D235" s="5"/>
-      <c r="E235" s="5"/>
-      <c r="F235" s="5"/>
-      <c r="G235" s="5"/>
+      <c r="B235" s="5">
+        <v>662.45</v>
+      </c>
+      <c r="C235" s="5">
+        <v>2</v>
+      </c>
+      <c r="D235" s="5">
+        <v>6624</v>
+      </c>
+      <c r="E235" s="5">
+        <v>1</v>
+      </c>
+      <c r="F235" s="5">
+        <v>8</v>
+      </c>
+      <c r="G235" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H235" s="5"/>
       <c r="I235" s="5"/>
     </row>
@@ -3912,12 +6828,24 @@
       <c r="A236" s="3">
         <v>234</v>
       </c>
-      <c r="B236" s="3"/>
-      <c r="C236" s="3"/>
-      <c r="D236" s="3"/>
-      <c r="E236" s="3"/>
-      <c r="F236" s="3"/>
-      <c r="G236" s="3"/>
+      <c r="B236" s="3">
+        <v>664.2</v>
+      </c>
+      <c r="C236" s="3">
+        <v>2</v>
+      </c>
+      <c r="D236" s="3">
+        <v>6642</v>
+      </c>
+      <c r="E236" s="3">
+        <v>1</v>
+      </c>
+      <c r="F236" s="3">
+        <v>8</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
     </row>
@@ -3925,12 +6853,24 @@
       <c r="A237" s="5">
         <v>235</v>
       </c>
-      <c r="B237" s="5"/>
-      <c r="C237" s="5"/>
-      <c r="D237" s="5"/>
-      <c r="E237" s="5"/>
-      <c r="F237" s="5"/>
-      <c r="G237" s="5"/>
+      <c r="B237" s="5">
+        <v>665.95</v>
+      </c>
+      <c r="C237" s="5">
+        <v>2</v>
+      </c>
+      <c r="D237" s="5">
+        <v>6660</v>
+      </c>
+      <c r="E237" s="5">
+        <v>1</v>
+      </c>
+      <c r="F237" s="5">
+        <v>8</v>
+      </c>
+      <c r="G237" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H237" s="5"/>
       <c r="I237" s="5"/>
     </row>
@@ -3938,12 +6878,24 @@
       <c r="A238" s="3">
         <v>236</v>
       </c>
-      <c r="B238" s="3"/>
-      <c r="C238" s="3"/>
-      <c r="D238" s="3"/>
-      <c r="E238" s="3"/>
-      <c r="F238" s="3"/>
-      <c r="G238" s="3"/>
+      <c r="B238" s="3">
+        <v>667.7</v>
+      </c>
+      <c r="C238" s="3">
+        <v>2</v>
+      </c>
+      <c r="D238" s="3">
+        <v>6677</v>
+      </c>
+      <c r="E238" s="3">
+        <v>1</v>
+      </c>
+      <c r="F238" s="3">
+        <v>8</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
     </row>
@@ -3951,12 +6903,24 @@
       <c r="A239" s="5">
         <v>237</v>
       </c>
-      <c r="B239" s="5"/>
-      <c r="C239" s="5"/>
-      <c r="D239" s="5"/>
-      <c r="E239" s="5"/>
-      <c r="F239" s="5"/>
-      <c r="G239" s="5"/>
+      <c r="B239" s="5">
+        <v>669.45</v>
+      </c>
+      <c r="C239" s="5">
+        <v>2</v>
+      </c>
+      <c r="D239" s="5">
+        <v>6694</v>
+      </c>
+      <c r="E239" s="5">
+        <v>1</v>
+      </c>
+      <c r="F239" s="5">
+        <v>8</v>
+      </c>
+      <c r="G239" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H239" s="5"/>
       <c r="I239" s="5"/>
     </row>
@@ -3964,12 +6928,24 @@
       <c r="A240" s="3">
         <v>238</v>
       </c>
-      <c r="B240" s="3"/>
-      <c r="C240" s="3"/>
-      <c r="D240" s="3"/>
-      <c r="E240" s="3"/>
-      <c r="F240" s="3"/>
-      <c r="G240" s="3"/>
+      <c r="B240" s="3">
+        <v>671.2</v>
+      </c>
+      <c r="C240" s="3">
+        <v>2</v>
+      </c>
+      <c r="D240" s="3">
+        <v>6712</v>
+      </c>
+      <c r="E240" s="3">
+        <v>1</v>
+      </c>
+      <c r="F240" s="3">
+        <v>8</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
     </row>
@@ -3977,12 +6953,24 @@
       <c r="A241" s="5">
         <v>239</v>
       </c>
-      <c r="B241" s="5"/>
-      <c r="C241" s="5"/>
-      <c r="D241" s="5"/>
-      <c r="E241" s="5"/>
-      <c r="F241" s="5"/>
-      <c r="G241" s="5"/>
+      <c r="B241" s="5">
+        <v>672.95</v>
+      </c>
+      <c r="C241" s="5">
+        <v>2</v>
+      </c>
+      <c r="D241" s="5">
+        <v>6730</v>
+      </c>
+      <c r="E241" s="5">
+        <v>1</v>
+      </c>
+      <c r="F241" s="5">
+        <v>8</v>
+      </c>
+      <c r="G241" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H241" s="5"/>
       <c r="I241" s="5"/>
     </row>
@@ -3990,38 +6978,82 @@
       <c r="A242" s="3">
         <v>240</v>
       </c>
-      <c r="B242" s="3"/>
-      <c r="C242" s="3"/>
-      <c r="D242" s="3"/>
-      <c r="E242" s="3"/>
-      <c r="F242" s="3"/>
-      <c r="G242" s="3"/>
-      <c r="H242" s="3"/>
-      <c r="I242" s="3"/>
+      <c r="B242" s="3">
+        <v>684.47</v>
+      </c>
+      <c r="C242" s="3">
+        <v>1</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E242" s="3">
+        <v>1</v>
+      </c>
+      <c r="F242" s="3">
+        <v>9</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I242" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="243" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="5">
         <v>241</v>
       </c>
-      <c r="B243" s="5"/>
-      <c r="C243" s="5"/>
-      <c r="D243" s="5"/>
-      <c r="E243" s="5"/>
-      <c r="F243" s="5"/>
-      <c r="G243" s="5"/>
-      <c r="H243" s="5"/>
-      <c r="I243" s="5"/>
+      <c r="B243" s="5">
+        <v>686.08500000000004</v>
+      </c>
+      <c r="C243" s="5">
+        <v>1</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E243" s="5">
+        <v>1</v>
+      </c>
+      <c r="F243" s="5">
+        <v>9</v>
+      </c>
+      <c r="G243" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H243" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I243" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="244" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="3">
         <v>242</v>
       </c>
-      <c r="B244" s="3"/>
-      <c r="C244" s="3"/>
-      <c r="D244" s="3"/>
-      <c r="E244" s="3"/>
-      <c r="F244" s="3"/>
-      <c r="G244" s="3"/>
+      <c r="B244" s="3">
+        <v>687.38499999999999</v>
+      </c>
+      <c r="C244" s="3">
+        <v>2</v>
+      </c>
+      <c r="D244" s="3">
+        <v>6874</v>
+      </c>
+      <c r="E244" s="3">
+        <v>1</v>
+      </c>
+      <c r="F244" s="3">
+        <v>9</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
     </row>
@@ -4029,12 +7061,24 @@
       <c r="A245" s="5">
         <v>243</v>
       </c>
-      <c r="B245" s="5"/>
-      <c r="C245" s="5"/>
-      <c r="D245" s="5"/>
-      <c r="E245" s="5"/>
-      <c r="F245" s="5"/>
-      <c r="G245" s="5"/>
+      <c r="B245" s="5">
+        <v>689.255</v>
+      </c>
+      <c r="C245" s="5">
+        <v>2</v>
+      </c>
+      <c r="D245" s="5">
+        <v>6892</v>
+      </c>
+      <c r="E245" s="5">
+        <v>1</v>
+      </c>
+      <c r="F245" s="5">
+        <v>9</v>
+      </c>
+      <c r="G245" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H245" s="5"/>
       <c r="I245" s="5"/>
     </row>
@@ -4042,12 +7086,24 @@
       <c r="A246" s="3">
         <v>244</v>
       </c>
-      <c r="B246" s="3"/>
-      <c r="C246" s="3"/>
-      <c r="D246" s="3"/>
-      <c r="E246" s="3"/>
-      <c r="F246" s="3"/>
-      <c r="G246" s="3"/>
+      <c r="B246" s="3">
+        <v>690.98500000000001</v>
+      </c>
+      <c r="C246" s="3">
+        <v>2</v>
+      </c>
+      <c r="D246" s="3">
+        <v>6910</v>
+      </c>
+      <c r="E246" s="3">
+        <v>1</v>
+      </c>
+      <c r="F246" s="3">
+        <v>9</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
     </row>
@@ -4055,12 +7111,24 @@
       <c r="A247" s="5">
         <v>245</v>
       </c>
-      <c r="B247" s="5"/>
-      <c r="C247" s="5"/>
-      <c r="D247" s="5"/>
-      <c r="E247" s="5"/>
-      <c r="F247" s="5"/>
-      <c r="G247" s="5"/>
+      <c r="B247" s="5">
+        <v>692.78499999999997</v>
+      </c>
+      <c r="C247" s="5">
+        <v>2</v>
+      </c>
+      <c r="D247" s="5">
+        <v>6928</v>
+      </c>
+      <c r="E247" s="5">
+        <v>1</v>
+      </c>
+      <c r="F247" s="5">
+        <v>9</v>
+      </c>
+      <c r="G247" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H247" s="5"/>
       <c r="I247" s="5"/>
     </row>
@@ -4068,12 +7136,24 @@
       <c r="A248" s="3">
         <v>246</v>
       </c>
-      <c r="B248" s="3"/>
-      <c r="C248" s="3"/>
-      <c r="D248" s="3"/>
-      <c r="E248" s="3"/>
-      <c r="F248" s="3"/>
-      <c r="G248" s="3"/>
+      <c r="B248" s="3">
+        <v>694.55499999999995</v>
+      </c>
+      <c r="C248" s="3">
+        <v>2</v>
+      </c>
+      <c r="D248" s="3">
+        <v>6946</v>
+      </c>
+      <c r="E248" s="3">
+        <v>1</v>
+      </c>
+      <c r="F248" s="3">
+        <v>9</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
     </row>
@@ -4081,12 +7161,24 @@
       <c r="A249" s="5">
         <v>247</v>
       </c>
-      <c r="B249" s="5"/>
-      <c r="C249" s="5"/>
-      <c r="D249" s="5"/>
-      <c r="E249" s="5"/>
-      <c r="F249" s="5"/>
-      <c r="G249" s="5"/>
+      <c r="B249" s="5">
+        <v>696.32500000000005</v>
+      </c>
+      <c r="C249" s="5">
+        <v>2</v>
+      </c>
+      <c r="D249" s="5">
+        <v>6964</v>
+      </c>
+      <c r="E249" s="5">
+        <v>1</v>
+      </c>
+      <c r="F249" s="5">
+        <v>9</v>
+      </c>
+      <c r="G249" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H249" s="5"/>
       <c r="I249" s="5"/>
     </row>
@@ -4094,12 +7186,24 @@
       <c r="A250" s="3">
         <v>248</v>
       </c>
-      <c r="B250" s="3"/>
-      <c r="C250" s="3"/>
-      <c r="D250" s="3"/>
-      <c r="E250" s="3"/>
-      <c r="F250" s="3"/>
-      <c r="G250" s="3"/>
+      <c r="B250" s="3">
+        <v>698.09500000000003</v>
+      </c>
+      <c r="C250" s="3">
+        <v>2</v>
+      </c>
+      <c r="D250" s="3">
+        <v>6980</v>
+      </c>
+      <c r="E250" s="3">
+        <v>1</v>
+      </c>
+      <c r="F250" s="3">
+        <v>9</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
     </row>
@@ -4107,12 +7211,24 @@
       <c r="A251" s="5">
         <v>249</v>
       </c>
-      <c r="B251" s="5"/>
-      <c r="C251" s="5"/>
-      <c r="D251" s="5"/>
-      <c r="E251" s="5"/>
-      <c r="F251" s="5"/>
-      <c r="G251" s="5"/>
+      <c r="B251" s="5">
+        <v>699.86500000000001</v>
+      </c>
+      <c r="C251" s="5">
+        <v>2</v>
+      </c>
+      <c r="D251" s="5">
+        <v>6998</v>
+      </c>
+      <c r="E251" s="5">
+        <v>1</v>
+      </c>
+      <c r="F251" s="5">
+        <v>9</v>
+      </c>
+      <c r="G251" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H251" s="5"/>
       <c r="I251" s="5"/>
     </row>
@@ -4120,12 +7236,24 @@
       <c r="A252" s="3">
         <v>250</v>
       </c>
-      <c r="B252" s="3"/>
-      <c r="C252" s="3"/>
-      <c r="D252" s="3"/>
-      <c r="E252" s="3"/>
-      <c r="F252" s="3"/>
-      <c r="G252" s="3"/>
+      <c r="B252" s="3">
+        <v>701.63499999999999</v>
+      </c>
+      <c r="C252" s="3">
+        <v>2</v>
+      </c>
+      <c r="D252" s="3">
+        <v>7016</v>
+      </c>
+      <c r="E252" s="3">
+        <v>1</v>
+      </c>
+      <c r="F252" s="3">
+        <v>9</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
     </row>
@@ -4133,12 +7261,24 @@
       <c r="A253" s="5">
         <v>251</v>
       </c>
-      <c r="B253" s="5"/>
-      <c r="C253" s="5"/>
-      <c r="D253" s="5"/>
-      <c r="E253" s="5"/>
-      <c r="F253" s="5"/>
-      <c r="G253" s="5"/>
+      <c r="B253" s="5">
+        <v>702.79600000000005</v>
+      </c>
+      <c r="C253" s="5">
+        <v>2</v>
+      </c>
+      <c r="D253" s="5">
+        <v>7028</v>
+      </c>
+      <c r="E253" s="5">
+        <v>1</v>
+      </c>
+      <c r="F253" s="5">
+        <v>10</v>
+      </c>
+      <c r="G253" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H253" s="5"/>
       <c r="I253" s="5"/>
     </row>
@@ -4146,12 +7286,24 @@
       <c r="A254" s="3">
         <v>252</v>
       </c>
-      <c r="B254" s="3"/>
-      <c r="C254" s="3"/>
-      <c r="D254" s="3"/>
-      <c r="E254" s="3"/>
-      <c r="F254" s="3"/>
-      <c r="G254" s="3"/>
+      <c r="B254" s="3">
+        <v>704.30600000000004</v>
+      </c>
+      <c r="C254" s="3">
+        <v>2</v>
+      </c>
+      <c r="D254" s="3">
+        <v>7044</v>
+      </c>
+      <c r="E254" s="3">
+        <v>1</v>
+      </c>
+      <c r="F254" s="3">
+        <v>10</v>
+      </c>
+      <c r="G254" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
     </row>
@@ -4159,12 +7311,24 @@
       <c r="A255" s="5">
         <v>253</v>
       </c>
-      <c r="B255" s="5"/>
-      <c r="C255" s="5"/>
-      <c r="D255" s="5"/>
-      <c r="E255" s="5"/>
-      <c r="F255" s="5"/>
-      <c r="G255" s="5"/>
+      <c r="B255" s="5">
+        <v>705.76599999999996</v>
+      </c>
+      <c r="C255" s="5">
+        <v>2</v>
+      </c>
+      <c r="D255" s="5">
+        <v>7058</v>
+      </c>
+      <c r="E255" s="5">
+        <v>1</v>
+      </c>
+      <c r="F255" s="5">
+        <v>10</v>
+      </c>
+      <c r="G255" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H255" s="5"/>
       <c r="I255" s="5"/>
     </row>
@@ -4172,12 +7336,24 @@
       <c r="A256" s="3">
         <v>254</v>
       </c>
-      <c r="B256" s="3"/>
-      <c r="C256" s="3"/>
-      <c r="D256" s="3"/>
-      <c r="E256" s="3"/>
-      <c r="F256" s="3"/>
-      <c r="G256" s="3"/>
+      <c r="B256" s="3">
+        <v>707.29700000000003</v>
+      </c>
+      <c r="C256" s="3">
+        <v>2</v>
+      </c>
+      <c r="D256" s="3">
+        <v>7072</v>
+      </c>
+      <c r="E256" s="3">
+        <v>1</v>
+      </c>
+      <c r="F256" s="3">
+        <v>10</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
     </row>
@@ -4185,12 +7361,24 @@
       <c r="A257" s="5">
         <v>255</v>
       </c>
-      <c r="B257" s="5"/>
-      <c r="C257" s="5"/>
-      <c r="D257" s="5"/>
-      <c r="E257" s="5"/>
-      <c r="F257" s="5"/>
-      <c r="G257" s="5"/>
+      <c r="B257" s="5">
+        <v>708.947</v>
+      </c>
+      <c r="C257" s="5">
+        <v>2</v>
+      </c>
+      <c r="D257" s="5">
+        <v>7090</v>
+      </c>
+      <c r="E257" s="5">
+        <v>1</v>
+      </c>
+      <c r="F257" s="5">
+        <v>10</v>
+      </c>
+      <c r="G257" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H257" s="5"/>
       <c r="I257" s="5"/>
     </row>
@@ -4198,12 +7386,24 @@
       <c r="A258" s="3">
         <v>256</v>
       </c>
-      <c r="B258" s="3"/>
-      <c r="C258" s="3"/>
-      <c r="D258" s="3"/>
-      <c r="E258" s="3"/>
-      <c r="F258" s="3"/>
-      <c r="G258" s="3"/>
+      <c r="B258" s="3">
+        <v>710.55700000000002</v>
+      </c>
+      <c r="C258" s="3">
+        <v>2</v>
+      </c>
+      <c r="D258" s="3">
+        <v>7106</v>
+      </c>
+      <c r="E258" s="3">
+        <v>1</v>
+      </c>
+      <c r="F258" s="3">
+        <v>10</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
     </row>
@@ -4211,12 +7411,24 @@
       <c r="A259" s="5">
         <v>257</v>
       </c>
-      <c r="B259" s="5"/>
-      <c r="C259" s="5"/>
-      <c r="D259" s="5"/>
-      <c r="E259" s="5"/>
-      <c r="F259" s="5"/>
-      <c r="G259" s="5"/>
+      <c r="B259" s="5">
+        <v>712.16700000000003</v>
+      </c>
+      <c r="C259" s="5">
+        <v>2</v>
+      </c>
+      <c r="D259" s="5">
+        <v>7122</v>
+      </c>
+      <c r="E259" s="5">
+        <v>1</v>
+      </c>
+      <c r="F259" s="5">
+        <v>10</v>
+      </c>
+      <c r="G259" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
     </row>
@@ -4224,12 +7436,24 @@
       <c r="A260" s="3">
         <v>258</v>
       </c>
-      <c r="B260" s="3"/>
-      <c r="C260" s="3"/>
-      <c r="D260" s="3"/>
-      <c r="E260" s="3"/>
-      <c r="F260" s="3"/>
-      <c r="G260" s="3"/>
+      <c r="B260" s="3">
+        <v>713.77700000000004</v>
+      </c>
+      <c r="C260" s="3">
+        <v>2</v>
+      </c>
+      <c r="D260" s="3">
+        <v>7138</v>
+      </c>
+      <c r="E260" s="3">
+        <v>1</v>
+      </c>
+      <c r="F260" s="3">
+        <v>10</v>
+      </c>
+      <c r="G260" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H260" s="3"/>
       <c r="I260" s="3"/>
     </row>
@@ -4237,12 +7461,24 @@
       <c r="A261" s="5">
         <v>259</v>
       </c>
-      <c r="B261" s="5"/>
-      <c r="C261" s="5"/>
-      <c r="D261" s="5"/>
-      <c r="E261" s="5"/>
-      <c r="F261" s="5"/>
-      <c r="G261" s="5"/>
+      <c r="B261" s="5">
+        <v>715.38699999999994</v>
+      </c>
+      <c r="C261" s="5">
+        <v>2</v>
+      </c>
+      <c r="D261" s="5">
+        <v>7154</v>
+      </c>
+      <c r="E261" s="5">
+        <v>1</v>
+      </c>
+      <c r="F261" s="5">
+        <v>10</v>
+      </c>
+      <c r="G261" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H261" s="5"/>
       <c r="I261" s="5"/>
     </row>
@@ -4250,12 +7486,24 @@
       <c r="A262" s="3">
         <v>260</v>
       </c>
-      <c r="B262" s="3"/>
-      <c r="C262" s="3"/>
-      <c r="D262" s="3"/>
-      <c r="E262" s="3"/>
-      <c r="F262" s="3"/>
-      <c r="G262" s="3"/>
+      <c r="B262" s="3">
+        <v>717.00699999999995</v>
+      </c>
+      <c r="C262" s="3">
+        <v>2</v>
+      </c>
+      <c r="D262" s="3">
+        <v>7170</v>
+      </c>
+      <c r="E262" s="3">
+        <v>1</v>
+      </c>
+      <c r="F262" s="3">
+        <v>10</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
     </row>
@@ -4263,38 +7511,82 @@
       <c r="A263" s="5">
         <v>261</v>
       </c>
-      <c r="B263" s="5"/>
-      <c r="C263" s="5"/>
-      <c r="D263" s="5"/>
-      <c r="E263" s="5"/>
-      <c r="F263" s="5"/>
-      <c r="G263" s="5"/>
-      <c r="H263" s="5"/>
-      <c r="I263" s="5"/>
+      <c r="B263" s="5">
+        <v>718.62800000000004</v>
+      </c>
+      <c r="C263" s="5">
+        <v>1</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E263" s="5">
+        <v>1</v>
+      </c>
+      <c r="F263" s="5">
+        <v>10</v>
+      </c>
+      <c r="G263" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H263" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I263" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="264" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="3">
         <v>262</v>
       </c>
-      <c r="B264" s="3"/>
-      <c r="C264" s="3"/>
-      <c r="D264" s="3"/>
-      <c r="E264" s="3"/>
-      <c r="F264" s="3"/>
-      <c r="G264" s="3"/>
-      <c r="H264" s="3"/>
-      <c r="I264" s="3"/>
+      <c r="B264" s="3">
+        <v>720.62699999999995</v>
+      </c>
+      <c r="C264" s="3">
+        <v>1</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E264" s="3">
+        <v>1</v>
+      </c>
+      <c r="F264" s="3">
+        <v>10</v>
+      </c>
+      <c r="G264" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H264" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I264" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="265" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="5">
         <v>263</v>
       </c>
-      <c r="B265" s="5"/>
-      <c r="C265" s="5"/>
-      <c r="D265" s="5"/>
-      <c r="E265" s="5"/>
-      <c r="F265" s="5"/>
-      <c r="G265" s="5"/>
+      <c r="B265" s="5">
+        <v>722.22699999999998</v>
+      </c>
+      <c r="C265" s="5">
+        <v>2</v>
+      </c>
+      <c r="D265" s="5">
+        <v>7222</v>
+      </c>
+      <c r="E265" s="5">
+        <v>1</v>
+      </c>
+      <c r="F265" s="5">
+        <v>10</v>
+      </c>
+      <c r="G265" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H265" s="5"/>
       <c r="I265" s="5"/>
     </row>
@@ -4302,12 +7594,24 @@
       <c r="A266" s="3">
         <v>264</v>
       </c>
-      <c r="B266" s="3"/>
-      <c r="C266" s="3"/>
-      <c r="D266" s="3"/>
-      <c r="E266" s="3"/>
-      <c r="F266" s="3"/>
-      <c r="G266" s="3"/>
+      <c r="B266" s="3">
+        <v>723.827</v>
+      </c>
+      <c r="C266" s="3">
+        <v>2</v>
+      </c>
+      <c r="D266" s="3">
+        <v>7238</v>
+      </c>
+      <c r="E266" s="3">
+        <v>1</v>
+      </c>
+      <c r="F266" s="3">
+        <v>10</v>
+      </c>
+      <c r="G266" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
     </row>
@@ -4315,12 +7619,24 @@
       <c r="A267" s="5">
         <v>265</v>
       </c>
-      <c r="B267" s="5"/>
-      <c r="C267" s="5"/>
-      <c r="D267" s="5"/>
-      <c r="E267" s="5"/>
-      <c r="F267" s="5"/>
-      <c r="G267" s="5"/>
+      <c r="B267" s="5">
+        <v>725.42700000000002</v>
+      </c>
+      <c r="C267" s="5">
+        <v>2</v>
+      </c>
+      <c r="D267" s="5">
+        <v>7254</v>
+      </c>
+      <c r="E267" s="5">
+        <v>1</v>
+      </c>
+      <c r="F267" s="5">
+        <v>10</v>
+      </c>
+      <c r="G267" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H267" s="5"/>
       <c r="I267" s="5"/>
     </row>
@@ -4328,12 +7644,24 @@
       <c r="A268" s="3">
         <v>266</v>
       </c>
-      <c r="B268" s="3"/>
-      <c r="C268" s="3"/>
-      <c r="D268" s="3"/>
-      <c r="E268" s="3"/>
-      <c r="F268" s="3"/>
-      <c r="G268" s="3"/>
+      <c r="B268" s="3">
+        <v>727.02700000000004</v>
+      </c>
+      <c r="C268" s="3">
+        <v>2</v>
+      </c>
+      <c r="D268" s="3">
+        <v>7270</v>
+      </c>
+      <c r="E268" s="3">
+        <v>1</v>
+      </c>
+      <c r="F268" s="3">
+        <v>10</v>
+      </c>
+      <c r="G268" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
     </row>
@@ -4341,12 +7669,24 @@
       <c r="A269" s="5">
         <v>267</v>
       </c>
-      <c r="B269" s="5"/>
-      <c r="C269" s="5"/>
-      <c r="D269" s="5"/>
-      <c r="E269" s="5"/>
-      <c r="F269" s="5"/>
-      <c r="G269" s="5"/>
+      <c r="B269" s="5">
+        <v>728.62699999999995</v>
+      </c>
+      <c r="C269" s="5">
+        <v>2</v>
+      </c>
+      <c r="D269" s="5">
+        <v>7286</v>
+      </c>
+      <c r="E269" s="5">
+        <v>1</v>
+      </c>
+      <c r="F269" s="5">
+        <v>10</v>
+      </c>
+      <c r="G269" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H269" s="5"/>
       <c r="I269" s="5"/>
     </row>
@@ -4354,12 +7694,24 @@
       <c r="A270" s="3">
         <v>268</v>
       </c>
-      <c r="B270" s="3"/>
-      <c r="C270" s="3"/>
-      <c r="D270" s="3"/>
-      <c r="E270" s="3"/>
-      <c r="F270" s="3"/>
-      <c r="G270" s="3"/>
+      <c r="B270" s="3">
+        <v>730.38699999999994</v>
+      </c>
+      <c r="C270" s="3">
+        <v>2</v>
+      </c>
+      <c r="D270" s="3">
+        <v>7304</v>
+      </c>
+      <c r="E270" s="3">
+        <v>1</v>
+      </c>
+      <c r="F270" s="3">
+        <v>10</v>
+      </c>
+      <c r="G270" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H270" s="3"/>
       <c r="I270" s="3"/>
     </row>
@@ -4367,14 +7719,30 @@
       <c r="A271" s="5">
         <v>269</v>
       </c>
-      <c r="B271" s="5"/>
-      <c r="C271" s="5"/>
-      <c r="D271" s="5"/>
-      <c r="E271" s="5"/>
-      <c r="F271" s="5"/>
-      <c r="G271" s="5"/>
-      <c r="H271" s="5"/>
-      <c r="I271" s="5"/>
+      <c r="B271" s="5">
+        <v>732.13300000000004</v>
+      </c>
+      <c r="C271" s="5">
+        <v>1</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E271" s="5">
+        <v>1</v>
+      </c>
+      <c r="F271" s="5">
+        <v>10</v>
+      </c>
+      <c r="G271" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H271" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I271" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="272" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="3">
@@ -15792,19 +19160,19 @@
         <v>76</v>
       </c>
       <c r="B78" s="3">
-        <v>430.51499999999999</v>
+        <v>432.762</v>
       </c>
       <c r="C78" s="3">
         <v>2</v>
       </c>
       <c r="D78" s="3">
-        <v>4305</v>
+        <v>4328</v>
       </c>
       <c r="E78" s="3">
         <v>1</v>
       </c>
       <c r="F78" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>22</v>

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/信号机数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/信号机数据_single.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="72">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -237,7 +237,10 @@
     <t>无名</t>
   </si>
   <si>
-    <t>354.738+1:355.287+1:355.527+1:789.000</t>
+    <t>354.488+1:355.037+1:355.277+1:789.000</t>
+  </si>
+  <si>
+    <t>富宁分区所</t>
   </si>
   <si>
     <t>D4K+355240</t>
@@ -336,13 +339,10 @@
     <t>XI</t>
   </si>
   <si>
-    <t>312.443+1:312.743+1:313.143+1:700.000</t>
-  </si>
-  <si>
     <t>331.868+1:332.098+1:332.657+1:789.000</t>
   </si>
   <si>
-    <t>355.062+1:355.292+1:355.868+1:806.000</t>
+    <t>354.812+1:355.042+1:355.618+1:806.000</t>
   </si>
   <si>
     <t>X</t>
@@ -935,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -950,7 +950,7 @@
         <v>14</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -983,13 +983,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>312.44299999999998</v>
+        <v>313.24299999999999</v>
       </c>
       <c r="C5" s="5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3133</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -1000,9 +1000,7 @@
       <c r="G5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1010,13 +1008,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>314.84300000000002</v>
+        <v>314.74299999999999</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3">
-        <v>3149</v>
+        <v>3147</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -1035,13 +1033,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>316.39299999999997</v>
+        <v>316.24299999999999</v>
       </c>
       <c r="C7" s="5">
         <v>2</v>
       </c>
       <c r="D7" s="5">
-        <v>3165</v>
+        <v>3163</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -1060,13 +1058,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>317.89299999999997</v>
+        <v>317.74299999999999</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3">
-        <v>3179</v>
+        <v>3177</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -1260,13 +1258,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>330.14299999999997</v>
+        <v>330.46800000000002</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
       </c>
       <c r="D16" s="3">
-        <v>3301</v>
+        <v>3305</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1285,13 +1283,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>331.54300000000001</v>
+        <v>331.86799999999999</v>
       </c>
       <c r="C17" s="5">
-        <v>2</v>
-      </c>
-      <c r="D17" s="5">
-        <v>3315</v>
+        <v>3</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -1302,7 +1300,9 @@
       <c r="G17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1310,13 +1310,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>331.86799999999999</v>
+        <v>333.54300000000001</v>
       </c>
       <c r="C18" s="3">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>53</v>
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3335</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -1327,9 +1327,7 @@
       <c r="G18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1337,13 +1335,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>333.54300000000001</v>
+        <v>335.04300000000001</v>
       </c>
       <c r="C19" s="5">
         <v>2</v>
       </c>
       <c r="D19" s="5">
-        <v>3335</v>
+        <v>3351</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -1362,13 +1360,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>335.04300000000001</v>
+        <v>336.54300000000001</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
       </c>
       <c r="D20" s="3">
-        <v>3351</v>
+        <v>3365</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -1387,13 +1385,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>336.54300000000001</v>
+        <v>338.04300000000001</v>
       </c>
       <c r="C21" s="5">
         <v>2</v>
       </c>
       <c r="D21" s="5">
-        <v>3365</v>
+        <v>3381</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
@@ -1412,13 +1410,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>338.04300000000001</v>
+        <v>339.54300000000001</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
       </c>
       <c r="D22" s="3">
-        <v>3381</v>
+        <v>3395</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -1437,13 +1435,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>339.54300000000001</v>
+        <v>341.04300000000001</v>
       </c>
       <c r="C23" s="5">
         <v>2</v>
       </c>
       <c r="D23" s="5">
-        <v>3395</v>
+        <v>3411</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
@@ -1462,13 +1460,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>341.04300000000001</v>
+        <v>342.54300000000001</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
       </c>
       <c r="D24" s="3">
-        <v>3411</v>
+        <v>3425</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -1487,13 +1485,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>342.54300000000001</v>
+        <v>344.04300000000001</v>
       </c>
       <c r="C25" s="5">
         <v>2</v>
       </c>
       <c r="D25" s="5">
-        <v>3425</v>
+        <v>3441</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
@@ -1512,13 +1510,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>344.04300000000001</v>
+        <v>345.54300000000001</v>
       </c>
       <c r="C26" s="3">
         <v>2</v>
       </c>
       <c r="D26" s="3">
-        <v>3441</v>
+        <v>3455</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -1537,13 +1535,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>345.54300000000001</v>
+        <v>347.04300000000001</v>
       </c>
       <c r="C27" s="5">
         <v>2</v>
       </c>
       <c r="D27" s="5">
-        <v>3455</v>
+        <v>3471</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
@@ -1562,13 +1560,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>347.04300000000001</v>
+        <v>348.54300000000001</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
       </c>
       <c r="D28" s="3">
-        <v>3471</v>
+        <v>3485</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -1587,13 +1585,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>348.54300000000001</v>
+        <v>350.04300000000001</v>
       </c>
       <c r="C29" s="5">
         <v>2</v>
       </c>
       <c r="D29" s="5">
-        <v>3485</v>
+        <v>3501</v>
       </c>
       <c r="E29" s="5">
         <v>1</v>
@@ -1612,13 +1610,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>350.04300000000001</v>
+        <v>351.54300000000001</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
       </c>
       <c r="D30" s="3">
-        <v>3501</v>
+        <v>3515</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -1637,13 +1635,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>351.54300000000001</v>
+        <v>352.89299999999997</v>
       </c>
       <c r="C31" s="5">
         <v>2</v>
       </c>
       <c r="D31" s="5">
-        <v>3515</v>
+        <v>3529</v>
       </c>
       <c r="E31" s="5">
         <v>1</v>
@@ -1662,13 +1660,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>352.89299999999997</v>
+        <v>354.09300000000002</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
       </c>
       <c r="D32" s="3">
-        <v>3529</v>
+        <v>3541</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -1687,13 +1685,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>354.44299999999998</v>
+        <v>354.81200000000001</v>
       </c>
       <c r="C33" s="5">
-        <v>2</v>
-      </c>
-      <c r="D33" s="5">
-        <v>3545</v>
+        <v>3</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -1704,7 +1702,9 @@
       <c r="G33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="5"/>
+      <c r="H33" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1712,13 +1712,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>355.06200000000001</v>
+        <v>356.202</v>
       </c>
       <c r="C34" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
@@ -1727,40 +1727,42 @@
         <v>1</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>356.202</v>
+        <v>356.81599999999997</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E35" s="5">
         <v>1</v>
       </c>
       <c r="F35" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1768,13 +1770,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>356.81599999999997</v>
+        <v>358.40600000000001</v>
       </c>
       <c r="C36" s="3">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>51</v>
+        <v>2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3585</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
@@ -1783,27 +1785,23 @@
         <v>2</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>358.40600000000001</v>
+        <v>359.98599999999999</v>
       </c>
       <c r="C37" s="5">
         <v>2</v>
       </c>
       <c r="D37" s="5">
-        <v>3585</v>
+        <v>3601</v>
       </c>
       <c r="E37" s="5">
         <v>1</v>
@@ -1822,13 +1820,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>359.98599999999999</v>
+        <v>361.56599999999997</v>
       </c>
       <c r="C38" s="3">
         <v>2</v>
       </c>
       <c r="D38" s="3">
-        <v>3601</v>
+        <v>3617</v>
       </c>
       <c r="E38" s="3">
         <v>1</v>
@@ -1847,13 +1845,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>361.56599999999997</v>
+        <v>363.14600000000002</v>
       </c>
       <c r="C39" s="5">
         <v>2</v>
       </c>
       <c r="D39" s="5">
-        <v>3617</v>
+        <v>3631</v>
       </c>
       <c r="E39" s="5">
         <v>1</v>
@@ -1872,13 +1870,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>363.14600000000002</v>
+        <v>364.726</v>
       </c>
       <c r="C40" s="3">
         <v>2</v>
       </c>
       <c r="D40" s="3">
-        <v>3631</v>
+        <v>3647</v>
       </c>
       <c r="E40" s="3">
         <v>1</v>
@@ -1897,13 +1895,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="5">
-        <v>364.726</v>
+        <v>366.30599999999998</v>
       </c>
       <c r="C41" s="5">
         <v>2</v>
       </c>
       <c r="D41" s="5">
-        <v>3647</v>
+        <v>3663</v>
       </c>
       <c r="E41" s="5">
         <v>1</v>
@@ -1922,13 +1920,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>366.30599999999998</v>
+        <v>367.88600000000002</v>
       </c>
       <c r="C42" s="3">
         <v>2</v>
       </c>
       <c r="D42" s="3">
-        <v>3663</v>
+        <v>3679</v>
       </c>
       <c r="E42" s="3">
         <v>1</v>
@@ -1947,13 +1945,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="5">
-        <v>367.88600000000002</v>
+        <v>369.46600000000001</v>
       </c>
       <c r="C43" s="5">
         <v>2</v>
       </c>
       <c r="D43" s="5">
-        <v>3679</v>
+        <v>3695</v>
       </c>
       <c r="E43" s="5">
         <v>1</v>
@@ -1972,19 +1970,19 @@
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>369.46600000000001</v>
+        <v>371.202</v>
       </c>
       <c r="C44" s="3">
         <v>2</v>
       </c>
       <c r="D44" s="3">
-        <v>3695</v>
+        <v>3713</v>
       </c>
       <c r="E44" s="3">
         <v>1</v>
       </c>
       <c r="F44" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>16</v>
@@ -1997,13 +1995,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="5">
-        <v>371.202</v>
+        <v>373.00200000000001</v>
       </c>
       <c r="C45" s="5">
         <v>2</v>
       </c>
       <c r="D45" s="5">
-        <v>3713</v>
+        <v>3731</v>
       </c>
       <c r="E45" s="5">
         <v>1</v>
@@ -2012,7 +2010,7 @@
         <v>3</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -2022,13 +2020,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>373.00200000000001</v>
+        <v>374.80200000000002</v>
       </c>
       <c r="C46" s="3">
         <v>2</v>
       </c>
       <c r="D46" s="3">
-        <v>3731</v>
+        <v>3749</v>
       </c>
       <c r="E46" s="3">
         <v>1</v>
@@ -2037,7 +2035,7 @@
         <v>3</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -2047,13 +2045,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="5">
-        <v>374.80200000000002</v>
+        <v>375.30799999999999</v>
       </c>
       <c r="C47" s="5">
-        <v>2</v>
-      </c>
-      <c r="D47" s="5">
-        <v>3749</v>
+        <v>3</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="E47" s="5">
         <v>1</v>
@@ -2062,9 +2060,11 @@
         <v>3</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2072,13 +2072,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>375.30799999999999</v>
+        <v>376.452</v>
       </c>
       <c r="C48" s="3">
-        <v>3</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>56</v>
+        <v>2</v>
+      </c>
+      <c r="D48" s="3">
+        <v>3765</v>
       </c>
       <c r="E48" s="3">
         <v>1</v>
@@ -2087,11 +2087,9 @@
         <v>3</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2099,13 +2097,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="5">
-        <v>376.452</v>
+        <v>377.85199999999998</v>
       </c>
       <c r="C49" s="5">
         <v>2</v>
       </c>
       <c r="D49" s="5">
-        <v>3765</v>
+        <v>3779</v>
       </c>
       <c r="E49" s="5">
         <v>1</v>
@@ -2114,7 +2112,7 @@
         <v>3</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -2124,13 +2122,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>377.85199999999998</v>
+        <v>379.25200000000001</v>
       </c>
       <c r="C50" s="3">
         <v>2</v>
       </c>
       <c r="D50" s="3">
-        <v>3779</v>
+        <v>3793</v>
       </c>
       <c r="E50" s="3">
         <v>1</v>
@@ -2139,7 +2137,7 @@
         <v>3</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -2149,13 +2147,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="5">
-        <v>379.25200000000001</v>
+        <v>380.65199999999999</v>
       </c>
       <c r="C51" s="5">
         <v>2</v>
       </c>
       <c r="D51" s="5">
-        <v>3793</v>
+        <v>3807</v>
       </c>
       <c r="E51" s="5">
         <v>1</v>
@@ -2164,7 +2162,7 @@
         <v>3</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
@@ -2174,13 +2172,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>380.65199999999999</v>
+        <v>382.05200000000002</v>
       </c>
       <c r="C52" s="3">
         <v>2</v>
       </c>
       <c r="D52" s="3">
-        <v>3807</v>
+        <v>3821</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
@@ -2189,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -2199,13 +2197,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="5">
-        <v>382.05200000000002</v>
+        <v>383.452</v>
       </c>
       <c r="C53" s="5">
         <v>2</v>
       </c>
       <c r="D53" s="5">
-        <v>3821</v>
+        <v>3835</v>
       </c>
       <c r="E53" s="5">
         <v>1</v>
@@ -2214,7 +2212,7 @@
         <v>3</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
@@ -2224,13 +2222,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>383.452</v>
+        <v>385.00200000000001</v>
       </c>
       <c r="C54" s="3">
         <v>2</v>
       </c>
       <c r="D54" s="3">
-        <v>3835</v>
+        <v>3851</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -2239,7 +2237,7 @@
         <v>3</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -2249,13 +2247,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="5">
-        <v>385.00200000000001</v>
+        <v>386.702</v>
       </c>
       <c r="C55" s="5">
         <v>2</v>
       </c>
       <c r="D55" s="5">
-        <v>3851</v>
+        <v>3867</v>
       </c>
       <c r="E55" s="5">
         <v>1</v>
@@ -2264,7 +2262,7 @@
         <v>3</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
@@ -2274,13 +2272,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>386.702</v>
+        <v>388.40199999999999</v>
       </c>
       <c r="C56" s="3">
         <v>2</v>
       </c>
       <c r="D56" s="3">
-        <v>3867</v>
+        <v>3885</v>
       </c>
       <c r="E56" s="3">
         <v>1</v>
@@ -2289,7 +2287,7 @@
         <v>3</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -2299,13 +2297,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="5">
-        <v>388.40199999999999</v>
+        <v>390.10199999999998</v>
       </c>
       <c r="C57" s="5">
         <v>2</v>
       </c>
       <c r="D57" s="5">
-        <v>3885</v>
+        <v>3901</v>
       </c>
       <c r="E57" s="5">
         <v>1</v>
@@ -2314,7 +2312,7 @@
         <v>3</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -2324,13 +2322,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <v>390.10199999999998</v>
+        <v>390.44</v>
       </c>
       <c r="C58" s="3">
-        <v>2</v>
-      </c>
-      <c r="D58" s="3">
-        <v>3901</v>
+        <v>3</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="E58" s="3">
         <v>1</v>
@@ -2339,9 +2337,11 @@
         <v>3</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H58" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I58" s="3"/>
     </row>
     <row r="59" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2349,13 +2349,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="5">
-        <v>390.44</v>
+        <v>391.702</v>
       </c>
       <c r="C59" s="5">
-        <v>3</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>57</v>
+        <v>2</v>
+      </c>
+      <c r="D59" s="5">
+        <v>3917</v>
       </c>
       <c r="E59" s="5">
         <v>1</v>
@@ -2364,11 +2364,9 @@
         <v>3</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H59" s="5"/>
       <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2376,13 +2374,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="3">
-        <v>391.702</v>
+        <v>393.29700000000003</v>
       </c>
       <c r="C60" s="3">
-        <v>2</v>
-      </c>
-      <c r="D60" s="3">
-        <v>3917</v>
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E60" s="3">
         <v>1</v>
@@ -2391,23 +2389,27 @@
         <v>3</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="61" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5">
         <v>59</v>
       </c>
       <c r="B61" s="5">
-        <v>393.29700000000003</v>
+        <v>394.66500000000002</v>
       </c>
       <c r="C61" s="5">
         <v>1</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E61" s="5">
         <v>1</v>
@@ -2416,13 +2418,13 @@
         <v>3</v>
       </c>
       <c r="G61" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2430,13 +2432,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="3">
-        <v>394.66500000000002</v>
+        <v>396.065</v>
       </c>
       <c r="C62" s="3">
-        <v>1</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>51</v>
+        <v>2</v>
+      </c>
+      <c r="D62" s="3">
+        <v>3961</v>
       </c>
       <c r="E62" s="3">
         <v>1</v>
@@ -2445,27 +2447,23 @@
         <v>3</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
     </row>
     <row r="63" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
         <v>61</v>
       </c>
       <c r="B63" s="5">
-        <v>396.065</v>
+        <v>397.565</v>
       </c>
       <c r="C63" s="5">
         <v>2</v>
       </c>
       <c r="D63" s="5">
-        <v>3961</v>
+        <v>3977</v>
       </c>
       <c r="E63" s="5">
         <v>1</v>
@@ -2474,7 +2472,7 @@
         <v>3</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
@@ -2484,13 +2482,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="3">
-        <v>397.565</v>
+        <v>398.96499999999997</v>
       </c>
       <c r="C64" s="3">
         <v>2</v>
       </c>
       <c r="D64" s="3">
-        <v>3977</v>
+        <v>3991</v>
       </c>
       <c r="E64" s="3">
         <v>1</v>
@@ -2499,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -2509,13 +2507,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="5">
-        <v>398.96499999999997</v>
+        <v>400.46499999999997</v>
       </c>
       <c r="C65" s="5">
         <v>2</v>
       </c>
       <c r="D65" s="5">
-        <v>3991</v>
+        <v>4005</v>
       </c>
       <c r="E65" s="5">
         <v>1</v>
@@ -2524,7 +2522,7 @@
         <v>3</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
@@ -2534,13 +2532,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>400.46499999999997</v>
+        <v>401.86500000000001</v>
       </c>
       <c r="C66" s="3">
         <v>2</v>
       </c>
       <c r="D66" s="3">
-        <v>4005</v>
+        <v>4019</v>
       </c>
       <c r="E66" s="3">
         <v>1</v>
@@ -2549,7 +2547,7 @@
         <v>3</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
@@ -2559,13 +2557,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="5">
-        <v>401.86500000000001</v>
+        <v>403.36500000000001</v>
       </c>
       <c r="C67" s="5">
         <v>2</v>
       </c>
       <c r="D67" s="5">
-        <v>4019</v>
+        <v>4035</v>
       </c>
       <c r="E67" s="5">
         <v>1</v>
@@ -2574,7 +2572,7 @@
         <v>3</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
@@ -2584,13 +2582,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="3">
-        <v>403.36500000000001</v>
+        <v>404.76499999999999</v>
       </c>
       <c r="C68" s="3">
         <v>2</v>
       </c>
       <c r="D68" s="3">
-        <v>4035</v>
+        <v>4049</v>
       </c>
       <c r="E68" s="3">
         <v>1</v>
@@ -2599,7 +2597,7 @@
         <v>3</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
@@ -2609,13 +2607,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="5">
-        <v>404.76499999999999</v>
+        <v>406.26499999999999</v>
       </c>
       <c r="C69" s="5">
         <v>2</v>
       </c>
       <c r="D69" s="5">
-        <v>4049</v>
+        <v>4063</v>
       </c>
       <c r="E69" s="5">
         <v>1</v>
@@ -2624,7 +2622,7 @@
         <v>3</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
@@ -2634,13 +2632,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <v>406.26499999999999</v>
+        <v>407.66500000000002</v>
       </c>
       <c r="C70" s="3">
         <v>2</v>
       </c>
       <c r="D70" s="3">
-        <v>4063</v>
+        <v>4077</v>
       </c>
       <c r="E70" s="3">
         <v>1</v>
@@ -2649,7 +2647,7 @@
         <v>3</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
@@ -2659,13 +2657,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="5">
-        <v>407.66500000000002</v>
+        <v>409.16500000000002</v>
       </c>
       <c r="C71" s="5">
         <v>2</v>
       </c>
       <c r="D71" s="5">
-        <v>4077</v>
+        <v>4093</v>
       </c>
       <c r="E71" s="5">
         <v>1</v>
@@ -2674,7 +2672,7 @@
         <v>3</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
@@ -2684,13 +2682,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="3">
-        <v>409.16500000000002</v>
+        <v>410.565</v>
       </c>
       <c r="C72" s="3">
         <v>2</v>
       </c>
       <c r="D72" s="3">
-        <v>4093</v>
+        <v>4107</v>
       </c>
       <c r="E72" s="3">
         <v>1</v>
@@ -2699,7 +2697,7 @@
         <v>3</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
@@ -2709,13 +2707,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="5">
-        <v>410.565</v>
+        <v>412.065</v>
       </c>
       <c r="C73" s="5">
         <v>2</v>
       </c>
       <c r="D73" s="5">
-        <v>4107</v>
+        <v>4121</v>
       </c>
       <c r="E73" s="5">
         <v>1</v>
@@ -2724,7 +2722,7 @@
         <v>3</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
@@ -2734,13 +2732,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="3">
-        <v>412.065</v>
+        <v>414.27</v>
       </c>
       <c r="C74" s="3">
         <v>2</v>
       </c>
       <c r="D74" s="3">
-        <v>4121</v>
+        <v>4143</v>
       </c>
       <c r="E74" s="3">
         <v>1</v>
@@ -2749,7 +2747,7 @@
         <v>3</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
@@ -2759,13 +2757,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="5">
-        <v>413.565</v>
+        <v>415.67</v>
       </c>
       <c r="C75" s="5">
-        <v>2</v>
-      </c>
-      <c r="D75" s="5">
-        <v>4137</v>
+        <v>3</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="E75" s="5">
         <v>1</v>
@@ -2774,9 +2772,11 @@
         <v>3</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H75" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I75" s="5"/>
     </row>
     <row r="76" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2784,13 +2784,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="3">
-        <v>415.065</v>
+        <v>416.76499999999999</v>
       </c>
       <c r="C76" s="3">
         <v>2</v>
       </c>
       <c r="D76" s="3">
-        <v>4151</v>
+        <v>4169</v>
       </c>
       <c r="E76" s="3">
         <v>1</v>
@@ -2799,7 +2799,7 @@
         <v>3</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
@@ -2809,13 +2809,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="5">
-        <v>415.67</v>
+        <v>418.26799999999997</v>
       </c>
       <c r="C77" s="5">
-        <v>3</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>58</v>
+        <v>2</v>
+      </c>
+      <c r="D77" s="5">
+        <v>4183</v>
       </c>
       <c r="E77" s="5">
         <v>1</v>
@@ -2824,11 +2824,9 @@
         <v>3</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H77" s="5"/>
       <c r="I77" s="5"/>
     </row>
     <row r="78" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2836,22 +2834,22 @@
         <v>76</v>
       </c>
       <c r="B78" s="3">
-        <v>416.76499999999999</v>
+        <v>419.77699999999999</v>
       </c>
       <c r="C78" s="3">
         <v>2</v>
       </c>
       <c r="D78" s="3">
-        <v>4169</v>
+        <v>4199</v>
       </c>
       <c r="E78" s="3">
         <v>1</v>
       </c>
       <c r="F78" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
@@ -2861,22 +2859,22 @@
         <v>77</v>
       </c>
       <c r="B79" s="5">
-        <v>418.26499999999999</v>
+        <v>421.47699999999998</v>
       </c>
       <c r="C79" s="5">
         <v>2</v>
       </c>
       <c r="D79" s="5">
-        <v>4183</v>
+        <v>4215</v>
       </c>
       <c r="E79" s="5">
         <v>1</v>
       </c>
       <c r="F79" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
@@ -2886,13 +2884,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="3">
-        <v>419.77699999999999</v>
+        <v>423.077</v>
       </c>
       <c r="C80" s="3">
         <v>2</v>
       </c>
       <c r="D80" s="3">
-        <v>4199</v>
+        <v>4231</v>
       </c>
       <c r="E80" s="3">
         <v>1</v>
@@ -2901,7 +2899,7 @@
         <v>4</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
@@ -2911,13 +2909,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="5">
-        <v>421.47699999999998</v>
+        <v>424.67700000000002</v>
       </c>
       <c r="C81" s="5">
         <v>2</v>
       </c>
       <c r="D81" s="5">
-        <v>4215</v>
+        <v>4247</v>
       </c>
       <c r="E81" s="5">
         <v>1</v>
@@ -2926,7 +2924,7 @@
         <v>4</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
@@ -2936,13 +2934,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="3">
-        <v>423.077</v>
+        <v>426.233</v>
       </c>
       <c r="C82" s="3">
-        <v>2</v>
-      </c>
-      <c r="D82" s="3">
-        <v>4231</v>
+        <v>1</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E82" s="3">
         <v>1</v>
@@ -2951,23 +2949,27 @@
         <v>4</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="83" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="5">
         <v>81</v>
       </c>
       <c r="B83" s="5">
-        <v>424.67700000000002</v>
+        <v>427.91800000000001</v>
       </c>
       <c r="C83" s="5">
-        <v>2</v>
-      </c>
-      <c r="D83" s="5">
-        <v>4247</v>
+        <v>1</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E83" s="5">
         <v>1</v>
@@ -2976,23 +2978,27 @@
         <v>4</v>
       </c>
       <c r="G83" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I83" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
     </row>
     <row r="84" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
         <v>82</v>
       </c>
       <c r="B84" s="3">
-        <v>426.233</v>
+        <v>429.56799999999998</v>
       </c>
       <c r="C84" s="3">
-        <v>1</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="D84" s="3">
+        <v>4297</v>
       </c>
       <c r="E84" s="3">
         <v>1</v>
@@ -3001,27 +3007,23 @@
         <v>4</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="5">
         <v>83</v>
       </c>
       <c r="B85" s="5">
-        <v>427.91800000000001</v>
+        <v>430.30500000000001</v>
       </c>
       <c r="C85" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E85" s="5">
         <v>1</v>
@@ -3030,36 +3032,34 @@
         <v>4</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I85" s="5"/>
     </row>
     <row r="86" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
         <v>84</v>
       </c>
       <c r="B86" s="3">
-        <v>429.56799999999998</v>
+        <v>433.10500000000002</v>
       </c>
       <c r="C86" s="3">
         <v>2</v>
       </c>
       <c r="D86" s="3">
-        <v>4297</v>
+        <v>4331</v>
       </c>
       <c r="E86" s="3">
         <v>1</v>
       </c>
       <c r="F86" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
@@ -3069,26 +3069,24 @@
         <v>85</v>
       </c>
       <c r="B87" s="5">
-        <v>430.30500000000001</v>
+        <v>434.61500000000001</v>
       </c>
       <c r="C87" s="5">
-        <v>3</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>59</v>
+        <v>2</v>
+      </c>
+      <c r="D87" s="5">
+        <v>4347</v>
       </c>
       <c r="E87" s="5">
         <v>1</v>
       </c>
       <c r="F87" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H87" s="5"/>
       <c r="I87" s="5"/>
     </row>
     <row r="88" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3096,13 +3094,13 @@
         <v>86</v>
       </c>
       <c r="B88" s="3">
-        <v>433.10500000000002</v>
+        <v>436.125</v>
       </c>
       <c r="C88" s="3">
         <v>2</v>
       </c>
       <c r="D88" s="3">
-        <v>4331</v>
+        <v>4361</v>
       </c>
       <c r="E88" s="3">
         <v>1</v>
@@ -3111,7 +3109,7 @@
         <v>5</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -3121,13 +3119,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="5">
-        <v>434.61500000000001</v>
+        <v>437.73500000000001</v>
       </c>
       <c r="C89" s="5">
         <v>2</v>
       </c>
       <c r="D89" s="5">
-        <v>4347</v>
+        <v>4377</v>
       </c>
       <c r="E89" s="5">
         <v>1</v>
@@ -3136,7 +3134,7 @@
         <v>5</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
@@ -3146,13 +3144,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="3">
-        <v>436.125</v>
+        <v>439.34500000000003</v>
       </c>
       <c r="C90" s="3">
         <v>2</v>
       </c>
       <c r="D90" s="3">
-        <v>4361</v>
+        <v>4393</v>
       </c>
       <c r="E90" s="3">
         <v>1</v>
@@ -3161,7 +3159,7 @@
         <v>5</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
@@ -3171,13 +3169,13 @@
         <v>89</v>
       </c>
       <c r="B91" s="5">
-        <v>437.73500000000001</v>
+        <v>440.94499999999999</v>
       </c>
       <c r="C91" s="5">
         <v>2</v>
       </c>
       <c r="D91" s="5">
-        <v>4377</v>
+        <v>4409</v>
       </c>
       <c r="E91" s="5">
         <v>1</v>
@@ -3186,7 +3184,7 @@
         <v>5</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
@@ -3196,13 +3194,13 @@
         <v>90</v>
       </c>
       <c r="B92" s="3">
-        <v>439.34500000000003</v>
+        <v>442.54500000000002</v>
       </c>
       <c r="C92" s="3">
         <v>2</v>
       </c>
       <c r="D92" s="3">
-        <v>4393</v>
+        <v>4425</v>
       </c>
       <c r="E92" s="3">
         <v>1</v>
@@ -3211,7 +3209,7 @@
         <v>5</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -3221,13 +3219,13 @@
         <v>91</v>
       </c>
       <c r="B93" s="5">
-        <v>440.94499999999999</v>
+        <v>444.14499999999998</v>
       </c>
       <c r="C93" s="5">
         <v>2</v>
       </c>
       <c r="D93" s="5">
-        <v>4409</v>
+        <v>4441</v>
       </c>
       <c r="E93" s="5">
         <v>1</v>
@@ -3236,7 +3234,7 @@
         <v>5</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
@@ -3246,13 +3244,13 @@
         <v>92</v>
       </c>
       <c r="B94" s="3">
-        <v>442.54500000000002</v>
+        <v>445.74799999999999</v>
       </c>
       <c r="C94" s="3">
         <v>2</v>
       </c>
       <c r="D94" s="3">
-        <v>4425</v>
+        <v>4457</v>
       </c>
       <c r="E94" s="3">
         <v>1</v>
@@ -3261,7 +3259,7 @@
         <v>5</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -3271,13 +3269,13 @@
         <v>93</v>
       </c>
       <c r="B95" s="5">
-        <v>444.14499999999998</v>
+        <v>447.29500000000002</v>
       </c>
       <c r="C95" s="5">
         <v>2</v>
       </c>
       <c r="D95" s="5">
-        <v>4441</v>
+        <v>4473</v>
       </c>
       <c r="E95" s="5">
         <v>1</v>
@@ -3286,7 +3284,7 @@
         <v>5</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
@@ -3296,13 +3294,13 @@
         <v>94</v>
       </c>
       <c r="B96" s="3">
-        <v>445.745</v>
+        <v>447.68299999999999</v>
       </c>
       <c r="C96" s="3">
-        <v>2</v>
-      </c>
-      <c r="D96" s="3">
-        <v>4457</v>
+        <v>3</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="E96" s="3">
         <v>1</v>
@@ -3311,9 +3309,11 @@
         <v>5</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H96" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I96" s="3"/>
     </row>
     <row r="97" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3321,13 +3321,13 @@
         <v>95</v>
       </c>
       <c r="B97" s="5">
-        <v>447.29500000000002</v>
+        <v>448.84500000000003</v>
       </c>
       <c r="C97" s="5">
         <v>2</v>
       </c>
       <c r="D97" s="5">
-        <v>4473</v>
+        <v>4489</v>
       </c>
       <c r="E97" s="5">
         <v>1</v>
@@ -3336,7 +3336,7 @@
         <v>5</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
@@ -3346,13 +3346,13 @@
         <v>96</v>
       </c>
       <c r="B98" s="3">
-        <v>447.68299999999999</v>
+        <v>450.71499999999997</v>
       </c>
       <c r="C98" s="3">
-        <v>3</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>60</v>
+        <v>2</v>
+      </c>
+      <c r="D98" s="3">
+        <v>4507</v>
       </c>
       <c r="E98" s="3">
         <v>1</v>
@@ -3361,11 +3361,9 @@
         <v>5</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H98" s="3"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3373,13 +3371,13 @@
         <v>97</v>
       </c>
       <c r="B99" s="5">
-        <v>448.84500000000003</v>
+        <v>452.22500000000002</v>
       </c>
       <c r="C99" s="5">
         <v>2</v>
       </c>
       <c r="D99" s="5">
-        <v>4489</v>
+        <v>4523</v>
       </c>
       <c r="E99" s="5">
         <v>1</v>
@@ -3388,7 +3386,7 @@
         <v>5</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
@@ -3398,13 +3396,13 @@
         <v>98</v>
       </c>
       <c r="B100" s="3">
-        <v>450.71499999999997</v>
+        <v>453.73500000000001</v>
       </c>
       <c r="C100" s="3">
         <v>2</v>
       </c>
       <c r="D100" s="3">
-        <v>4507</v>
+        <v>4537</v>
       </c>
       <c r="E100" s="3">
         <v>1</v>
@@ -3413,7 +3411,7 @@
         <v>5</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -3423,13 +3421,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="5">
-        <v>452.22500000000002</v>
+        <v>455.245</v>
       </c>
       <c r="C101" s="5">
         <v>2</v>
       </c>
       <c r="D101" s="5">
-        <v>4523</v>
+        <v>4553</v>
       </c>
       <c r="E101" s="5">
         <v>1</v>
@@ -3438,7 +3436,7 @@
         <v>5</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
@@ -3448,13 +3446,13 @@
         <v>100</v>
       </c>
       <c r="B102" s="3">
-        <v>453.73500000000001</v>
+        <v>456.73099999999999</v>
       </c>
       <c r="C102" s="3">
         <v>2</v>
       </c>
       <c r="D102" s="3">
-        <v>4537</v>
+        <v>4567</v>
       </c>
       <c r="E102" s="3">
         <v>1</v>
@@ -3463,7 +3461,7 @@
         <v>5</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
@@ -3473,13 +3471,13 @@
         <v>101</v>
       </c>
       <c r="B103" s="5">
-        <v>455.245</v>
+        <v>458.26499999999999</v>
       </c>
       <c r="C103" s="5">
         <v>2</v>
       </c>
       <c r="D103" s="5">
-        <v>4553</v>
+        <v>4583</v>
       </c>
       <c r="E103" s="5">
         <v>1</v>
@@ -3488,7 +3486,7 @@
         <v>5</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
@@ -3498,13 +3496,13 @@
         <v>102</v>
       </c>
       <c r="B104" s="3">
-        <v>456.755</v>
+        <v>459.77499999999998</v>
       </c>
       <c r="C104" s="3">
         <v>2</v>
       </c>
       <c r="D104" s="3">
-        <v>4569</v>
+        <v>4599</v>
       </c>
       <c r="E104" s="3">
         <v>1</v>
@@ -3513,7 +3511,7 @@
         <v>5</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
@@ -3523,13 +3521,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="5">
-        <v>458.26499999999999</v>
+        <v>461.28500000000003</v>
       </c>
       <c r="C105" s="5">
         <v>2</v>
       </c>
       <c r="D105" s="5">
-        <v>4583</v>
+        <v>4613</v>
       </c>
       <c r="E105" s="5">
         <v>1</v>
@@ -3538,7 +3536,7 @@
         <v>5</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
@@ -3548,13 +3546,13 @@
         <v>104</v>
       </c>
       <c r="B106" s="3">
-        <v>459.77499999999998</v>
+        <v>462.79500000000002</v>
       </c>
       <c r="C106" s="3">
         <v>2</v>
       </c>
       <c r="D106" s="3">
-        <v>4599</v>
+        <v>4629</v>
       </c>
       <c r="E106" s="3">
         <v>1</v>
@@ -3563,7 +3561,7 @@
         <v>5</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
@@ -3573,13 +3571,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="5">
-        <v>461.28500000000003</v>
+        <v>464.30500000000001</v>
       </c>
       <c r="C107" s="5">
         <v>2</v>
       </c>
       <c r="D107" s="5">
-        <v>4613</v>
+        <v>4643</v>
       </c>
       <c r="E107" s="5">
         <v>1</v>
@@ -3588,7 +3586,7 @@
         <v>5</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
@@ -3598,13 +3596,13 @@
         <v>106</v>
       </c>
       <c r="B108" s="3">
-        <v>462.79500000000002</v>
+        <v>465.815</v>
       </c>
       <c r="C108" s="3">
         <v>2</v>
       </c>
       <c r="D108" s="3">
-        <v>4629</v>
+        <v>4659</v>
       </c>
       <c r="E108" s="3">
         <v>1</v>
@@ -3613,7 +3611,7 @@
         <v>5</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
@@ -3623,13 +3621,13 @@
         <v>107</v>
       </c>
       <c r="B109" s="5">
-        <v>464.30500000000001</v>
+        <v>467.32499999999999</v>
       </c>
       <c r="C109" s="5">
         <v>2</v>
       </c>
       <c r="D109" s="5">
-        <v>4643</v>
+        <v>4673</v>
       </c>
       <c r="E109" s="5">
         <v>1</v>
@@ -3638,7 +3636,7 @@
         <v>5</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
@@ -3648,13 +3646,13 @@
         <v>108</v>
       </c>
       <c r="B110" s="3">
-        <v>465.815</v>
+        <v>468.83499999999998</v>
       </c>
       <c r="C110" s="3">
         <v>2</v>
       </c>
       <c r="D110" s="3">
-        <v>4659</v>
+        <v>4689</v>
       </c>
       <c r="E110" s="3">
         <v>1</v>
@@ -3663,7 +3661,7 @@
         <v>5</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
@@ -3673,13 +3671,13 @@
         <v>109</v>
       </c>
       <c r="B111" s="5">
-        <v>467.32499999999999</v>
+        <v>470.34500000000003</v>
       </c>
       <c r="C111" s="5">
         <v>2</v>
       </c>
       <c r="D111" s="5">
-        <v>4673</v>
+        <v>4703</v>
       </c>
       <c r="E111" s="5">
         <v>1</v>
@@ -3688,7 +3686,7 @@
         <v>5</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
@@ -3698,13 +3696,13 @@
         <v>110</v>
       </c>
       <c r="B112" s="3">
-        <v>468.83499999999998</v>
+        <v>471.85500000000002</v>
       </c>
       <c r="C112" s="3">
         <v>2</v>
       </c>
       <c r="D112" s="3">
-        <v>4689</v>
+        <v>4719</v>
       </c>
       <c r="E112" s="3">
         <v>1</v>
@@ -3713,7 +3711,7 @@
         <v>5</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
@@ -3723,13 +3721,13 @@
         <v>111</v>
       </c>
       <c r="B113" s="5">
-        <v>470.34500000000003</v>
+        <v>473.27199999999999</v>
       </c>
       <c r="C113" s="5">
-        <v>2</v>
-      </c>
-      <c r="D113" s="5">
-        <v>4703</v>
+        <v>1</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E113" s="5">
         <v>1</v>
@@ -3738,23 +3736,27 @@
         <v>5</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="114" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="3">
         <v>112</v>
       </c>
       <c r="B114" s="3">
-        <v>471.85500000000002</v>
+        <v>474.72</v>
       </c>
       <c r="C114" s="3">
-        <v>2</v>
-      </c>
-      <c r="D114" s="3">
-        <v>4719</v>
+        <v>1</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="E114" s="3">
         <v>1</v>
@@ -3763,23 +3765,27 @@
         <v>5</v>
       </c>
       <c r="G114" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I114" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
     </row>
     <row r="115" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="5">
         <v>113</v>
       </c>
       <c r="B115" s="5">
-        <v>473.27199999999999</v>
+        <v>476.12</v>
       </c>
       <c r="C115" s="5">
-        <v>1</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="D115" s="5">
+        <v>4761</v>
       </c>
       <c r="E115" s="5">
         <v>1</v>
@@ -3788,27 +3794,23 @@
         <v>5</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
     </row>
     <row r="116" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="3">
         <v>114</v>
       </c>
       <c r="B116" s="3">
-        <v>474.72</v>
+        <v>476.35700000000003</v>
       </c>
       <c r="C116" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E116" s="3">
         <v>1</v>
@@ -3817,27 +3819,25 @@
         <v>5</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I116" s="3"/>
     </row>
     <row r="117" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="5">
         <v>115</v>
       </c>
       <c r="B117" s="5">
-        <v>476.12</v>
+        <v>478.05</v>
       </c>
       <c r="C117" s="5">
         <v>2</v>
       </c>
       <c r="D117" s="5">
-        <v>4761</v>
+        <v>4781</v>
       </c>
       <c r="E117" s="5">
         <v>1</v>
@@ -3846,7 +3846,7 @@
         <v>5</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
@@ -3856,13 +3856,13 @@
         <v>116</v>
       </c>
       <c r="B118" s="3">
-        <v>476.35700000000003</v>
+        <v>479.64</v>
       </c>
       <c r="C118" s="3">
-        <v>3</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="D118" s="3">
+        <v>4797</v>
       </c>
       <c r="E118" s="3">
         <v>1</v>
@@ -3871,11 +3871,9 @@
         <v>5</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H118" s="3"/>
       <c r="I118" s="3"/>
     </row>
     <row r="119" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3883,13 +3881,13 @@
         <v>117</v>
       </c>
       <c r="B119" s="5">
-        <v>478.05</v>
+        <v>481.33</v>
       </c>
       <c r="C119" s="5">
         <v>2</v>
       </c>
       <c r="D119" s="5">
-        <v>4781</v>
+        <v>4813</v>
       </c>
       <c r="E119" s="5">
         <v>1</v>
@@ -3898,7 +3896,7 @@
         <v>5</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
@@ -3908,13 +3906,13 @@
         <v>118</v>
       </c>
       <c r="B120" s="3">
-        <v>479.64</v>
+        <v>482.87</v>
       </c>
       <c r="C120" s="3">
         <v>2</v>
       </c>
       <c r="D120" s="3">
-        <v>4797</v>
+        <v>4829</v>
       </c>
       <c r="E120" s="3">
         <v>1</v>
@@ -3923,7 +3921,7 @@
         <v>5</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
@@ -3933,13 +3931,13 @@
         <v>119</v>
       </c>
       <c r="B121" s="5">
-        <v>481.33</v>
+        <v>484.41</v>
       </c>
       <c r="C121" s="5">
         <v>2</v>
       </c>
       <c r="D121" s="5">
-        <v>4813</v>
+        <v>4845</v>
       </c>
       <c r="E121" s="5">
         <v>1</v>
@@ -3948,7 +3946,7 @@
         <v>5</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
@@ -3958,13 +3956,13 @@
         <v>120</v>
       </c>
       <c r="B122" s="3">
-        <v>482.87</v>
+        <v>486</v>
       </c>
       <c r="C122" s="3">
         <v>2</v>
       </c>
       <c r="D122" s="3">
-        <v>4829</v>
+        <v>4861</v>
       </c>
       <c r="E122" s="3">
         <v>1</v>
@@ -3973,7 +3971,7 @@
         <v>5</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
@@ -3983,13 +3981,13 @@
         <v>121</v>
       </c>
       <c r="B123" s="5">
-        <v>484.41</v>
+        <v>487.59</v>
       </c>
       <c r="C123" s="5">
         <v>2</v>
       </c>
       <c r="D123" s="5">
-        <v>4845</v>
+        <v>4877</v>
       </c>
       <c r="E123" s="5">
         <v>1</v>
@@ -3998,7 +3996,7 @@
         <v>5</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
@@ -4008,13 +4006,13 @@
         <v>122</v>
       </c>
       <c r="B124" s="3">
-        <v>486</v>
+        <v>489.19</v>
       </c>
       <c r="C124" s="3">
         <v>2</v>
       </c>
       <c r="D124" s="3">
-        <v>4861</v>
+        <v>4893</v>
       </c>
       <c r="E124" s="3">
         <v>1</v>
@@ -4023,7 +4021,7 @@
         <v>5</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
@@ -4033,13 +4031,13 @@
         <v>123</v>
       </c>
       <c r="B125" s="5">
-        <v>487.59</v>
+        <v>490.94</v>
       </c>
       <c r="C125" s="5">
         <v>2</v>
       </c>
       <c r="D125" s="5">
-        <v>4877</v>
+        <v>4909</v>
       </c>
       <c r="E125" s="5">
         <v>1</v>
@@ -4048,7 +4046,7 @@
         <v>5</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
@@ -4058,13 +4056,13 @@
         <v>124</v>
       </c>
       <c r="B126" s="3">
-        <v>489.19</v>
+        <v>492.69</v>
       </c>
       <c r="C126" s="3">
         <v>2</v>
       </c>
       <c r="D126" s="3">
-        <v>4893</v>
+        <v>4927</v>
       </c>
       <c r="E126" s="3">
         <v>1</v>
@@ -4073,7 +4071,7 @@
         <v>5</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
@@ -4083,13 +4081,13 @@
         <v>125</v>
       </c>
       <c r="B127" s="5">
-        <v>490.94</v>
+        <v>494.44</v>
       </c>
       <c r="C127" s="5">
         <v>2</v>
       </c>
       <c r="D127" s="5">
-        <v>4909</v>
+        <v>4945</v>
       </c>
       <c r="E127" s="5">
         <v>1</v>
@@ -4098,7 +4096,7 @@
         <v>5</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
@@ -4108,13 +4106,13 @@
         <v>126</v>
       </c>
       <c r="B128" s="3">
-        <v>492.69</v>
+        <v>496.33</v>
       </c>
       <c r="C128" s="3">
         <v>2</v>
       </c>
       <c r="D128" s="3">
-        <v>4927</v>
+        <v>4963</v>
       </c>
       <c r="E128" s="3">
         <v>1</v>
@@ -4123,7 +4121,7 @@
         <v>5</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
@@ -4133,24 +4131,26 @@
         <v>127</v>
       </c>
       <c r="B129" s="5">
-        <v>494.44</v>
+        <v>497.83100000000002</v>
       </c>
       <c r="C129" s="5">
-        <v>2</v>
-      </c>
-      <c r="D129" s="5">
-        <v>4945</v>
+        <v>3</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E129" s="5">
         <v>1</v>
       </c>
       <c r="F129" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H129" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I129" s="5"/>
     </row>
     <row r="130" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4158,22 +4158,22 @@
         <v>128</v>
       </c>
       <c r="B130" s="3">
-        <v>496.04</v>
+        <v>499.101</v>
       </c>
       <c r="C130" s="3">
         <v>2</v>
       </c>
       <c r="D130" s="3">
-        <v>4961</v>
+        <v>4991</v>
       </c>
       <c r="E130" s="3">
         <v>1</v>
       </c>
       <c r="F130" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
@@ -4183,13 +4183,13 @@
         <v>129</v>
       </c>
       <c r="B131" s="5">
-        <v>497.34100000000001</v>
+        <v>500.61099999999999</v>
       </c>
       <c r="C131" s="5">
         <v>2</v>
       </c>
       <c r="D131" s="5">
-        <v>4973</v>
+        <v>5007</v>
       </c>
       <c r="E131" s="5">
         <v>1</v>
@@ -4198,7 +4198,7 @@
         <v>6</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
@@ -4208,13 +4208,13 @@
         <v>130</v>
       </c>
       <c r="B132" s="3">
-        <v>497.83100000000002</v>
+        <v>502.12099999999998</v>
       </c>
       <c r="C132" s="3">
-        <v>3</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>62</v>
+        <v>2</v>
+      </c>
+      <c r="D132" s="3">
+        <v>5021</v>
       </c>
       <c r="E132" s="3">
         <v>1</v>
@@ -4223,11 +4223,9 @@
         <v>6</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H132" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H132" s="3"/>
       <c r="I132" s="3"/>
     </row>
     <row r="133" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4235,13 +4233,13 @@
         <v>131</v>
       </c>
       <c r="B133" s="5">
-        <v>499.101</v>
+        <v>503.63099999999997</v>
       </c>
       <c r="C133" s="5">
         <v>2</v>
       </c>
       <c r="D133" s="5">
-        <v>4991</v>
+        <v>5037</v>
       </c>
       <c r="E133" s="5">
         <v>1</v>
@@ -4250,7 +4248,7 @@
         <v>6</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
@@ -4260,13 +4258,13 @@
         <v>132</v>
       </c>
       <c r="B134" s="3">
-        <v>500.61099999999999</v>
+        <v>505.14100000000002</v>
       </c>
       <c r="C134" s="3">
         <v>2</v>
       </c>
       <c r="D134" s="3">
-        <v>5007</v>
+        <v>5051</v>
       </c>
       <c r="E134" s="3">
         <v>1</v>
@@ -4275,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
@@ -4285,13 +4283,13 @@
         <v>133</v>
       </c>
       <c r="B135" s="5">
-        <v>502.12099999999998</v>
+        <v>506.65100000000001</v>
       </c>
       <c r="C135" s="5">
         <v>2</v>
       </c>
       <c r="D135" s="5">
-        <v>5021</v>
+        <v>5067</v>
       </c>
       <c r="E135" s="5">
         <v>1</v>
@@ -4300,7 +4298,7 @@
         <v>6</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
@@ -4310,13 +4308,13 @@
         <v>134</v>
       </c>
       <c r="B136" s="3">
-        <v>503.63099999999997</v>
+        <v>508.06099999999998</v>
       </c>
       <c r="C136" s="3">
         <v>2</v>
       </c>
       <c r="D136" s="3">
-        <v>5037</v>
+        <v>5081</v>
       </c>
       <c r="E136" s="3">
         <v>1</v>
@@ -4325,7 +4323,7 @@
         <v>6</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
@@ -4335,13 +4333,13 @@
         <v>135</v>
       </c>
       <c r="B137" s="5">
-        <v>505.14100000000002</v>
+        <v>509.61099999999999</v>
       </c>
       <c r="C137" s="5">
         <v>2</v>
       </c>
       <c r="D137" s="5">
-        <v>5051</v>
+        <v>5097</v>
       </c>
       <c r="E137" s="5">
         <v>1</v>
@@ -4350,7 +4348,7 @@
         <v>6</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
@@ -4360,13 +4358,13 @@
         <v>136</v>
       </c>
       <c r="B138" s="3">
-        <v>506.65100000000001</v>
+        <v>511.041</v>
       </c>
       <c r="C138" s="3">
         <v>2</v>
       </c>
       <c r="D138" s="3">
-        <v>5067</v>
+        <v>5111</v>
       </c>
       <c r="E138" s="3">
         <v>1</v>
@@ -4375,7 +4373,7 @@
         <v>6</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
@@ -4385,13 +4383,13 @@
         <v>137</v>
       </c>
       <c r="B139" s="5">
-        <v>508.06099999999998</v>
+        <v>512.79100000000005</v>
       </c>
       <c r="C139" s="5">
         <v>2</v>
       </c>
       <c r="D139" s="5">
-        <v>5081</v>
+        <v>5129</v>
       </c>
       <c r="E139" s="5">
         <v>1</v>
@@ -4400,7 +4398,7 @@
         <v>6</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
@@ -4410,13 +4408,13 @@
         <v>138</v>
       </c>
       <c r="B140" s="3">
-        <v>509.61099999999999</v>
+        <v>514.54100000000005</v>
       </c>
       <c r="C140" s="3">
         <v>2</v>
       </c>
       <c r="D140" s="3">
-        <v>5097</v>
+        <v>5145</v>
       </c>
       <c r="E140" s="3">
         <v>1</v>
@@ -4425,7 +4423,7 @@
         <v>6</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
@@ -4435,13 +4433,13 @@
         <v>139</v>
       </c>
       <c r="B141" s="5">
-        <v>511.041</v>
+        <v>516.29100000000005</v>
       </c>
       <c r="C141" s="5">
         <v>2</v>
       </c>
       <c r="D141" s="5">
-        <v>5111</v>
+        <v>5163</v>
       </c>
       <c r="E141" s="5">
         <v>1</v>
@@ -4450,7 +4448,7 @@
         <v>6</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
@@ -4460,13 +4458,13 @@
         <v>140</v>
       </c>
       <c r="B142" s="3">
-        <v>512.79100000000005</v>
+        <v>517.69100000000003</v>
       </c>
       <c r="C142" s="3">
         <v>2</v>
       </c>
       <c r="D142" s="3">
-        <v>5129</v>
+        <v>5177</v>
       </c>
       <c r="E142" s="3">
         <v>1</v>
@@ -4475,7 +4473,7 @@
         <v>6</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
@@ -4485,13 +4483,13 @@
         <v>141</v>
       </c>
       <c r="B143" s="5">
-        <v>514.54100000000005</v>
+        <v>518.05999999999995</v>
       </c>
       <c r="C143" s="5">
-        <v>2</v>
-      </c>
-      <c r="D143" s="5">
-        <v>5145</v>
+        <v>3</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="E143" s="5">
         <v>1</v>
@@ -4500,9 +4498,11 @@
         <v>6</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H143" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="H143" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I143" s="5"/>
     </row>
     <row r="144" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4510,13 +4510,13 @@
         <v>142</v>
       </c>
       <c r="B144" s="3">
-        <v>516.29100000000005</v>
+        <v>519.39300000000003</v>
       </c>
       <c r="C144" s="3">
-        <v>2</v>
-      </c>
-      <c r="D144" s="3">
-        <v>5163</v>
+        <v>1</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E144" s="3">
         <v>1</v>
@@ -4525,23 +4525,27 @@
         <v>6</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H144" s="3"/>
-      <c r="I144" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="145" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="5">
         <v>143</v>
       </c>
       <c r="B145" s="5">
-        <v>517.69100000000003</v>
+        <v>521.40200000000004</v>
       </c>
       <c r="C145" s="5">
-        <v>2</v>
-      </c>
-      <c r="D145" s="5">
-        <v>5177</v>
+        <v>1</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E145" s="5">
         <v>1</v>
@@ -4550,23 +4554,27 @@
         <v>6</v>
       </c>
       <c r="G145" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I145" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
     </row>
     <row r="146" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="3">
         <v>144</v>
       </c>
       <c r="B146" s="3">
-        <v>518.05999999999995</v>
+        <v>522.93200000000002</v>
       </c>
       <c r="C146" s="3">
-        <v>3</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>63</v>
+        <v>2</v>
+      </c>
+      <c r="D146" s="3">
+        <v>5229</v>
       </c>
       <c r="E146" s="3">
         <v>1</v>
@@ -4575,11 +4583,9 @@
         <v>6</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H146" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H146" s="3"/>
       <c r="I146" s="3"/>
     </row>
     <row r="147" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4587,13 +4593,13 @@
         <v>145</v>
       </c>
       <c r="B147" s="5">
-        <v>519.39300000000003</v>
+        <v>524.46199999999999</v>
       </c>
       <c r="C147" s="5">
-        <v>1</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="D147" s="5">
+        <v>5245</v>
       </c>
       <c r="E147" s="5">
         <v>1</v>
@@ -4602,27 +4608,23 @@
         <v>6</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H147" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I147" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
     </row>
     <row r="148" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="3">
         <v>146</v>
       </c>
       <c r="B148" s="3">
-        <v>521.40200000000004</v>
+        <v>525.99199999999996</v>
       </c>
       <c r="C148" s="3">
-        <v>1</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>51</v>
+        <v>2</v>
+      </c>
+      <c r="D148" s="3">
+        <v>5261</v>
       </c>
       <c r="E148" s="3">
         <v>1</v>
@@ -4631,27 +4633,23 @@
         <v>6</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H148" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I148" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
     </row>
     <row r="149" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="5">
         <v>147</v>
       </c>
       <c r="B149" s="5">
-        <v>522.93200000000002</v>
+        <v>527.52200000000005</v>
       </c>
       <c r="C149" s="5">
         <v>2</v>
       </c>
       <c r="D149" s="5">
-        <v>5229</v>
+        <v>5275</v>
       </c>
       <c r="E149" s="5">
         <v>1</v>
@@ -4660,7 +4658,7 @@
         <v>6</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
@@ -4670,13 +4668,13 @@
         <v>148</v>
       </c>
       <c r="B150" s="3">
-        <v>524.46199999999999</v>
+        <v>529.05200000000002</v>
       </c>
       <c r="C150" s="3">
         <v>2</v>
       </c>
       <c r="D150" s="3">
-        <v>5245</v>
+        <v>5291</v>
       </c>
       <c r="E150" s="3">
         <v>1</v>
@@ -4685,7 +4683,7 @@
         <v>6</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
@@ -4695,13 +4693,13 @@
         <v>149</v>
       </c>
       <c r="B151" s="5">
-        <v>525.99199999999996</v>
+        <v>530.58199999999999</v>
       </c>
       <c r="C151" s="5">
         <v>2</v>
       </c>
       <c r="D151" s="5">
-        <v>5261</v>
+        <v>5307</v>
       </c>
       <c r="E151" s="5">
         <v>1</v>
@@ -4710,7 +4708,7 @@
         <v>6</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
@@ -4720,13 +4718,13 @@
         <v>150</v>
       </c>
       <c r="B152" s="3">
-        <v>527.52200000000005</v>
+        <v>532.11199999999997</v>
       </c>
       <c r="C152" s="3">
         <v>2</v>
       </c>
       <c r="D152" s="3">
-        <v>5275</v>
+        <v>5321</v>
       </c>
       <c r="E152" s="3">
         <v>1</v>
@@ -4735,7 +4733,7 @@
         <v>6</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
@@ -4745,13 +4743,13 @@
         <v>151</v>
       </c>
       <c r="B153" s="5">
-        <v>529.05200000000002</v>
+        <v>533.64200000000005</v>
       </c>
       <c r="C153" s="5">
         <v>2</v>
       </c>
       <c r="D153" s="5">
-        <v>5291</v>
+        <v>5337</v>
       </c>
       <c r="E153" s="5">
         <v>1</v>
@@ -4760,7 +4758,7 @@
         <v>6</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
@@ -4770,13 +4768,13 @@
         <v>152</v>
       </c>
       <c r="B154" s="3">
-        <v>530.58199999999999</v>
+        <v>535.17200000000003</v>
       </c>
       <c r="C154" s="3">
         <v>2</v>
       </c>
       <c r="D154" s="3">
-        <v>5307</v>
+        <v>5353</v>
       </c>
       <c r="E154" s="3">
         <v>1</v>
@@ -4785,7 +4783,7 @@
         <v>6</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
@@ -4795,13 +4793,13 @@
         <v>153</v>
       </c>
       <c r="B155" s="5">
-        <v>532.11199999999997</v>
+        <v>536.702</v>
       </c>
       <c r="C155" s="5">
         <v>2</v>
       </c>
       <c r="D155" s="5">
-        <v>5321</v>
+        <v>5367</v>
       </c>
       <c r="E155" s="5">
         <v>1</v>
@@ -4810,7 +4808,7 @@
         <v>6</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
@@ -4820,13 +4818,13 @@
         <v>154</v>
       </c>
       <c r="B156" s="3">
-        <v>533.64200000000005</v>
+        <v>538.23199999999997</v>
       </c>
       <c r="C156" s="3">
         <v>2</v>
       </c>
       <c r="D156" s="3">
-        <v>5337</v>
+        <v>5383</v>
       </c>
       <c r="E156" s="3">
         <v>1</v>
@@ -4835,7 +4833,7 @@
         <v>6</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
@@ -4845,13 +4843,13 @@
         <v>155</v>
       </c>
       <c r="B157" s="5">
-        <v>535.17200000000003</v>
+        <v>539.76199999999994</v>
       </c>
       <c r="C157" s="5">
         <v>2</v>
       </c>
       <c r="D157" s="5">
-        <v>5353</v>
+        <v>5399</v>
       </c>
       <c r="E157" s="5">
         <v>1</v>
@@ -4860,7 +4858,7 @@
         <v>6</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
@@ -4870,13 +4868,13 @@
         <v>156</v>
       </c>
       <c r="B158" s="3">
-        <v>536.702</v>
+        <v>541.24199999999996</v>
       </c>
       <c r="C158" s="3">
         <v>2</v>
       </c>
       <c r="D158" s="3">
-        <v>5367</v>
+        <v>5413</v>
       </c>
       <c r="E158" s="3">
         <v>1</v>
@@ -4885,7 +4883,7 @@
         <v>6</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
@@ -4895,13 +4893,13 @@
         <v>157</v>
       </c>
       <c r="B159" s="5">
-        <v>538.23199999999997</v>
+        <v>542.59199999999998</v>
       </c>
       <c r="C159" s="5">
         <v>2</v>
       </c>
       <c r="D159" s="5">
-        <v>5383</v>
+        <v>5427</v>
       </c>
       <c r="E159" s="5">
         <v>1</v>
@@ -4910,7 +4908,7 @@
         <v>6</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
@@ -4920,13 +4918,13 @@
         <v>158</v>
       </c>
       <c r="B160" s="3">
-        <v>539.76199999999994</v>
+        <v>542.92399999999998</v>
       </c>
       <c r="C160" s="3">
-        <v>2</v>
-      </c>
-      <c r="D160" s="3">
-        <v>5399</v>
+        <v>3</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="E160" s="3">
         <v>1</v>
@@ -4935,9 +4933,11 @@
         <v>6</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H160" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I160" s="3"/>
     </row>
     <row r="161" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4945,13 +4945,13 @@
         <v>159</v>
       </c>
       <c r="B161" s="5">
-        <v>541.24199999999996</v>
+        <v>544.35199999999998</v>
       </c>
       <c r="C161" s="5">
         <v>2</v>
       </c>
       <c r="D161" s="5">
-        <v>5413</v>
+        <v>5445</v>
       </c>
       <c r="E161" s="5">
         <v>1</v>
@@ -4960,7 +4960,7 @@
         <v>6</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
@@ -4970,13 +4970,13 @@
         <v>160</v>
       </c>
       <c r="B162" s="3">
-        <v>542.59199999999998</v>
+        <v>545.90200000000004</v>
       </c>
       <c r="C162" s="3">
         <v>2</v>
       </c>
       <c r="D162" s="3">
-        <v>5427</v>
+        <v>5459</v>
       </c>
       <c r="E162" s="3">
         <v>1</v>
@@ -4985,7 +4985,7 @@
         <v>6</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
@@ -4995,13 +4995,13 @@
         <v>161</v>
       </c>
       <c r="B163" s="5">
-        <v>542.92399999999998</v>
+        <v>547.452</v>
       </c>
       <c r="C163" s="5">
-        <v>3</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="D163" s="5">
+        <v>5475</v>
       </c>
       <c r="E163" s="5">
         <v>1</v>
@@ -5010,11 +5010,9 @@
         <v>6</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H163" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H163" s="5"/>
       <c r="I163" s="5"/>
     </row>
     <row r="164" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5022,13 +5020,13 @@
         <v>162</v>
       </c>
       <c r="B164" s="3">
-        <v>544.35199999999998</v>
+        <v>549.00199999999995</v>
       </c>
       <c r="C164" s="3">
         <v>2</v>
       </c>
       <c r="D164" s="3">
-        <v>5445</v>
+        <v>5491</v>
       </c>
       <c r="E164" s="3">
         <v>1</v>
@@ -5037,7 +5035,7 @@
         <v>6</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
@@ -5047,13 +5045,13 @@
         <v>163</v>
       </c>
       <c r="B165" s="5">
-        <v>545.90200000000004</v>
+        <v>550.60199999999998</v>
       </c>
       <c r="C165" s="5">
         <v>2</v>
       </c>
       <c r="D165" s="5">
-        <v>5459</v>
+        <v>5507</v>
       </c>
       <c r="E165" s="5">
         <v>1</v>
@@ -5062,7 +5060,7 @@
         <v>6</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
@@ -5072,13 +5070,13 @@
         <v>164</v>
       </c>
       <c r="B166" s="3">
-        <v>547.452</v>
+        <v>552.322</v>
       </c>
       <c r="C166" s="3">
         <v>2</v>
       </c>
       <c r="D166" s="3">
-        <v>5475</v>
+        <v>5523</v>
       </c>
       <c r="E166" s="3">
         <v>1</v>
@@ -5087,7 +5085,7 @@
         <v>6</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
@@ -5097,13 +5095,13 @@
         <v>165</v>
       </c>
       <c r="B167" s="5">
-        <v>549.00199999999995</v>
+        <v>554.04200000000003</v>
       </c>
       <c r="C167" s="5">
         <v>2</v>
       </c>
       <c r="D167" s="5">
-        <v>5491</v>
+        <v>5541</v>
       </c>
       <c r="E167" s="5">
         <v>1</v>
@@ -5112,7 +5110,7 @@
         <v>6</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
@@ -5122,13 +5120,13 @@
         <v>166</v>
       </c>
       <c r="B168" s="3">
-        <v>550.60199999999998</v>
+        <v>555.702</v>
       </c>
       <c r="C168" s="3">
         <v>2</v>
       </c>
       <c r="D168" s="3">
-        <v>5507</v>
+        <v>5557</v>
       </c>
       <c r="E168" s="3">
         <v>1</v>
@@ -5137,7 +5135,7 @@
         <v>6</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
@@ -5147,13 +5145,13 @@
         <v>167</v>
       </c>
       <c r="B169" s="5">
-        <v>552.322</v>
+        <v>557.30200000000002</v>
       </c>
       <c r="C169" s="5">
         <v>2</v>
       </c>
       <c r="D169" s="5">
-        <v>5523</v>
+        <v>5573</v>
       </c>
       <c r="E169" s="5">
         <v>1</v>
@@ -5162,7 +5160,7 @@
         <v>6</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
@@ -5172,13 +5170,13 @@
         <v>168</v>
       </c>
       <c r="B170" s="3">
-        <v>554.04200000000003</v>
+        <v>558.80200000000002</v>
       </c>
       <c r="C170" s="3">
         <v>2</v>
       </c>
       <c r="D170" s="3">
-        <v>5541</v>
+        <v>5589</v>
       </c>
       <c r="E170" s="3">
         <v>1</v>
@@ -5187,7 +5185,7 @@
         <v>6</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
@@ -5197,13 +5195,13 @@
         <v>169</v>
       </c>
       <c r="B171" s="5">
-        <v>555.702</v>
+        <v>560.30200000000002</v>
       </c>
       <c r="C171" s="5">
         <v>2</v>
       </c>
       <c r="D171" s="5">
-        <v>5557</v>
+        <v>5603</v>
       </c>
       <c r="E171" s="5">
         <v>1</v>
@@ -5212,7 +5210,7 @@
         <v>6</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
@@ -5222,13 +5220,13 @@
         <v>170</v>
       </c>
       <c r="B172" s="3">
-        <v>557.30200000000002</v>
+        <v>561.80200000000002</v>
       </c>
       <c r="C172" s="3">
         <v>2</v>
       </c>
       <c r="D172" s="3">
-        <v>5573</v>
+        <v>5619</v>
       </c>
       <c r="E172" s="3">
         <v>1</v>
@@ -5237,7 +5235,7 @@
         <v>6</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
@@ -5247,13 +5245,13 @@
         <v>171</v>
       </c>
       <c r="B173" s="5">
-        <v>558.80200000000002</v>
+        <v>563.45299999999997</v>
       </c>
       <c r="C173" s="5">
         <v>2</v>
       </c>
       <c r="D173" s="5">
-        <v>5589</v>
+        <v>5635</v>
       </c>
       <c r="E173" s="5">
         <v>1</v>
@@ -5262,7 +5260,7 @@
         <v>6</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H173" s="5"/>
       <c r="I173" s="5"/>
@@ -5272,13 +5270,13 @@
         <v>172</v>
       </c>
       <c r="B174" s="3">
-        <v>560.30200000000002</v>
+        <v>565.10299999999995</v>
       </c>
       <c r="C174" s="3">
         <v>2</v>
       </c>
       <c r="D174" s="3">
-        <v>5603</v>
+        <v>5651</v>
       </c>
       <c r="E174" s="3">
         <v>1</v>
@@ -5287,7 +5285,7 @@
         <v>6</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
@@ -5297,13 +5295,13 @@
         <v>173</v>
       </c>
       <c r="B175" s="5">
-        <v>561.80200000000002</v>
+        <v>566.75300000000004</v>
       </c>
       <c r="C175" s="5">
         <v>2</v>
       </c>
       <c r="D175" s="5">
-        <v>5619</v>
+        <v>5669</v>
       </c>
       <c r="E175" s="5">
         <v>1</v>
@@ -5312,7 +5310,7 @@
         <v>6</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
@@ -5322,13 +5320,13 @@
         <v>174</v>
       </c>
       <c r="B176" s="3">
-        <v>563.45299999999997</v>
+        <v>566.93399999999997</v>
       </c>
       <c r="C176" s="3">
-        <v>2</v>
-      </c>
-      <c r="D176" s="3">
-        <v>5635</v>
+        <v>3</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="E176" s="3">
         <v>1</v>
@@ -5337,9 +5335,11 @@
         <v>6</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H176" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I176" s="3"/>
     </row>
     <row r="177" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5347,13 +5347,13 @@
         <v>175</v>
       </c>
       <c r="B177" s="5">
-        <v>565.10299999999995</v>
+        <v>568.87400000000002</v>
       </c>
       <c r="C177" s="5">
-        <v>2</v>
-      </c>
-      <c r="D177" s="5">
-        <v>5651</v>
+        <v>1</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E177" s="5">
         <v>1</v>
@@ -5362,23 +5362,27 @@
         <v>6</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H177" s="5"/>
-      <c r="I177" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="H177" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I177" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="178" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="3">
         <v>176</v>
       </c>
       <c r="B178" s="3">
-        <v>566.75300000000004</v>
+        <v>570.33600000000001</v>
       </c>
       <c r="C178" s="3">
-        <v>2</v>
-      </c>
-      <c r="D178" s="3">
-        <v>5669</v>
+        <v>1</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="E178" s="3">
         <v>1</v>
@@ -5387,23 +5391,27 @@
         <v>6</v>
       </c>
       <c r="G178" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I178" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H178" s="3"/>
-      <c r="I178" s="3"/>
     </row>
     <row r="179" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="5">
         <v>177</v>
       </c>
       <c r="B179" s="5">
-        <v>566.93399999999997</v>
+        <v>571.93600000000004</v>
       </c>
       <c r="C179" s="5">
-        <v>3</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>65</v>
+        <v>2</v>
+      </c>
+      <c r="D179" s="5">
+        <v>5719</v>
       </c>
       <c r="E179" s="5">
         <v>1</v>
@@ -5412,11 +5420,9 @@
         <v>6</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H179" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H179" s="5"/>
       <c r="I179" s="5"/>
     </row>
     <row r="180" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5424,13 +5430,13 @@
         <v>178</v>
       </c>
       <c r="B180" s="3">
-        <v>568.87400000000002</v>
+        <v>573.53599999999994</v>
       </c>
       <c r="C180" s="3">
-        <v>1</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="D180" s="3">
+        <v>5735</v>
       </c>
       <c r="E180" s="3">
         <v>1</v>
@@ -5439,27 +5445,23 @@
         <v>6</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H180" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I180" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H180" s="3"/>
+      <c r="I180" s="3"/>
     </row>
     <row r="181" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="5">
         <v>179</v>
       </c>
       <c r="B181" s="5">
-        <v>570.33600000000001</v>
+        <v>575.13599999999997</v>
       </c>
       <c r="C181" s="5">
-        <v>1</v>
-      </c>
-      <c r="D181" s="5" t="s">
-        <v>51</v>
+        <v>2</v>
+      </c>
+      <c r="D181" s="5">
+        <v>5751</v>
       </c>
       <c r="E181" s="5">
         <v>1</v>
@@ -5468,27 +5470,23 @@
         <v>6</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H181" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I181" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
     </row>
     <row r="182" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="3">
         <v>180</v>
       </c>
       <c r="B182" s="3">
-        <v>571.93600000000004</v>
+        <v>576.73599999999999</v>
       </c>
       <c r="C182" s="3">
         <v>2</v>
       </c>
       <c r="D182" s="3">
-        <v>5719</v>
+        <v>5767</v>
       </c>
       <c r="E182" s="3">
         <v>1</v>
@@ -5497,7 +5495,7 @@
         <v>6</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
@@ -5507,13 +5505,13 @@
         <v>181</v>
       </c>
       <c r="B183" s="5">
-        <v>573.53599999999994</v>
+        <v>578.33600000000001</v>
       </c>
       <c r="C183" s="5">
         <v>2</v>
       </c>
       <c r="D183" s="5">
-        <v>5735</v>
+        <v>5783</v>
       </c>
       <c r="E183" s="5">
         <v>1</v>
@@ -5522,7 +5520,7 @@
         <v>6</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
@@ -5532,13 +5530,13 @@
         <v>182</v>
       </c>
       <c r="B184" s="3">
-        <v>575.13599999999997</v>
+        <v>580.08600000000001</v>
       </c>
       <c r="C184" s="3">
         <v>2</v>
       </c>
       <c r="D184" s="3">
-        <v>5751</v>
+        <v>5801</v>
       </c>
       <c r="E184" s="3">
         <v>1</v>
@@ -5547,7 +5545,7 @@
         <v>6</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
@@ -5557,13 +5555,13 @@
         <v>183</v>
       </c>
       <c r="B185" s="5">
-        <v>576.73599999999999</v>
+        <v>581.92600000000004</v>
       </c>
       <c r="C185" s="5">
         <v>2</v>
       </c>
       <c r="D185" s="5">
-        <v>5767</v>
+        <v>5819</v>
       </c>
       <c r="E185" s="5">
         <v>1</v>
@@ -5572,7 +5570,7 @@
         <v>6</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H185" s="5"/>
       <c r="I185" s="5"/>
@@ -5582,13 +5580,13 @@
         <v>184</v>
       </c>
       <c r="B186" s="3">
-        <v>578.33600000000001</v>
+        <v>583.71600000000001</v>
       </c>
       <c r="C186" s="3">
         <v>2</v>
       </c>
       <c r="D186" s="3">
-        <v>5783</v>
+        <v>5837</v>
       </c>
       <c r="E186" s="3">
         <v>1</v>
@@ -5597,7 +5595,7 @@
         <v>6</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
@@ -5607,13 +5605,13 @@
         <v>185</v>
       </c>
       <c r="B187" s="5">
-        <v>580.08600000000001</v>
+        <v>585.50599999999997</v>
       </c>
       <c r="C187" s="5">
         <v>2</v>
       </c>
       <c r="D187" s="5">
-        <v>5801</v>
+        <v>5855</v>
       </c>
       <c r="E187" s="5">
         <v>1</v>
@@ -5622,7 +5620,7 @@
         <v>6</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
@@ -5632,13 +5630,13 @@
         <v>186</v>
       </c>
       <c r="B188" s="3">
-        <v>581.92600000000004</v>
+        <v>587.29600000000005</v>
       </c>
       <c r="C188" s="3">
         <v>2</v>
       </c>
       <c r="D188" s="3">
-        <v>5819</v>
+        <v>5873</v>
       </c>
       <c r="E188" s="3">
         <v>1</v>
@@ -5647,7 +5645,7 @@
         <v>6</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
@@ -5657,13 +5655,13 @@
         <v>187</v>
       </c>
       <c r="B189" s="5">
-        <v>583.71600000000001</v>
+        <v>589.08600000000001</v>
       </c>
       <c r="C189" s="5">
         <v>2</v>
       </c>
       <c r="D189" s="5">
-        <v>5837</v>
+        <v>5891</v>
       </c>
       <c r="E189" s="5">
         <v>1</v>
@@ -5672,7 +5670,7 @@
         <v>6</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H189" s="5"/>
       <c r="I189" s="5"/>
@@ -5682,13 +5680,13 @@
         <v>188</v>
       </c>
       <c r="B190" s="3">
-        <v>585.50599999999997</v>
+        <v>590.87599999999998</v>
       </c>
       <c r="C190" s="3">
         <v>2</v>
       </c>
       <c r="D190" s="3">
-        <v>5855</v>
+        <v>5909</v>
       </c>
       <c r="E190" s="3">
         <v>1</v>
@@ -5697,7 +5695,7 @@
         <v>6</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
@@ -5707,13 +5705,13 @@
         <v>189</v>
       </c>
       <c r="B191" s="5">
-        <v>587.29600000000005</v>
+        <v>592.66600000000005</v>
       </c>
       <c r="C191" s="5">
         <v>2</v>
       </c>
       <c r="D191" s="5">
-        <v>5873</v>
+        <v>5927</v>
       </c>
       <c r="E191" s="5">
         <v>1</v>
@@ -5722,7 +5720,7 @@
         <v>6</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
@@ -5732,13 +5730,13 @@
         <v>190</v>
       </c>
       <c r="B192" s="3">
-        <v>589.08600000000001</v>
+        <v>594.45600000000002</v>
       </c>
       <c r="C192" s="3">
         <v>2</v>
       </c>
       <c r="D192" s="3">
-        <v>5891</v>
+        <v>5945</v>
       </c>
       <c r="E192" s="3">
         <v>1</v>
@@ -5747,7 +5745,7 @@
         <v>6</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
@@ -5757,13 +5755,13 @@
         <v>191</v>
       </c>
       <c r="B193" s="5">
-        <v>590.87599999999998</v>
+        <v>595.10699999999997</v>
       </c>
       <c r="C193" s="5">
-        <v>2</v>
-      </c>
-      <c r="D193" s="5">
-        <v>5909</v>
+        <v>3</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="E193" s="5">
         <v>1</v>
@@ -5772,9 +5770,11 @@
         <v>6</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H193" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="H193" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I193" s="5"/>
     </row>
     <row r="194" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5782,13 +5782,13 @@
         <v>192</v>
       </c>
       <c r="B194" s="3">
-        <v>592.66600000000005</v>
+        <v>596.226</v>
       </c>
       <c r="C194" s="3">
         <v>2</v>
       </c>
       <c r="D194" s="3">
-        <v>5927</v>
+        <v>5963</v>
       </c>
       <c r="E194" s="3">
         <v>1</v>
@@ -5797,7 +5797,7 @@
         <v>6</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
@@ -5807,13 +5807,13 @@
         <v>193</v>
       </c>
       <c r="B195" s="5">
-        <v>594.45600000000002</v>
+        <v>597.99599999999998</v>
       </c>
       <c r="C195" s="5">
         <v>2</v>
       </c>
       <c r="D195" s="5">
-        <v>5945</v>
+        <v>5981</v>
       </c>
       <c r="E195" s="5">
         <v>1</v>
@@ -5822,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
@@ -5832,13 +5832,13 @@
         <v>194</v>
       </c>
       <c r="B196" s="3">
-        <v>595.10699999999997</v>
+        <v>599.76599999999996</v>
       </c>
       <c r="C196" s="3">
-        <v>3</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>66</v>
+        <v>2</v>
+      </c>
+      <c r="D196" s="3">
+        <v>5999</v>
       </c>
       <c r="E196" s="3">
         <v>1</v>
@@ -5847,11 +5847,9 @@
         <v>6</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H196" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H196" s="3"/>
       <c r="I196" s="3"/>
     </row>
     <row r="197" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5859,13 +5857,13 @@
         <v>195</v>
       </c>
       <c r="B197" s="5">
-        <v>596.226</v>
+        <v>601.33600000000001</v>
       </c>
       <c r="C197" s="5">
         <v>2</v>
       </c>
       <c r="D197" s="5">
-        <v>5963</v>
+        <v>6013</v>
       </c>
       <c r="E197" s="5">
         <v>1</v>
@@ -5874,7 +5872,7 @@
         <v>6</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
@@ -5884,22 +5882,22 @@
         <v>196</v>
       </c>
       <c r="B198" s="3">
-        <v>597.99599999999998</v>
+        <v>602.62400000000002</v>
       </c>
       <c r="C198" s="3">
         <v>2</v>
       </c>
       <c r="D198" s="3">
-        <v>5981</v>
+        <v>6027</v>
       </c>
       <c r="E198" s="3">
         <v>1</v>
       </c>
       <c r="F198" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
@@ -5909,22 +5907,22 @@
         <v>197</v>
       </c>
       <c r="B199" s="5">
-        <v>599.76599999999996</v>
+        <v>604.13400000000001</v>
       </c>
       <c r="C199" s="5">
         <v>2</v>
       </c>
       <c r="D199" s="5">
-        <v>5999</v>
+        <v>6041</v>
       </c>
       <c r="E199" s="5">
         <v>1</v>
       </c>
       <c r="F199" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
@@ -5934,22 +5932,22 @@
         <v>198</v>
       </c>
       <c r="B200" s="3">
-        <v>601.33600000000001</v>
+        <v>605.64400000000001</v>
       </c>
       <c r="C200" s="3">
         <v>2</v>
       </c>
       <c r="D200" s="3">
-        <v>6013</v>
+        <v>6057</v>
       </c>
       <c r="E200" s="3">
         <v>1</v>
       </c>
       <c r="F200" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
@@ -5959,13 +5957,13 @@
         <v>199</v>
       </c>
       <c r="B201" s="5">
-        <v>602.62400000000002</v>
+        <v>607.154</v>
       </c>
       <c r="C201" s="5">
         <v>2</v>
       </c>
       <c r="D201" s="5">
-        <v>6027</v>
+        <v>6073</v>
       </c>
       <c r="E201" s="5">
         <v>1</v>
@@ -5974,7 +5972,7 @@
         <v>7</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
@@ -5984,13 +5982,13 @@
         <v>200</v>
       </c>
       <c r="B202" s="3">
-        <v>604.13400000000001</v>
+        <v>608.66399999999999</v>
       </c>
       <c r="C202" s="3">
         <v>2</v>
       </c>
       <c r="D202" s="3">
-        <v>6041</v>
+        <v>6087</v>
       </c>
       <c r="E202" s="3">
         <v>1</v>
@@ -5999,7 +5997,7 @@
         <v>7</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
@@ -6009,13 +6007,13 @@
         <v>201</v>
       </c>
       <c r="B203" s="5">
-        <v>605.64400000000001</v>
+        <v>610.17399999999998</v>
       </c>
       <c r="C203" s="5">
         <v>2</v>
       </c>
       <c r="D203" s="5">
-        <v>6057</v>
+        <v>6103</v>
       </c>
       <c r="E203" s="5">
         <v>1</v>
@@ -6024,7 +6022,7 @@
         <v>7</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
@@ -6034,13 +6032,13 @@
         <v>202</v>
       </c>
       <c r="B204" s="3">
-        <v>607.154</v>
+        <v>611.68399999999997</v>
       </c>
       <c r="C204" s="3">
         <v>2</v>
       </c>
       <c r="D204" s="3">
-        <v>6073</v>
+        <v>6117</v>
       </c>
       <c r="E204" s="3">
         <v>1</v>
@@ -6049,7 +6047,7 @@
         <v>7</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
@@ -6059,13 +6057,13 @@
         <v>203</v>
       </c>
       <c r="B205" s="5">
-        <v>608.66399999999999</v>
+        <v>613.19399999999996</v>
       </c>
       <c r="C205" s="5">
         <v>2</v>
       </c>
       <c r="D205" s="5">
-        <v>6087</v>
+        <v>6133</v>
       </c>
       <c r="E205" s="5">
         <v>1</v>
@@ -6074,7 +6072,7 @@
         <v>7</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H205" s="5"/>
       <c r="I205" s="5"/>
@@ -6084,13 +6082,13 @@
         <v>204</v>
       </c>
       <c r="B206" s="3">
-        <v>610.17399999999998</v>
+        <v>614.95399999999995</v>
       </c>
       <c r="C206" s="3">
         <v>2</v>
       </c>
       <c r="D206" s="3">
-        <v>6103</v>
+        <v>6151</v>
       </c>
       <c r="E206" s="3">
         <v>1</v>
@@ -6099,7 +6097,7 @@
         <v>7</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
@@ -6109,13 +6107,13 @@
         <v>205</v>
       </c>
       <c r="B207" s="5">
-        <v>611.68399999999997</v>
+        <v>616.69399999999996</v>
       </c>
       <c r="C207" s="5">
         <v>2</v>
       </c>
       <c r="D207" s="5">
-        <v>6117</v>
+        <v>6167</v>
       </c>
       <c r="E207" s="5">
         <v>1</v>
@@ -6124,7 +6122,7 @@
         <v>7</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H207" s="5"/>
       <c r="I207" s="5"/>
@@ -6134,13 +6132,13 @@
         <v>206</v>
       </c>
       <c r="B208" s="3">
-        <v>613.19399999999996</v>
+        <v>618.32399999999996</v>
       </c>
       <c r="C208" s="3">
         <v>2</v>
       </c>
       <c r="D208" s="3">
-        <v>6133</v>
+        <v>6183</v>
       </c>
       <c r="E208" s="3">
         <v>1</v>
@@ -6149,7 +6147,7 @@
         <v>7</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
@@ -6159,13 +6157,13 @@
         <v>207</v>
       </c>
       <c r="B209" s="5">
-        <v>614.95399999999995</v>
+        <v>619.83500000000004</v>
       </c>
       <c r="C209" s="5">
-        <v>2</v>
-      </c>
-      <c r="D209" s="5">
-        <v>6151</v>
+        <v>1</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E209" s="5">
         <v>1</v>
@@ -6174,23 +6172,27 @@
         <v>7</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H209" s="5"/>
-      <c r="I209" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="H209" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I209" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="210" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="3">
         <v>208</v>
       </c>
       <c r="B210" s="3">
-        <v>616.69399999999996</v>
+        <v>621.51800000000003</v>
       </c>
       <c r="C210" s="3">
-        <v>2</v>
-      </c>
-      <c r="D210" s="3">
-        <v>6167</v>
+        <v>1</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="E210" s="3">
         <v>1</v>
@@ -6199,23 +6201,27 @@
         <v>7</v>
       </c>
       <c r="G210" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I210" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H210" s="3"/>
-      <c r="I210" s="3"/>
     </row>
     <row r="211" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="5">
         <v>209</v>
       </c>
       <c r="B211" s="5">
-        <v>618.32399999999996</v>
+        <v>622.66800000000001</v>
       </c>
       <c r="C211" s="5">
         <v>2</v>
       </c>
       <c r="D211" s="5">
-        <v>6183</v>
+        <v>6227</v>
       </c>
       <c r="E211" s="5">
         <v>1</v>
@@ -6224,7 +6230,7 @@
         <v>7</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H211" s="5"/>
       <c r="I211" s="5"/>
@@ -6234,13 +6240,13 @@
         <v>210</v>
       </c>
       <c r="B212" s="3">
-        <v>619.83500000000004</v>
+        <v>622.9</v>
       </c>
       <c r="C212" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E212" s="3">
         <v>1</v>
@@ -6249,27 +6255,25 @@
         <v>7</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I212" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I212" s="3"/>
     </row>
     <row r="213" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="5">
         <v>211</v>
       </c>
       <c r="B213" s="5">
-        <v>621.51800000000003</v>
+        <v>624.51800000000003</v>
       </c>
       <c r="C213" s="5">
-        <v>1</v>
-      </c>
-      <c r="D213" s="5" t="s">
-        <v>51</v>
+        <v>2</v>
+      </c>
+      <c r="D213" s="5">
+        <v>6245</v>
       </c>
       <c r="E213" s="5">
         <v>1</v>
@@ -6278,27 +6282,23 @@
         <v>7</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H213" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I213" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
     </row>
     <row r="214" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="3">
         <v>212</v>
       </c>
       <c r="B214" s="3">
-        <v>622.66800000000001</v>
+        <v>626.16800000000001</v>
       </c>
       <c r="C214" s="3">
         <v>2</v>
       </c>
       <c r="D214" s="3">
-        <v>6227</v>
+        <v>6263</v>
       </c>
       <c r="E214" s="3">
         <v>1</v>
@@ -6307,7 +6307,7 @@
         <v>7</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
@@ -6317,13 +6317,13 @@
         <v>213</v>
       </c>
       <c r="B215" s="5">
-        <v>622.9</v>
+        <v>627.81799999999998</v>
       </c>
       <c r="C215" s="5">
-        <v>3</v>
-      </c>
-      <c r="D215" s="5" t="s">
-        <v>67</v>
+        <v>2</v>
+      </c>
+      <c r="D215" s="5">
+        <v>6279</v>
       </c>
       <c r="E215" s="5">
         <v>1</v>
@@ -6332,11 +6332,9 @@
         <v>7</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H215" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H215" s="5"/>
       <c r="I215" s="5"/>
     </row>
     <row r="216" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -6344,13 +6342,13 @@
         <v>214</v>
       </c>
       <c r="B216" s="3">
-        <v>624.51800000000003</v>
+        <v>629.46799999999996</v>
       </c>
       <c r="C216" s="3">
         <v>2</v>
       </c>
       <c r="D216" s="3">
-        <v>6245</v>
+        <v>6295</v>
       </c>
       <c r="E216" s="3">
         <v>1</v>
@@ -6359,7 +6357,7 @@
         <v>7</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
@@ -6369,72 +6367,80 @@
         <v>215</v>
       </c>
       <c r="B217" s="5">
-        <v>626.16800000000001</v>
+        <v>631.70299999999997</v>
       </c>
       <c r="C217" s="5">
-        <v>2</v>
-      </c>
-      <c r="D217" s="5">
-        <v>6263</v>
+        <v>1</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E217" s="5">
         <v>1</v>
       </c>
       <c r="F217" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H217" s="5"/>
-      <c r="I217" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="H217" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I217" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="218" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="3">
         <v>216</v>
       </c>
       <c r="B218" s="3">
-        <v>627.81799999999998</v>
+        <v>633.69000000000005</v>
       </c>
       <c r="C218" s="3">
-        <v>2</v>
-      </c>
-      <c r="D218" s="3">
-        <v>6279</v>
+        <v>1</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="E218" s="3">
         <v>1</v>
       </c>
       <c r="F218" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G218" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I218" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H218" s="3"/>
-      <c r="I218" s="3"/>
     </row>
     <row r="219" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="5">
         <v>217</v>
       </c>
       <c r="B219" s="5">
-        <v>629.46799999999996</v>
+        <v>635.09</v>
       </c>
       <c r="C219" s="5">
         <v>2</v>
       </c>
       <c r="D219" s="5">
-        <v>6295</v>
+        <v>6351</v>
       </c>
       <c r="E219" s="5">
         <v>1</v>
       </c>
       <c r="F219" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H219" s="5"/>
       <c r="I219" s="5"/>
@@ -6444,13 +6450,13 @@
         <v>218</v>
       </c>
       <c r="B220" s="3">
-        <v>631.70299999999997</v>
+        <v>636.59</v>
       </c>
       <c r="C220" s="3">
-        <v>1</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="D220" s="3">
+        <v>6367</v>
       </c>
       <c r="E220" s="3">
         <v>1</v>
@@ -6459,27 +6465,23 @@
         <v>8</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H220" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I220" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H220" s="3"/>
+      <c r="I220" s="3"/>
     </row>
     <row r="221" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="5">
         <v>219</v>
       </c>
       <c r="B221" s="5">
-        <v>633.69000000000005</v>
+        <v>637.99</v>
       </c>
       <c r="C221" s="5">
-        <v>1</v>
-      </c>
-      <c r="D221" s="5" t="s">
-        <v>51</v>
+        <v>2</v>
+      </c>
+      <c r="D221" s="5">
+        <v>6381</v>
       </c>
       <c r="E221" s="5">
         <v>1</v>
@@ -6488,27 +6490,23 @@
         <v>8</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H221" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I221" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H221" s="5"/>
+      <c r="I221" s="5"/>
     </row>
     <row r="222" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="3">
         <v>220</v>
       </c>
       <c r="B222" s="3">
-        <v>635.09</v>
+        <v>639.49</v>
       </c>
       <c r="C222" s="3">
         <v>2</v>
       </c>
       <c r="D222" s="3">
-        <v>6351</v>
+        <v>6395</v>
       </c>
       <c r="E222" s="3">
         <v>1</v>
@@ -6517,7 +6515,7 @@
         <v>8</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
@@ -6527,13 +6525,13 @@
         <v>221</v>
       </c>
       <c r="B223" s="5">
-        <v>636.59</v>
+        <v>640.89</v>
       </c>
       <c r="C223" s="5">
         <v>2</v>
       </c>
       <c r="D223" s="5">
-        <v>6367</v>
+        <v>6409</v>
       </c>
       <c r="E223" s="5">
         <v>1</v>
@@ -6542,7 +6540,7 @@
         <v>8</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H223" s="5"/>
       <c r="I223" s="5"/>
@@ -6552,13 +6550,13 @@
         <v>222</v>
       </c>
       <c r="B224" s="3">
-        <v>637.99</v>
+        <v>642.39</v>
       </c>
       <c r="C224" s="3">
         <v>2</v>
       </c>
       <c r="D224" s="3">
-        <v>6381</v>
+        <v>6425</v>
       </c>
       <c r="E224" s="3">
         <v>1</v>
@@ -6567,7 +6565,7 @@
         <v>8</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
@@ -6577,13 +6575,13 @@
         <v>223</v>
       </c>
       <c r="B225" s="5">
-        <v>639.49</v>
+        <v>643.79</v>
       </c>
       <c r="C225" s="5">
         <v>2</v>
       </c>
       <c r="D225" s="5">
-        <v>6395</v>
+        <v>6439</v>
       </c>
       <c r="E225" s="5">
         <v>1</v>
@@ -6592,7 +6590,7 @@
         <v>8</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H225" s="5"/>
       <c r="I225" s="5"/>
@@ -6602,13 +6600,13 @@
         <v>224</v>
       </c>
       <c r="B226" s="3">
-        <v>640.89</v>
+        <v>645.29</v>
       </c>
       <c r="C226" s="3">
         <v>2</v>
       </c>
       <c r="D226" s="3">
-        <v>6409</v>
+        <v>6453</v>
       </c>
       <c r="E226" s="3">
         <v>1</v>
@@ -6617,7 +6615,7 @@
         <v>8</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
@@ -6627,13 +6625,13 @@
         <v>225</v>
       </c>
       <c r="B227" s="5">
-        <v>642.39</v>
+        <v>646.69000000000005</v>
       </c>
       <c r="C227" s="5">
         <v>2</v>
       </c>
       <c r="D227" s="5">
-        <v>6425</v>
+        <v>6467</v>
       </c>
       <c r="E227" s="5">
         <v>1</v>
@@ -6642,7 +6640,7 @@
         <v>8</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H227" s="5"/>
       <c r="I227" s="5"/>
@@ -6652,13 +6650,13 @@
         <v>226</v>
       </c>
       <c r="B228" s="3">
-        <v>643.79</v>
+        <v>648.82000000000005</v>
       </c>
       <c r="C228" s="3">
         <v>2</v>
       </c>
       <c r="D228" s="3">
-        <v>6439</v>
+        <v>6489</v>
       </c>
       <c r="E228" s="3">
         <v>1</v>
@@ -6667,7 +6665,7 @@
         <v>8</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
@@ -6677,13 +6675,13 @@
         <v>227</v>
       </c>
       <c r="B229" s="5">
-        <v>645.29</v>
+        <v>650.22</v>
       </c>
       <c r="C229" s="5">
-        <v>2</v>
-      </c>
-      <c r="D229" s="5">
-        <v>6453</v>
+        <v>3</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="E229" s="5">
         <v>1</v>
@@ -6692,9 +6690,11 @@
         <v>8</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H229" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="H229" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I229" s="5"/>
     </row>
     <row r="230" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -6702,13 +6702,13 @@
         <v>228</v>
       </c>
       <c r="B230" s="3">
-        <v>646.69000000000005</v>
+        <v>651.49</v>
       </c>
       <c r="C230" s="3">
         <v>2</v>
       </c>
       <c r="D230" s="3">
-        <v>6467</v>
+        <v>6515</v>
       </c>
       <c r="E230" s="3">
         <v>1</v>
@@ -6717,7 +6717,7 @@
         <v>8</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
@@ -6727,13 +6727,13 @@
         <v>229</v>
       </c>
       <c r="B231" s="5">
-        <v>648.19000000000005</v>
+        <v>652.99</v>
       </c>
       <c r="C231" s="5">
         <v>2</v>
       </c>
       <c r="D231" s="5">
-        <v>6483</v>
+        <v>6531</v>
       </c>
       <c r="E231" s="5">
         <v>1</v>
@@ -6742,7 +6742,7 @@
         <v>8</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H231" s="5"/>
       <c r="I231" s="5"/>
@@ -6752,13 +6752,13 @@
         <v>230</v>
       </c>
       <c r="B232" s="3">
-        <v>649.59</v>
+        <v>654.59</v>
       </c>
       <c r="C232" s="3">
         <v>2</v>
       </c>
       <c r="D232" s="3">
-        <v>6497</v>
+        <v>6547</v>
       </c>
       <c r="E232" s="3">
         <v>1</v>
@@ -6767,7 +6767,7 @@
         <v>8</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
@@ -6777,13 +6777,13 @@
         <v>231</v>
       </c>
       <c r="B233" s="5">
-        <v>650.22</v>
+        <v>656.09</v>
       </c>
       <c r="C233" s="5">
-        <v>3</v>
-      </c>
-      <c r="D233" s="5" t="s">
-        <v>68</v>
+        <v>2</v>
+      </c>
+      <c r="D233" s="5">
+        <v>6561</v>
       </c>
       <c r="E233" s="5">
         <v>1</v>
@@ -6792,11 +6792,9 @@
         <v>8</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H233" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H233" s="5"/>
       <c r="I233" s="5"/>
     </row>
     <row r="234" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -6804,13 +6802,13 @@
         <v>232</v>
       </c>
       <c r="B234" s="3">
-        <v>651.39</v>
+        <v>657.69</v>
       </c>
       <c r="C234" s="3">
         <v>2</v>
       </c>
       <c r="D234" s="3">
-        <v>6515</v>
+        <v>6577</v>
       </c>
       <c r="E234" s="3">
         <v>1</v>
@@ -6819,7 +6817,7 @@
         <v>8</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
@@ -6829,13 +6827,13 @@
         <v>233</v>
       </c>
       <c r="B235" s="5">
-        <v>652.99</v>
+        <v>659.29</v>
       </c>
       <c r="C235" s="5">
         <v>2</v>
       </c>
       <c r="D235" s="5">
-        <v>6531</v>
+        <v>6593</v>
       </c>
       <c r="E235" s="5">
         <v>1</v>
@@ -6844,7 +6842,7 @@
         <v>8</v>
       </c>
       <c r="G235" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H235" s="5"/>
       <c r="I235" s="5"/>
@@ -6854,13 +6852,13 @@
         <v>234</v>
       </c>
       <c r="B236" s="3">
-        <v>654.59</v>
+        <v>660.89</v>
       </c>
       <c r="C236" s="3">
         <v>2</v>
       </c>
       <c r="D236" s="3">
-        <v>6547</v>
+        <v>6609</v>
       </c>
       <c r="E236" s="3">
         <v>1</v>
@@ -6869,7 +6867,7 @@
         <v>8</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
@@ -6879,13 +6877,13 @@
         <v>235</v>
       </c>
       <c r="B237" s="5">
-        <v>656.09</v>
+        <v>662.64</v>
       </c>
       <c r="C237" s="5">
         <v>2</v>
       </c>
       <c r="D237" s="5">
-        <v>6561</v>
+        <v>6627</v>
       </c>
       <c r="E237" s="5">
         <v>1</v>
@@ -6894,7 +6892,7 @@
         <v>8</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H237" s="5"/>
       <c r="I237" s="5"/>
@@ -6904,13 +6902,13 @@
         <v>236</v>
       </c>
       <c r="B238" s="3">
-        <v>657.69</v>
+        <v>664.39</v>
       </c>
       <c r="C238" s="3">
         <v>2</v>
       </c>
       <c r="D238" s="3">
-        <v>6577</v>
+        <v>6645</v>
       </c>
       <c r="E238" s="3">
         <v>1</v>
@@ -6919,7 +6917,7 @@
         <v>8</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
@@ -6929,13 +6927,13 @@
         <v>237</v>
       </c>
       <c r="B239" s="5">
-        <v>659.29</v>
+        <v>666.14</v>
       </c>
       <c r="C239" s="5">
         <v>2</v>
       </c>
       <c r="D239" s="5">
-        <v>6593</v>
+        <v>6661</v>
       </c>
       <c r="E239" s="5">
         <v>1</v>
@@ -6944,7 +6942,7 @@
         <v>8</v>
       </c>
       <c r="G239" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H239" s="5"/>
       <c r="I239" s="5"/>
@@ -6954,13 +6952,13 @@
         <v>238</v>
       </c>
       <c r="B240" s="3">
-        <v>660.89</v>
+        <v>667.89</v>
       </c>
       <c r="C240" s="3">
         <v>2</v>
       </c>
       <c r="D240" s="3">
-        <v>6609</v>
+        <v>6679</v>
       </c>
       <c r="E240" s="3">
         <v>1</v>
@@ -6969,7 +6967,7 @@
         <v>8</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
@@ -6979,13 +6977,13 @@
         <v>239</v>
       </c>
       <c r="B241" s="5">
-        <v>662.64</v>
+        <v>669.64</v>
       </c>
       <c r="C241" s="5">
         <v>2</v>
       </c>
       <c r="D241" s="5">
-        <v>6627</v>
+        <v>6697</v>
       </c>
       <c r="E241" s="5">
         <v>1</v>
@@ -6994,7 +6992,7 @@
         <v>8</v>
       </c>
       <c r="G241" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H241" s="5"/>
       <c r="I241" s="5"/>
@@ -7004,13 +7002,13 @@
         <v>240</v>
       </c>
       <c r="B242" s="3">
-        <v>664.39</v>
+        <v>671.39</v>
       </c>
       <c r="C242" s="3">
         <v>2</v>
       </c>
       <c r="D242" s="3">
-        <v>6645</v>
+        <v>6715</v>
       </c>
       <c r="E242" s="3">
         <v>1</v>
@@ -7019,7 +7017,7 @@
         <v>8</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
@@ -7029,13 +7027,13 @@
         <v>241</v>
       </c>
       <c r="B243" s="5">
-        <v>666.14</v>
+        <v>673.14</v>
       </c>
       <c r="C243" s="5">
         <v>2</v>
       </c>
       <c r="D243" s="5">
-        <v>6661</v>
+        <v>6731</v>
       </c>
       <c r="E243" s="5">
         <v>1</v>
@@ -7044,7 +7042,7 @@
         <v>8</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H243" s="5"/>
       <c r="I243" s="5"/>
@@ -7054,72 +7052,80 @@
         <v>242</v>
       </c>
       <c r="B244" s="3">
-        <v>667.89</v>
+        <v>684.47</v>
       </c>
       <c r="C244" s="3">
-        <v>2</v>
-      </c>
-      <c r="D244" s="3">
-        <v>6679</v>
+        <v>1</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E244" s="3">
         <v>1</v>
       </c>
       <c r="F244" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H244" s="3"/>
-      <c r="I244" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I244" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="245" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="5">
         <v>243</v>
       </c>
       <c r="B245" s="5">
-        <v>669.64</v>
+        <v>686.08500000000004</v>
       </c>
       <c r="C245" s="5">
-        <v>2</v>
-      </c>
-      <c r="D245" s="5">
-        <v>6697</v>
+        <v>1</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E245" s="5">
         <v>1</v>
       </c>
       <c r="F245" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G245" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H245" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I245" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H245" s="5"/>
-      <c r="I245" s="5"/>
     </row>
     <row r="246" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="3">
         <v>244</v>
       </c>
       <c r="B246" s="3">
-        <v>671.39</v>
+        <v>687.38499999999999</v>
       </c>
       <c r="C246" s="3">
         <v>2</v>
       </c>
       <c r="D246" s="3">
-        <v>6715</v>
+        <v>6875</v>
       </c>
       <c r="E246" s="3">
         <v>1</v>
       </c>
       <c r="F246" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
@@ -7129,24 +7135,26 @@
         <v>245</v>
       </c>
       <c r="B247" s="5">
-        <v>673.14</v>
+        <v>687.71900000000005</v>
       </c>
       <c r="C247" s="5">
-        <v>2</v>
-      </c>
-      <c r="D247" s="5">
-        <v>6731</v>
+        <v>3</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="E247" s="5">
         <v>1</v>
       </c>
       <c r="F247" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H247" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H247" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I247" s="5"/>
     </row>
     <row r="248" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7154,13 +7162,13 @@
         <v>246</v>
       </c>
       <c r="B248" s="3">
-        <v>684.47</v>
+        <v>689.255</v>
       </c>
       <c r="C248" s="3">
-        <v>1</v>
-      </c>
-      <c r="D248" s="3" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="D248" s="3">
+        <v>6893</v>
       </c>
       <c r="E248" s="3">
         <v>1</v>
@@ -7171,25 +7179,21 @@
       <c r="G248" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H248" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I248" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="H248" s="3"/>
+      <c r="I248" s="3"/>
     </row>
     <row r="249" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="5">
         <v>247</v>
       </c>
       <c r="B249" s="5">
-        <v>686.08500000000004</v>
+        <v>690.98500000000001</v>
       </c>
       <c r="C249" s="5">
-        <v>1</v>
-      </c>
-      <c r="D249" s="5" t="s">
-        <v>51</v>
+        <v>2</v>
+      </c>
+      <c r="D249" s="5">
+        <v>6911</v>
       </c>
       <c r="E249" s="5">
         <v>1</v>
@@ -7200,25 +7204,21 @@
       <c r="G249" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H249" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I249" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="H249" s="5"/>
+      <c r="I249" s="5"/>
     </row>
     <row r="250" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="3">
         <v>248</v>
       </c>
       <c r="B250" s="3">
-        <v>687.38499999999999</v>
+        <v>692.78499999999997</v>
       </c>
       <c r="C250" s="3">
         <v>2</v>
       </c>
       <c r="D250" s="3">
-        <v>6875</v>
+        <v>6929</v>
       </c>
       <c r="E250" s="3">
         <v>1</v>
@@ -7237,13 +7237,13 @@
         <v>249</v>
       </c>
       <c r="B251" s="5">
-        <v>687.71900000000005</v>
+        <v>694.55499999999995</v>
       </c>
       <c r="C251" s="5">
-        <v>3</v>
-      </c>
-      <c r="D251" s="5" t="s">
-        <v>69</v>
+        <v>2</v>
+      </c>
+      <c r="D251" s="5">
+        <v>6947</v>
       </c>
       <c r="E251" s="5">
         <v>1</v>
@@ -7254,9 +7254,7 @@
       <c r="G251" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H251" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="H251" s="5"/>
       <c r="I251" s="5"/>
     </row>
     <row r="252" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7264,13 +7262,13 @@
         <v>250</v>
       </c>
       <c r="B252" s="3">
-        <v>689.255</v>
+        <v>696.32500000000005</v>
       </c>
       <c r="C252" s="3">
         <v>2</v>
       </c>
       <c r="D252" s="3">
-        <v>6893</v>
+        <v>6963</v>
       </c>
       <c r="E252" s="3">
         <v>1</v>
@@ -7289,13 +7287,13 @@
         <v>251</v>
       </c>
       <c r="B253" s="5">
-        <v>690.98500000000001</v>
+        <v>698.09500000000003</v>
       </c>
       <c r="C253" s="5">
         <v>2</v>
       </c>
       <c r="D253" s="5">
-        <v>6911</v>
+        <v>6981</v>
       </c>
       <c r="E253" s="5">
         <v>1</v>
@@ -7314,13 +7312,13 @@
         <v>252</v>
       </c>
       <c r="B254" s="3">
-        <v>692.78499999999997</v>
+        <v>699.86500000000001</v>
       </c>
       <c r="C254" s="3">
         <v>2</v>
       </c>
       <c r="D254" s="3">
-        <v>6929</v>
+        <v>6999</v>
       </c>
       <c r="E254" s="3">
         <v>1</v>
@@ -7339,13 +7337,13 @@
         <v>253</v>
       </c>
       <c r="B255" s="5">
-        <v>694.55499999999995</v>
+        <v>701.63499999999999</v>
       </c>
       <c r="C255" s="5">
         <v>2</v>
       </c>
       <c r="D255" s="5">
-        <v>6947</v>
+        <v>7017</v>
       </c>
       <c r="E255" s="5">
         <v>1</v>
@@ -7364,19 +7362,19 @@
         <v>254</v>
       </c>
       <c r="B256" s="3">
-        <v>696.32500000000005</v>
+        <v>702.78599999999994</v>
       </c>
       <c r="C256" s="3">
         <v>2</v>
       </c>
       <c r="D256" s="3">
-        <v>6963</v>
+        <v>7029</v>
       </c>
       <c r="E256" s="3">
         <v>1</v>
       </c>
       <c r="F256" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G256" s="3" t="s">
         <v>12</v>
@@ -7389,19 +7387,19 @@
         <v>255</v>
       </c>
       <c r="B257" s="5">
-        <v>698.09500000000003</v>
+        <v>704.28599999999994</v>
       </c>
       <c r="C257" s="5">
         <v>2</v>
       </c>
       <c r="D257" s="5">
-        <v>6981</v>
+        <v>7043</v>
       </c>
       <c r="E257" s="5">
         <v>1</v>
       </c>
       <c r="F257" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G257" s="5" t="s">
         <v>12</v>
@@ -7414,19 +7412,19 @@
         <v>256</v>
       </c>
       <c r="B258" s="3">
-        <v>699.86500000000001</v>
+        <v>706.23599999999999</v>
       </c>
       <c r="C258" s="3">
         <v>2</v>
       </c>
       <c r="D258" s="3">
-        <v>6999</v>
+        <v>7063</v>
       </c>
       <c r="E258" s="3">
         <v>1</v>
       </c>
       <c r="F258" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G258" s="3" t="s">
         <v>12</v>
@@ -7439,24 +7437,26 @@
         <v>257</v>
       </c>
       <c r="B259" s="5">
-        <v>701.63499999999999</v>
+        <v>707.54700000000003</v>
       </c>
       <c r="C259" s="5">
-        <v>2</v>
-      </c>
-      <c r="D259" s="5">
-        <v>7017</v>
+        <v>3</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="E259" s="5">
         <v>1</v>
       </c>
       <c r="F259" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H259" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="H259" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I259" s="5"/>
     </row>
     <row r="260" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7464,13 +7464,13 @@
         <v>258</v>
       </c>
       <c r="B260" s="3">
-        <v>702.78599999999994</v>
+        <v>708.94600000000003</v>
       </c>
       <c r="C260" s="3">
         <v>2</v>
       </c>
       <c r="D260" s="3">
-        <v>7029</v>
+        <v>7089</v>
       </c>
       <c r="E260" s="3">
         <v>1</v>
@@ -7489,13 +7489,13 @@
         <v>259</v>
       </c>
       <c r="B261" s="5">
-        <v>704.28599999999994</v>
+        <v>710.55600000000004</v>
       </c>
       <c r="C261" s="5">
         <v>2</v>
       </c>
       <c r="D261" s="5">
-        <v>7043</v>
+        <v>7107</v>
       </c>
       <c r="E261" s="5">
         <v>1</v>
@@ -7514,13 +7514,13 @@
         <v>260</v>
       </c>
       <c r="B262" s="3">
-        <v>705.68600000000004</v>
+        <v>712.16600000000005</v>
       </c>
       <c r="C262" s="3">
         <v>2</v>
       </c>
       <c r="D262" s="3">
-        <v>7057</v>
+        <v>7123</v>
       </c>
       <c r="E262" s="3">
         <v>1</v>
@@ -7539,13 +7539,13 @@
         <v>261</v>
       </c>
       <c r="B263" s="5">
-        <v>707.096</v>
+        <v>713.77599999999995</v>
       </c>
       <c r="C263" s="5">
         <v>2</v>
       </c>
       <c r="D263" s="5">
-        <v>7071</v>
+        <v>7139</v>
       </c>
       <c r="E263" s="5">
         <v>1</v>
@@ -7564,13 +7564,13 @@
         <v>262</v>
       </c>
       <c r="B264" s="3">
-        <v>707.54700000000003</v>
+        <v>715.38599999999997</v>
       </c>
       <c r="C264" s="3">
-        <v>3</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>70</v>
+        <v>2</v>
+      </c>
+      <c r="D264" s="3">
+        <v>7155</v>
       </c>
       <c r="E264" s="3">
         <v>1</v>
@@ -7579,11 +7579,9 @@
         <v>10</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H264" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H264" s="3"/>
       <c r="I264" s="3"/>
     </row>
     <row r="265" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7591,13 +7589,13 @@
         <v>263</v>
       </c>
       <c r="B265" s="5">
-        <v>708.94600000000003</v>
+        <v>717.00599999999997</v>
       </c>
       <c r="C265" s="5">
         <v>2</v>
       </c>
       <c r="D265" s="5">
-        <v>7089</v>
+        <v>7171</v>
       </c>
       <c r="E265" s="5">
         <v>1</v>
@@ -7616,13 +7614,13 @@
         <v>264</v>
       </c>
       <c r="B266" s="3">
-        <v>710.55600000000004</v>
+        <v>718.62800000000004</v>
       </c>
       <c r="C266" s="3">
-        <v>2</v>
-      </c>
-      <c r="D266" s="3">
-        <v>7107</v>
+        <v>1</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E266" s="3">
         <v>1</v>
@@ -7633,21 +7631,25 @@
       <c r="G266" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H266" s="3"/>
-      <c r="I266" s="3"/>
+      <c r="H266" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I266" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="267" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="5">
         <v>265</v>
       </c>
       <c r="B267" s="5">
-        <v>712.16600000000005</v>
+        <v>720.62699999999995</v>
       </c>
       <c r="C267" s="5">
-        <v>2</v>
-      </c>
-      <c r="D267" s="5">
-        <v>7123</v>
+        <v>1</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E267" s="5">
         <v>1</v>
@@ -7658,21 +7660,25 @@
       <c r="G267" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H267" s="5"/>
-      <c r="I267" s="5"/>
+      <c r="H267" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I267" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="268" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="3">
         <v>266</v>
       </c>
       <c r="B268" s="3">
-        <v>713.77599999999995</v>
+        <v>722.22699999999998</v>
       </c>
       <c r="C268" s="3">
         <v>2</v>
       </c>
       <c r="D268" s="3">
-        <v>7139</v>
+        <v>7223</v>
       </c>
       <c r="E268" s="3">
         <v>1</v>
@@ -7691,13 +7697,13 @@
         <v>267</v>
       </c>
       <c r="B269" s="5">
-        <v>715.38599999999997</v>
+        <v>723.827</v>
       </c>
       <c r="C269" s="5">
         <v>2</v>
       </c>
       <c r="D269" s="5">
-        <v>7155</v>
+        <v>7239</v>
       </c>
       <c r="E269" s="5">
         <v>1</v>
@@ -7716,13 +7722,13 @@
         <v>268</v>
       </c>
       <c r="B270" s="3">
-        <v>717.00599999999997</v>
+        <v>725.42700000000002</v>
       </c>
       <c r="C270" s="3">
         <v>2</v>
       </c>
       <c r="D270" s="3">
-        <v>7171</v>
+        <v>7255</v>
       </c>
       <c r="E270" s="3">
         <v>1</v>
@@ -7741,13 +7747,13 @@
         <v>269</v>
       </c>
       <c r="B271" s="5">
-        <v>718.62800000000004</v>
+        <v>727.02700000000004</v>
       </c>
       <c r="C271" s="5">
-        <v>1</v>
-      </c>
-      <c r="D271" s="5" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="D271" s="5">
+        <v>7271</v>
       </c>
       <c r="E271" s="5">
         <v>1</v>
@@ -7758,25 +7764,21 @@
       <c r="G271" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H271" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I271" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="H271" s="5"/>
+      <c r="I271" s="5"/>
     </row>
     <row r="272" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="3">
         <v>270</v>
       </c>
       <c r="B272" s="3">
-        <v>720.62699999999995</v>
+        <v>728.62699999999995</v>
       </c>
       <c r="C272" s="3">
-        <v>1</v>
-      </c>
-      <c r="D272" s="3" t="s">
-        <v>51</v>
+        <v>2</v>
+      </c>
+      <c r="D272" s="3">
+        <v>7287</v>
       </c>
       <c r="E272" s="3">
         <v>1</v>
@@ -7787,25 +7789,21 @@
       <c r="G272" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H272" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I272" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="H272" s="3"/>
+      <c r="I272" s="3"/>
     </row>
     <row r="273" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="5">
         <v>271</v>
       </c>
       <c r="B273" s="5">
-        <v>722.22699999999998</v>
+        <v>730.38699999999994</v>
       </c>
       <c r="C273" s="5">
         <v>2</v>
       </c>
       <c r="D273" s="5">
-        <v>7223</v>
+        <v>7305</v>
       </c>
       <c r="E273" s="5">
         <v>1</v>
@@ -7824,13 +7822,13 @@
         <v>272</v>
       </c>
       <c r="B274" s="3">
-        <v>723.827</v>
+        <v>730.97699999999998</v>
       </c>
       <c r="C274" s="3">
-        <v>2</v>
-      </c>
-      <c r="D274" s="3">
-        <v>7239</v>
+        <v>3</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="E274" s="3">
         <v>1</v>
@@ -7839,9 +7837,11 @@
         <v>10</v>
       </c>
       <c r="G274" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H274" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="H274" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I274" s="3"/>
     </row>
     <row r="275" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7849,13 +7849,13 @@
         <v>273</v>
       </c>
       <c r="B275" s="5">
-        <v>725.42700000000002</v>
+        <v>732.13300000000004</v>
       </c>
       <c r="C275" s="5">
-        <v>2</v>
-      </c>
-      <c r="D275" s="5">
-        <v>7255</v>
+        <v>1</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E275" s="5">
         <v>1</v>
@@ -7866,31 +7866,23 @@
       <c r="G275" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H275" s="5"/>
-      <c r="I275" s="5"/>
+      <c r="H275" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I275" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="276" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="3">
         <v>274</v>
       </c>
-      <c r="B276" s="3">
-        <v>727.02700000000004</v>
-      </c>
-      <c r="C276" s="3">
-        <v>2</v>
-      </c>
-      <c r="D276" s="3">
-        <v>7271</v>
-      </c>
-      <c r="E276" s="3">
-        <v>1</v>
-      </c>
-      <c r="F276" s="3">
-        <v>10</v>
-      </c>
-      <c r="G276" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B276" s="3"/>
+      <c r="C276" s="3"/>
+      <c r="D276" s="3"/>
+      <c r="E276" s="3"/>
+      <c r="F276" s="3"/>
+      <c r="G276" s="3"/>
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
     </row>
@@ -7898,24 +7890,12 @@
       <c r="A277" s="5">
         <v>275</v>
       </c>
-      <c r="B277" s="5">
-        <v>728.62699999999995</v>
-      </c>
-      <c r="C277" s="5">
-        <v>2</v>
-      </c>
-      <c r="D277" s="5">
-        <v>7287</v>
-      </c>
-      <c r="E277" s="5">
-        <v>1</v>
-      </c>
-      <c r="F277" s="5">
-        <v>10</v>
-      </c>
-      <c r="G277" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B277" s="5"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="5"/>
+      <c r="G277" s="5"/>
       <c r="H277" s="5"/>
       <c r="I277" s="5"/>
     </row>
@@ -7923,24 +7903,12 @@
       <c r="A278" s="3">
         <v>276</v>
       </c>
-      <c r="B278" s="3">
-        <v>730.38699999999994</v>
-      </c>
-      <c r="C278" s="3">
-        <v>2</v>
-      </c>
-      <c r="D278" s="3">
-        <v>7305</v>
-      </c>
-      <c r="E278" s="3">
-        <v>1</v>
-      </c>
-      <c r="F278" s="3">
-        <v>10</v>
-      </c>
-      <c r="G278" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B278" s="3"/>
+      <c r="C278" s="3"/>
+      <c r="D278" s="3"/>
+      <c r="E278" s="3"/>
+      <c r="F278" s="3"/>
+      <c r="G278" s="3"/>
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
     </row>
@@ -7948,57 +7916,27 @@
       <c r="A279" s="5">
         <v>277</v>
       </c>
-      <c r="B279" s="5">
-        <v>730.97699999999998</v>
-      </c>
-      <c r="C279" s="5">
-        <v>3</v>
-      </c>
-      <c r="D279" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E279" s="5">
-        <v>1</v>
-      </c>
-      <c r="F279" s="5">
-        <v>10</v>
-      </c>
-      <c r="G279" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H279" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="B279" s="5"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="5"/>
+      <c r="E279" s="5"/>
+      <c r="F279" s="5"/>
+      <c r="G279" s="5"/>
+      <c r="H279" s="5"/>
       <c r="I279" s="5"/>
     </row>
     <row r="280" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="3">
         <v>278</v>
       </c>
-      <c r="B280" s="3">
-        <v>732.13300000000004</v>
-      </c>
-      <c r="C280" s="3">
-        <v>1</v>
-      </c>
-      <c r="D280" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E280" s="3">
-        <v>1</v>
-      </c>
-      <c r="F280" s="3">
-        <v>10</v>
-      </c>
-      <c r="G280" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H280" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I280" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B280" s="3"/>
+      <c r="C280" s="3"/>
+      <c r="D280" s="3"/>
+      <c r="E280" s="3"/>
+      <c r="F280" s="3"/>
+      <c r="G280" s="3"/>
+      <c r="H280" s="3"/>
+      <c r="I280" s="3"/>
     </row>
     <row r="281" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="5">
@@ -17415,7 +17353,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>312.54000000000002</v>
+        <v>312.57</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -17440,13 +17378,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>313.79000000000002</v>
+        <v>314.22000000000003</v>
       </c>
       <c r="C5" s="5">
         <v>2</v>
       </c>
       <c r="D5" s="5">
-        <v>3138</v>
+        <v>3142</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -17465,13 +17403,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>315.02999999999997</v>
+        <v>315.87</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3">
-        <v>3150</v>
+        <v>3160</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -17490,13 +17428,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>316.27999999999997</v>
+        <v>317.52</v>
       </c>
       <c r="C7" s="5">
         <v>2</v>
       </c>
       <c r="D7" s="5">
-        <v>3164</v>
+        <v>3176</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -17515,13 +17453,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>317.52999999999997</v>
+        <v>319.07</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3">
-        <v>3176</v>
+        <v>3192</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -17540,13 +17478,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>319.08</v>
+        <v>320.62</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
       </c>
       <c r="D9" s="5">
-        <v>3192</v>
+        <v>3206</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -17565,13 +17503,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>320.63</v>
+        <v>322.12</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
       <c r="D10" s="3">
-        <v>3206</v>
+        <v>3222</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -17590,13 +17528,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>322.12</v>
+        <v>323.62</v>
       </c>
       <c r="C11" s="5">
         <v>2</v>
       </c>
       <c r="D11" s="5">
-        <v>3222</v>
+        <v>3236</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -17615,13 +17553,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>323.62</v>
+        <v>325.12</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
       </c>
       <c r="D12" s="3">
-        <v>3236</v>
+        <v>3252</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -18067,13 +18005,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>353.03</v>
+        <v>352.83</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
       </c>
       <c r="D30" s="3">
-        <v>3530</v>
+        <v>3528</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -18092,13 +18030,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>354.43</v>
+        <v>354.13</v>
       </c>
       <c r="C31" s="5">
         <v>2</v>
       </c>
       <c r="D31" s="5">
-        <v>3544</v>
+        <v>3542</v>
       </c>
       <c r="E31" s="5">
         <v>1</v>
@@ -18117,7 +18055,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>354.738</v>
+        <v>354.488</v>
       </c>
       <c r="C32" s="3">
         <v>3</v>
@@ -18135,7 +18073,7 @@
         <v>16</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I32" s="3"/>
     </row>
@@ -18150,7 +18088,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -18162,10 +18100,10 @@
         <v>12</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -18191,7 +18129,7 @@
         <v>12</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>15</v>
@@ -18417,7 +18355,7 @@
         <v>3</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -18442,7 +18380,7 @@
         <v>3</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -18458,7 +18396,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E45" s="5">
         <v>1</v>
@@ -18467,7 +18405,7 @@
         <v>3</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>18</v>
@@ -18494,7 +18432,7 @@
         <v>3</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -18519,7 +18457,7 @@
         <v>3</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -18544,7 +18482,7 @@
         <v>3</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -18569,7 +18507,7 @@
         <v>3</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -18594,7 +18532,7 @@
         <v>3</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -18604,7 +18542,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="5">
-        <v>385.26799999999997</v>
+        <v>385.26499999999999</v>
       </c>
       <c r="C51" s="5">
         <v>2</v>
@@ -18619,7 +18557,7 @@
         <v>3</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
@@ -18644,7 +18582,7 @@
         <v>3</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -18669,7 +18607,7 @@
         <v>3</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
@@ -18694,7 +18632,7 @@
         <v>3</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -18710,7 +18648,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E55" s="5">
         <v>1</v>
@@ -18719,7 +18657,7 @@
         <v>3</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>18</v>
@@ -18746,7 +18684,7 @@
         <v>3</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -18762,7 +18700,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E57" s="5">
         <v>1</v>
@@ -18771,13 +18709,13 @@
         <v>3</v>
       </c>
       <c r="G57" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -18800,10 +18738,10 @@
         <v>3</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>15</v>
@@ -18829,7 +18767,7 @@
         <v>3</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
@@ -18854,7 +18792,7 @@
         <v>3</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -18879,7 +18817,7 @@
         <v>3</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
@@ -18904,7 +18842,7 @@
         <v>3</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -18929,7 +18867,7 @@
         <v>3</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
@@ -18954,7 +18892,7 @@
         <v>3</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -18979,7 +18917,7 @@
         <v>3</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
@@ -19004,7 +18942,7 @@
         <v>3</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
@@ -19029,7 +18967,7 @@
         <v>3</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
@@ -19054,7 +18992,7 @@
         <v>3</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
@@ -19079,7 +19017,7 @@
         <v>3</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
@@ -19104,7 +19042,7 @@
         <v>3</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
@@ -19120,7 +19058,7 @@
         <v>3</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E71" s="5">
         <v>1</v>
@@ -19129,7 +19067,7 @@
         <v>3</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>18</v>
@@ -19156,7 +19094,7 @@
         <v>3</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
@@ -19181,7 +19119,7 @@
         <v>3</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
@@ -19206,7 +19144,7 @@
         <v>4</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
@@ -19231,7 +19169,7 @@
         <v>4</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
@@ -19256,7 +19194,7 @@
         <v>4</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
@@ -19281,7 +19219,7 @@
         <v>4</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
@@ -19297,7 +19235,7 @@
         <v>1</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E78" s="3">
         <v>1</v>
@@ -19306,13 +19244,13 @@
         <v>4</v>
       </c>
       <c r="G78" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I78" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -19335,10 +19273,10 @@
         <v>4</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>15</v>
@@ -19355,7 +19293,7 @@
         <v>3</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E80" s="3">
         <v>1</v>
@@ -19364,7 +19302,7 @@
         <v>4</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>18</v>
@@ -19391,7 +19329,7 @@
         <v>5</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
@@ -19416,7 +19354,7 @@
         <v>5</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -19441,7 +19379,7 @@
         <v>5</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
@@ -19466,7 +19404,7 @@
         <v>5</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -19491,7 +19429,7 @@
         <v>5</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
@@ -19516,7 +19454,7 @@
         <v>5</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
@@ -19541,7 +19479,7 @@
         <v>5</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
@@ -19566,7 +19504,7 @@
         <v>5</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -19591,7 +19529,7 @@
         <v>5</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
@@ -19607,7 +19545,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E90" s="3">
         <v>1</v>
@@ -19616,7 +19554,7 @@
         <v>5</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>18</v>
@@ -19643,7 +19581,7 @@
         <v>5</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
@@ -19668,7 +19606,7 @@
         <v>5</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -19693,7 +19631,7 @@
         <v>5</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
@@ -19718,7 +19656,7 @@
         <v>5</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -19743,7 +19681,7 @@
         <v>5</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
@@ -19768,7 +19706,7 @@
         <v>5</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -19793,7 +19731,7 @@
         <v>5</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
@@ -19818,7 +19756,7 @@
         <v>5</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -19843,7 +19781,7 @@
         <v>5</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
@@ -19868,7 +19806,7 @@
         <v>5</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -19893,7 +19831,7 @@
         <v>5</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
@@ -19918,7 +19856,7 @@
         <v>5</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
@@ -19943,7 +19881,7 @@
         <v>5</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
@@ -19968,7 +19906,7 @@
         <v>5</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
@@ -19993,7 +19931,7 @@
         <v>5</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
@@ -20009,7 +19947,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E106" s="3">
         <v>1</v>
@@ -20018,13 +19956,13 @@
         <v>5</v>
       </c>
       <c r="G106" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I106" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -20047,10 +19985,10 @@
         <v>5</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I107" s="5" t="s">
         <v>15</v>
@@ -20067,7 +20005,7 @@
         <v>3</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E108" s="3">
         <v>1</v>
@@ -20076,7 +20014,7 @@
         <v>5</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>18</v>
@@ -20103,7 +20041,7 @@
         <v>5</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
@@ -20128,7 +20066,7 @@
         <v>5</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
@@ -20153,7 +20091,7 @@
         <v>5</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
@@ -20178,7 +20116,7 @@
         <v>5</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
@@ -20203,7 +20141,7 @@
         <v>5</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
@@ -20228,7 +20166,7 @@
         <v>5</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
@@ -20253,7 +20191,7 @@
         <v>5</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
@@ -20278,7 +20216,7 @@
         <v>5</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
@@ -20303,7 +20241,7 @@
         <v>5</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
@@ -20328,7 +20266,7 @@
         <v>5</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
@@ -20353,7 +20291,7 @@
         <v>5</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
@@ -20378,7 +20316,7 @@
         <v>5</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
@@ -20403,7 +20341,7 @@
         <v>5</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
@@ -20419,7 +20357,7 @@
         <v>3</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E122" s="3">
         <v>1</v>
@@ -20428,7 +20366,7 @@
         <v>6</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>18</v>
@@ -20455,7 +20393,7 @@
         <v>6</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
@@ -20480,7 +20418,7 @@
         <v>6</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
@@ -20505,7 +20443,7 @@
         <v>6</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
@@ -20530,7 +20468,7 @@
         <v>6</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
@@ -20555,7 +20493,7 @@
         <v>6</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
@@ -20580,7 +20518,7 @@
         <v>6</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
@@ -20590,7 +20528,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="5">
-        <v>509.18599999999998</v>
+        <v>509.19600000000003</v>
       </c>
       <c r="C129" s="5">
         <v>2</v>
@@ -20605,7 +20543,7 @@
         <v>6</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
@@ -20630,7 +20568,7 @@
         <v>6</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
@@ -20655,7 +20593,7 @@
         <v>6</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
@@ -20680,7 +20618,7 @@
         <v>6</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
@@ -20705,7 +20643,7 @@
         <v>6</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
@@ -20730,7 +20668,7 @@
         <v>6</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
@@ -20746,7 +20684,7 @@
         <v>3</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E135" s="5">
         <v>1</v>
@@ -20755,7 +20693,7 @@
         <v>6</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H135" s="5" t="s">
         <v>18</v>
@@ -20782,7 +20720,7 @@
         <v>6</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
@@ -20798,7 +20736,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E137" s="5">
         <v>1</v>
@@ -20807,13 +20745,13 @@
         <v>6</v>
       </c>
       <c r="G137" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H137" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I137" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="H137" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I137" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -20836,10 +20774,10 @@
         <v>6</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I138" s="3" t="s">
         <v>15</v>
@@ -20865,7 +20803,7 @@
         <v>6</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
@@ -20890,7 +20828,7 @@
         <v>6</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
@@ -20915,7 +20853,7 @@
         <v>6</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
@@ -20940,7 +20878,7 @@
         <v>6</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
@@ -20965,7 +20903,7 @@
         <v>6</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
@@ -20990,7 +20928,7 @@
         <v>6</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
@@ -21015,7 +20953,7 @@
         <v>6</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
@@ -21040,7 +20978,7 @@
         <v>6</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
@@ -21065,7 +21003,7 @@
         <v>6</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
@@ -21090,7 +21028,7 @@
         <v>6</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
@@ -21115,7 +21053,7 @@
         <v>6</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
@@ -21140,7 +21078,7 @@
         <v>6</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
@@ -21156,7 +21094,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E151" s="5">
         <v>1</v>
@@ -21165,7 +21103,7 @@
         <v>6</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H151" s="5" t="s">
         <v>18</v>
@@ -21192,7 +21130,7 @@
         <v>6</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
@@ -21217,7 +21155,7 @@
         <v>6</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
@@ -21242,7 +21180,7 @@
         <v>6</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
@@ -21267,7 +21205,7 @@
         <v>6</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
@@ -21292,7 +21230,7 @@
         <v>6</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
@@ -21317,7 +21255,7 @@
         <v>6</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
@@ -21342,7 +21280,7 @@
         <v>6</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
@@ -21367,7 +21305,7 @@
         <v>6</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
@@ -21392,7 +21330,7 @@
         <v>6</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
@@ -21417,7 +21355,7 @@
         <v>6</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
@@ -21442,7 +21380,7 @@
         <v>6</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
@@ -21467,7 +21405,7 @@
         <v>6</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
@@ -21492,7 +21430,7 @@
         <v>6</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
@@ -21517,7 +21455,7 @@
         <v>6</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
@@ -21533,7 +21471,7 @@
         <v>3</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E166" s="3">
         <v>1</v>
@@ -21542,7 +21480,7 @@
         <v>6</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H166" s="3" t="s">
         <v>18</v>
@@ -21554,13 +21492,13 @@
         <v>165</v>
       </c>
       <c r="B167" s="5">
-        <v>567.85900000000004</v>
+        <v>568.10900000000004</v>
       </c>
       <c r="C167" s="5">
         <v>2</v>
       </c>
       <c r="D167" s="5">
-        <v>5680</v>
+        <v>5682</v>
       </c>
       <c r="E167" s="5">
         <v>1</v>
@@ -21569,7 +21507,7 @@
         <v>6</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
@@ -21585,7 +21523,7 @@
         <v>1</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E168" s="3">
         <v>1</v>
@@ -21594,13 +21532,13 @@
         <v>6</v>
       </c>
       <c r="G168" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I168" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="H168" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I168" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -21623,10 +21561,10 @@
         <v>6</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I169" s="5" t="s">
         <v>15</v>
@@ -21652,7 +21590,7 @@
         <v>6</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
@@ -21677,7 +21615,7 @@
         <v>6</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
@@ -21702,7 +21640,7 @@
         <v>6</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
@@ -21727,7 +21665,7 @@
         <v>6</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H173" s="5"/>
       <c r="I173" s="5"/>
@@ -21752,7 +21690,7 @@
         <v>6</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
@@ -21777,7 +21715,7 @@
         <v>6</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
@@ -21802,7 +21740,7 @@
         <v>6</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
@@ -21827,7 +21765,7 @@
         <v>6</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
@@ -21852,7 +21790,7 @@
         <v>6</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
@@ -21877,7 +21815,7 @@
         <v>6</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
@@ -21902,7 +21840,7 @@
         <v>6</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
@@ -21927,7 +21865,7 @@
         <v>6</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H181" s="5"/>
       <c r="I181" s="5"/>
@@ -21952,7 +21890,7 @@
         <v>6</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
@@ -21977,7 +21915,7 @@
         <v>6</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
@@ -21993,7 +21931,7 @@
         <v>3</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E184" s="3">
         <v>1</v>
@@ -22002,7 +21940,7 @@
         <v>6</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H184" s="3" t="s">
         <v>18</v>
@@ -22014,13 +21952,13 @@
         <v>183</v>
       </c>
       <c r="B185" s="5">
-        <v>595.98199999999997</v>
+        <v>596.08199999999999</v>
       </c>
       <c r="C185" s="5">
         <v>2</v>
       </c>
       <c r="D185" s="5">
-        <v>5960</v>
+        <v>5962</v>
       </c>
       <c r="E185" s="5">
         <v>1</v>
@@ -22029,7 +21967,7 @@
         <v>6</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H185" s="5"/>
       <c r="I185" s="5"/>
@@ -22054,7 +21992,7 @@
         <v>6</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
@@ -22079,7 +22017,7 @@
         <v>6</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
@@ -22104,7 +22042,7 @@
         <v>6</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
@@ -22129,7 +22067,7 @@
         <v>6</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H189" s="5"/>
       <c r="I189" s="5"/>
@@ -22154,7 +22092,7 @@
         <v>7</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
@@ -22179,7 +22117,7 @@
         <v>7</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
@@ -22204,7 +22142,7 @@
         <v>7</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
@@ -22229,7 +22167,7 @@
         <v>7</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
@@ -22254,7 +22192,7 @@
         <v>7</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
@@ -22279,7 +22217,7 @@
         <v>7</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
@@ -22304,7 +22242,7 @@
         <v>7</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
@@ -22329,7 +22267,7 @@
         <v>7</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
@@ -22354,7 +22292,7 @@
         <v>7</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
@@ -22379,7 +22317,7 @@
         <v>7</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
@@ -22404,7 +22342,7 @@
         <v>7</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
@@ -22420,7 +22358,7 @@
         <v>1</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E201" s="5">
         <v>1</v>
@@ -22429,13 +22367,13 @@
         <v>7</v>
       </c>
       <c r="G201" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H201" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I201" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="H201" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I201" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -22458,10 +22396,10 @@
         <v>7</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I202" s="3" t="s">
         <v>15</v>
@@ -22478,7 +22416,7 @@
         <v>3</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E203" s="5">
         <v>1</v>
@@ -22487,7 +22425,7 @@
         <v>7</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H203" s="5" t="s">
         <v>18</v>
@@ -22514,7 +22452,7 @@
         <v>7</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
@@ -22539,7 +22477,7 @@
         <v>7</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H205" s="5"/>
       <c r="I205" s="5"/>
@@ -22564,7 +22502,7 @@
         <v>7</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
@@ -22589,7 +22527,7 @@
         <v>7</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H207" s="5"/>
       <c r="I207" s="5"/>
@@ -22614,7 +22552,7 @@
         <v>7</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
@@ -22630,7 +22568,7 @@
         <v>1</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E209" s="5">
         <v>1</v>
@@ -22639,13 +22577,13 @@
         <v>8</v>
       </c>
       <c r="G209" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H209" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I209" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="H209" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I209" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -22668,10 +22606,10 @@
         <v>8</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I210" s="3" t="s">
         <v>15</v>
@@ -22697,7 +22635,7 @@
         <v>8</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H211" s="5"/>
       <c r="I211" s="5"/>
@@ -22722,7 +22660,7 @@
         <v>8</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
@@ -22747,7 +22685,7 @@
         <v>8</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H213" s="5"/>
       <c r="I213" s="5"/>
@@ -22772,7 +22710,7 @@
         <v>8</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
@@ -22797,7 +22735,7 @@
         <v>8</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H215" s="5"/>
       <c r="I215" s="5"/>
@@ -22822,7 +22760,7 @@
         <v>8</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
@@ -22847,7 +22785,7 @@
         <v>8</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H217" s="5"/>
       <c r="I217" s="5"/>
@@ -22872,7 +22810,7 @@
         <v>8</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
@@ -22897,7 +22835,7 @@
         <v>8</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H219" s="5"/>
       <c r="I219" s="5"/>
@@ -22913,7 +22851,7 @@
         <v>3</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E220" s="3">
         <v>1</v>
@@ -22922,7 +22860,7 @@
         <v>8</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H220" s="3" t="s">
         <v>18</v>
@@ -22949,7 +22887,7 @@
         <v>8</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H221" s="5"/>
       <c r="I221" s="5"/>
@@ -22974,7 +22912,7 @@
         <v>8</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
@@ -22999,7 +22937,7 @@
         <v>8</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H223" s="5"/>
       <c r="I223" s="5"/>
@@ -23024,7 +22962,7 @@
         <v>8</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
@@ -23049,7 +22987,7 @@
         <v>8</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H225" s="5"/>
       <c r="I225" s="5"/>
@@ -23074,7 +23012,7 @@
         <v>8</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
@@ -23099,7 +23037,7 @@
         <v>8</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H227" s="5"/>
       <c r="I227" s="5"/>
@@ -23124,7 +23062,7 @@
         <v>8</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
@@ -23149,7 +23087,7 @@
         <v>8</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H229" s="5"/>
       <c r="I229" s="5"/>
@@ -23174,7 +23112,7 @@
         <v>8</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
@@ -23199,7 +23137,7 @@
         <v>8</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H231" s="5"/>
       <c r="I231" s="5"/>
@@ -23224,7 +23162,7 @@
         <v>8</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
@@ -23249,7 +23187,7 @@
         <v>8</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H233" s="5"/>
       <c r="I233" s="5"/>
@@ -23274,7 +23212,7 @@
         <v>8</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
@@ -23290,7 +23228,7 @@
         <v>1</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E235" s="5">
         <v>1</v>
@@ -23302,10 +23240,10 @@
         <v>12</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I235" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -23331,7 +23269,7 @@
         <v>12</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I236" s="3" t="s">
         <v>15</v>
@@ -23348,7 +23286,7 @@
         <v>3</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E237" s="5">
         <v>1</v>
@@ -23675,7 +23613,7 @@
         <v>3</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E250" s="3">
         <v>1</v>
@@ -23684,7 +23622,7 @@
         <v>10</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H250" s="3" t="s">
         <v>18</v>
@@ -23852,7 +23790,7 @@
         <v>1</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E257" s="5">
         <v>1</v>
@@ -23864,10 +23802,10 @@
         <v>12</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I257" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -23893,7 +23831,7 @@
         <v>12</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I258" s="3" t="s">
         <v>15</v>
@@ -24035,7 +23973,7 @@
         <v>3</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E264" s="3">
         <v>1</v>
@@ -24044,7 +23982,7 @@
         <v>10</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H264" s="3" t="s">
         <v>18</v>
@@ -24062,7 +24000,7 @@
         <v>1</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E265" s="5">
         <v>1</v>
@@ -24074,10 +24012,10 @@
         <v>12</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I265" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/信号机数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/信号机数据_single.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="72">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -231,16 +231,16 @@
     <t>D4K</t>
   </si>
   <si>
-    <t>331.547+1:332.088+1:332.317+1:770.000</t>
+    <t>316.820+1:317.120+1:317.620+1:800.000</t>
   </si>
   <si>
     <t>无名</t>
   </si>
   <si>
-    <t>354.488+1:355.037+1:355.277+1:789.000</t>
+    <t>331.547+1:332.088+1:332.317+1:770.000</t>
   </si>
   <si>
-    <t>富宁分区所</t>
+    <t>354.738+1:355.287+1:355.527+1:789.000</t>
   </si>
   <si>
     <t>D4K+355240</t>
@@ -342,7 +342,7 @@
     <t>331.868+1:332.098+1:332.657+1:789.000</t>
   </si>
   <si>
-    <t>354.812+1:355.042+1:355.618+1:806.000</t>
+    <t>355.062+1:355.292+1:355.868+1:806.000</t>
   </si>
   <si>
     <t>X</t>
@@ -983,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>313.24299999999999</v>
+        <v>313.25299999999999</v>
       </c>
       <c r="C5" s="5">
         <v>2</v>
@@ -1008,13 +1008,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>314.74299999999999</v>
+        <v>314.76299999999998</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3">
-        <v>3147</v>
+        <v>3149</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -1033,7 +1033,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>316.24299999999999</v>
+        <v>316.27300000000002</v>
       </c>
       <c r="C7" s="5">
         <v>2</v>
@@ -1058,13 +1058,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>317.74299999999999</v>
+        <v>317.78300000000002</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3">
-        <v>3177</v>
+        <v>3179</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -1258,13 +1258,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>330.46800000000002</v>
+        <v>330.14299999999997</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
       </c>
       <c r="D16" s="3">
-        <v>3305</v>
+        <v>3301</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1283,13 +1283,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>331.86799999999999</v>
+        <v>331.54300000000001</v>
       </c>
       <c r="C17" s="5">
-        <v>3</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>53</v>
+        <v>2</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3315</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -1300,9 +1300,7 @@
       <c r="G17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1310,13 +1308,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>333.54300000000001</v>
+        <v>331.86799999999999</v>
       </c>
       <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3335</v>
+        <v>3</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -1327,7 +1325,9 @@
       <c r="G18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1335,13 +1335,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>335.04300000000001</v>
+        <v>333.54300000000001</v>
       </c>
       <c r="C19" s="5">
         <v>2</v>
       </c>
       <c r="D19" s="5">
-        <v>3351</v>
+        <v>3335</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -1360,13 +1360,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>336.54300000000001</v>
+        <v>335.04300000000001</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
       </c>
       <c r="D20" s="3">
-        <v>3365</v>
+        <v>3351</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -1385,13 +1385,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>338.04300000000001</v>
+        <v>336.54300000000001</v>
       </c>
       <c r="C21" s="5">
         <v>2</v>
       </c>
       <c r="D21" s="5">
-        <v>3381</v>
+        <v>3365</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
@@ -1410,13 +1410,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>339.54300000000001</v>
+        <v>338.04300000000001</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
       </c>
       <c r="D22" s="3">
-        <v>3395</v>
+        <v>3381</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -1435,13 +1435,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>341.04300000000001</v>
+        <v>339.54300000000001</v>
       </c>
       <c r="C23" s="5">
         <v>2</v>
       </c>
       <c r="D23" s="5">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
@@ -1460,13 +1460,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>342.54300000000001</v>
+        <v>341.04300000000001</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
       </c>
       <c r="D24" s="3">
-        <v>3425</v>
+        <v>3411</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -1485,13 +1485,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>344.04300000000001</v>
+        <v>342.54300000000001</v>
       </c>
       <c r="C25" s="5">
         <v>2</v>
       </c>
       <c r="D25" s="5">
-        <v>3441</v>
+        <v>3425</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
@@ -1510,13 +1510,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>345.54300000000001</v>
+        <v>344.04300000000001</v>
       </c>
       <c r="C26" s="3">
         <v>2</v>
       </c>
       <c r="D26" s="3">
-        <v>3455</v>
+        <v>3441</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -1535,13 +1535,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>347.04300000000001</v>
+        <v>345.54300000000001</v>
       </c>
       <c r="C27" s="5">
         <v>2</v>
       </c>
       <c r="D27" s="5">
-        <v>3471</v>
+        <v>3455</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
@@ -1560,13 +1560,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>348.54300000000001</v>
+        <v>347.04300000000001</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
       </c>
       <c r="D28" s="3">
-        <v>3485</v>
+        <v>3471</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -1585,13 +1585,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>350.04300000000001</v>
+        <v>348.54300000000001</v>
       </c>
       <c r="C29" s="5">
         <v>2</v>
       </c>
       <c r="D29" s="5">
-        <v>3501</v>
+        <v>3485</v>
       </c>
       <c r="E29" s="5">
         <v>1</v>
@@ -1610,13 +1610,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>351.54300000000001</v>
+        <v>350.04300000000001</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
       </c>
       <c r="D30" s="3">
-        <v>3515</v>
+        <v>3501</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -1635,13 +1635,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>352.89299999999997</v>
+        <v>351.54300000000001</v>
       </c>
       <c r="C31" s="5">
         <v>2</v>
       </c>
       <c r="D31" s="5">
-        <v>3529</v>
+        <v>3515</v>
       </c>
       <c r="E31" s="5">
         <v>1</v>
@@ -1660,13 +1660,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>354.09300000000002</v>
+        <v>352.89299999999997</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
       </c>
       <c r="D32" s="3">
-        <v>3541</v>
+        <v>3529</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -1685,13 +1685,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>354.81200000000001</v>
+        <v>354.44299999999998</v>
       </c>
       <c r="C33" s="5">
-        <v>3</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>54</v>
+        <v>2</v>
+      </c>
+      <c r="D33" s="5">
+        <v>3545</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -1702,9 +1702,7 @@
       <c r="G33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1712,13 +1710,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>356.202</v>
+        <v>355.06200000000001</v>
       </c>
       <c r="C34" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
@@ -1727,33 +1725,31 @@
         <v>1</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>356.81599999999997</v>
+        <v>356.202</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E35" s="5">
         <v>1</v>
       </c>
       <c r="F35" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>12</v>
@@ -1762,7 +1758,7 @@
         <v>22</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1770,13 +1766,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>358.40600000000001</v>
+        <v>356.81599999999997</v>
       </c>
       <c r="C36" s="3">
-        <v>2</v>
-      </c>
-      <c r="D36" s="3">
-        <v>3585</v>
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
@@ -1785,23 +1781,27 @@
         <v>2</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>359.98599999999999</v>
+        <v>358.40600000000001</v>
       </c>
       <c r="C37" s="5">
         <v>2</v>
       </c>
       <c r="D37" s="5">
-        <v>3601</v>
+        <v>3585</v>
       </c>
       <c r="E37" s="5">
         <v>1</v>
@@ -1820,13 +1820,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>361.56599999999997</v>
+        <v>359.98599999999999</v>
       </c>
       <c r="C38" s="3">
         <v>2</v>
       </c>
       <c r="D38" s="3">
-        <v>3617</v>
+        <v>3601</v>
       </c>
       <c r="E38" s="3">
         <v>1</v>
@@ -1845,13 +1845,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>363.14600000000002</v>
+        <v>361.56599999999997</v>
       </c>
       <c r="C39" s="5">
         <v>2</v>
       </c>
       <c r="D39" s="5">
-        <v>3631</v>
+        <v>3617</v>
       </c>
       <c r="E39" s="5">
         <v>1</v>
@@ -1870,13 +1870,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>364.726</v>
+        <v>363.14600000000002</v>
       </c>
       <c r="C40" s="3">
         <v>2</v>
       </c>
       <c r="D40" s="3">
-        <v>3647</v>
+        <v>3631</v>
       </c>
       <c r="E40" s="3">
         <v>1</v>
@@ -1895,13 +1895,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="5">
-        <v>366.30599999999998</v>
+        <v>364.726</v>
       </c>
       <c r="C41" s="5">
         <v>2</v>
       </c>
       <c r="D41" s="5">
-        <v>3663</v>
+        <v>3647</v>
       </c>
       <c r="E41" s="5">
         <v>1</v>
@@ -1920,13 +1920,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>367.88600000000002</v>
+        <v>366.30599999999998</v>
       </c>
       <c r="C42" s="3">
         <v>2</v>
       </c>
       <c r="D42" s="3">
-        <v>3679</v>
+        <v>3663</v>
       </c>
       <c r="E42" s="3">
         <v>1</v>
@@ -1945,13 +1945,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="5">
-        <v>369.46600000000001</v>
+        <v>367.88600000000002</v>
       </c>
       <c r="C43" s="5">
         <v>2</v>
       </c>
       <c r="D43" s="5">
-        <v>3695</v>
+        <v>3679</v>
       </c>
       <c r="E43" s="5">
         <v>1</v>
@@ -1970,19 +1970,19 @@
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>371.202</v>
+        <v>369.46600000000001</v>
       </c>
       <c r="C44" s="3">
         <v>2</v>
       </c>
       <c r="D44" s="3">
-        <v>3713</v>
+        <v>3695</v>
       </c>
       <c r="E44" s="3">
         <v>1</v>
       </c>
       <c r="F44" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>16</v>
@@ -1995,13 +1995,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="5">
-        <v>373.00200000000001</v>
+        <v>371.202</v>
       </c>
       <c r="C45" s="5">
         <v>2</v>
       </c>
       <c r="D45" s="5">
-        <v>3731</v>
+        <v>3713</v>
       </c>
       <c r="E45" s="5">
         <v>1</v>
@@ -2010,7 +2010,7 @@
         <v>3</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -2020,13 +2020,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>374.80200000000002</v>
+        <v>373.00200000000001</v>
       </c>
       <c r="C46" s="3">
         <v>2</v>
       </c>
       <c r="D46" s="3">
-        <v>3749</v>
+        <v>3731</v>
       </c>
       <c r="E46" s="3">
         <v>1</v>
@@ -2045,13 +2045,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="5">
-        <v>375.30799999999999</v>
+        <v>374.80200000000002</v>
       </c>
       <c r="C47" s="5">
-        <v>3</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>56</v>
+        <v>2</v>
+      </c>
+      <c r="D47" s="5">
+        <v>3749</v>
       </c>
       <c r="E47" s="5">
         <v>1</v>
@@ -2062,9 +2062,7 @@
       <c r="G47" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2072,13 +2070,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>376.452</v>
+        <v>375.30799999999999</v>
       </c>
       <c r="C48" s="3">
-        <v>2</v>
-      </c>
-      <c r="D48" s="3">
-        <v>3765</v>
+        <v>3</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="E48" s="3">
         <v>1</v>
@@ -2089,7 +2087,9 @@
       <c r="G48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="3"/>
+      <c r="H48" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2097,13 +2097,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="5">
-        <v>377.85199999999998</v>
+        <v>376.452</v>
       </c>
       <c r="C49" s="5">
         <v>2</v>
       </c>
       <c r="D49" s="5">
-        <v>3779</v>
+        <v>3765</v>
       </c>
       <c r="E49" s="5">
         <v>1</v>
@@ -2122,13 +2122,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>379.25200000000001</v>
+        <v>377.85199999999998</v>
       </c>
       <c r="C50" s="3">
         <v>2</v>
       </c>
       <c r="D50" s="3">
-        <v>3793</v>
+        <v>3779</v>
       </c>
       <c r="E50" s="3">
         <v>1</v>
@@ -2147,13 +2147,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="5">
-        <v>380.65199999999999</v>
+        <v>379.25200000000001</v>
       </c>
       <c r="C51" s="5">
         <v>2</v>
       </c>
       <c r="D51" s="5">
-        <v>3807</v>
+        <v>3793</v>
       </c>
       <c r="E51" s="5">
         <v>1</v>
@@ -2172,13 +2172,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>382.05200000000002</v>
+        <v>380.65199999999999</v>
       </c>
       <c r="C52" s="3">
         <v>2</v>
       </c>
       <c r="D52" s="3">
-        <v>3821</v>
+        <v>3807</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
@@ -2197,13 +2197,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="5">
-        <v>383.452</v>
+        <v>382.05200000000002</v>
       </c>
       <c r="C53" s="5">
         <v>2</v>
       </c>
       <c r="D53" s="5">
-        <v>3835</v>
+        <v>3821</v>
       </c>
       <c r="E53" s="5">
         <v>1</v>
@@ -2222,13 +2222,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>385.00200000000001</v>
+        <v>383.452</v>
       </c>
       <c r="C54" s="3">
         <v>2</v>
       </c>
       <c r="D54" s="3">
-        <v>3851</v>
+        <v>3835</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -2247,13 +2247,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="5">
-        <v>386.702</v>
+        <v>385.00200000000001</v>
       </c>
       <c r="C55" s="5">
         <v>2</v>
       </c>
       <c r="D55" s="5">
-        <v>3867</v>
+        <v>3851</v>
       </c>
       <c r="E55" s="5">
         <v>1</v>
@@ -2272,13 +2272,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>388.40199999999999</v>
+        <v>386.702</v>
       </c>
       <c r="C56" s="3">
         <v>2</v>
       </c>
       <c r="D56" s="3">
-        <v>3885</v>
+        <v>3867</v>
       </c>
       <c r="E56" s="3">
         <v>1</v>
@@ -2297,13 +2297,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="5">
-        <v>390.10199999999998</v>
+        <v>388.40199999999999</v>
       </c>
       <c r="C57" s="5">
         <v>2</v>
       </c>
       <c r="D57" s="5">
-        <v>3901</v>
+        <v>3885</v>
       </c>
       <c r="E57" s="5">
         <v>1</v>
@@ -2322,13 +2322,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <v>390.44</v>
+        <v>390.10199999999998</v>
       </c>
       <c r="C58" s="3">
-        <v>3</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>57</v>
+        <v>2</v>
+      </c>
+      <c r="D58" s="3">
+        <v>3901</v>
       </c>
       <c r="E58" s="3">
         <v>1</v>
@@ -2339,9 +2339,7 @@
       <c r="G58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="H58" s="3"/>
       <c r="I58" s="3"/>
     </row>
     <row r="59" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2349,13 +2347,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="5">
-        <v>391.702</v>
+        <v>390.44</v>
       </c>
       <c r="C59" s="5">
-        <v>2</v>
-      </c>
-      <c r="D59" s="5">
-        <v>3917</v>
+        <v>3</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="E59" s="5">
         <v>1</v>
@@ -2366,7 +2364,9 @@
       <c r="G59" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H59" s="5"/>
+      <c r="H59" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2374,13 +2374,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="3">
-        <v>393.29700000000003</v>
+        <v>391.702</v>
       </c>
       <c r="C60" s="3">
-        <v>1</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="D60" s="3">
+        <v>3917</v>
       </c>
       <c r="E60" s="3">
         <v>1</v>
@@ -2391,25 +2391,21 @@
       <c r="G60" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
     </row>
     <row r="61" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5">
         <v>59</v>
       </c>
       <c r="B61" s="5">
-        <v>394.66500000000002</v>
+        <v>393.29700000000003</v>
       </c>
       <c r="C61" s="5">
         <v>1</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E61" s="5">
         <v>1</v>
@@ -2424,7 +2420,7 @@
         <v>28</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2432,13 +2428,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="3">
-        <v>396.065</v>
+        <v>394.66500000000002</v>
       </c>
       <c r="C62" s="3">
-        <v>2</v>
-      </c>
-      <c r="D62" s="3">
-        <v>3961</v>
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="E62" s="3">
         <v>1</v>
@@ -2449,21 +2445,25 @@
       <c r="G62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
+      <c r="H62" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="63" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
         <v>61</v>
       </c>
       <c r="B63" s="5">
-        <v>397.565</v>
+        <v>396.065</v>
       </c>
       <c r="C63" s="5">
         <v>2</v>
       </c>
       <c r="D63" s="5">
-        <v>3977</v>
+        <v>3961</v>
       </c>
       <c r="E63" s="5">
         <v>1</v>
@@ -2482,13 +2482,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="3">
-        <v>398.96499999999997</v>
+        <v>397.565</v>
       </c>
       <c r="C64" s="3">
         <v>2</v>
       </c>
       <c r="D64" s="3">
-        <v>3991</v>
+        <v>3977</v>
       </c>
       <c r="E64" s="3">
         <v>1</v>
@@ -2507,13 +2507,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="5">
-        <v>400.46499999999997</v>
+        <v>398.96499999999997</v>
       </c>
       <c r="C65" s="5">
         <v>2</v>
       </c>
       <c r="D65" s="5">
-        <v>4005</v>
+        <v>3991</v>
       </c>
       <c r="E65" s="5">
         <v>1</v>
@@ -2532,13 +2532,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>401.86500000000001</v>
+        <v>400.46499999999997</v>
       </c>
       <c r="C66" s="3">
         <v>2</v>
       </c>
       <c r="D66" s="3">
-        <v>4019</v>
+        <v>4005</v>
       </c>
       <c r="E66" s="3">
         <v>1</v>
@@ -2557,13 +2557,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="5">
-        <v>403.36500000000001</v>
+        <v>401.86500000000001</v>
       </c>
       <c r="C67" s="5">
         <v>2</v>
       </c>
       <c r="D67" s="5">
-        <v>4035</v>
+        <v>4019</v>
       </c>
       <c r="E67" s="5">
         <v>1</v>
@@ -2582,13 +2582,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="3">
-        <v>404.76499999999999</v>
+        <v>403.36500000000001</v>
       </c>
       <c r="C68" s="3">
         <v>2</v>
       </c>
       <c r="D68" s="3">
-        <v>4049</v>
+        <v>4035</v>
       </c>
       <c r="E68" s="3">
         <v>1</v>
@@ -2607,13 +2607,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="5">
-        <v>406.26499999999999</v>
+        <v>404.76499999999999</v>
       </c>
       <c r="C69" s="5">
         <v>2</v>
       </c>
       <c r="D69" s="5">
-        <v>4063</v>
+        <v>4049</v>
       </c>
       <c r="E69" s="5">
         <v>1</v>
@@ -2632,13 +2632,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <v>407.66500000000002</v>
+        <v>406.26499999999999</v>
       </c>
       <c r="C70" s="3">
         <v>2</v>
       </c>
       <c r="D70" s="3">
-        <v>4077</v>
+        <v>4063</v>
       </c>
       <c r="E70" s="3">
         <v>1</v>
@@ -2657,13 +2657,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="5">
-        <v>409.16500000000002</v>
+        <v>407.66500000000002</v>
       </c>
       <c r="C71" s="5">
         <v>2</v>
       </c>
       <c r="D71" s="5">
-        <v>4093</v>
+        <v>4077</v>
       </c>
       <c r="E71" s="5">
         <v>1</v>
@@ -2682,13 +2682,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="3">
-        <v>410.565</v>
+        <v>409.16500000000002</v>
       </c>
       <c r="C72" s="3">
         <v>2</v>
       </c>
       <c r="D72" s="3">
-        <v>4107</v>
+        <v>4093</v>
       </c>
       <c r="E72" s="3">
         <v>1</v>
@@ -2707,13 +2707,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="5">
-        <v>412.065</v>
+        <v>410.565</v>
       </c>
       <c r="C73" s="5">
         <v>2</v>
       </c>
       <c r="D73" s="5">
-        <v>4121</v>
+        <v>4107</v>
       </c>
       <c r="E73" s="5">
         <v>1</v>
@@ -2732,13 +2732,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="3">
-        <v>414.27</v>
+        <v>412.065</v>
       </c>
       <c r="C74" s="3">
         <v>2</v>
       </c>
       <c r="D74" s="3">
-        <v>4143</v>
+        <v>4121</v>
       </c>
       <c r="E74" s="3">
         <v>1</v>
@@ -2757,13 +2757,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="5">
-        <v>415.67</v>
+        <v>413.565</v>
       </c>
       <c r="C75" s="5">
-        <v>3</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>58</v>
+        <v>2</v>
+      </c>
+      <c r="D75" s="5">
+        <v>4137</v>
       </c>
       <c r="E75" s="5">
         <v>1</v>
@@ -2774,9 +2774,7 @@
       <c r="G75" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H75" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="H75" s="5"/>
       <c r="I75" s="5"/>
     </row>
     <row r="76" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2784,13 +2782,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="3">
-        <v>416.76499999999999</v>
+        <v>415.065</v>
       </c>
       <c r="C76" s="3">
         <v>2</v>
       </c>
       <c r="D76" s="3">
-        <v>4169</v>
+        <v>4151</v>
       </c>
       <c r="E76" s="3">
         <v>1</v>
@@ -2809,13 +2807,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="5">
-        <v>418.26799999999997</v>
+        <v>415.67</v>
       </c>
       <c r="C77" s="5">
-        <v>2</v>
-      </c>
-      <c r="D77" s="5">
-        <v>4183</v>
+        <v>3</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="E77" s="5">
         <v>1</v>
@@ -2826,7 +2824,9 @@
       <c r="G77" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H77" s="5"/>
+      <c r="H77" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I77" s="5"/>
     </row>
     <row r="78" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2834,19 +2834,19 @@
         <v>76</v>
       </c>
       <c r="B78" s="3">
-        <v>419.77699999999999</v>
+        <v>416.76499999999999</v>
       </c>
       <c r="C78" s="3">
         <v>2</v>
       </c>
       <c r="D78" s="3">
-        <v>4199</v>
+        <v>4169</v>
       </c>
       <c r="E78" s="3">
         <v>1</v>
       </c>
       <c r="F78" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>24</v>
@@ -2859,19 +2859,19 @@
         <v>77</v>
       </c>
       <c r="B79" s="5">
-        <v>421.47699999999998</v>
+        <v>418.26499999999999</v>
       </c>
       <c r="C79" s="5">
         <v>2</v>
       </c>
       <c r="D79" s="5">
-        <v>4215</v>
+        <v>4183</v>
       </c>
       <c r="E79" s="5">
         <v>1</v>
       </c>
       <c r="F79" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>24</v>
@@ -2884,13 +2884,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="3">
-        <v>423.077</v>
+        <v>419.77699999999999</v>
       </c>
       <c r="C80" s="3">
         <v>2</v>
       </c>
       <c r="D80" s="3">
-        <v>4231</v>
+        <v>4199</v>
       </c>
       <c r="E80" s="3">
         <v>1</v>
@@ -2909,13 +2909,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="5">
-        <v>424.67700000000002</v>
+        <v>421.47699999999998</v>
       </c>
       <c r="C81" s="5">
         <v>2</v>
       </c>
       <c r="D81" s="5">
-        <v>4247</v>
+        <v>4215</v>
       </c>
       <c r="E81" s="5">
         <v>1</v>
@@ -2934,13 +2934,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="3">
-        <v>426.233</v>
+        <v>423.077</v>
       </c>
       <c r="C82" s="3">
-        <v>1</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="D82" s="3">
+        <v>4231</v>
       </c>
       <c r="E82" s="3">
         <v>1</v>
@@ -2951,25 +2951,21 @@
       <c r="G82" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H82" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
     </row>
     <row r="83" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="5">
         <v>81</v>
       </c>
       <c r="B83" s="5">
-        <v>427.91800000000001</v>
+        <v>424.67700000000002</v>
       </c>
       <c r="C83" s="5">
-        <v>1</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="D83" s="5">
+        <v>4247</v>
       </c>
       <c r="E83" s="5">
         <v>1</v>
@@ -2980,25 +2976,21 @@
       <c r="G83" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H83" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I83" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
     </row>
     <row r="84" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
         <v>82</v>
       </c>
       <c r="B84" s="3">
-        <v>429.56799999999998</v>
+        <v>426.233</v>
       </c>
       <c r="C84" s="3">
-        <v>2</v>
-      </c>
-      <c r="D84" s="3">
-        <v>4297</v>
+        <v>1</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E84" s="3">
         <v>1</v>
@@ -3009,21 +3001,25 @@
       <c r="G84" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
+      <c r="H84" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="85" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="5">
         <v>83</v>
       </c>
       <c r="B85" s="5">
-        <v>430.30500000000001</v>
+        <v>427.91800000000001</v>
       </c>
       <c r="C85" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E85" s="5">
         <v>1</v>
@@ -3035,28 +3031,30 @@
         <v>24</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I85" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="86" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
         <v>84</v>
       </c>
       <c r="B86" s="3">
-        <v>433.10500000000002</v>
+        <v>429.56799999999998</v>
       </c>
       <c r="C86" s="3">
         <v>2</v>
       </c>
       <c r="D86" s="3">
-        <v>4331</v>
+        <v>4297</v>
       </c>
       <c r="E86" s="3">
         <v>1</v>
       </c>
       <c r="F86" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>24</v>
@@ -3069,24 +3067,26 @@
         <v>85</v>
       </c>
       <c r="B87" s="5">
-        <v>434.61500000000001</v>
+        <v>430.30500000000001</v>
       </c>
       <c r="C87" s="5">
-        <v>2</v>
-      </c>
-      <c r="D87" s="5">
-        <v>4347</v>
+        <v>3</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="E87" s="5">
         <v>1</v>
       </c>
       <c r="F87" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H87" s="5"/>
+      <c r="H87" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I87" s="5"/>
     </row>
     <row r="88" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3094,13 +3094,13 @@
         <v>86</v>
       </c>
       <c r="B88" s="3">
-        <v>436.125</v>
+        <v>433.10500000000002</v>
       </c>
       <c r="C88" s="3">
         <v>2</v>
       </c>
       <c r="D88" s="3">
-        <v>4361</v>
+        <v>4331</v>
       </c>
       <c r="E88" s="3">
         <v>1</v>
@@ -3119,13 +3119,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="5">
-        <v>437.73500000000001</v>
+        <v>434.61500000000001</v>
       </c>
       <c r="C89" s="5">
         <v>2</v>
       </c>
       <c r="D89" s="5">
-        <v>4377</v>
+        <v>4347</v>
       </c>
       <c r="E89" s="5">
         <v>1</v>
@@ -3144,13 +3144,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="3">
-        <v>439.34500000000003</v>
+        <v>436.125</v>
       </c>
       <c r="C90" s="3">
         <v>2</v>
       </c>
       <c r="D90" s="3">
-        <v>4393</v>
+        <v>4361</v>
       </c>
       <c r="E90" s="3">
         <v>1</v>
@@ -3169,13 +3169,13 @@
         <v>89</v>
       </c>
       <c r="B91" s="5">
-        <v>440.94499999999999</v>
+        <v>437.73500000000001</v>
       </c>
       <c r="C91" s="5">
         <v>2</v>
       </c>
       <c r="D91" s="5">
-        <v>4409</v>
+        <v>4377</v>
       </c>
       <c r="E91" s="5">
         <v>1</v>
@@ -3194,13 +3194,13 @@
         <v>90</v>
       </c>
       <c r="B92" s="3">
-        <v>442.54500000000002</v>
+        <v>439.34500000000003</v>
       </c>
       <c r="C92" s="3">
         <v>2</v>
       </c>
       <c r="D92" s="3">
-        <v>4425</v>
+        <v>4393</v>
       </c>
       <c r="E92" s="3">
         <v>1</v>
@@ -3219,13 +3219,13 @@
         <v>91</v>
       </c>
       <c r="B93" s="5">
-        <v>444.14499999999998</v>
+        <v>440.94499999999999</v>
       </c>
       <c r="C93" s="5">
         <v>2</v>
       </c>
       <c r="D93" s="5">
-        <v>4441</v>
+        <v>4409</v>
       </c>
       <c r="E93" s="5">
         <v>1</v>
@@ -3244,13 +3244,13 @@
         <v>92</v>
       </c>
       <c r="B94" s="3">
-        <v>445.74799999999999</v>
+        <v>442.54500000000002</v>
       </c>
       <c r="C94" s="3">
         <v>2</v>
       </c>
       <c r="D94" s="3">
-        <v>4457</v>
+        <v>4425</v>
       </c>
       <c r="E94" s="3">
         <v>1</v>
@@ -3269,13 +3269,13 @@
         <v>93</v>
       </c>
       <c r="B95" s="5">
-        <v>447.29500000000002</v>
+        <v>444.14499999999998</v>
       </c>
       <c r="C95" s="5">
         <v>2</v>
       </c>
       <c r="D95" s="5">
-        <v>4473</v>
+        <v>4441</v>
       </c>
       <c r="E95" s="5">
         <v>1</v>
@@ -3294,13 +3294,13 @@
         <v>94</v>
       </c>
       <c r="B96" s="3">
-        <v>447.68299999999999</v>
+        <v>445.745</v>
       </c>
       <c r="C96" s="3">
-        <v>3</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>60</v>
+        <v>2</v>
+      </c>
+      <c r="D96" s="3">
+        <v>4457</v>
       </c>
       <c r="E96" s="3">
         <v>1</v>
@@ -3311,9 +3311,7 @@
       <c r="G96" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H96" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="H96" s="3"/>
       <c r="I96" s="3"/>
     </row>
     <row r="97" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3321,13 +3319,13 @@
         <v>95</v>
       </c>
       <c r="B97" s="5">
-        <v>448.84500000000003</v>
+        <v>447.29500000000002</v>
       </c>
       <c r="C97" s="5">
         <v>2</v>
       </c>
       <c r="D97" s="5">
-        <v>4489</v>
+        <v>4473</v>
       </c>
       <c r="E97" s="5">
         <v>1</v>
@@ -3346,13 +3344,13 @@
         <v>96</v>
       </c>
       <c r="B98" s="3">
-        <v>450.71499999999997</v>
+        <v>447.68299999999999</v>
       </c>
       <c r="C98" s="3">
-        <v>2</v>
-      </c>
-      <c r="D98" s="3">
-        <v>4507</v>
+        <v>3</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="E98" s="3">
         <v>1</v>
@@ -3363,7 +3361,9 @@
       <c r="G98" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H98" s="3"/>
+      <c r="H98" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3371,13 +3371,13 @@
         <v>97</v>
       </c>
       <c r="B99" s="5">
-        <v>452.22500000000002</v>
+        <v>448.84500000000003</v>
       </c>
       <c r="C99" s="5">
         <v>2</v>
       </c>
       <c r="D99" s="5">
-        <v>4523</v>
+        <v>4489</v>
       </c>
       <c r="E99" s="5">
         <v>1</v>
@@ -3396,13 +3396,13 @@
         <v>98</v>
       </c>
       <c r="B100" s="3">
-        <v>453.73500000000001</v>
+        <v>450.71499999999997</v>
       </c>
       <c r="C100" s="3">
         <v>2</v>
       </c>
       <c r="D100" s="3">
-        <v>4537</v>
+        <v>4507</v>
       </c>
       <c r="E100" s="3">
         <v>1</v>
@@ -3421,13 +3421,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="5">
-        <v>455.245</v>
+        <v>452.22500000000002</v>
       </c>
       <c r="C101" s="5">
         <v>2</v>
       </c>
       <c r="D101" s="5">
-        <v>4553</v>
+        <v>4523</v>
       </c>
       <c r="E101" s="5">
         <v>1</v>
@@ -3446,13 +3446,13 @@
         <v>100</v>
       </c>
       <c r="B102" s="3">
-        <v>456.73099999999999</v>
+        <v>453.73500000000001</v>
       </c>
       <c r="C102" s="3">
         <v>2</v>
       </c>
       <c r="D102" s="3">
-        <v>4567</v>
+        <v>4537</v>
       </c>
       <c r="E102" s="3">
         <v>1</v>
@@ -3471,13 +3471,13 @@
         <v>101</v>
       </c>
       <c r="B103" s="5">
-        <v>458.26499999999999</v>
+        <v>455.245</v>
       </c>
       <c r="C103" s="5">
         <v>2</v>
       </c>
       <c r="D103" s="5">
-        <v>4583</v>
+        <v>4553</v>
       </c>
       <c r="E103" s="5">
         <v>1</v>
@@ -3496,13 +3496,13 @@
         <v>102</v>
       </c>
       <c r="B104" s="3">
-        <v>459.77499999999998</v>
+        <v>456.755</v>
       </c>
       <c r="C104" s="3">
         <v>2</v>
       </c>
       <c r="D104" s="3">
-        <v>4599</v>
+        <v>4569</v>
       </c>
       <c r="E104" s="3">
         <v>1</v>
@@ -3521,13 +3521,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="5">
-        <v>461.28500000000003</v>
+        <v>458.26499999999999</v>
       </c>
       <c r="C105" s="5">
         <v>2</v>
       </c>
       <c r="D105" s="5">
-        <v>4613</v>
+        <v>4583</v>
       </c>
       <c r="E105" s="5">
         <v>1</v>
@@ -3546,13 +3546,13 @@
         <v>104</v>
       </c>
       <c r="B106" s="3">
-        <v>462.79500000000002</v>
+        <v>459.77499999999998</v>
       </c>
       <c r="C106" s="3">
         <v>2</v>
       </c>
       <c r="D106" s="3">
-        <v>4629</v>
+        <v>4599</v>
       </c>
       <c r="E106" s="3">
         <v>1</v>
@@ -3571,13 +3571,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="5">
-        <v>464.30500000000001</v>
+        <v>461.28500000000003</v>
       </c>
       <c r="C107" s="5">
         <v>2</v>
       </c>
       <c r="D107" s="5">
-        <v>4643</v>
+        <v>4613</v>
       </c>
       <c r="E107" s="5">
         <v>1</v>
@@ -3596,13 +3596,13 @@
         <v>106</v>
       </c>
       <c r="B108" s="3">
-        <v>465.815</v>
+        <v>462.79500000000002</v>
       </c>
       <c r="C108" s="3">
         <v>2</v>
       </c>
       <c r="D108" s="3">
-        <v>4659</v>
+        <v>4629</v>
       </c>
       <c r="E108" s="3">
         <v>1</v>
@@ -3621,13 +3621,13 @@
         <v>107</v>
       </c>
       <c r="B109" s="5">
-        <v>467.32499999999999</v>
+        <v>464.30500000000001</v>
       </c>
       <c r="C109" s="5">
         <v>2</v>
       </c>
       <c r="D109" s="5">
-        <v>4673</v>
+        <v>4643</v>
       </c>
       <c r="E109" s="5">
         <v>1</v>
@@ -3646,13 +3646,13 @@
         <v>108</v>
       </c>
       <c r="B110" s="3">
-        <v>468.83499999999998</v>
+        <v>465.815</v>
       </c>
       <c r="C110" s="3">
         <v>2</v>
       </c>
       <c r="D110" s="3">
-        <v>4689</v>
+        <v>4659</v>
       </c>
       <c r="E110" s="3">
         <v>1</v>
@@ -3671,13 +3671,13 @@
         <v>109</v>
       </c>
       <c r="B111" s="5">
-        <v>470.34500000000003</v>
+        <v>467.32499999999999</v>
       </c>
       <c r="C111" s="5">
         <v>2</v>
       </c>
       <c r="D111" s="5">
-        <v>4703</v>
+        <v>4673</v>
       </c>
       <c r="E111" s="5">
         <v>1</v>
@@ -3696,13 +3696,13 @@
         <v>110</v>
       </c>
       <c r="B112" s="3">
-        <v>471.85500000000002</v>
+        <v>468.83499999999998</v>
       </c>
       <c r="C112" s="3">
         <v>2</v>
       </c>
       <c r="D112" s="3">
-        <v>4719</v>
+        <v>4689</v>
       </c>
       <c r="E112" s="3">
         <v>1</v>
@@ -3721,13 +3721,13 @@
         <v>111</v>
       </c>
       <c r="B113" s="5">
-        <v>473.27199999999999</v>
+        <v>470.34500000000003</v>
       </c>
       <c r="C113" s="5">
-        <v>1</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="D113" s="5">
+        <v>4703</v>
       </c>
       <c r="E113" s="5">
         <v>1</v>
@@ -3738,25 +3738,21 @@
       <c r="G113" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H113" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I113" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
     </row>
     <row r="114" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="3">
         <v>112</v>
       </c>
       <c r="B114" s="3">
-        <v>474.72</v>
+        <v>471.85500000000002</v>
       </c>
       <c r="C114" s="3">
-        <v>1</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="D114" s="3">
+        <v>4719</v>
       </c>
       <c r="E114" s="3">
         <v>1</v>
@@ -3767,25 +3763,21 @@
       <c r="G114" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H114" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
     </row>
     <row r="115" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="5">
         <v>113</v>
       </c>
       <c r="B115" s="5">
-        <v>476.12</v>
+        <v>473.27199999999999</v>
       </c>
       <c r="C115" s="5">
-        <v>2</v>
-      </c>
-      <c r="D115" s="5">
-        <v>4761</v>
+        <v>1</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E115" s="5">
         <v>1</v>
@@ -3796,21 +3788,25 @@
       <c r="G115" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
+      <c r="H115" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="116" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="3">
         <v>114</v>
       </c>
       <c r="B116" s="3">
-        <v>476.35700000000003</v>
+        <v>474.72</v>
       </c>
       <c r="C116" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E116" s="3">
         <v>1</v>
@@ -3822,22 +3818,24 @@
         <v>24</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I116" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="117" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="5">
         <v>115</v>
       </c>
       <c r="B117" s="5">
-        <v>478.05</v>
+        <v>476.12</v>
       </c>
       <c r="C117" s="5">
         <v>2</v>
       </c>
       <c r="D117" s="5">
-        <v>4781</v>
+        <v>4761</v>
       </c>
       <c r="E117" s="5">
         <v>1</v>
@@ -3856,13 +3854,13 @@
         <v>116</v>
       </c>
       <c r="B118" s="3">
-        <v>479.64</v>
+        <v>476.35700000000003</v>
       </c>
       <c r="C118" s="3">
-        <v>2</v>
-      </c>
-      <c r="D118" s="3">
-        <v>4797</v>
+        <v>3</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="E118" s="3">
         <v>1</v>
@@ -3873,7 +3871,9 @@
       <c r="G118" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H118" s="3"/>
+      <c r="H118" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I118" s="3"/>
     </row>
     <row r="119" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3881,13 +3881,13 @@
         <v>117</v>
       </c>
       <c r="B119" s="5">
-        <v>481.33</v>
+        <v>478.05</v>
       </c>
       <c r="C119" s="5">
         <v>2</v>
       </c>
       <c r="D119" s="5">
-        <v>4813</v>
+        <v>4781</v>
       </c>
       <c r="E119" s="5">
         <v>1</v>
@@ -3906,13 +3906,13 @@
         <v>118</v>
       </c>
       <c r="B120" s="3">
-        <v>482.87</v>
+        <v>479.64</v>
       </c>
       <c r="C120" s="3">
         <v>2</v>
       </c>
       <c r="D120" s="3">
-        <v>4829</v>
+        <v>4797</v>
       </c>
       <c r="E120" s="3">
         <v>1</v>
@@ -3931,13 +3931,13 @@
         <v>119</v>
       </c>
       <c r="B121" s="5">
-        <v>484.41</v>
+        <v>481.33</v>
       </c>
       <c r="C121" s="5">
         <v>2</v>
       </c>
       <c r="D121" s="5">
-        <v>4845</v>
+        <v>4813</v>
       </c>
       <c r="E121" s="5">
         <v>1</v>
@@ -3956,13 +3956,13 @@
         <v>120</v>
       </c>
       <c r="B122" s="3">
-        <v>486</v>
+        <v>482.87</v>
       </c>
       <c r="C122" s="3">
         <v>2</v>
       </c>
       <c r="D122" s="3">
-        <v>4861</v>
+        <v>4829</v>
       </c>
       <c r="E122" s="3">
         <v>1</v>
@@ -3981,13 +3981,13 @@
         <v>121</v>
       </c>
       <c r="B123" s="5">
-        <v>487.59</v>
+        <v>484.41</v>
       </c>
       <c r="C123" s="5">
         <v>2</v>
       </c>
       <c r="D123" s="5">
-        <v>4877</v>
+        <v>4845</v>
       </c>
       <c r="E123" s="5">
         <v>1</v>
@@ -4006,13 +4006,13 @@
         <v>122</v>
       </c>
       <c r="B124" s="3">
-        <v>489.19</v>
+        <v>486</v>
       </c>
       <c r="C124" s="3">
         <v>2</v>
       </c>
       <c r="D124" s="3">
-        <v>4893</v>
+        <v>4861</v>
       </c>
       <c r="E124" s="3">
         <v>1</v>
@@ -4031,13 +4031,13 @@
         <v>123</v>
       </c>
       <c r="B125" s="5">
-        <v>490.94</v>
+        <v>487.59</v>
       </c>
       <c r="C125" s="5">
         <v>2</v>
       </c>
       <c r="D125" s="5">
-        <v>4909</v>
+        <v>4877</v>
       </c>
       <c r="E125" s="5">
         <v>1</v>
@@ -4056,13 +4056,13 @@
         <v>124</v>
       </c>
       <c r="B126" s="3">
-        <v>492.69</v>
+        <v>489.19</v>
       </c>
       <c r="C126" s="3">
         <v>2</v>
       </c>
       <c r="D126" s="3">
-        <v>4927</v>
+        <v>4893</v>
       </c>
       <c r="E126" s="3">
         <v>1</v>
@@ -4081,13 +4081,13 @@
         <v>125</v>
       </c>
       <c r="B127" s="5">
-        <v>494.44</v>
+        <v>490.94</v>
       </c>
       <c r="C127" s="5">
         <v>2</v>
       </c>
       <c r="D127" s="5">
-        <v>4945</v>
+        <v>4909</v>
       </c>
       <c r="E127" s="5">
         <v>1</v>
@@ -4106,13 +4106,13 @@
         <v>126</v>
       </c>
       <c r="B128" s="3">
-        <v>496.33</v>
+        <v>492.69</v>
       </c>
       <c r="C128" s="3">
         <v>2</v>
       </c>
       <c r="D128" s="3">
-        <v>4963</v>
+        <v>4927</v>
       </c>
       <c r="E128" s="3">
         <v>1</v>
@@ -4131,26 +4131,24 @@
         <v>127</v>
       </c>
       <c r="B129" s="5">
-        <v>497.83100000000002</v>
+        <v>494.44</v>
       </c>
       <c r="C129" s="5">
-        <v>3</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>62</v>
+        <v>2</v>
+      </c>
+      <c r="D129" s="5">
+        <v>4945</v>
       </c>
       <c r="E129" s="5">
         <v>1</v>
       </c>
       <c r="F129" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H129" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="H129" s="5"/>
       <c r="I129" s="5"/>
     </row>
     <row r="130" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4158,19 +4156,19 @@
         <v>128</v>
       </c>
       <c r="B130" s="3">
-        <v>499.101</v>
+        <v>496.04</v>
       </c>
       <c r="C130" s="3">
         <v>2</v>
       </c>
       <c r="D130" s="3">
-        <v>4991</v>
+        <v>4961</v>
       </c>
       <c r="E130" s="3">
         <v>1</v>
       </c>
       <c r="F130" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>24</v>
@@ -4183,13 +4181,13 @@
         <v>129</v>
       </c>
       <c r="B131" s="5">
-        <v>500.61099999999999</v>
+        <v>497.34100000000001</v>
       </c>
       <c r="C131" s="5">
         <v>2</v>
       </c>
       <c r="D131" s="5">
-        <v>5007</v>
+        <v>4973</v>
       </c>
       <c r="E131" s="5">
         <v>1</v>
@@ -4208,13 +4206,13 @@
         <v>130</v>
       </c>
       <c r="B132" s="3">
-        <v>502.12099999999998</v>
+        <v>497.83100000000002</v>
       </c>
       <c r="C132" s="3">
-        <v>2</v>
-      </c>
-      <c r="D132" s="3">
-        <v>5021</v>
+        <v>3</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="E132" s="3">
         <v>1</v>
@@ -4225,7 +4223,9 @@
       <c r="G132" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H132" s="3"/>
+      <c r="H132" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I132" s="3"/>
     </row>
     <row r="133" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4233,13 +4233,13 @@
         <v>131</v>
       </c>
       <c r="B133" s="5">
-        <v>503.63099999999997</v>
+        <v>499.101</v>
       </c>
       <c r="C133" s="5">
         <v>2</v>
       </c>
       <c r="D133" s="5">
-        <v>5037</v>
+        <v>4991</v>
       </c>
       <c r="E133" s="5">
         <v>1</v>
@@ -4258,13 +4258,13 @@
         <v>132</v>
       </c>
       <c r="B134" s="3">
-        <v>505.14100000000002</v>
+        <v>500.61099999999999</v>
       </c>
       <c r="C134" s="3">
         <v>2</v>
       </c>
       <c r="D134" s="3">
-        <v>5051</v>
+        <v>5007</v>
       </c>
       <c r="E134" s="3">
         <v>1</v>
@@ -4283,13 +4283,13 @@
         <v>133</v>
       </c>
       <c r="B135" s="5">
-        <v>506.65100000000001</v>
+        <v>502.12099999999998</v>
       </c>
       <c r="C135" s="5">
         <v>2</v>
       </c>
       <c r="D135" s="5">
-        <v>5067</v>
+        <v>5021</v>
       </c>
       <c r="E135" s="5">
         <v>1</v>
@@ -4308,13 +4308,13 @@
         <v>134</v>
       </c>
       <c r="B136" s="3">
-        <v>508.06099999999998</v>
+        <v>503.63099999999997</v>
       </c>
       <c r="C136" s="3">
         <v>2</v>
       </c>
       <c r="D136" s="3">
-        <v>5081</v>
+        <v>5037</v>
       </c>
       <c r="E136" s="3">
         <v>1</v>
@@ -4333,13 +4333,13 @@
         <v>135</v>
       </c>
       <c r="B137" s="5">
-        <v>509.61099999999999</v>
+        <v>505.14100000000002</v>
       </c>
       <c r="C137" s="5">
         <v>2</v>
       </c>
       <c r="D137" s="5">
-        <v>5097</v>
+        <v>5051</v>
       </c>
       <c r="E137" s="5">
         <v>1</v>
@@ -4358,13 +4358,13 @@
         <v>136</v>
       </c>
       <c r="B138" s="3">
-        <v>511.041</v>
+        <v>506.65100000000001</v>
       </c>
       <c r="C138" s="3">
         <v>2</v>
       </c>
       <c r="D138" s="3">
-        <v>5111</v>
+        <v>5067</v>
       </c>
       <c r="E138" s="3">
         <v>1</v>
@@ -4383,13 +4383,13 @@
         <v>137</v>
       </c>
       <c r="B139" s="5">
-        <v>512.79100000000005</v>
+        <v>508.06099999999998</v>
       </c>
       <c r="C139" s="5">
         <v>2</v>
       </c>
       <c r="D139" s="5">
-        <v>5129</v>
+        <v>5081</v>
       </c>
       <c r="E139" s="5">
         <v>1</v>
@@ -4408,13 +4408,13 @@
         <v>138</v>
       </c>
       <c r="B140" s="3">
-        <v>514.54100000000005</v>
+        <v>509.61099999999999</v>
       </c>
       <c r="C140" s="3">
         <v>2</v>
       </c>
       <c r="D140" s="3">
-        <v>5145</v>
+        <v>5097</v>
       </c>
       <c r="E140" s="3">
         <v>1</v>
@@ -4433,13 +4433,13 @@
         <v>139</v>
       </c>
       <c r="B141" s="5">
-        <v>516.29100000000005</v>
+        <v>511.041</v>
       </c>
       <c r="C141" s="5">
         <v>2</v>
       </c>
       <c r="D141" s="5">
-        <v>5163</v>
+        <v>5111</v>
       </c>
       <c r="E141" s="5">
         <v>1</v>
@@ -4458,13 +4458,13 @@
         <v>140</v>
       </c>
       <c r="B142" s="3">
-        <v>517.69100000000003</v>
+        <v>512.79100000000005</v>
       </c>
       <c r="C142" s="3">
         <v>2</v>
       </c>
       <c r="D142" s="3">
-        <v>5177</v>
+        <v>5129</v>
       </c>
       <c r="E142" s="3">
         <v>1</v>
@@ -4483,13 +4483,13 @@
         <v>141</v>
       </c>
       <c r="B143" s="5">
-        <v>518.05999999999995</v>
+        <v>514.54100000000005</v>
       </c>
       <c r="C143" s="5">
-        <v>3</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>63</v>
+        <v>2</v>
+      </c>
+      <c r="D143" s="5">
+        <v>5145</v>
       </c>
       <c r="E143" s="5">
         <v>1</v>
@@ -4500,9 +4500,7 @@
       <c r="G143" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H143" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="H143" s="5"/>
       <c r="I143" s="5"/>
     </row>
     <row r="144" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4510,13 +4508,13 @@
         <v>142</v>
       </c>
       <c r="B144" s="3">
-        <v>519.39300000000003</v>
+        <v>516.29100000000005</v>
       </c>
       <c r="C144" s="3">
-        <v>1</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="D144" s="3">
+        <v>5163</v>
       </c>
       <c r="E144" s="3">
         <v>1</v>
@@ -4527,25 +4525,21 @@
       <c r="G144" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H144" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I144" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
     </row>
     <row r="145" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="5">
         <v>143</v>
       </c>
       <c r="B145" s="5">
-        <v>521.40200000000004</v>
+        <v>517.69100000000003</v>
       </c>
       <c r="C145" s="5">
-        <v>1</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="D145" s="5">
+        <v>5177</v>
       </c>
       <c r="E145" s="5">
         <v>1</v>
@@ -4556,25 +4550,21 @@
       <c r="G145" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H145" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I145" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
     </row>
     <row r="146" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="3">
         <v>144</v>
       </c>
       <c r="B146" s="3">
-        <v>522.93200000000002</v>
+        <v>518.05999999999995</v>
       </c>
       <c r="C146" s="3">
-        <v>2</v>
-      </c>
-      <c r="D146" s="3">
-        <v>5229</v>
+        <v>3</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E146" s="3">
         <v>1</v>
@@ -4585,7 +4575,9 @@
       <c r="G146" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H146" s="3"/>
+      <c r="H146" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I146" s="3"/>
     </row>
     <row r="147" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4593,13 +4585,13 @@
         <v>145</v>
       </c>
       <c r="B147" s="5">
-        <v>524.46199999999999</v>
+        <v>519.39300000000003</v>
       </c>
       <c r="C147" s="5">
-        <v>2</v>
-      </c>
-      <c r="D147" s="5">
-        <v>5245</v>
+        <v>1</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E147" s="5">
         <v>1</v>
@@ -4610,21 +4602,25 @@
       <c r="G147" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
+      <c r="H147" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I147" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="148" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="3">
         <v>146</v>
       </c>
       <c r="B148" s="3">
-        <v>525.99199999999996</v>
+        <v>521.40200000000004</v>
       </c>
       <c r="C148" s="3">
-        <v>2</v>
-      </c>
-      <c r="D148" s="3">
-        <v>5261</v>
+        <v>1</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="E148" s="3">
         <v>1</v>
@@ -4635,21 +4631,25 @@
       <c r="G148" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H148" s="3"/>
-      <c r="I148" s="3"/>
+      <c r="H148" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="149" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="5">
         <v>147</v>
       </c>
       <c r="B149" s="5">
-        <v>527.52200000000005</v>
+        <v>522.93200000000002</v>
       </c>
       <c r="C149" s="5">
         <v>2</v>
       </c>
       <c r="D149" s="5">
-        <v>5275</v>
+        <v>5229</v>
       </c>
       <c r="E149" s="5">
         <v>1</v>
@@ -4668,13 +4668,13 @@
         <v>148</v>
       </c>
       <c r="B150" s="3">
-        <v>529.05200000000002</v>
+        <v>524.46199999999999</v>
       </c>
       <c r="C150" s="3">
         <v>2</v>
       </c>
       <c r="D150" s="3">
-        <v>5291</v>
+        <v>5245</v>
       </c>
       <c r="E150" s="3">
         <v>1</v>
@@ -4693,13 +4693,13 @@
         <v>149</v>
       </c>
       <c r="B151" s="5">
-        <v>530.58199999999999</v>
+        <v>525.99199999999996</v>
       </c>
       <c r="C151" s="5">
         <v>2</v>
       </c>
       <c r="D151" s="5">
-        <v>5307</v>
+        <v>5261</v>
       </c>
       <c r="E151" s="5">
         <v>1</v>
@@ -4718,13 +4718,13 @@
         <v>150</v>
       </c>
       <c r="B152" s="3">
-        <v>532.11199999999997</v>
+        <v>527.52200000000005</v>
       </c>
       <c r="C152" s="3">
         <v>2</v>
       </c>
       <c r="D152" s="3">
-        <v>5321</v>
+        <v>5275</v>
       </c>
       <c r="E152" s="3">
         <v>1</v>
@@ -4743,13 +4743,13 @@
         <v>151</v>
       </c>
       <c r="B153" s="5">
-        <v>533.64200000000005</v>
+        <v>529.05200000000002</v>
       </c>
       <c r="C153" s="5">
         <v>2</v>
       </c>
       <c r="D153" s="5">
-        <v>5337</v>
+        <v>5291</v>
       </c>
       <c r="E153" s="5">
         <v>1</v>
@@ -4768,13 +4768,13 @@
         <v>152</v>
       </c>
       <c r="B154" s="3">
-        <v>535.17200000000003</v>
+        <v>530.58199999999999</v>
       </c>
       <c r="C154" s="3">
         <v>2</v>
       </c>
       <c r="D154" s="3">
-        <v>5353</v>
+        <v>5307</v>
       </c>
       <c r="E154" s="3">
         <v>1</v>
@@ -4793,13 +4793,13 @@
         <v>153</v>
       </c>
       <c r="B155" s="5">
-        <v>536.702</v>
+        <v>532.11199999999997</v>
       </c>
       <c r="C155" s="5">
         <v>2</v>
       </c>
       <c r="D155" s="5">
-        <v>5367</v>
+        <v>5321</v>
       </c>
       <c r="E155" s="5">
         <v>1</v>
@@ -4818,13 +4818,13 @@
         <v>154</v>
       </c>
       <c r="B156" s="3">
-        <v>538.23199999999997</v>
+        <v>533.64200000000005</v>
       </c>
       <c r="C156" s="3">
         <v>2</v>
       </c>
       <c r="D156" s="3">
-        <v>5383</v>
+        <v>5337</v>
       </c>
       <c r="E156" s="3">
         <v>1</v>
@@ -4843,13 +4843,13 @@
         <v>155</v>
       </c>
       <c r="B157" s="5">
-        <v>539.76199999999994</v>
+        <v>535.17200000000003</v>
       </c>
       <c r="C157" s="5">
         <v>2</v>
       </c>
       <c r="D157" s="5">
-        <v>5399</v>
+        <v>5353</v>
       </c>
       <c r="E157" s="5">
         <v>1</v>
@@ -4868,13 +4868,13 @@
         <v>156</v>
       </c>
       <c r="B158" s="3">
-        <v>541.24199999999996</v>
+        <v>536.702</v>
       </c>
       <c r="C158" s="3">
         <v>2</v>
       </c>
       <c r="D158" s="3">
-        <v>5413</v>
+        <v>5367</v>
       </c>
       <c r="E158" s="3">
         <v>1</v>
@@ -4893,13 +4893,13 @@
         <v>157</v>
       </c>
       <c r="B159" s="5">
-        <v>542.59199999999998</v>
+        <v>538.23199999999997</v>
       </c>
       <c r="C159" s="5">
         <v>2</v>
       </c>
       <c r="D159" s="5">
-        <v>5427</v>
+        <v>5383</v>
       </c>
       <c r="E159" s="5">
         <v>1</v>
@@ -4918,13 +4918,13 @@
         <v>158</v>
       </c>
       <c r="B160" s="3">
-        <v>542.92399999999998</v>
+        <v>539.76199999999994</v>
       </c>
       <c r="C160" s="3">
-        <v>3</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="D160" s="3">
+        <v>5399</v>
       </c>
       <c r="E160" s="3">
         <v>1</v>
@@ -4935,9 +4935,7 @@
       <c r="G160" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H160" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="H160" s="3"/>
       <c r="I160" s="3"/>
     </row>
     <row r="161" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4945,13 +4943,13 @@
         <v>159</v>
       </c>
       <c r="B161" s="5">
-        <v>544.35199999999998</v>
+        <v>541.24199999999996</v>
       </c>
       <c r="C161" s="5">
         <v>2</v>
       </c>
       <c r="D161" s="5">
-        <v>5445</v>
+        <v>5413</v>
       </c>
       <c r="E161" s="5">
         <v>1</v>
@@ -4970,13 +4968,13 @@
         <v>160</v>
       </c>
       <c r="B162" s="3">
-        <v>545.90200000000004</v>
+        <v>542.59199999999998</v>
       </c>
       <c r="C162" s="3">
         <v>2</v>
       </c>
       <c r="D162" s="3">
-        <v>5459</v>
+        <v>5427</v>
       </c>
       <c r="E162" s="3">
         <v>1</v>
@@ -4995,13 +4993,13 @@
         <v>161</v>
       </c>
       <c r="B163" s="5">
-        <v>547.452</v>
+        <v>542.92399999999998</v>
       </c>
       <c r="C163" s="5">
-        <v>2</v>
-      </c>
-      <c r="D163" s="5">
-        <v>5475</v>
+        <v>3</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="E163" s="5">
         <v>1</v>
@@ -5012,7 +5010,9 @@
       <c r="G163" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H163" s="5"/>
+      <c r="H163" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I163" s="5"/>
     </row>
     <row r="164" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5020,13 +5020,13 @@
         <v>162</v>
       </c>
       <c r="B164" s="3">
-        <v>549.00199999999995</v>
+        <v>544.35199999999998</v>
       </c>
       <c r="C164" s="3">
         <v>2</v>
       </c>
       <c r="D164" s="3">
-        <v>5491</v>
+        <v>5445</v>
       </c>
       <c r="E164" s="3">
         <v>1</v>
@@ -5045,13 +5045,13 @@
         <v>163</v>
       </c>
       <c r="B165" s="5">
-        <v>550.60199999999998</v>
+        <v>545.90200000000004</v>
       </c>
       <c r="C165" s="5">
         <v>2</v>
       </c>
       <c r="D165" s="5">
-        <v>5507</v>
+        <v>5459</v>
       </c>
       <c r="E165" s="5">
         <v>1</v>
@@ -5070,13 +5070,13 @@
         <v>164</v>
       </c>
       <c r="B166" s="3">
-        <v>552.322</v>
+        <v>547.452</v>
       </c>
       <c r="C166" s="3">
         <v>2</v>
       </c>
       <c r="D166" s="3">
-        <v>5523</v>
+        <v>5475</v>
       </c>
       <c r="E166" s="3">
         <v>1</v>
@@ -5095,13 +5095,13 @@
         <v>165</v>
       </c>
       <c r="B167" s="5">
-        <v>554.04200000000003</v>
+        <v>549.00199999999995</v>
       </c>
       <c r="C167" s="5">
         <v>2</v>
       </c>
       <c r="D167" s="5">
-        <v>5541</v>
+        <v>5491</v>
       </c>
       <c r="E167" s="5">
         <v>1</v>
@@ -5120,13 +5120,13 @@
         <v>166</v>
       </c>
       <c r="B168" s="3">
-        <v>555.702</v>
+        <v>550.60199999999998</v>
       </c>
       <c r="C168" s="3">
         <v>2</v>
       </c>
       <c r="D168" s="3">
-        <v>5557</v>
+        <v>5507</v>
       </c>
       <c r="E168" s="3">
         <v>1</v>
@@ -5145,13 +5145,13 @@
         <v>167</v>
       </c>
       <c r="B169" s="5">
-        <v>557.30200000000002</v>
+        <v>552.322</v>
       </c>
       <c r="C169" s="5">
         <v>2</v>
       </c>
       <c r="D169" s="5">
-        <v>5573</v>
+        <v>5523</v>
       </c>
       <c r="E169" s="5">
         <v>1</v>
@@ -5170,13 +5170,13 @@
         <v>168</v>
       </c>
       <c r="B170" s="3">
-        <v>558.80200000000002</v>
+        <v>554.04200000000003</v>
       </c>
       <c r="C170" s="3">
         <v>2</v>
       </c>
       <c r="D170" s="3">
-        <v>5589</v>
+        <v>5541</v>
       </c>
       <c r="E170" s="3">
         <v>1</v>
@@ -5195,13 +5195,13 @@
         <v>169</v>
       </c>
       <c r="B171" s="5">
-        <v>560.30200000000002</v>
+        <v>555.702</v>
       </c>
       <c r="C171" s="5">
         <v>2</v>
       </c>
       <c r="D171" s="5">
-        <v>5603</v>
+        <v>5557</v>
       </c>
       <c r="E171" s="5">
         <v>1</v>
@@ -5220,13 +5220,13 @@
         <v>170</v>
       </c>
       <c r="B172" s="3">
-        <v>561.80200000000002</v>
+        <v>557.30200000000002</v>
       </c>
       <c r="C172" s="3">
         <v>2</v>
       </c>
       <c r="D172" s="3">
-        <v>5619</v>
+        <v>5573</v>
       </c>
       <c r="E172" s="3">
         <v>1</v>
@@ -5245,13 +5245,13 @@
         <v>171</v>
       </c>
       <c r="B173" s="5">
-        <v>563.45299999999997</v>
+        <v>558.80200000000002</v>
       </c>
       <c r="C173" s="5">
         <v>2</v>
       </c>
       <c r="D173" s="5">
-        <v>5635</v>
+        <v>5589</v>
       </c>
       <c r="E173" s="5">
         <v>1</v>
@@ -5270,13 +5270,13 @@
         <v>172</v>
       </c>
       <c r="B174" s="3">
-        <v>565.10299999999995</v>
+        <v>560.30200000000002</v>
       </c>
       <c r="C174" s="3">
         <v>2</v>
       </c>
       <c r="D174" s="3">
-        <v>5651</v>
+        <v>5603</v>
       </c>
       <c r="E174" s="3">
         <v>1</v>
@@ -5295,13 +5295,13 @@
         <v>173</v>
       </c>
       <c r="B175" s="5">
-        <v>566.75300000000004</v>
+        <v>561.80200000000002</v>
       </c>
       <c r="C175" s="5">
         <v>2</v>
       </c>
       <c r="D175" s="5">
-        <v>5669</v>
+        <v>5619</v>
       </c>
       <c r="E175" s="5">
         <v>1</v>
@@ -5320,13 +5320,13 @@
         <v>174</v>
       </c>
       <c r="B176" s="3">
-        <v>566.93399999999997</v>
+        <v>563.45299999999997</v>
       </c>
       <c r="C176" s="3">
-        <v>3</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>65</v>
+        <v>2</v>
+      </c>
+      <c r="D176" s="3">
+        <v>5635</v>
       </c>
       <c r="E176" s="3">
         <v>1</v>
@@ -5337,9 +5337,7 @@
       <c r="G176" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H176" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="H176" s="3"/>
       <c r="I176" s="3"/>
     </row>
     <row r="177" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5347,13 +5345,13 @@
         <v>175</v>
       </c>
       <c r="B177" s="5">
-        <v>568.87400000000002</v>
+        <v>565.10299999999995</v>
       </c>
       <c r="C177" s="5">
-        <v>1</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="D177" s="5">
+        <v>5651</v>
       </c>
       <c r="E177" s="5">
         <v>1</v>
@@ -5364,25 +5362,21 @@
       <c r="G177" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H177" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I177" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
     </row>
     <row r="178" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="3">
         <v>176</v>
       </c>
       <c r="B178" s="3">
-        <v>570.33600000000001</v>
+        <v>566.75300000000004</v>
       </c>
       <c r="C178" s="3">
-        <v>1</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="D178" s="3">
+        <v>5669</v>
       </c>
       <c r="E178" s="3">
         <v>1</v>
@@ -5393,25 +5387,21 @@
       <c r="G178" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H178" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I178" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="H178" s="3"/>
+      <c r="I178" s="3"/>
     </row>
     <row r="179" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="5">
         <v>177</v>
       </c>
       <c r="B179" s="5">
-        <v>571.93600000000004</v>
+        <v>566.93399999999997</v>
       </c>
       <c r="C179" s="5">
-        <v>2</v>
-      </c>
-      <c r="D179" s="5">
-        <v>5719</v>
+        <v>3</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="E179" s="5">
         <v>1</v>
@@ -5422,7 +5412,9 @@
       <c r="G179" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H179" s="5"/>
+      <c r="H179" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I179" s="5"/>
     </row>
     <row r="180" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5430,13 +5422,13 @@
         <v>178</v>
       </c>
       <c r="B180" s="3">
-        <v>573.53599999999994</v>
+        <v>568.87400000000002</v>
       </c>
       <c r="C180" s="3">
-        <v>2</v>
-      </c>
-      <c r="D180" s="3">
-        <v>5735</v>
+        <v>1</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E180" s="3">
         <v>1</v>
@@ -5447,21 +5439,25 @@
       <c r="G180" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H180" s="3"/>
-      <c r="I180" s="3"/>
+      <c r="H180" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="181" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="5">
         <v>179</v>
       </c>
       <c r="B181" s="5">
-        <v>575.13599999999997</v>
+        <v>570.33600000000001</v>
       </c>
       <c r="C181" s="5">
-        <v>2</v>
-      </c>
-      <c r="D181" s="5">
-        <v>5751</v>
+        <v>1</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E181" s="5">
         <v>1</v>
@@ -5472,21 +5468,25 @@
       <c r="G181" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H181" s="5"/>
-      <c r="I181" s="5"/>
+      <c r="H181" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I181" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="182" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="3">
         <v>180</v>
       </c>
       <c r="B182" s="3">
-        <v>576.73599999999999</v>
+        <v>571.93600000000004</v>
       </c>
       <c r="C182" s="3">
         <v>2</v>
       </c>
       <c r="D182" s="3">
-        <v>5767</v>
+        <v>5719</v>
       </c>
       <c r="E182" s="3">
         <v>1</v>
@@ -5505,13 +5505,13 @@
         <v>181</v>
       </c>
       <c r="B183" s="5">
-        <v>578.33600000000001</v>
+        <v>573.53599999999994</v>
       </c>
       <c r="C183" s="5">
         <v>2</v>
       </c>
       <c r="D183" s="5">
-        <v>5783</v>
+        <v>5735</v>
       </c>
       <c r="E183" s="5">
         <v>1</v>
@@ -5530,13 +5530,13 @@
         <v>182</v>
       </c>
       <c r="B184" s="3">
-        <v>580.08600000000001</v>
+        <v>575.13599999999997</v>
       </c>
       <c r="C184" s="3">
         <v>2</v>
       </c>
       <c r="D184" s="3">
-        <v>5801</v>
+        <v>5751</v>
       </c>
       <c r="E184" s="3">
         <v>1</v>
@@ -5555,13 +5555,13 @@
         <v>183</v>
       </c>
       <c r="B185" s="5">
-        <v>581.92600000000004</v>
+        <v>576.73599999999999</v>
       </c>
       <c r="C185" s="5">
         <v>2</v>
       </c>
       <c r="D185" s="5">
-        <v>5819</v>
+        <v>5767</v>
       </c>
       <c r="E185" s="5">
         <v>1</v>
@@ -5580,13 +5580,13 @@
         <v>184</v>
       </c>
       <c r="B186" s="3">
-        <v>583.71600000000001</v>
+        <v>578.33600000000001</v>
       </c>
       <c r="C186" s="3">
         <v>2</v>
       </c>
       <c r="D186" s="3">
-        <v>5837</v>
+        <v>5783</v>
       </c>
       <c r="E186" s="3">
         <v>1</v>
@@ -5605,13 +5605,13 @@
         <v>185</v>
       </c>
       <c r="B187" s="5">
-        <v>585.50599999999997</v>
+        <v>580.08600000000001</v>
       </c>
       <c r="C187" s="5">
         <v>2</v>
       </c>
       <c r="D187" s="5">
-        <v>5855</v>
+        <v>5801</v>
       </c>
       <c r="E187" s="5">
         <v>1</v>
@@ -5630,13 +5630,13 @@
         <v>186</v>
       </c>
       <c r="B188" s="3">
-        <v>587.29600000000005</v>
+        <v>581.92600000000004</v>
       </c>
       <c r="C188" s="3">
         <v>2</v>
       </c>
       <c r="D188" s="3">
-        <v>5873</v>
+        <v>5819</v>
       </c>
       <c r="E188" s="3">
         <v>1</v>
@@ -5655,13 +5655,13 @@
         <v>187</v>
       </c>
       <c r="B189" s="5">
-        <v>589.08600000000001</v>
+        <v>583.71600000000001</v>
       </c>
       <c r="C189" s="5">
         <v>2</v>
       </c>
       <c r="D189" s="5">
-        <v>5891</v>
+        <v>5837</v>
       </c>
       <c r="E189" s="5">
         <v>1</v>
@@ -5680,13 +5680,13 @@
         <v>188</v>
       </c>
       <c r="B190" s="3">
-        <v>590.87599999999998</v>
+        <v>585.50599999999997</v>
       </c>
       <c r="C190" s="3">
         <v>2</v>
       </c>
       <c r="D190" s="3">
-        <v>5909</v>
+        <v>5855</v>
       </c>
       <c r="E190" s="3">
         <v>1</v>
@@ -5705,13 +5705,13 @@
         <v>189</v>
       </c>
       <c r="B191" s="5">
-        <v>592.66600000000005</v>
+        <v>587.29600000000005</v>
       </c>
       <c r="C191" s="5">
         <v>2</v>
       </c>
       <c r="D191" s="5">
-        <v>5927</v>
+        <v>5873</v>
       </c>
       <c r="E191" s="5">
         <v>1</v>
@@ -5730,13 +5730,13 @@
         <v>190</v>
       </c>
       <c r="B192" s="3">
-        <v>594.45600000000002</v>
+        <v>589.08600000000001</v>
       </c>
       <c r="C192" s="3">
         <v>2</v>
       </c>
       <c r="D192" s="3">
-        <v>5945</v>
+        <v>5891</v>
       </c>
       <c r="E192" s="3">
         <v>1</v>
@@ -5755,13 +5755,13 @@
         <v>191</v>
       </c>
       <c r="B193" s="5">
-        <v>595.10699999999997</v>
+        <v>590.87599999999998</v>
       </c>
       <c r="C193" s="5">
-        <v>3</v>
-      </c>
-      <c r="D193" s="5" t="s">
-        <v>66</v>
+        <v>2</v>
+      </c>
+      <c r="D193" s="5">
+        <v>5909</v>
       </c>
       <c r="E193" s="5">
         <v>1</v>
@@ -5772,9 +5772,7 @@
       <c r="G193" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H193" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="H193" s="5"/>
       <c r="I193" s="5"/>
     </row>
     <row r="194" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5782,13 +5780,13 @@
         <v>192</v>
       </c>
       <c r="B194" s="3">
-        <v>596.226</v>
+        <v>592.66600000000005</v>
       </c>
       <c r="C194" s="3">
         <v>2</v>
       </c>
       <c r="D194" s="3">
-        <v>5963</v>
+        <v>5927</v>
       </c>
       <c r="E194" s="3">
         <v>1</v>
@@ -5807,13 +5805,13 @@
         <v>193</v>
       </c>
       <c r="B195" s="5">
-        <v>597.99599999999998</v>
+        <v>594.45600000000002</v>
       </c>
       <c r="C195" s="5">
         <v>2</v>
       </c>
       <c r="D195" s="5">
-        <v>5981</v>
+        <v>5945</v>
       </c>
       <c r="E195" s="5">
         <v>1</v>
@@ -5832,13 +5830,13 @@
         <v>194</v>
       </c>
       <c r="B196" s="3">
-        <v>599.76599999999996</v>
+        <v>595.10699999999997</v>
       </c>
       <c r="C196" s="3">
-        <v>2</v>
-      </c>
-      <c r="D196" s="3">
-        <v>5999</v>
+        <v>3</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="E196" s="3">
         <v>1</v>
@@ -5849,7 +5847,9 @@
       <c r="G196" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H196" s="3"/>
+      <c r="H196" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I196" s="3"/>
     </row>
     <row r="197" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5857,13 +5857,13 @@
         <v>195</v>
       </c>
       <c r="B197" s="5">
-        <v>601.33600000000001</v>
+        <v>596.226</v>
       </c>
       <c r="C197" s="5">
         <v>2</v>
       </c>
       <c r="D197" s="5">
-        <v>6013</v>
+        <v>5963</v>
       </c>
       <c r="E197" s="5">
         <v>1</v>
@@ -5882,19 +5882,19 @@
         <v>196</v>
       </c>
       <c r="B198" s="3">
-        <v>602.62400000000002</v>
+        <v>597.99599999999998</v>
       </c>
       <c r="C198" s="3">
         <v>2</v>
       </c>
       <c r="D198" s="3">
-        <v>6027</v>
+        <v>5981</v>
       </c>
       <c r="E198" s="3">
         <v>1</v>
       </c>
       <c r="F198" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G198" s="3" t="s">
         <v>24</v>
@@ -5907,19 +5907,19 @@
         <v>197</v>
       </c>
       <c r="B199" s="5">
-        <v>604.13400000000001</v>
+        <v>599.76599999999996</v>
       </c>
       <c r="C199" s="5">
         <v>2</v>
       </c>
       <c r="D199" s="5">
-        <v>6041</v>
+        <v>5999</v>
       </c>
       <c r="E199" s="5">
         <v>1</v>
       </c>
       <c r="F199" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G199" s="5" t="s">
         <v>24</v>
@@ -5932,19 +5932,19 @@
         <v>198</v>
       </c>
       <c r="B200" s="3">
-        <v>605.64400000000001</v>
+        <v>601.33600000000001</v>
       </c>
       <c r="C200" s="3">
         <v>2</v>
       </c>
       <c r="D200" s="3">
-        <v>6057</v>
+        <v>6013</v>
       </c>
       <c r="E200" s="3">
         <v>1</v>
       </c>
       <c r="F200" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>24</v>
@@ -5957,13 +5957,13 @@
         <v>199</v>
       </c>
       <c r="B201" s="5">
-        <v>607.154</v>
+        <v>602.62400000000002</v>
       </c>
       <c r="C201" s="5">
         <v>2</v>
       </c>
       <c r="D201" s="5">
-        <v>6073</v>
+        <v>6027</v>
       </c>
       <c r="E201" s="5">
         <v>1</v>
@@ -5982,13 +5982,13 @@
         <v>200</v>
       </c>
       <c r="B202" s="3">
-        <v>608.66399999999999</v>
+        <v>604.13400000000001</v>
       </c>
       <c r="C202" s="3">
         <v>2</v>
       </c>
       <c r="D202" s="3">
-        <v>6087</v>
+        <v>6041</v>
       </c>
       <c r="E202" s="3">
         <v>1</v>
@@ -6007,13 +6007,13 @@
         <v>201</v>
       </c>
       <c r="B203" s="5">
-        <v>610.17399999999998</v>
+        <v>605.64400000000001</v>
       </c>
       <c r="C203" s="5">
         <v>2</v>
       </c>
       <c r="D203" s="5">
-        <v>6103</v>
+        <v>6057</v>
       </c>
       <c r="E203" s="5">
         <v>1</v>
@@ -6032,13 +6032,13 @@
         <v>202</v>
       </c>
       <c r="B204" s="3">
-        <v>611.68399999999997</v>
+        <v>607.154</v>
       </c>
       <c r="C204" s="3">
         <v>2</v>
       </c>
       <c r="D204" s="3">
-        <v>6117</v>
+        <v>6073</v>
       </c>
       <c r="E204" s="3">
         <v>1</v>
@@ -6057,13 +6057,13 @@
         <v>203</v>
       </c>
       <c r="B205" s="5">
-        <v>613.19399999999996</v>
+        <v>608.66399999999999</v>
       </c>
       <c r="C205" s="5">
         <v>2</v>
       </c>
       <c r="D205" s="5">
-        <v>6133</v>
+        <v>6087</v>
       </c>
       <c r="E205" s="5">
         <v>1</v>
@@ -6082,13 +6082,13 @@
         <v>204</v>
       </c>
       <c r="B206" s="3">
-        <v>614.95399999999995</v>
+        <v>610.17399999999998</v>
       </c>
       <c r="C206" s="3">
         <v>2</v>
       </c>
       <c r="D206" s="3">
-        <v>6151</v>
+        <v>6103</v>
       </c>
       <c r="E206" s="3">
         <v>1</v>
@@ -6107,13 +6107,13 @@
         <v>205</v>
       </c>
       <c r="B207" s="5">
-        <v>616.69399999999996</v>
+        <v>611.68399999999997</v>
       </c>
       <c r="C207" s="5">
         <v>2</v>
       </c>
       <c r="D207" s="5">
-        <v>6167</v>
+        <v>6117</v>
       </c>
       <c r="E207" s="5">
         <v>1</v>
@@ -6132,13 +6132,13 @@
         <v>206</v>
       </c>
       <c r="B208" s="3">
-        <v>618.32399999999996</v>
+        <v>613.19399999999996</v>
       </c>
       <c r="C208" s="3">
         <v>2</v>
       </c>
       <c r="D208" s="3">
-        <v>6183</v>
+        <v>6133</v>
       </c>
       <c r="E208" s="3">
         <v>1</v>
@@ -6157,13 +6157,13 @@
         <v>207</v>
       </c>
       <c r="B209" s="5">
-        <v>619.83500000000004</v>
+        <v>614.95399999999995</v>
       </c>
       <c r="C209" s="5">
-        <v>1</v>
-      </c>
-      <c r="D209" s="5" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="D209" s="5">
+        <v>6151</v>
       </c>
       <c r="E209" s="5">
         <v>1</v>
@@ -6174,25 +6174,21 @@
       <c r="G209" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H209" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I209" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="H209" s="5"/>
+      <c r="I209" s="5"/>
     </row>
     <row r="210" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="3">
         <v>208</v>
       </c>
       <c r="B210" s="3">
-        <v>621.51800000000003</v>
+        <v>616.69399999999996</v>
       </c>
       <c r="C210" s="3">
-        <v>1</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="D210" s="3">
+        <v>6167</v>
       </c>
       <c r="E210" s="3">
         <v>1</v>
@@ -6203,25 +6199,21 @@
       <c r="G210" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H210" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I210" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="H210" s="3"/>
+      <c r="I210" s="3"/>
     </row>
     <row r="211" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="5">
         <v>209</v>
       </c>
       <c r="B211" s="5">
-        <v>622.66800000000001</v>
+        <v>618.32399999999996</v>
       </c>
       <c r="C211" s="5">
         <v>2</v>
       </c>
       <c r="D211" s="5">
-        <v>6227</v>
+        <v>6183</v>
       </c>
       <c r="E211" s="5">
         <v>1</v>
@@ -6240,13 +6232,13 @@
         <v>210</v>
       </c>
       <c r="B212" s="3">
-        <v>622.9</v>
+        <v>619.83500000000004</v>
       </c>
       <c r="C212" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E212" s="3">
         <v>1</v>
@@ -6258,22 +6250,24 @@
         <v>24</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I212" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="213" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="5">
         <v>211</v>
       </c>
       <c r="B213" s="5">
-        <v>624.51800000000003</v>
+        <v>621.51800000000003</v>
       </c>
       <c r="C213" s="5">
-        <v>2</v>
-      </c>
-      <c r="D213" s="5">
-        <v>6245</v>
+        <v>1</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E213" s="5">
         <v>1</v>
@@ -6284,21 +6278,25 @@
       <c r="G213" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H213" s="5"/>
-      <c r="I213" s="5"/>
+      <c r="H213" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I213" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="214" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="3">
         <v>212</v>
       </c>
       <c r="B214" s="3">
-        <v>626.16800000000001</v>
+        <v>622.66800000000001</v>
       </c>
       <c r="C214" s="3">
         <v>2</v>
       </c>
       <c r="D214" s="3">
-        <v>6263</v>
+        <v>6227</v>
       </c>
       <c r="E214" s="3">
         <v>1</v>
@@ -6317,13 +6315,13 @@
         <v>213</v>
       </c>
       <c r="B215" s="5">
-        <v>627.81799999999998</v>
+        <v>622.9</v>
       </c>
       <c r="C215" s="5">
-        <v>2</v>
-      </c>
-      <c r="D215" s="5">
-        <v>6279</v>
+        <v>3</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="E215" s="5">
         <v>1</v>
@@ -6334,7 +6332,9 @@
       <c r="G215" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H215" s="5"/>
+      <c r="H215" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I215" s="5"/>
     </row>
     <row r="216" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -6342,13 +6342,13 @@
         <v>214</v>
       </c>
       <c r="B216" s="3">
-        <v>629.46799999999996</v>
+        <v>624.51800000000003</v>
       </c>
       <c r="C216" s="3">
         <v>2</v>
       </c>
       <c r="D216" s="3">
-        <v>6295</v>
+        <v>6245</v>
       </c>
       <c r="E216" s="3">
         <v>1</v>
@@ -6367,77 +6367,69 @@
         <v>215</v>
       </c>
       <c r="B217" s="5">
-        <v>631.70299999999997</v>
+        <v>626.16800000000001</v>
       </c>
       <c r="C217" s="5">
-        <v>1</v>
-      </c>
-      <c r="D217" s="5" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="D217" s="5">
+        <v>6263</v>
       </c>
       <c r="E217" s="5">
         <v>1</v>
       </c>
       <c r="F217" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G217" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H217" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I217" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="H217" s="5"/>
+      <c r="I217" s="5"/>
     </row>
     <row r="218" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="3">
         <v>216</v>
       </c>
       <c r="B218" s="3">
-        <v>633.69000000000005</v>
+        <v>627.81799999999998</v>
       </c>
       <c r="C218" s="3">
-        <v>1</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="D218" s="3">
+        <v>6279</v>
       </c>
       <c r="E218" s="3">
         <v>1</v>
       </c>
       <c r="F218" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G218" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H218" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I218" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="H218" s="3"/>
+      <c r="I218" s="3"/>
     </row>
     <row r="219" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="5">
         <v>217</v>
       </c>
       <c r="B219" s="5">
-        <v>635.09</v>
+        <v>629.46799999999996</v>
       </c>
       <c r="C219" s="5">
         <v>2</v>
       </c>
       <c r="D219" s="5">
-        <v>6351</v>
+        <v>6295</v>
       </c>
       <c r="E219" s="5">
         <v>1</v>
       </c>
       <c r="F219" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G219" s="5" t="s">
         <v>24</v>
@@ -6450,13 +6442,13 @@
         <v>218</v>
       </c>
       <c r="B220" s="3">
-        <v>636.59</v>
+        <v>631.70299999999997</v>
       </c>
       <c r="C220" s="3">
-        <v>2</v>
-      </c>
-      <c r="D220" s="3">
-        <v>6367</v>
+        <v>1</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E220" s="3">
         <v>1</v>
@@ -6467,21 +6459,25 @@
       <c r="G220" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H220" s="3"/>
-      <c r="I220" s="3"/>
+      <c r="H220" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I220" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="221" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="5">
         <v>219</v>
       </c>
       <c r="B221" s="5">
-        <v>637.99</v>
+        <v>633.69000000000005</v>
       </c>
       <c r="C221" s="5">
-        <v>2</v>
-      </c>
-      <c r="D221" s="5">
-        <v>6381</v>
+        <v>1</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E221" s="5">
         <v>1</v>
@@ -6492,21 +6488,25 @@
       <c r="G221" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H221" s="5"/>
-      <c r="I221" s="5"/>
+      <c r="H221" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I221" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="222" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="3">
         <v>220</v>
       </c>
       <c r="B222" s="3">
-        <v>639.49</v>
+        <v>635.09</v>
       </c>
       <c r="C222" s="3">
         <v>2</v>
       </c>
       <c r="D222" s="3">
-        <v>6395</v>
+        <v>6351</v>
       </c>
       <c r="E222" s="3">
         <v>1</v>
@@ -6525,13 +6525,13 @@
         <v>221</v>
       </c>
       <c r="B223" s="5">
-        <v>640.89</v>
+        <v>636.59</v>
       </c>
       <c r="C223" s="5">
         <v>2</v>
       </c>
       <c r="D223" s="5">
-        <v>6409</v>
+        <v>6367</v>
       </c>
       <c r="E223" s="5">
         <v>1</v>
@@ -6550,13 +6550,13 @@
         <v>222</v>
       </c>
       <c r="B224" s="3">
-        <v>642.39</v>
+        <v>637.99</v>
       </c>
       <c r="C224" s="3">
         <v>2</v>
       </c>
       <c r="D224" s="3">
-        <v>6425</v>
+        <v>6381</v>
       </c>
       <c r="E224" s="3">
         <v>1</v>
@@ -6575,13 +6575,13 @@
         <v>223</v>
       </c>
       <c r="B225" s="5">
-        <v>643.79</v>
+        <v>639.49</v>
       </c>
       <c r="C225" s="5">
         <v>2</v>
       </c>
       <c r="D225" s="5">
-        <v>6439</v>
+        <v>6395</v>
       </c>
       <c r="E225" s="5">
         <v>1</v>
@@ -6600,13 +6600,13 @@
         <v>224</v>
       </c>
       <c r="B226" s="3">
-        <v>645.29</v>
+        <v>640.89</v>
       </c>
       <c r="C226" s="3">
         <v>2</v>
       </c>
       <c r="D226" s="3">
-        <v>6453</v>
+        <v>6409</v>
       </c>
       <c r="E226" s="3">
         <v>1</v>
@@ -6625,13 +6625,13 @@
         <v>225</v>
       </c>
       <c r="B227" s="5">
-        <v>646.69000000000005</v>
+        <v>642.39</v>
       </c>
       <c r="C227" s="5">
         <v>2</v>
       </c>
       <c r="D227" s="5">
-        <v>6467</v>
+        <v>6425</v>
       </c>
       <c r="E227" s="5">
         <v>1</v>
@@ -6650,13 +6650,13 @@
         <v>226</v>
       </c>
       <c r="B228" s="3">
-        <v>648.82000000000005</v>
+        <v>643.79</v>
       </c>
       <c r="C228" s="3">
         <v>2</v>
       </c>
       <c r="D228" s="3">
-        <v>6489</v>
+        <v>6439</v>
       </c>
       <c r="E228" s="3">
         <v>1</v>
@@ -6675,13 +6675,13 @@
         <v>227</v>
       </c>
       <c r="B229" s="5">
-        <v>650.22</v>
+        <v>645.29</v>
       </c>
       <c r="C229" s="5">
-        <v>3</v>
-      </c>
-      <c r="D229" s="5" t="s">
-        <v>68</v>
+        <v>2</v>
+      </c>
+      <c r="D229" s="5">
+        <v>6453</v>
       </c>
       <c r="E229" s="5">
         <v>1</v>
@@ -6692,9 +6692,7 @@
       <c r="G229" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H229" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="H229" s="5"/>
       <c r="I229" s="5"/>
     </row>
     <row r="230" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -6702,13 +6700,13 @@
         <v>228</v>
       </c>
       <c r="B230" s="3">
-        <v>651.49</v>
+        <v>646.69000000000005</v>
       </c>
       <c r="C230" s="3">
         <v>2</v>
       </c>
       <c r="D230" s="3">
-        <v>6515</v>
+        <v>6467</v>
       </c>
       <c r="E230" s="3">
         <v>1</v>
@@ -6727,13 +6725,13 @@
         <v>229</v>
       </c>
       <c r="B231" s="5">
-        <v>652.99</v>
+        <v>648.19000000000005</v>
       </c>
       <c r="C231" s="5">
         <v>2</v>
       </c>
       <c r="D231" s="5">
-        <v>6531</v>
+        <v>6483</v>
       </c>
       <c r="E231" s="5">
         <v>1</v>
@@ -6752,13 +6750,13 @@
         <v>230</v>
       </c>
       <c r="B232" s="3">
-        <v>654.59</v>
+        <v>649.59</v>
       </c>
       <c r="C232" s="3">
         <v>2</v>
       </c>
       <c r="D232" s="3">
-        <v>6547</v>
+        <v>6497</v>
       </c>
       <c r="E232" s="3">
         <v>1</v>
@@ -6777,13 +6775,13 @@
         <v>231</v>
       </c>
       <c r="B233" s="5">
-        <v>656.09</v>
+        <v>650.22</v>
       </c>
       <c r="C233" s="5">
-        <v>2</v>
-      </c>
-      <c r="D233" s="5">
-        <v>6561</v>
+        <v>3</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="E233" s="5">
         <v>1</v>
@@ -6794,7 +6792,9 @@
       <c r="G233" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H233" s="5"/>
+      <c r="H233" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I233" s="5"/>
     </row>
     <row r="234" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -6802,13 +6802,13 @@
         <v>232</v>
       </c>
       <c r="B234" s="3">
-        <v>657.69</v>
+        <v>651.39</v>
       </c>
       <c r="C234" s="3">
         <v>2</v>
       </c>
       <c r="D234" s="3">
-        <v>6577</v>
+        <v>6515</v>
       </c>
       <c r="E234" s="3">
         <v>1</v>
@@ -6827,13 +6827,13 @@
         <v>233</v>
       </c>
       <c r="B235" s="5">
-        <v>659.29</v>
+        <v>652.99</v>
       </c>
       <c r="C235" s="5">
         <v>2</v>
       </c>
       <c r="D235" s="5">
-        <v>6593</v>
+        <v>6531</v>
       </c>
       <c r="E235" s="5">
         <v>1</v>
@@ -6852,13 +6852,13 @@
         <v>234</v>
       </c>
       <c r="B236" s="3">
-        <v>660.89</v>
+        <v>654.59</v>
       </c>
       <c r="C236" s="3">
         <v>2</v>
       </c>
       <c r="D236" s="3">
-        <v>6609</v>
+        <v>6547</v>
       </c>
       <c r="E236" s="3">
         <v>1</v>
@@ -6877,13 +6877,13 @@
         <v>235</v>
       </c>
       <c r="B237" s="5">
-        <v>662.64</v>
+        <v>656.09</v>
       </c>
       <c r="C237" s="5">
         <v>2</v>
       </c>
       <c r="D237" s="5">
-        <v>6627</v>
+        <v>6561</v>
       </c>
       <c r="E237" s="5">
         <v>1</v>
@@ -6902,13 +6902,13 @@
         <v>236</v>
       </c>
       <c r="B238" s="3">
-        <v>664.39</v>
+        <v>657.69</v>
       </c>
       <c r="C238" s="3">
         <v>2</v>
       </c>
       <c r="D238" s="3">
-        <v>6645</v>
+        <v>6577</v>
       </c>
       <c r="E238" s="3">
         <v>1</v>
@@ -6927,13 +6927,13 @@
         <v>237</v>
       </c>
       <c r="B239" s="5">
-        <v>666.14</v>
+        <v>659.29</v>
       </c>
       <c r="C239" s="5">
         <v>2</v>
       </c>
       <c r="D239" s="5">
-        <v>6661</v>
+        <v>6593</v>
       </c>
       <c r="E239" s="5">
         <v>1</v>
@@ -6952,13 +6952,13 @@
         <v>238</v>
       </c>
       <c r="B240" s="3">
-        <v>667.89</v>
+        <v>660.89</v>
       </c>
       <c r="C240" s="3">
         <v>2</v>
       </c>
       <c r="D240" s="3">
-        <v>6679</v>
+        <v>6609</v>
       </c>
       <c r="E240" s="3">
         <v>1</v>
@@ -6977,13 +6977,13 @@
         <v>239</v>
       </c>
       <c r="B241" s="5">
-        <v>669.64</v>
+        <v>662.64</v>
       </c>
       <c r="C241" s="5">
         <v>2</v>
       </c>
       <c r="D241" s="5">
-        <v>6697</v>
+        <v>6627</v>
       </c>
       <c r="E241" s="5">
         <v>1</v>
@@ -7002,13 +7002,13 @@
         <v>240</v>
       </c>
       <c r="B242" s="3">
-        <v>671.39</v>
+        <v>664.39</v>
       </c>
       <c r="C242" s="3">
         <v>2</v>
       </c>
       <c r="D242" s="3">
-        <v>6715</v>
+        <v>6645</v>
       </c>
       <c r="E242" s="3">
         <v>1</v>
@@ -7027,13 +7027,13 @@
         <v>241</v>
       </c>
       <c r="B243" s="5">
-        <v>673.14</v>
+        <v>666.14</v>
       </c>
       <c r="C243" s="5">
         <v>2</v>
       </c>
       <c r="D243" s="5">
-        <v>6731</v>
+        <v>6661</v>
       </c>
       <c r="E243" s="5">
         <v>1</v>
@@ -7052,80 +7052,72 @@
         <v>242</v>
       </c>
       <c r="B244" s="3">
-        <v>684.47</v>
+        <v>667.89</v>
       </c>
       <c r="C244" s="3">
-        <v>1</v>
-      </c>
-      <c r="D244" s="3" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="D244" s="3">
+        <v>6679</v>
       </c>
       <c r="E244" s="3">
         <v>1</v>
       </c>
       <c r="F244" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H244" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I244" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H244" s="3"/>
+      <c r="I244" s="3"/>
     </row>
     <row r="245" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="5">
         <v>243</v>
       </c>
       <c r="B245" s="5">
-        <v>686.08500000000004</v>
+        <v>669.64</v>
       </c>
       <c r="C245" s="5">
-        <v>1</v>
-      </c>
-      <c r="D245" s="5" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="D245" s="5">
+        <v>6697</v>
       </c>
       <c r="E245" s="5">
         <v>1</v>
       </c>
       <c r="F245" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H245" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I245" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H245" s="5"/>
+      <c r="I245" s="5"/>
     </row>
     <row r="246" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="3">
         <v>244</v>
       </c>
       <c r="B246" s="3">
-        <v>687.38499999999999</v>
+        <v>671.39</v>
       </c>
       <c r="C246" s="3">
         <v>2</v>
       </c>
       <c r="D246" s="3">
-        <v>6875</v>
+        <v>6715</v>
       </c>
       <c r="E246" s="3">
         <v>1</v>
       </c>
       <c r="F246" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
@@ -7135,26 +7127,24 @@
         <v>245</v>
       </c>
       <c r="B247" s="5">
-        <v>687.71900000000005</v>
+        <v>673.14</v>
       </c>
       <c r="C247" s="5">
-        <v>3</v>
-      </c>
-      <c r="D247" s="5" t="s">
-        <v>69</v>
+        <v>2</v>
+      </c>
+      <c r="D247" s="5">
+        <v>6731</v>
       </c>
       <c r="E247" s="5">
         <v>1</v>
       </c>
       <c r="F247" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H247" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H247" s="5"/>
       <c r="I247" s="5"/>
     </row>
     <row r="248" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7162,13 +7152,13 @@
         <v>246</v>
       </c>
       <c r="B248" s="3">
-        <v>689.255</v>
+        <v>684.47</v>
       </c>
       <c r="C248" s="3">
-        <v>2</v>
-      </c>
-      <c r="D248" s="3">
-        <v>6893</v>
+        <v>1</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E248" s="3">
         <v>1</v>
@@ -7179,21 +7169,25 @@
       <c r="G248" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H248" s="3"/>
-      <c r="I248" s="3"/>
+      <c r="H248" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I248" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="249" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="5">
         <v>247</v>
       </c>
       <c r="B249" s="5">
-        <v>690.98500000000001</v>
+        <v>686.08500000000004</v>
       </c>
       <c r="C249" s="5">
-        <v>2</v>
-      </c>
-      <c r="D249" s="5">
-        <v>6911</v>
+        <v>1</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E249" s="5">
         <v>1</v>
@@ -7204,21 +7198,25 @@
       <c r="G249" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H249" s="5"/>
-      <c r="I249" s="5"/>
+      <c r="H249" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I249" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="250" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="3">
         <v>248</v>
       </c>
       <c r="B250" s="3">
-        <v>692.78499999999997</v>
+        <v>687.38499999999999</v>
       </c>
       <c r="C250" s="3">
         <v>2</v>
       </c>
       <c r="D250" s="3">
-        <v>6929</v>
+        <v>6875</v>
       </c>
       <c r="E250" s="3">
         <v>1</v>
@@ -7237,13 +7235,13 @@
         <v>249</v>
       </c>
       <c r="B251" s="5">
-        <v>694.55499999999995</v>
+        <v>687.71900000000005</v>
       </c>
       <c r="C251" s="5">
-        <v>2</v>
-      </c>
-      <c r="D251" s="5">
-        <v>6947</v>
+        <v>3</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="E251" s="5">
         <v>1</v>
@@ -7254,7 +7252,9 @@
       <c r="G251" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H251" s="5"/>
+      <c r="H251" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I251" s="5"/>
     </row>
     <row r="252" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7262,13 +7262,13 @@
         <v>250</v>
       </c>
       <c r="B252" s="3">
-        <v>696.32500000000005</v>
+        <v>689.255</v>
       </c>
       <c r="C252" s="3">
         <v>2</v>
       </c>
       <c r="D252" s="3">
-        <v>6963</v>
+        <v>6893</v>
       </c>
       <c r="E252" s="3">
         <v>1</v>
@@ -7287,13 +7287,13 @@
         <v>251</v>
       </c>
       <c r="B253" s="5">
-        <v>698.09500000000003</v>
+        <v>690.98500000000001</v>
       </c>
       <c r="C253" s="5">
         <v>2</v>
       </c>
       <c r="D253" s="5">
-        <v>6981</v>
+        <v>6911</v>
       </c>
       <c r="E253" s="5">
         <v>1</v>
@@ -7312,13 +7312,13 @@
         <v>252</v>
       </c>
       <c r="B254" s="3">
-        <v>699.86500000000001</v>
+        <v>692.78499999999997</v>
       </c>
       <c r="C254" s="3">
         <v>2</v>
       </c>
       <c r="D254" s="3">
-        <v>6999</v>
+        <v>6929</v>
       </c>
       <c r="E254" s="3">
         <v>1</v>
@@ -7337,13 +7337,13 @@
         <v>253</v>
       </c>
       <c r="B255" s="5">
-        <v>701.63499999999999</v>
+        <v>694.55499999999995</v>
       </c>
       <c r="C255" s="5">
         <v>2</v>
       </c>
       <c r="D255" s="5">
-        <v>7017</v>
+        <v>6947</v>
       </c>
       <c r="E255" s="5">
         <v>1</v>
@@ -7362,19 +7362,19 @@
         <v>254</v>
       </c>
       <c r="B256" s="3">
-        <v>702.78599999999994</v>
+        <v>696.32500000000005</v>
       </c>
       <c r="C256" s="3">
         <v>2</v>
       </c>
       <c r="D256" s="3">
-        <v>7029</v>
+        <v>6963</v>
       </c>
       <c r="E256" s="3">
         <v>1</v>
       </c>
       <c r="F256" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G256" s="3" t="s">
         <v>12</v>
@@ -7387,19 +7387,19 @@
         <v>255</v>
       </c>
       <c r="B257" s="5">
-        <v>704.28599999999994</v>
+        <v>698.09500000000003</v>
       </c>
       <c r="C257" s="5">
         <v>2</v>
       </c>
       <c r="D257" s="5">
-        <v>7043</v>
+        <v>6981</v>
       </c>
       <c r="E257" s="5">
         <v>1</v>
       </c>
       <c r="F257" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G257" s="5" t="s">
         <v>12</v>
@@ -7412,19 +7412,19 @@
         <v>256</v>
       </c>
       <c r="B258" s="3">
-        <v>706.23599999999999</v>
+        <v>699.86500000000001</v>
       </c>
       <c r="C258" s="3">
         <v>2</v>
       </c>
       <c r="D258" s="3">
-        <v>7063</v>
+        <v>6999</v>
       </c>
       <c r="E258" s="3">
         <v>1</v>
       </c>
       <c r="F258" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G258" s="3" t="s">
         <v>12</v>
@@ -7437,26 +7437,24 @@
         <v>257</v>
       </c>
       <c r="B259" s="5">
-        <v>707.54700000000003</v>
+        <v>701.63499999999999</v>
       </c>
       <c r="C259" s="5">
-        <v>3</v>
-      </c>
-      <c r="D259" s="5" t="s">
-        <v>70</v>
+        <v>2</v>
+      </c>
+      <c r="D259" s="5">
+        <v>7017</v>
       </c>
       <c r="E259" s="5">
         <v>1</v>
       </c>
       <c r="F259" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H259" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H259" s="5"/>
       <c r="I259" s="5"/>
     </row>
     <row r="260" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7464,13 +7462,13 @@
         <v>258</v>
       </c>
       <c r="B260" s="3">
-        <v>708.94600000000003</v>
+        <v>702.78599999999994</v>
       </c>
       <c r="C260" s="3">
         <v>2</v>
       </c>
       <c r="D260" s="3">
-        <v>7089</v>
+        <v>7029</v>
       </c>
       <c r="E260" s="3">
         <v>1</v>
@@ -7489,13 +7487,13 @@
         <v>259</v>
       </c>
       <c r="B261" s="5">
-        <v>710.55600000000004</v>
+        <v>704.28599999999994</v>
       </c>
       <c r="C261" s="5">
         <v>2</v>
       </c>
       <c r="D261" s="5">
-        <v>7107</v>
+        <v>7043</v>
       </c>
       <c r="E261" s="5">
         <v>1</v>
@@ -7514,13 +7512,13 @@
         <v>260</v>
       </c>
       <c r="B262" s="3">
-        <v>712.16600000000005</v>
+        <v>705.68600000000004</v>
       </c>
       <c r="C262" s="3">
         <v>2</v>
       </c>
       <c r="D262" s="3">
-        <v>7123</v>
+        <v>7057</v>
       </c>
       <c r="E262" s="3">
         <v>1</v>
@@ -7539,13 +7537,13 @@
         <v>261</v>
       </c>
       <c r="B263" s="5">
-        <v>713.77599999999995</v>
+        <v>707.096</v>
       </c>
       <c r="C263" s="5">
         <v>2</v>
       </c>
       <c r="D263" s="5">
-        <v>7139</v>
+        <v>7071</v>
       </c>
       <c r="E263" s="5">
         <v>1</v>
@@ -7564,13 +7562,13 @@
         <v>262</v>
       </c>
       <c r="B264" s="3">
-        <v>715.38599999999997</v>
+        <v>707.54700000000003</v>
       </c>
       <c r="C264" s="3">
-        <v>2</v>
-      </c>
-      <c r="D264" s="3">
-        <v>7155</v>
+        <v>3</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="E264" s="3">
         <v>1</v>
@@ -7579,9 +7577,11 @@
         <v>10</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H264" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="H264" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I264" s="3"/>
     </row>
     <row r="265" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7589,13 +7589,13 @@
         <v>263</v>
       </c>
       <c r="B265" s="5">
-        <v>717.00599999999997</v>
+        <v>708.94600000000003</v>
       </c>
       <c r="C265" s="5">
         <v>2</v>
       </c>
       <c r="D265" s="5">
-        <v>7171</v>
+        <v>7089</v>
       </c>
       <c r="E265" s="5">
         <v>1</v>
@@ -7614,13 +7614,13 @@
         <v>264</v>
       </c>
       <c r="B266" s="3">
-        <v>718.62800000000004</v>
+        <v>710.55600000000004</v>
       </c>
       <c r="C266" s="3">
-        <v>1</v>
-      </c>
-      <c r="D266" s="3" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="D266" s="3">
+        <v>7107</v>
       </c>
       <c r="E266" s="3">
         <v>1</v>
@@ -7631,25 +7631,21 @@
       <c r="G266" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H266" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I266" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="H266" s="3"/>
+      <c r="I266" s="3"/>
     </row>
     <row r="267" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="5">
         <v>265</v>
       </c>
       <c r="B267" s="5">
-        <v>720.62699999999995</v>
+        <v>712.16600000000005</v>
       </c>
       <c r="C267" s="5">
-        <v>1</v>
-      </c>
-      <c r="D267" s="5" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="D267" s="5">
+        <v>7123</v>
       </c>
       <c r="E267" s="5">
         <v>1</v>
@@ -7660,25 +7656,21 @@
       <c r="G267" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H267" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I267" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="H267" s="5"/>
+      <c r="I267" s="5"/>
     </row>
     <row r="268" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="3">
         <v>266</v>
       </c>
       <c r="B268" s="3">
-        <v>722.22699999999998</v>
+        <v>713.77599999999995</v>
       </c>
       <c r="C268" s="3">
         <v>2</v>
       </c>
       <c r="D268" s="3">
-        <v>7223</v>
+        <v>7139</v>
       </c>
       <c r="E268" s="3">
         <v>1</v>
@@ -7697,13 +7689,13 @@
         <v>267</v>
       </c>
       <c r="B269" s="5">
-        <v>723.827</v>
+        <v>715.38599999999997</v>
       </c>
       <c r="C269" s="5">
         <v>2</v>
       </c>
       <c r="D269" s="5">
-        <v>7239</v>
+        <v>7155</v>
       </c>
       <c r="E269" s="5">
         <v>1</v>
@@ -7722,13 +7714,13 @@
         <v>268</v>
       </c>
       <c r="B270" s="3">
-        <v>725.42700000000002</v>
+        <v>717.00599999999997</v>
       </c>
       <c r="C270" s="3">
         <v>2</v>
       </c>
       <c r="D270" s="3">
-        <v>7255</v>
+        <v>7171</v>
       </c>
       <c r="E270" s="3">
         <v>1</v>
@@ -7747,13 +7739,13 @@
         <v>269</v>
       </c>
       <c r="B271" s="5">
-        <v>727.02700000000004</v>
+        <v>718.62800000000004</v>
       </c>
       <c r="C271" s="5">
-        <v>2</v>
-      </c>
-      <c r="D271" s="5">
-        <v>7271</v>
+        <v>1</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E271" s="5">
         <v>1</v>
@@ -7764,21 +7756,25 @@
       <c r="G271" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H271" s="5"/>
-      <c r="I271" s="5"/>
+      <c r="H271" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I271" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="272" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="3">
         <v>270</v>
       </c>
       <c r="B272" s="3">
-        <v>728.62699999999995</v>
+        <v>720.62699999999995</v>
       </c>
       <c r="C272" s="3">
-        <v>2</v>
-      </c>
-      <c r="D272" s="3">
-        <v>7287</v>
+        <v>1</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="E272" s="3">
         <v>1</v>
@@ -7789,21 +7785,25 @@
       <c r="G272" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H272" s="3"/>
-      <c r="I272" s="3"/>
+      <c r="H272" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I272" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="273" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="5">
         <v>271</v>
       </c>
       <c r="B273" s="5">
-        <v>730.38699999999994</v>
+        <v>722.22699999999998</v>
       </c>
       <c r="C273" s="5">
         <v>2</v>
       </c>
       <c r="D273" s="5">
-        <v>7305</v>
+        <v>7223</v>
       </c>
       <c r="E273" s="5">
         <v>1</v>
@@ -7822,13 +7822,13 @@
         <v>272</v>
       </c>
       <c r="B274" s="3">
-        <v>730.97699999999998</v>
+        <v>723.827</v>
       </c>
       <c r="C274" s="3">
-        <v>3</v>
-      </c>
-      <c r="D274" s="3" t="s">
-        <v>71</v>
+        <v>2</v>
+      </c>
+      <c r="D274" s="3">
+        <v>7239</v>
       </c>
       <c r="E274" s="3">
         <v>1</v>
@@ -7837,11 +7837,9 @@
         <v>10</v>
       </c>
       <c r="G274" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H274" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H274" s="3"/>
       <c r="I274" s="3"/>
     </row>
     <row r="275" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7849,13 +7847,13 @@
         <v>273</v>
       </c>
       <c r="B275" s="5">
-        <v>732.13300000000004</v>
+        <v>725.42700000000002</v>
       </c>
       <c r="C275" s="5">
-        <v>1</v>
-      </c>
-      <c r="D275" s="5" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="D275" s="5">
+        <v>7255</v>
       </c>
       <c r="E275" s="5">
         <v>1</v>
@@ -7866,23 +7864,31 @@
       <c r="G275" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H275" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I275" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="H275" s="5"/>
+      <c r="I275" s="5"/>
     </row>
     <row r="276" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="3">
         <v>274</v>
       </c>
-      <c r="B276" s="3"/>
-      <c r="C276" s="3"/>
-      <c r="D276" s="3"/>
-      <c r="E276" s="3"/>
-      <c r="F276" s="3"/>
-      <c r="G276" s="3"/>
+      <c r="B276" s="3">
+        <v>727.02700000000004</v>
+      </c>
+      <c r="C276" s="3">
+        <v>2</v>
+      </c>
+      <c r="D276" s="3">
+        <v>7271</v>
+      </c>
+      <c r="E276" s="3">
+        <v>1</v>
+      </c>
+      <c r="F276" s="3">
+        <v>10</v>
+      </c>
+      <c r="G276" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
     </row>
@@ -7890,12 +7896,24 @@
       <c r="A277" s="5">
         <v>275</v>
       </c>
-      <c r="B277" s="5"/>
-      <c r="C277" s="5"/>
-      <c r="D277" s="5"/>
-      <c r="E277" s="5"/>
-      <c r="F277" s="5"/>
-      <c r="G277" s="5"/>
+      <c r="B277" s="5">
+        <v>728.62699999999995</v>
+      </c>
+      <c r="C277" s="5">
+        <v>2</v>
+      </c>
+      <c r="D277" s="5">
+        <v>7287</v>
+      </c>
+      <c r="E277" s="5">
+        <v>1</v>
+      </c>
+      <c r="F277" s="5">
+        <v>10</v>
+      </c>
+      <c r="G277" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H277" s="5"/>
       <c r="I277" s="5"/>
     </row>
@@ -7903,12 +7921,24 @@
       <c r="A278" s="3">
         <v>276</v>
       </c>
-      <c r="B278" s="3"/>
-      <c r="C278" s="3"/>
-      <c r="D278" s="3"/>
-      <c r="E278" s="3"/>
-      <c r="F278" s="3"/>
-      <c r="G278" s="3"/>
+      <c r="B278" s="3">
+        <v>730.38699999999994</v>
+      </c>
+      <c r="C278" s="3">
+        <v>2</v>
+      </c>
+      <c r="D278" s="3">
+        <v>7305</v>
+      </c>
+      <c r="E278" s="3">
+        <v>1</v>
+      </c>
+      <c r="F278" s="3">
+        <v>10</v>
+      </c>
+      <c r="G278" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
     </row>
@@ -7916,27 +7946,57 @@
       <c r="A279" s="5">
         <v>277</v>
       </c>
-      <c r="B279" s="5"/>
-      <c r="C279" s="5"/>
-      <c r="D279" s="5"/>
-      <c r="E279" s="5"/>
-      <c r="F279" s="5"/>
-      <c r="G279" s="5"/>
-      <c r="H279" s="5"/>
+      <c r="B279" s="5">
+        <v>730.97699999999998</v>
+      </c>
+      <c r="C279" s="5">
+        <v>3</v>
+      </c>
+      <c r="D279" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E279" s="5">
+        <v>1</v>
+      </c>
+      <c r="F279" s="5">
+        <v>10</v>
+      </c>
+      <c r="G279" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H279" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I279" s="5"/>
     </row>
     <row r="280" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="3">
         <v>278</v>
       </c>
-      <c r="B280" s="3"/>
-      <c r="C280" s="3"/>
-      <c r="D280" s="3"/>
-      <c r="E280" s="3"/>
-      <c r="F280" s="3"/>
-      <c r="G280" s="3"/>
-      <c r="H280" s="3"/>
-      <c r="I280" s="3"/>
+      <c r="B280" s="3">
+        <v>732.13300000000004</v>
+      </c>
+      <c r="C280" s="3">
+        <v>1</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E280" s="3">
+        <v>1</v>
+      </c>
+      <c r="F280" s="3">
+        <v>10</v>
+      </c>
+      <c r="G280" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H280" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I280" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="281" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="5">
@@ -17353,7 +17413,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>312.57</v>
+        <v>312.54000000000002</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -17378,13 +17438,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>314.22000000000003</v>
+        <v>313.79000000000002</v>
       </c>
       <c r="C5" s="5">
         <v>2</v>
       </c>
       <c r="D5" s="5">
-        <v>3142</v>
+        <v>3138</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -17403,13 +17463,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>315.87</v>
+        <v>315.02999999999997</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -17428,13 +17488,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>317.52</v>
+        <v>316.42</v>
       </c>
       <c r="C7" s="5">
         <v>2</v>
       </c>
       <c r="D7" s="5">
-        <v>3176</v>
+        <v>3164</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -17453,13 +17513,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>319.07</v>
+        <v>316.82</v>
       </c>
       <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3192</v>
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -17470,7 +17530,9 @@
       <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -17478,13 +17540,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>320.62</v>
+        <v>319.08</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
       </c>
       <c r="D9" s="5">
-        <v>3206</v>
+        <v>3192</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -17503,13 +17565,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>322.12</v>
+        <v>320.63</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
       <c r="D10" s="3">
-        <v>3222</v>
+        <v>3206</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -17528,13 +17590,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>323.62</v>
+        <v>322.12</v>
       </c>
       <c r="C11" s="5">
         <v>2</v>
       </c>
       <c r="D11" s="5">
-        <v>3236</v>
+        <v>3222</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -17553,13 +17615,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>325.12</v>
+        <v>323.62</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
       </c>
       <c r="D12" s="3">
-        <v>3252</v>
+        <v>3236</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -17684,7 +17746,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -18005,13 +18067,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>352.83</v>
+        <v>353.03</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
       </c>
       <c r="D30" s="3">
-        <v>3528</v>
+        <v>3530</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -18030,13 +18092,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>354.13</v>
+        <v>354.43</v>
       </c>
       <c r="C31" s="5">
         <v>2</v>
       </c>
       <c r="D31" s="5">
-        <v>3542</v>
+        <v>3544</v>
       </c>
       <c r="E31" s="5">
         <v>1</v>
@@ -18055,13 +18117,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>354.488</v>
+        <v>354.738</v>
       </c>
       <c r="C32" s="3">
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -18073,7 +18135,7 @@
         <v>16</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I32" s="3"/>
     </row>
@@ -18542,7 +18604,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="5">
-        <v>385.26499999999999</v>
+        <v>385.26799999999997</v>
       </c>
       <c r="C51" s="5">
         <v>2</v>
@@ -20528,7 +20590,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="5">
-        <v>509.19600000000003</v>
+        <v>509.18599999999998</v>
       </c>
       <c r="C129" s="5">
         <v>2</v>
@@ -21492,13 +21554,13 @@
         <v>165</v>
       </c>
       <c r="B167" s="5">
-        <v>568.10900000000004</v>
+        <v>567.85900000000004</v>
       </c>
       <c r="C167" s="5">
         <v>2</v>
       </c>
       <c r="D167" s="5">
-        <v>5682</v>
+        <v>5680</v>
       </c>
       <c r="E167" s="5">
         <v>1</v>
@@ -21952,13 +22014,13 @@
         <v>183</v>
       </c>
       <c r="B185" s="5">
-        <v>596.08199999999999</v>
+        <v>595.98199999999997</v>
       </c>
       <c r="C185" s="5">
         <v>2</v>
       </c>
       <c r="D185" s="5">
-        <v>5962</v>
+        <v>5960</v>
       </c>
       <c r="E185" s="5">
         <v>1</v>

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/信号机数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/信号机数据_single.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="72">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -231,16 +231,16 @@
     <t>D4K</t>
   </si>
   <si>
-    <t>316.820+1:317.120+1:317.620+1:800.000</t>
+    <t>331.547+1:332.088+1:332.317+1:770.000</t>
   </si>
   <si>
     <t>无名</t>
   </si>
   <si>
-    <t>331.547+1:332.088+1:332.317+1:770.000</t>
+    <t>354.488+1:355.037+1:355.277+1:789.000</t>
   </si>
   <si>
-    <t>354.738+1:355.287+1:355.527+1:789.000</t>
+    <t>富宁分区所</t>
   </si>
   <si>
     <t>D4K+355240</t>
@@ -342,7 +342,7 @@
     <t>331.868+1:332.098+1:332.657+1:789.000</t>
   </si>
   <si>
-    <t>355.062+1:355.292+1:355.868+1:806.000</t>
+    <t>354.812+1:355.042+1:355.618+1:806.000</t>
   </si>
   <si>
     <t>X</t>
@@ -983,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>313.25299999999999</v>
+        <v>313.24299999999999</v>
       </c>
       <c r="C5" s="5">
         <v>2</v>
@@ -1008,13 +1008,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>314.76299999999998</v>
+        <v>314.74299999999999</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3">
-        <v>3149</v>
+        <v>3147</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -1033,7 +1033,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>316.27300000000002</v>
+        <v>316.24299999999999</v>
       </c>
       <c r="C7" s="5">
         <v>2</v>
@@ -1058,13 +1058,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>317.78300000000002</v>
+        <v>317.74299999999999</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3">
-        <v>3179</v>
+        <v>3177</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -1258,13 +1258,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>330.14299999999997</v>
+        <v>330.46800000000002</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
       </c>
       <c r="D16" s="3">
-        <v>3301</v>
+        <v>3305</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1283,13 +1283,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>331.54300000000001</v>
+        <v>331.86799999999999</v>
       </c>
       <c r="C17" s="5">
-        <v>2</v>
-      </c>
-      <c r="D17" s="5">
-        <v>3315</v>
+        <v>3</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -1300,7 +1300,9 @@
       <c r="G17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1308,13 +1310,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>331.86799999999999</v>
+        <v>333.54300000000001</v>
       </c>
       <c r="C18" s="3">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>53</v>
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3335</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -1325,9 +1327,7 @@
       <c r="G18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1335,13 +1335,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>333.54300000000001</v>
+        <v>335.04300000000001</v>
       </c>
       <c r="C19" s="5">
         <v>2</v>
       </c>
       <c r="D19" s="5">
-        <v>3335</v>
+        <v>3351</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -1360,13 +1360,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>335.04300000000001</v>
+        <v>336.54300000000001</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
       </c>
       <c r="D20" s="3">
-        <v>3351</v>
+        <v>3365</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -1385,13 +1385,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>336.54300000000001</v>
+        <v>338.04300000000001</v>
       </c>
       <c r="C21" s="5">
         <v>2</v>
       </c>
       <c r="D21" s="5">
-        <v>3365</v>
+        <v>3381</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
@@ -1410,13 +1410,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>338.04300000000001</v>
+        <v>339.54300000000001</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
       </c>
       <c r="D22" s="3">
-        <v>3381</v>
+        <v>3395</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -1435,13 +1435,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>339.54300000000001</v>
+        <v>341.04300000000001</v>
       </c>
       <c r="C23" s="5">
         <v>2</v>
       </c>
       <c r="D23" s="5">
-        <v>3395</v>
+        <v>3411</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
@@ -1460,13 +1460,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>341.04300000000001</v>
+        <v>342.54300000000001</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
       </c>
       <c r="D24" s="3">
-        <v>3411</v>
+        <v>3425</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -1485,13 +1485,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>342.54300000000001</v>
+        <v>344.04300000000001</v>
       </c>
       <c r="C25" s="5">
         <v>2</v>
       </c>
       <c r="D25" s="5">
-        <v>3425</v>
+        <v>3441</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
@@ -1510,13 +1510,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>344.04300000000001</v>
+        <v>345.54300000000001</v>
       </c>
       <c r="C26" s="3">
         <v>2</v>
       </c>
       <c r="D26" s="3">
-        <v>3441</v>
+        <v>3455</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -1535,13 +1535,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>345.54300000000001</v>
+        <v>347.04300000000001</v>
       </c>
       <c r="C27" s="5">
         <v>2</v>
       </c>
       <c r="D27" s="5">
-        <v>3455</v>
+        <v>3471</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
@@ -1560,13 +1560,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>347.04300000000001</v>
+        <v>348.54300000000001</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
       </c>
       <c r="D28" s="3">
-        <v>3471</v>
+        <v>3485</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -1585,13 +1585,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>348.54300000000001</v>
+        <v>350.04300000000001</v>
       </c>
       <c r="C29" s="5">
         <v>2</v>
       </c>
       <c r="D29" s="5">
-        <v>3485</v>
+        <v>3501</v>
       </c>
       <c r="E29" s="5">
         <v>1</v>
@@ -1610,13 +1610,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>350.04300000000001</v>
+        <v>351.54300000000001</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
       </c>
       <c r="D30" s="3">
-        <v>3501</v>
+        <v>3515</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -1635,13 +1635,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>351.54300000000001</v>
+        <v>352.89299999999997</v>
       </c>
       <c r="C31" s="5">
         <v>2</v>
       </c>
       <c r="D31" s="5">
-        <v>3515</v>
+        <v>3529</v>
       </c>
       <c r="E31" s="5">
         <v>1</v>
@@ -1660,13 +1660,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>352.89299999999997</v>
+        <v>354.09300000000002</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
       </c>
       <c r="D32" s="3">
-        <v>3529</v>
+        <v>3541</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -1685,13 +1685,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>354.44299999999998</v>
+        <v>354.81200000000001</v>
       </c>
       <c r="C33" s="5">
-        <v>2</v>
-      </c>
-      <c r="D33" s="5">
-        <v>3545</v>
+        <v>3</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -1702,7 +1702,9 @@
       <c r="G33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="5"/>
+      <c r="H33" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1710,13 +1712,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>355.06200000000001</v>
+        <v>356.202</v>
       </c>
       <c r="C34" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
@@ -1725,31 +1727,33 @@
         <v>1</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>356.202</v>
+        <v>356.81599999999997</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E35" s="5">
         <v>1</v>
       </c>
       <c r="F35" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>12</v>
@@ -1758,7 +1762,7 @@
         <v>22</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1766,13 +1770,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>356.81599999999997</v>
+        <v>358.40600000000001</v>
       </c>
       <c r="C36" s="3">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3585</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
@@ -1781,27 +1785,23 @@
         <v>2</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>358.40600000000001</v>
+        <v>359.98599999999999</v>
       </c>
       <c r="C37" s="5">
         <v>2</v>
       </c>
       <c r="D37" s="5">
-        <v>3585</v>
+        <v>3601</v>
       </c>
       <c r="E37" s="5">
         <v>1</v>
@@ -1820,13 +1820,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>359.98599999999999</v>
+        <v>361.56599999999997</v>
       </c>
       <c r="C38" s="3">
         <v>2</v>
       </c>
       <c r="D38" s="3">
-        <v>3601</v>
+        <v>3617</v>
       </c>
       <c r="E38" s="3">
         <v>1</v>
@@ -1845,13 +1845,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>361.56599999999997</v>
+        <v>363.14600000000002</v>
       </c>
       <c r="C39" s="5">
         <v>2</v>
       </c>
       <c r="D39" s="5">
-        <v>3617</v>
+        <v>3631</v>
       </c>
       <c r="E39" s="5">
         <v>1</v>
@@ -1870,13 +1870,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>363.14600000000002</v>
+        <v>364.726</v>
       </c>
       <c r="C40" s="3">
         <v>2</v>
       </c>
       <c r="D40" s="3">
-        <v>3631</v>
+        <v>3647</v>
       </c>
       <c r="E40" s="3">
         <v>1</v>
@@ -1895,13 +1895,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="5">
-        <v>364.726</v>
+        <v>366.30599999999998</v>
       </c>
       <c r="C41" s="5">
         <v>2</v>
       </c>
       <c r="D41" s="5">
-        <v>3647</v>
+        <v>3663</v>
       </c>
       <c r="E41" s="5">
         <v>1</v>
@@ -1920,13 +1920,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>366.30599999999998</v>
+        <v>367.88600000000002</v>
       </c>
       <c r="C42" s="3">
         <v>2</v>
       </c>
       <c r="D42" s="3">
-        <v>3663</v>
+        <v>3679</v>
       </c>
       <c r="E42" s="3">
         <v>1</v>
@@ -1945,13 +1945,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="5">
-        <v>367.88600000000002</v>
+        <v>369.46600000000001</v>
       </c>
       <c r="C43" s="5">
         <v>2</v>
       </c>
       <c r="D43" s="5">
-        <v>3679</v>
+        <v>3695</v>
       </c>
       <c r="E43" s="5">
         <v>1</v>
@@ -1970,19 +1970,19 @@
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>369.46600000000001</v>
+        <v>371.202</v>
       </c>
       <c r="C44" s="3">
         <v>2</v>
       </c>
       <c r="D44" s="3">
-        <v>3695</v>
+        <v>3713</v>
       </c>
       <c r="E44" s="3">
         <v>1</v>
       </c>
       <c r="F44" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>16</v>
@@ -1995,13 +1995,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="5">
-        <v>371.202</v>
+        <v>373.00200000000001</v>
       </c>
       <c r="C45" s="5">
         <v>2</v>
       </c>
       <c r="D45" s="5">
-        <v>3713</v>
+        <v>3731</v>
       </c>
       <c r="E45" s="5">
         <v>1</v>
@@ -2010,7 +2010,7 @@
         <v>3</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -2020,13 +2020,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>373.00200000000001</v>
+        <v>374.80200000000002</v>
       </c>
       <c r="C46" s="3">
         <v>2</v>
       </c>
       <c r="D46" s="3">
-        <v>3731</v>
+        <v>3749</v>
       </c>
       <c r="E46" s="3">
         <v>1</v>
@@ -2045,13 +2045,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="5">
-        <v>374.80200000000002</v>
+        <v>375.30799999999999</v>
       </c>
       <c r="C47" s="5">
-        <v>2</v>
-      </c>
-      <c r="D47" s="5">
-        <v>3749</v>
+        <v>3</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="E47" s="5">
         <v>1</v>
@@ -2062,7 +2062,9 @@
       <c r="G47" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="5"/>
+      <c r="H47" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2070,13 +2072,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>375.30799999999999</v>
+        <v>376.452</v>
       </c>
       <c r="C48" s="3">
-        <v>3</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>56</v>
+        <v>2</v>
+      </c>
+      <c r="D48" s="3">
+        <v>3765</v>
       </c>
       <c r="E48" s="3">
         <v>1</v>
@@ -2087,9 +2089,7 @@
       <c r="G48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2097,13 +2097,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="5">
-        <v>376.452</v>
+        <v>377.85199999999998</v>
       </c>
       <c r="C49" s="5">
         <v>2</v>
       </c>
       <c r="D49" s="5">
-        <v>3765</v>
+        <v>3779</v>
       </c>
       <c r="E49" s="5">
         <v>1</v>
@@ -2122,13 +2122,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>377.85199999999998</v>
+        <v>379.25200000000001</v>
       </c>
       <c r="C50" s="3">
         <v>2</v>
       </c>
       <c r="D50" s="3">
-        <v>3779</v>
+        <v>3793</v>
       </c>
       <c r="E50" s="3">
         <v>1</v>
@@ -2147,13 +2147,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="5">
-        <v>379.25200000000001</v>
+        <v>380.65199999999999</v>
       </c>
       <c r="C51" s="5">
         <v>2</v>
       </c>
       <c r="D51" s="5">
-        <v>3793</v>
+        <v>3807</v>
       </c>
       <c r="E51" s="5">
         <v>1</v>
@@ -2172,13 +2172,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>380.65199999999999</v>
+        <v>382.05200000000002</v>
       </c>
       <c r="C52" s="3">
         <v>2</v>
       </c>
       <c r="D52" s="3">
-        <v>3807</v>
+        <v>3821</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
@@ -2197,13 +2197,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="5">
-        <v>382.05200000000002</v>
+        <v>383.452</v>
       </c>
       <c r="C53" s="5">
         <v>2</v>
       </c>
       <c r="D53" s="5">
-        <v>3821</v>
+        <v>3835</v>
       </c>
       <c r="E53" s="5">
         <v>1</v>
@@ -2222,13 +2222,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>383.452</v>
+        <v>385.00200000000001</v>
       </c>
       <c r="C54" s="3">
         <v>2</v>
       </c>
       <c r="D54" s="3">
-        <v>3835</v>
+        <v>3851</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -2247,13 +2247,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="5">
-        <v>385.00200000000001</v>
+        <v>386.702</v>
       </c>
       <c r="C55" s="5">
         <v>2</v>
       </c>
       <c r="D55" s="5">
-        <v>3851</v>
+        <v>3867</v>
       </c>
       <c r="E55" s="5">
         <v>1</v>
@@ -2272,13 +2272,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>386.702</v>
+        <v>388.40199999999999</v>
       </c>
       <c r="C56" s="3">
         <v>2</v>
       </c>
       <c r="D56" s="3">
-        <v>3867</v>
+        <v>3885</v>
       </c>
       <c r="E56" s="3">
         <v>1</v>
@@ -2297,13 +2297,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="5">
-        <v>388.40199999999999</v>
+        <v>390.10199999999998</v>
       </c>
       <c r="C57" s="5">
         <v>2</v>
       </c>
       <c r="D57" s="5">
-        <v>3885</v>
+        <v>3901</v>
       </c>
       <c r="E57" s="5">
         <v>1</v>
@@ -2322,13 +2322,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <v>390.10199999999998</v>
+        <v>390.44</v>
       </c>
       <c r="C58" s="3">
-        <v>2</v>
-      </c>
-      <c r="D58" s="3">
-        <v>3901</v>
+        <v>3</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="E58" s="3">
         <v>1</v>
@@ -2339,7 +2339,9 @@
       <c r="G58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H58" s="3"/>
+      <c r="H58" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I58" s="3"/>
     </row>
     <row r="59" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2347,13 +2349,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="5">
-        <v>390.44</v>
+        <v>391.702</v>
       </c>
       <c r="C59" s="5">
-        <v>3</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>57</v>
+        <v>2</v>
+      </c>
+      <c r="D59" s="5">
+        <v>3917</v>
       </c>
       <c r="E59" s="5">
         <v>1</v>
@@ -2364,9 +2366,7 @@
       <c r="G59" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H59" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="H59" s="5"/>
       <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2374,13 +2374,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="3">
-        <v>391.702</v>
+        <v>393.29700000000003</v>
       </c>
       <c r="C60" s="3">
-        <v>2</v>
-      </c>
-      <c r="D60" s="3">
-        <v>3917</v>
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E60" s="3">
         <v>1</v>
@@ -2391,21 +2391,25 @@
       <c r="G60" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
+      <c r="H60" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="61" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5">
         <v>59</v>
       </c>
       <c r="B61" s="5">
-        <v>393.29700000000003</v>
+        <v>394.66500000000002</v>
       </c>
       <c r="C61" s="5">
         <v>1</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E61" s="5">
         <v>1</v>
@@ -2420,7 +2424,7 @@
         <v>28</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2428,13 +2432,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="3">
-        <v>394.66500000000002</v>
+        <v>396.065</v>
       </c>
       <c r="C62" s="3">
-        <v>1</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="D62" s="3">
+        <v>3961</v>
       </c>
       <c r="E62" s="3">
         <v>1</v>
@@ -2445,25 +2449,21 @@
       <c r="G62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
     </row>
     <row r="63" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
         <v>61</v>
       </c>
       <c r="B63" s="5">
-        <v>396.065</v>
+        <v>397.565</v>
       </c>
       <c r="C63" s="5">
         <v>2</v>
       </c>
       <c r="D63" s="5">
-        <v>3961</v>
+        <v>3977</v>
       </c>
       <c r="E63" s="5">
         <v>1</v>
@@ -2482,13 +2482,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="3">
-        <v>397.565</v>
+        <v>398.96499999999997</v>
       </c>
       <c r="C64" s="3">
         <v>2</v>
       </c>
       <c r="D64" s="3">
-        <v>3977</v>
+        <v>3991</v>
       </c>
       <c r="E64" s="3">
         <v>1</v>
@@ -2507,13 +2507,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="5">
-        <v>398.96499999999997</v>
+        <v>400.46499999999997</v>
       </c>
       <c r="C65" s="5">
         <v>2</v>
       </c>
       <c r="D65" s="5">
-        <v>3991</v>
+        <v>4005</v>
       </c>
       <c r="E65" s="5">
         <v>1</v>
@@ -2532,13 +2532,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>400.46499999999997</v>
+        <v>401.86500000000001</v>
       </c>
       <c r="C66" s="3">
         <v>2</v>
       </c>
       <c r="D66" s="3">
-        <v>4005</v>
+        <v>4019</v>
       </c>
       <c r="E66" s="3">
         <v>1</v>
@@ -2557,13 +2557,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="5">
-        <v>401.86500000000001</v>
+        <v>403.36500000000001</v>
       </c>
       <c r="C67" s="5">
         <v>2</v>
       </c>
       <c r="D67" s="5">
-        <v>4019</v>
+        <v>4035</v>
       </c>
       <c r="E67" s="5">
         <v>1</v>
@@ -2582,13 +2582,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="3">
-        <v>403.36500000000001</v>
+        <v>404.76499999999999</v>
       </c>
       <c r="C68" s="3">
         <v>2</v>
       </c>
       <c r="D68" s="3">
-        <v>4035</v>
+        <v>4049</v>
       </c>
       <c r="E68" s="3">
         <v>1</v>
@@ -2607,13 +2607,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="5">
-        <v>404.76499999999999</v>
+        <v>406.26499999999999</v>
       </c>
       <c r="C69" s="5">
         <v>2</v>
       </c>
       <c r="D69" s="5">
-        <v>4049</v>
+        <v>4063</v>
       </c>
       <c r="E69" s="5">
         <v>1</v>
@@ -2632,13 +2632,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <v>406.26499999999999</v>
+        <v>407.66500000000002</v>
       </c>
       <c r="C70" s="3">
         <v>2</v>
       </c>
       <c r="D70" s="3">
-        <v>4063</v>
+        <v>4077</v>
       </c>
       <c r="E70" s="3">
         <v>1</v>
@@ -2657,13 +2657,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="5">
-        <v>407.66500000000002</v>
+        <v>409.16500000000002</v>
       </c>
       <c r="C71" s="5">
         <v>2</v>
       </c>
       <c r="D71" s="5">
-        <v>4077</v>
+        <v>4093</v>
       </c>
       <c r="E71" s="5">
         <v>1</v>
@@ -2682,13 +2682,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="3">
-        <v>409.16500000000002</v>
+        <v>410.565</v>
       </c>
       <c r="C72" s="3">
         <v>2</v>
       </c>
       <c r="D72" s="3">
-        <v>4093</v>
+        <v>4107</v>
       </c>
       <c r="E72" s="3">
         <v>1</v>
@@ -2707,13 +2707,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="5">
-        <v>410.565</v>
+        <v>412.065</v>
       </c>
       <c r="C73" s="5">
         <v>2</v>
       </c>
       <c r="D73" s="5">
-        <v>4107</v>
+        <v>4121</v>
       </c>
       <c r="E73" s="5">
         <v>1</v>
@@ -2732,13 +2732,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="3">
-        <v>412.065</v>
+        <v>414.27</v>
       </c>
       <c r="C74" s="3">
         <v>2</v>
       </c>
       <c r="D74" s="3">
-        <v>4121</v>
+        <v>4143</v>
       </c>
       <c r="E74" s="3">
         <v>1</v>
@@ -2757,13 +2757,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="5">
-        <v>413.565</v>
+        <v>415.67</v>
       </c>
       <c r="C75" s="5">
-        <v>2</v>
-      </c>
-      <c r="D75" s="5">
-        <v>4137</v>
+        <v>3</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="E75" s="5">
         <v>1</v>
@@ -2774,7 +2774,9 @@
       <c r="G75" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H75" s="5"/>
+      <c r="H75" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I75" s="5"/>
     </row>
     <row r="76" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2782,13 +2784,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="3">
-        <v>415.065</v>
+        <v>416.76499999999999</v>
       </c>
       <c r="C76" s="3">
         <v>2</v>
       </c>
       <c r="D76" s="3">
-        <v>4151</v>
+        <v>4169</v>
       </c>
       <c r="E76" s="3">
         <v>1</v>
@@ -2807,13 +2809,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="5">
-        <v>415.67</v>
+        <v>418.26799999999997</v>
       </c>
       <c r="C77" s="5">
-        <v>3</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>58</v>
+        <v>2</v>
+      </c>
+      <c r="D77" s="5">
+        <v>4183</v>
       </c>
       <c r="E77" s="5">
         <v>1</v>
@@ -2824,9 +2826,7 @@
       <c r="G77" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H77" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="H77" s="5"/>
       <c r="I77" s="5"/>
     </row>
     <row r="78" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2834,19 +2834,19 @@
         <v>76</v>
       </c>
       <c r="B78" s="3">
-        <v>416.76499999999999</v>
+        <v>419.77699999999999</v>
       </c>
       <c r="C78" s="3">
         <v>2</v>
       </c>
       <c r="D78" s="3">
-        <v>4169</v>
+        <v>4199</v>
       </c>
       <c r="E78" s="3">
         <v>1</v>
       </c>
       <c r="F78" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>24</v>
@@ -2859,19 +2859,19 @@
         <v>77</v>
       </c>
       <c r="B79" s="5">
-        <v>418.26499999999999</v>
+        <v>421.47699999999998</v>
       </c>
       <c r="C79" s="5">
         <v>2</v>
       </c>
       <c r="D79" s="5">
-        <v>4183</v>
+        <v>4215</v>
       </c>
       <c r="E79" s="5">
         <v>1</v>
       </c>
       <c r="F79" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>24</v>
@@ -2884,13 +2884,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="3">
-        <v>419.77699999999999</v>
+        <v>423.077</v>
       </c>
       <c r="C80" s="3">
         <v>2</v>
       </c>
       <c r="D80" s="3">
-        <v>4199</v>
+        <v>4231</v>
       </c>
       <c r="E80" s="3">
         <v>1</v>
@@ -2909,13 +2909,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="5">
-        <v>421.47699999999998</v>
+        <v>424.67700000000002</v>
       </c>
       <c r="C81" s="5">
         <v>2</v>
       </c>
       <c r="D81" s="5">
-        <v>4215</v>
+        <v>4247</v>
       </c>
       <c r="E81" s="5">
         <v>1</v>
@@ -2934,13 +2934,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="3">
-        <v>423.077</v>
+        <v>426.233</v>
       </c>
       <c r="C82" s="3">
-        <v>2</v>
-      </c>
-      <c r="D82" s="3">
-        <v>4231</v>
+        <v>1</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E82" s="3">
         <v>1</v>
@@ -2951,21 +2951,25 @@
       <c r="G82" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
+      <c r="H82" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="83" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="5">
         <v>81</v>
       </c>
       <c r="B83" s="5">
-        <v>424.67700000000002</v>
+        <v>427.91800000000001</v>
       </c>
       <c r="C83" s="5">
-        <v>2</v>
-      </c>
-      <c r="D83" s="5">
-        <v>4247</v>
+        <v>1</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E83" s="5">
         <v>1</v>
@@ -2976,21 +2980,25 @@
       <c r="G83" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
+      <c r="H83" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="84" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
         <v>82</v>
       </c>
       <c r="B84" s="3">
-        <v>426.233</v>
+        <v>429.56799999999998</v>
       </c>
       <c r="C84" s="3">
-        <v>1</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="D84" s="3">
+        <v>4297</v>
       </c>
       <c r="E84" s="3">
         <v>1</v>
@@ -3001,25 +3009,21 @@
       <c r="G84" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H84" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="5">
         <v>83</v>
       </c>
       <c r="B85" s="5">
-        <v>427.91800000000001</v>
+        <v>430.30500000000001</v>
       </c>
       <c r="C85" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E85" s="5">
         <v>1</v>
@@ -3031,30 +3035,28 @@
         <v>24</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I85" s="5"/>
     </row>
     <row r="86" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
         <v>84</v>
       </c>
       <c r="B86" s="3">
-        <v>429.56799999999998</v>
+        <v>433.10500000000002</v>
       </c>
       <c r="C86" s="3">
         <v>2</v>
       </c>
       <c r="D86" s="3">
-        <v>4297</v>
+        <v>4331</v>
       </c>
       <c r="E86" s="3">
         <v>1</v>
       </c>
       <c r="F86" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>24</v>
@@ -3067,26 +3069,24 @@
         <v>85</v>
       </c>
       <c r="B87" s="5">
-        <v>430.30500000000001</v>
+        <v>434.61500000000001</v>
       </c>
       <c r="C87" s="5">
-        <v>3</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>59</v>
+        <v>2</v>
+      </c>
+      <c r="D87" s="5">
+        <v>4347</v>
       </c>
       <c r="E87" s="5">
         <v>1</v>
       </c>
       <c r="F87" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H87" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="H87" s="5"/>
       <c r="I87" s="5"/>
     </row>
     <row r="88" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3094,13 +3094,13 @@
         <v>86</v>
       </c>
       <c r="B88" s="3">
-        <v>433.10500000000002</v>
+        <v>436.125</v>
       </c>
       <c r="C88" s="3">
         <v>2</v>
       </c>
       <c r="D88" s="3">
-        <v>4331</v>
+        <v>4361</v>
       </c>
       <c r="E88" s="3">
         <v>1</v>
@@ -3119,13 +3119,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="5">
-        <v>434.61500000000001</v>
+        <v>437.73500000000001</v>
       </c>
       <c r="C89" s="5">
         <v>2</v>
       </c>
       <c r="D89" s="5">
-        <v>4347</v>
+        <v>4377</v>
       </c>
       <c r="E89" s="5">
         <v>1</v>
@@ -3144,13 +3144,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="3">
-        <v>436.125</v>
+        <v>439.34500000000003</v>
       </c>
       <c r="C90" s="3">
         <v>2</v>
       </c>
       <c r="D90" s="3">
-        <v>4361</v>
+        <v>4393</v>
       </c>
       <c r="E90" s="3">
         <v>1</v>
@@ -3169,13 +3169,13 @@
         <v>89</v>
       </c>
       <c r="B91" s="5">
-        <v>437.73500000000001</v>
+        <v>440.94499999999999</v>
       </c>
       <c r="C91" s="5">
         <v>2</v>
       </c>
       <c r="D91" s="5">
-        <v>4377</v>
+        <v>4409</v>
       </c>
       <c r="E91" s="5">
         <v>1</v>
@@ -3194,13 +3194,13 @@
         <v>90</v>
       </c>
       <c r="B92" s="3">
-        <v>439.34500000000003</v>
+        <v>442.54500000000002</v>
       </c>
       <c r="C92" s="3">
         <v>2</v>
       </c>
       <c r="D92" s="3">
-        <v>4393</v>
+        <v>4425</v>
       </c>
       <c r="E92" s="3">
         <v>1</v>
@@ -3219,13 +3219,13 @@
         <v>91</v>
       </c>
       <c r="B93" s="5">
-        <v>440.94499999999999</v>
+        <v>444.14499999999998</v>
       </c>
       <c r="C93" s="5">
         <v>2</v>
       </c>
       <c r="D93" s="5">
-        <v>4409</v>
+        <v>4441</v>
       </c>
       <c r="E93" s="5">
         <v>1</v>
@@ -3244,13 +3244,13 @@
         <v>92</v>
       </c>
       <c r="B94" s="3">
-        <v>442.54500000000002</v>
+        <v>445.74799999999999</v>
       </c>
       <c r="C94" s="3">
         <v>2</v>
       </c>
       <c r="D94" s="3">
-        <v>4425</v>
+        <v>4457</v>
       </c>
       <c r="E94" s="3">
         <v>1</v>
@@ -3269,13 +3269,13 @@
         <v>93</v>
       </c>
       <c r="B95" s="5">
-        <v>444.14499999999998</v>
+        <v>447.29500000000002</v>
       </c>
       <c r="C95" s="5">
         <v>2</v>
       </c>
       <c r="D95" s="5">
-        <v>4441</v>
+        <v>4473</v>
       </c>
       <c r="E95" s="5">
         <v>1</v>
@@ -3294,13 +3294,13 @@
         <v>94</v>
       </c>
       <c r="B96" s="3">
-        <v>445.745</v>
+        <v>447.68299999999999</v>
       </c>
       <c r="C96" s="3">
-        <v>2</v>
-      </c>
-      <c r="D96" s="3">
-        <v>4457</v>
+        <v>3</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="E96" s="3">
         <v>1</v>
@@ -3311,7 +3311,9 @@
       <c r="G96" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H96" s="3"/>
+      <c r="H96" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I96" s="3"/>
     </row>
     <row r="97" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3319,13 +3321,13 @@
         <v>95</v>
       </c>
       <c r="B97" s="5">
-        <v>447.29500000000002</v>
+        <v>448.84500000000003</v>
       </c>
       <c r="C97" s="5">
         <v>2</v>
       </c>
       <c r="D97" s="5">
-        <v>4473</v>
+        <v>4489</v>
       </c>
       <c r="E97" s="5">
         <v>1</v>
@@ -3344,13 +3346,13 @@
         <v>96</v>
       </c>
       <c r="B98" s="3">
-        <v>447.68299999999999</v>
+        <v>450.71499999999997</v>
       </c>
       <c r="C98" s="3">
-        <v>3</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>60</v>
+        <v>2</v>
+      </c>
+      <c r="D98" s="3">
+        <v>4507</v>
       </c>
       <c r="E98" s="3">
         <v>1</v>
@@ -3361,9 +3363,7 @@
       <c r="G98" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H98" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="H98" s="3"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3371,13 +3371,13 @@
         <v>97</v>
       </c>
       <c r="B99" s="5">
-        <v>448.84500000000003</v>
+        <v>452.22500000000002</v>
       </c>
       <c r="C99" s="5">
         <v>2</v>
       </c>
       <c r="D99" s="5">
-        <v>4489</v>
+        <v>4523</v>
       </c>
       <c r="E99" s="5">
         <v>1</v>
@@ -3396,13 +3396,13 @@
         <v>98</v>
       </c>
       <c r="B100" s="3">
-        <v>450.71499999999997</v>
+        <v>453.73500000000001</v>
       </c>
       <c r="C100" s="3">
         <v>2</v>
       </c>
       <c r="D100" s="3">
-        <v>4507</v>
+        <v>4537</v>
       </c>
       <c r="E100" s="3">
         <v>1</v>
@@ -3421,13 +3421,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="5">
-        <v>452.22500000000002</v>
+        <v>455.245</v>
       </c>
       <c r="C101" s="5">
         <v>2</v>
       </c>
       <c r="D101" s="5">
-        <v>4523</v>
+        <v>4553</v>
       </c>
       <c r="E101" s="5">
         <v>1</v>
@@ -3446,13 +3446,13 @@
         <v>100</v>
       </c>
       <c r="B102" s="3">
-        <v>453.73500000000001</v>
+        <v>456.73099999999999</v>
       </c>
       <c r="C102" s="3">
         <v>2</v>
       </c>
       <c r="D102" s="3">
-        <v>4537</v>
+        <v>4567</v>
       </c>
       <c r="E102" s="3">
         <v>1</v>
@@ -3471,13 +3471,13 @@
         <v>101</v>
       </c>
       <c r="B103" s="5">
-        <v>455.245</v>
+        <v>458.26499999999999</v>
       </c>
       <c r="C103" s="5">
         <v>2</v>
       </c>
       <c r="D103" s="5">
-        <v>4553</v>
+        <v>4583</v>
       </c>
       <c r="E103" s="5">
         <v>1</v>
@@ -3496,13 +3496,13 @@
         <v>102</v>
       </c>
       <c r="B104" s="3">
-        <v>456.755</v>
+        <v>459.77499999999998</v>
       </c>
       <c r="C104" s="3">
         <v>2</v>
       </c>
       <c r="D104" s="3">
-        <v>4569</v>
+        <v>4599</v>
       </c>
       <c r="E104" s="3">
         <v>1</v>
@@ -3521,13 +3521,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="5">
-        <v>458.26499999999999</v>
+        <v>461.28500000000003</v>
       </c>
       <c r="C105" s="5">
         <v>2</v>
       </c>
       <c r="D105" s="5">
-        <v>4583</v>
+        <v>4613</v>
       </c>
       <c r="E105" s="5">
         <v>1</v>
@@ -3546,13 +3546,13 @@
         <v>104</v>
       </c>
       <c r="B106" s="3">
-        <v>459.77499999999998</v>
+        <v>462.79500000000002</v>
       </c>
       <c r="C106" s="3">
         <v>2</v>
       </c>
       <c r="D106" s="3">
-        <v>4599</v>
+        <v>4629</v>
       </c>
       <c r="E106" s="3">
         <v>1</v>
@@ -3571,13 +3571,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="5">
-        <v>461.28500000000003</v>
+        <v>464.30500000000001</v>
       </c>
       <c r="C107" s="5">
         <v>2</v>
       </c>
       <c r="D107" s="5">
-        <v>4613</v>
+        <v>4643</v>
       </c>
       <c r="E107" s="5">
         <v>1</v>
@@ -3596,13 +3596,13 @@
         <v>106</v>
       </c>
       <c r="B108" s="3">
-        <v>462.79500000000002</v>
+        <v>465.815</v>
       </c>
       <c r="C108" s="3">
         <v>2</v>
       </c>
       <c r="D108" s="3">
-        <v>4629</v>
+        <v>4659</v>
       </c>
       <c r="E108" s="3">
         <v>1</v>
@@ -3621,13 +3621,13 @@
         <v>107</v>
       </c>
       <c r="B109" s="5">
-        <v>464.30500000000001</v>
+        <v>467.32499999999999</v>
       </c>
       <c r="C109" s="5">
         <v>2</v>
       </c>
       <c r="D109" s="5">
-        <v>4643</v>
+        <v>4673</v>
       </c>
       <c r="E109" s="5">
         <v>1</v>
@@ -3646,13 +3646,13 @@
         <v>108</v>
       </c>
       <c r="B110" s="3">
-        <v>465.815</v>
+        <v>468.83499999999998</v>
       </c>
       <c r="C110" s="3">
         <v>2</v>
       </c>
       <c r="D110" s="3">
-        <v>4659</v>
+        <v>4689</v>
       </c>
       <c r="E110" s="3">
         <v>1</v>
@@ -3671,13 +3671,13 @@
         <v>109</v>
       </c>
       <c r="B111" s="5">
-        <v>467.32499999999999</v>
+        <v>470.34500000000003</v>
       </c>
       <c r="C111" s="5">
         <v>2</v>
       </c>
       <c r="D111" s="5">
-        <v>4673</v>
+        <v>4703</v>
       </c>
       <c r="E111" s="5">
         <v>1</v>
@@ -3696,13 +3696,13 @@
         <v>110</v>
       </c>
       <c r="B112" s="3">
-        <v>468.83499999999998</v>
+        <v>471.85500000000002</v>
       </c>
       <c r="C112" s="3">
         <v>2</v>
       </c>
       <c r="D112" s="3">
-        <v>4689</v>
+        <v>4719</v>
       </c>
       <c r="E112" s="3">
         <v>1</v>
@@ -3721,13 +3721,13 @@
         <v>111</v>
       </c>
       <c r="B113" s="5">
-        <v>470.34500000000003</v>
+        <v>473.27199999999999</v>
       </c>
       <c r="C113" s="5">
-        <v>2</v>
-      </c>
-      <c r="D113" s="5">
-        <v>4703</v>
+        <v>1</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E113" s="5">
         <v>1</v>
@@ -3738,21 +3738,25 @@
       <c r="G113" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
+      <c r="H113" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="114" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="3">
         <v>112</v>
       </c>
       <c r="B114" s="3">
-        <v>471.85500000000002</v>
+        <v>474.72</v>
       </c>
       <c r="C114" s="3">
-        <v>2</v>
-      </c>
-      <c r="D114" s="3">
-        <v>4719</v>
+        <v>1</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="E114" s="3">
         <v>1</v>
@@ -3763,21 +3767,25 @@
       <c r="G114" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
+      <c r="H114" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="115" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="5">
         <v>113</v>
       </c>
       <c r="B115" s="5">
-        <v>473.27199999999999</v>
+        <v>476.12</v>
       </c>
       <c r="C115" s="5">
-        <v>1</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="D115" s="5">
+        <v>4761</v>
       </c>
       <c r="E115" s="5">
         <v>1</v>
@@ -3788,25 +3796,21 @@
       <c r="G115" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H115" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
     </row>
     <row r="116" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="3">
         <v>114</v>
       </c>
       <c r="B116" s="3">
-        <v>474.72</v>
+        <v>476.35700000000003</v>
       </c>
       <c r="C116" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E116" s="3">
         <v>1</v>
@@ -3818,24 +3822,22 @@
         <v>24</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I116" s="3"/>
     </row>
     <row r="117" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="5">
         <v>115</v>
       </c>
       <c r="B117" s="5">
-        <v>476.12</v>
+        <v>478.05</v>
       </c>
       <c r="C117" s="5">
         <v>2</v>
       </c>
       <c r="D117" s="5">
-        <v>4761</v>
+        <v>4781</v>
       </c>
       <c r="E117" s="5">
         <v>1</v>
@@ -3854,13 +3856,13 @@
         <v>116</v>
       </c>
       <c r="B118" s="3">
-        <v>476.35700000000003</v>
+        <v>479.64</v>
       </c>
       <c r="C118" s="3">
-        <v>3</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="D118" s="3">
+        <v>4797</v>
       </c>
       <c r="E118" s="3">
         <v>1</v>
@@ -3871,9 +3873,7 @@
       <c r="G118" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H118" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="H118" s="3"/>
       <c r="I118" s="3"/>
     </row>
     <row r="119" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3881,13 +3881,13 @@
         <v>117</v>
       </c>
       <c r="B119" s="5">
-        <v>478.05</v>
+        <v>481.33</v>
       </c>
       <c r="C119" s="5">
         <v>2</v>
       </c>
       <c r="D119" s="5">
-        <v>4781</v>
+        <v>4813</v>
       </c>
       <c r="E119" s="5">
         <v>1</v>
@@ -3906,13 +3906,13 @@
         <v>118</v>
       </c>
       <c r="B120" s="3">
-        <v>479.64</v>
+        <v>482.87</v>
       </c>
       <c r="C120" s="3">
         <v>2</v>
       </c>
       <c r="D120" s="3">
-        <v>4797</v>
+        <v>4829</v>
       </c>
       <c r="E120" s="3">
         <v>1</v>
@@ -3931,13 +3931,13 @@
         <v>119</v>
       </c>
       <c r="B121" s="5">
-        <v>481.33</v>
+        <v>484.41</v>
       </c>
       <c r="C121" s="5">
         <v>2</v>
       </c>
       <c r="D121" s="5">
-        <v>4813</v>
+        <v>4845</v>
       </c>
       <c r="E121" s="5">
         <v>1</v>
@@ -3956,13 +3956,13 @@
         <v>120</v>
       </c>
       <c r="B122" s="3">
-        <v>482.87</v>
+        <v>486</v>
       </c>
       <c r="C122" s="3">
         <v>2</v>
       </c>
       <c r="D122" s="3">
-        <v>4829</v>
+        <v>4861</v>
       </c>
       <c r="E122" s="3">
         <v>1</v>
@@ -3981,13 +3981,13 @@
         <v>121</v>
       </c>
       <c r="B123" s="5">
-        <v>484.41</v>
+        <v>487.59</v>
       </c>
       <c r="C123" s="5">
         <v>2</v>
       </c>
       <c r="D123" s="5">
-        <v>4845</v>
+        <v>4877</v>
       </c>
       <c r="E123" s="5">
         <v>1</v>
@@ -4006,13 +4006,13 @@
         <v>122</v>
       </c>
       <c r="B124" s="3">
-        <v>486</v>
+        <v>489.19</v>
       </c>
       <c r="C124" s="3">
         <v>2</v>
       </c>
       <c r="D124" s="3">
-        <v>4861</v>
+        <v>4893</v>
       </c>
       <c r="E124" s="3">
         <v>1</v>
@@ -4031,13 +4031,13 @@
         <v>123</v>
       </c>
       <c r="B125" s="5">
-        <v>487.59</v>
+        <v>490.94</v>
       </c>
       <c r="C125" s="5">
         <v>2</v>
       </c>
       <c r="D125" s="5">
-        <v>4877</v>
+        <v>4909</v>
       </c>
       <c r="E125" s="5">
         <v>1</v>
@@ -4056,13 +4056,13 @@
         <v>124</v>
       </c>
       <c r="B126" s="3">
-        <v>489.19</v>
+        <v>492.69</v>
       </c>
       <c r="C126" s="3">
         <v>2</v>
       </c>
       <c r="D126" s="3">
-        <v>4893</v>
+        <v>4927</v>
       </c>
       <c r="E126" s="3">
         <v>1</v>
@@ -4081,13 +4081,13 @@
         <v>125</v>
       </c>
       <c r="B127" s="5">
-        <v>490.94</v>
+        <v>494.44</v>
       </c>
       <c r="C127" s="5">
         <v>2</v>
       </c>
       <c r="D127" s="5">
-        <v>4909</v>
+        <v>4945</v>
       </c>
       <c r="E127" s="5">
         <v>1</v>
@@ -4106,13 +4106,13 @@
         <v>126</v>
       </c>
       <c r="B128" s="3">
-        <v>492.69</v>
+        <v>496.33</v>
       </c>
       <c r="C128" s="3">
         <v>2</v>
       </c>
       <c r="D128" s="3">
-        <v>4927</v>
+        <v>4963</v>
       </c>
       <c r="E128" s="3">
         <v>1</v>
@@ -4131,24 +4131,26 @@
         <v>127</v>
       </c>
       <c r="B129" s="5">
-        <v>494.44</v>
+        <v>497.83100000000002</v>
       </c>
       <c r="C129" s="5">
-        <v>2</v>
-      </c>
-      <c r="D129" s="5">
-        <v>4945</v>
+        <v>3</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E129" s="5">
         <v>1</v>
       </c>
       <c r="F129" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H129" s="5"/>
+      <c r="H129" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I129" s="5"/>
     </row>
     <row r="130" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4156,19 +4158,19 @@
         <v>128</v>
       </c>
       <c r="B130" s="3">
-        <v>496.04</v>
+        <v>499.101</v>
       </c>
       <c r="C130" s="3">
         <v>2</v>
       </c>
       <c r="D130" s="3">
-        <v>4961</v>
+        <v>4991</v>
       </c>
       <c r="E130" s="3">
         <v>1</v>
       </c>
       <c r="F130" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>24</v>
@@ -4181,13 +4183,13 @@
         <v>129</v>
       </c>
       <c r="B131" s="5">
-        <v>497.34100000000001</v>
+        <v>500.61099999999999</v>
       </c>
       <c r="C131" s="5">
         <v>2</v>
       </c>
       <c r="D131" s="5">
-        <v>4973</v>
+        <v>5007</v>
       </c>
       <c r="E131" s="5">
         <v>1</v>
@@ -4206,13 +4208,13 @@
         <v>130</v>
       </c>
       <c r="B132" s="3">
-        <v>497.83100000000002</v>
+        <v>502.12099999999998</v>
       </c>
       <c r="C132" s="3">
-        <v>3</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>62</v>
+        <v>2</v>
+      </c>
+      <c r="D132" s="3">
+        <v>5021</v>
       </c>
       <c r="E132" s="3">
         <v>1</v>
@@ -4223,9 +4225,7 @@
       <c r="G132" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H132" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="H132" s="3"/>
       <c r="I132" s="3"/>
     </row>
     <row r="133" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4233,13 +4233,13 @@
         <v>131</v>
       </c>
       <c r="B133" s="5">
-        <v>499.101</v>
+        <v>503.63099999999997</v>
       </c>
       <c r="C133" s="5">
         <v>2</v>
       </c>
       <c r="D133" s="5">
-        <v>4991</v>
+        <v>5037</v>
       </c>
       <c r="E133" s="5">
         <v>1</v>
@@ -4258,13 +4258,13 @@
         <v>132</v>
       </c>
       <c r="B134" s="3">
-        <v>500.61099999999999</v>
+        <v>505.14100000000002</v>
       </c>
       <c r="C134" s="3">
         <v>2</v>
       </c>
       <c r="D134" s="3">
-        <v>5007</v>
+        <v>5051</v>
       </c>
       <c r="E134" s="3">
         <v>1</v>
@@ -4283,13 +4283,13 @@
         <v>133</v>
       </c>
       <c r="B135" s="5">
-        <v>502.12099999999998</v>
+        <v>506.65100000000001</v>
       </c>
       <c r="C135" s="5">
         <v>2</v>
       </c>
       <c r="D135" s="5">
-        <v>5021</v>
+        <v>5067</v>
       </c>
       <c r="E135" s="5">
         <v>1</v>
@@ -4308,13 +4308,13 @@
         <v>134</v>
       </c>
       <c r="B136" s="3">
-        <v>503.63099999999997</v>
+        <v>508.06099999999998</v>
       </c>
       <c r="C136" s="3">
         <v>2</v>
       </c>
       <c r="D136" s="3">
-        <v>5037</v>
+        <v>5081</v>
       </c>
       <c r="E136" s="3">
         <v>1</v>
@@ -4333,13 +4333,13 @@
         <v>135</v>
       </c>
       <c r="B137" s="5">
-        <v>505.14100000000002</v>
+        <v>509.61099999999999</v>
       </c>
       <c r="C137" s="5">
         <v>2</v>
       </c>
       <c r="D137" s="5">
-        <v>5051</v>
+        <v>5097</v>
       </c>
       <c r="E137" s="5">
         <v>1</v>
@@ -4358,13 +4358,13 @@
         <v>136</v>
       </c>
       <c r="B138" s="3">
-        <v>506.65100000000001</v>
+        <v>511.041</v>
       </c>
       <c r="C138" s="3">
         <v>2</v>
       </c>
       <c r="D138" s="3">
-        <v>5067</v>
+        <v>5111</v>
       </c>
       <c r="E138" s="3">
         <v>1</v>
@@ -4383,13 +4383,13 @@
         <v>137</v>
       </c>
       <c r="B139" s="5">
-        <v>508.06099999999998</v>
+        <v>512.79100000000005</v>
       </c>
       <c r="C139" s="5">
         <v>2</v>
       </c>
       <c r="D139" s="5">
-        <v>5081</v>
+        <v>5129</v>
       </c>
       <c r="E139" s="5">
         <v>1</v>
@@ -4408,13 +4408,13 @@
         <v>138</v>
       </c>
       <c r="B140" s="3">
-        <v>509.61099999999999</v>
+        <v>514.54100000000005</v>
       </c>
       <c r="C140" s="3">
         <v>2</v>
       </c>
       <c r="D140" s="3">
-        <v>5097</v>
+        <v>5145</v>
       </c>
       <c r="E140" s="3">
         <v>1</v>
@@ -4433,13 +4433,13 @@
         <v>139</v>
       </c>
       <c r="B141" s="5">
-        <v>511.041</v>
+        <v>516.29100000000005</v>
       </c>
       <c r="C141" s="5">
         <v>2</v>
       </c>
       <c r="D141" s="5">
-        <v>5111</v>
+        <v>5163</v>
       </c>
       <c r="E141" s="5">
         <v>1</v>
@@ -4458,13 +4458,13 @@
         <v>140</v>
       </c>
       <c r="B142" s="3">
-        <v>512.79100000000005</v>
+        <v>517.69100000000003</v>
       </c>
       <c r="C142" s="3">
         <v>2</v>
       </c>
       <c r="D142" s="3">
-        <v>5129</v>
+        <v>5177</v>
       </c>
       <c r="E142" s="3">
         <v>1</v>
@@ -4483,13 +4483,13 @@
         <v>141</v>
       </c>
       <c r="B143" s="5">
-        <v>514.54100000000005</v>
+        <v>518.05999999999995</v>
       </c>
       <c r="C143" s="5">
-        <v>2</v>
-      </c>
-      <c r="D143" s="5">
-        <v>5145</v>
+        <v>3</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="E143" s="5">
         <v>1</v>
@@ -4500,7 +4500,9 @@
       <c r="G143" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H143" s="5"/>
+      <c r="H143" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I143" s="5"/>
     </row>
     <row r="144" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4508,13 +4510,13 @@
         <v>142</v>
       </c>
       <c r="B144" s="3">
-        <v>516.29100000000005</v>
+        <v>519.39300000000003</v>
       </c>
       <c r="C144" s="3">
-        <v>2</v>
-      </c>
-      <c r="D144" s="3">
-        <v>5163</v>
+        <v>1</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E144" s="3">
         <v>1</v>
@@ -4525,21 +4527,25 @@
       <c r="G144" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H144" s="3"/>
-      <c r="I144" s="3"/>
+      <c r="H144" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="145" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="5">
         <v>143</v>
       </c>
       <c r="B145" s="5">
-        <v>517.69100000000003</v>
+        <v>521.40200000000004</v>
       </c>
       <c r="C145" s="5">
-        <v>2</v>
-      </c>
-      <c r="D145" s="5">
-        <v>5177</v>
+        <v>1</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E145" s="5">
         <v>1</v>
@@ -4550,21 +4556,25 @@
       <c r="G145" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
+      <c r="H145" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I145" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="146" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="3">
         <v>144</v>
       </c>
       <c r="B146" s="3">
-        <v>518.05999999999995</v>
+        <v>522.93200000000002</v>
       </c>
       <c r="C146" s="3">
-        <v>3</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>63</v>
+        <v>2</v>
+      </c>
+      <c r="D146" s="3">
+        <v>5229</v>
       </c>
       <c r="E146" s="3">
         <v>1</v>
@@ -4575,9 +4585,7 @@
       <c r="G146" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H146" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="H146" s="3"/>
       <c r="I146" s="3"/>
     </row>
     <row r="147" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4585,13 +4593,13 @@
         <v>145</v>
       </c>
       <c r="B147" s="5">
-        <v>519.39300000000003</v>
+        <v>524.46199999999999</v>
       </c>
       <c r="C147" s="5">
-        <v>1</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="D147" s="5">
+        <v>5245</v>
       </c>
       <c r="E147" s="5">
         <v>1</v>
@@ -4602,25 +4610,21 @@
       <c r="G147" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H147" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I147" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
     </row>
     <row r="148" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="3">
         <v>146</v>
       </c>
       <c r="B148" s="3">
-        <v>521.40200000000004</v>
+        <v>525.99199999999996</v>
       </c>
       <c r="C148" s="3">
-        <v>1</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="D148" s="3">
+        <v>5261</v>
       </c>
       <c r="E148" s="3">
         <v>1</v>
@@ -4631,25 +4635,21 @@
       <c r="G148" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H148" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I148" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
     </row>
     <row r="149" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="5">
         <v>147</v>
       </c>
       <c r="B149" s="5">
-        <v>522.93200000000002</v>
+        <v>527.52200000000005</v>
       </c>
       <c r="C149" s="5">
         <v>2</v>
       </c>
       <c r="D149" s="5">
-        <v>5229</v>
+        <v>5275</v>
       </c>
       <c r="E149" s="5">
         <v>1</v>
@@ -4668,13 +4668,13 @@
         <v>148</v>
       </c>
       <c r="B150" s="3">
-        <v>524.46199999999999</v>
+        <v>529.05200000000002</v>
       </c>
       <c r="C150" s="3">
         <v>2</v>
       </c>
       <c r="D150" s="3">
-        <v>5245</v>
+        <v>5291</v>
       </c>
       <c r="E150" s="3">
         <v>1</v>
@@ -4693,13 +4693,13 @@
         <v>149</v>
       </c>
       <c r="B151" s="5">
-        <v>525.99199999999996</v>
+        <v>530.58199999999999</v>
       </c>
       <c r="C151" s="5">
         <v>2</v>
       </c>
       <c r="D151" s="5">
-        <v>5261</v>
+        <v>5307</v>
       </c>
       <c r="E151" s="5">
         <v>1</v>
@@ -4718,13 +4718,13 @@
         <v>150</v>
       </c>
       <c r="B152" s="3">
-        <v>527.52200000000005</v>
+        <v>532.11199999999997</v>
       </c>
       <c r="C152" s="3">
         <v>2</v>
       </c>
       <c r="D152" s="3">
-        <v>5275</v>
+        <v>5321</v>
       </c>
       <c r="E152" s="3">
         <v>1</v>
@@ -4743,13 +4743,13 @@
         <v>151</v>
       </c>
       <c r="B153" s="5">
-        <v>529.05200000000002</v>
+        <v>533.64200000000005</v>
       </c>
       <c r="C153" s="5">
         <v>2</v>
       </c>
       <c r="D153" s="5">
-        <v>5291</v>
+        <v>5337</v>
       </c>
       <c r="E153" s="5">
         <v>1</v>
@@ -4768,13 +4768,13 @@
         <v>152</v>
       </c>
       <c r="B154" s="3">
-        <v>530.58199999999999</v>
+        <v>535.17200000000003</v>
       </c>
       <c r="C154" s="3">
         <v>2</v>
       </c>
       <c r="D154" s="3">
-        <v>5307</v>
+        <v>5353</v>
       </c>
       <c r="E154" s="3">
         <v>1</v>
@@ -4793,13 +4793,13 @@
         <v>153</v>
       </c>
       <c r="B155" s="5">
-        <v>532.11199999999997</v>
+        <v>536.702</v>
       </c>
       <c r="C155" s="5">
         <v>2</v>
       </c>
       <c r="D155" s="5">
-        <v>5321</v>
+        <v>5367</v>
       </c>
       <c r="E155" s="5">
         <v>1</v>
@@ -4818,13 +4818,13 @@
         <v>154</v>
       </c>
       <c r="B156" s="3">
-        <v>533.64200000000005</v>
+        <v>538.23199999999997</v>
       </c>
       <c r="C156" s="3">
         <v>2</v>
       </c>
       <c r="D156" s="3">
-        <v>5337</v>
+        <v>5383</v>
       </c>
       <c r="E156" s="3">
         <v>1</v>
@@ -4843,13 +4843,13 @@
         <v>155</v>
       </c>
       <c r="B157" s="5">
-        <v>535.17200000000003</v>
+        <v>539.76199999999994</v>
       </c>
       <c r="C157" s="5">
         <v>2</v>
       </c>
       <c r="D157" s="5">
-        <v>5353</v>
+        <v>5399</v>
       </c>
       <c r="E157" s="5">
         <v>1</v>
@@ -4868,13 +4868,13 @@
         <v>156</v>
       </c>
       <c r="B158" s="3">
-        <v>536.702</v>
+        <v>541.24199999999996</v>
       </c>
       <c r="C158" s="3">
         <v>2</v>
       </c>
       <c r="D158" s="3">
-        <v>5367</v>
+        <v>5413</v>
       </c>
       <c r="E158" s="3">
         <v>1</v>
@@ -4893,13 +4893,13 @@
         <v>157</v>
       </c>
       <c r="B159" s="5">
-        <v>538.23199999999997</v>
+        <v>542.59199999999998</v>
       </c>
       <c r="C159" s="5">
         <v>2</v>
       </c>
       <c r="D159" s="5">
-        <v>5383</v>
+        <v>5427</v>
       </c>
       <c r="E159" s="5">
         <v>1</v>
@@ -4918,13 +4918,13 @@
         <v>158</v>
       </c>
       <c r="B160" s="3">
-        <v>539.76199999999994</v>
+        <v>542.92399999999998</v>
       </c>
       <c r="C160" s="3">
-        <v>2</v>
-      </c>
-      <c r="D160" s="3">
-        <v>5399</v>
+        <v>3</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="E160" s="3">
         <v>1</v>
@@ -4935,7 +4935,9 @@
       <c r="G160" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H160" s="3"/>
+      <c r="H160" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I160" s="3"/>
     </row>
     <row r="161" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4943,13 +4945,13 @@
         <v>159</v>
       </c>
       <c r="B161" s="5">
-        <v>541.24199999999996</v>
+        <v>544.35199999999998</v>
       </c>
       <c r="C161" s="5">
         <v>2</v>
       </c>
       <c r="D161" s="5">
-        <v>5413</v>
+        <v>5445</v>
       </c>
       <c r="E161" s="5">
         <v>1</v>
@@ -4968,13 +4970,13 @@
         <v>160</v>
       </c>
       <c r="B162" s="3">
-        <v>542.59199999999998</v>
+        <v>545.90200000000004</v>
       </c>
       <c r="C162" s="3">
         <v>2</v>
       </c>
       <c r="D162" s="3">
-        <v>5427</v>
+        <v>5459</v>
       </c>
       <c r="E162" s="3">
         <v>1</v>
@@ -4993,13 +4995,13 @@
         <v>161</v>
       </c>
       <c r="B163" s="5">
-        <v>542.92399999999998</v>
+        <v>547.452</v>
       </c>
       <c r="C163" s="5">
-        <v>3</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="D163" s="5">
+        <v>5475</v>
       </c>
       <c r="E163" s="5">
         <v>1</v>
@@ -5010,9 +5012,7 @@
       <c r="G163" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H163" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="H163" s="5"/>
       <c r="I163" s="5"/>
     </row>
     <row r="164" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5020,13 +5020,13 @@
         <v>162</v>
       </c>
       <c r="B164" s="3">
-        <v>544.35199999999998</v>
+        <v>549.00199999999995</v>
       </c>
       <c r="C164" s="3">
         <v>2</v>
       </c>
       <c r="D164" s="3">
-        <v>5445</v>
+        <v>5491</v>
       </c>
       <c r="E164" s="3">
         <v>1</v>
@@ -5045,13 +5045,13 @@
         <v>163</v>
       </c>
       <c r="B165" s="5">
-        <v>545.90200000000004</v>
+        <v>550.60199999999998</v>
       </c>
       <c r="C165" s="5">
         <v>2</v>
       </c>
       <c r="D165" s="5">
-        <v>5459</v>
+        <v>5507</v>
       </c>
       <c r="E165" s="5">
         <v>1</v>
@@ -5070,13 +5070,13 @@
         <v>164</v>
       </c>
       <c r="B166" s="3">
-        <v>547.452</v>
+        <v>552.322</v>
       </c>
       <c r="C166" s="3">
         <v>2</v>
       </c>
       <c r="D166" s="3">
-        <v>5475</v>
+        <v>5523</v>
       </c>
       <c r="E166" s="3">
         <v>1</v>
@@ -5095,13 +5095,13 @@
         <v>165</v>
       </c>
       <c r="B167" s="5">
-        <v>549.00199999999995</v>
+        <v>554.04200000000003</v>
       </c>
       <c r="C167" s="5">
         <v>2</v>
       </c>
       <c r="D167" s="5">
-        <v>5491</v>
+        <v>5541</v>
       </c>
       <c r="E167" s="5">
         <v>1</v>
@@ -5120,13 +5120,13 @@
         <v>166</v>
       </c>
       <c r="B168" s="3">
-        <v>550.60199999999998</v>
+        <v>555.702</v>
       </c>
       <c r="C168" s="3">
         <v>2</v>
       </c>
       <c r="D168" s="3">
-        <v>5507</v>
+        <v>5557</v>
       </c>
       <c r="E168" s="3">
         <v>1</v>
@@ -5145,13 +5145,13 @@
         <v>167</v>
       </c>
       <c r="B169" s="5">
-        <v>552.322</v>
+        <v>557.30200000000002</v>
       </c>
       <c r="C169" s="5">
         <v>2</v>
       </c>
       <c r="D169" s="5">
-        <v>5523</v>
+        <v>5573</v>
       </c>
       <c r="E169" s="5">
         <v>1</v>
@@ -5170,13 +5170,13 @@
         <v>168</v>
       </c>
       <c r="B170" s="3">
-        <v>554.04200000000003</v>
+        <v>558.80200000000002</v>
       </c>
       <c r="C170" s="3">
         <v>2</v>
       </c>
       <c r="D170" s="3">
-        <v>5541</v>
+        <v>5589</v>
       </c>
       <c r="E170" s="3">
         <v>1</v>
@@ -5195,13 +5195,13 @@
         <v>169</v>
       </c>
       <c r="B171" s="5">
-        <v>555.702</v>
+        <v>560.30200000000002</v>
       </c>
       <c r="C171" s="5">
         <v>2</v>
       </c>
       <c r="D171" s="5">
-        <v>5557</v>
+        <v>5603</v>
       </c>
       <c r="E171" s="5">
         <v>1</v>
@@ -5220,13 +5220,13 @@
         <v>170</v>
       </c>
       <c r="B172" s="3">
-        <v>557.30200000000002</v>
+        <v>561.80200000000002</v>
       </c>
       <c r="C172" s="3">
         <v>2</v>
       </c>
       <c r="D172" s="3">
-        <v>5573</v>
+        <v>5619</v>
       </c>
       <c r="E172" s="3">
         <v>1</v>
@@ -5245,13 +5245,13 @@
         <v>171</v>
       </c>
       <c r="B173" s="5">
-        <v>558.80200000000002</v>
+        <v>563.45299999999997</v>
       </c>
       <c r="C173" s="5">
         <v>2</v>
       </c>
       <c r="D173" s="5">
-        <v>5589</v>
+        <v>5635</v>
       </c>
       <c r="E173" s="5">
         <v>1</v>
@@ -5270,13 +5270,13 @@
         <v>172</v>
       </c>
       <c r="B174" s="3">
-        <v>560.30200000000002</v>
+        <v>565.10299999999995</v>
       </c>
       <c r="C174" s="3">
         <v>2</v>
       </c>
       <c r="D174" s="3">
-        <v>5603</v>
+        <v>5651</v>
       </c>
       <c r="E174" s="3">
         <v>1</v>
@@ -5295,13 +5295,13 @@
         <v>173</v>
       </c>
       <c r="B175" s="5">
-        <v>561.80200000000002</v>
+        <v>566.75300000000004</v>
       </c>
       <c r="C175" s="5">
         <v>2</v>
       </c>
       <c r="D175" s="5">
-        <v>5619</v>
+        <v>5669</v>
       </c>
       <c r="E175" s="5">
         <v>1</v>
@@ -5320,13 +5320,13 @@
         <v>174</v>
       </c>
       <c r="B176" s="3">
-        <v>563.45299999999997</v>
+        <v>566.93399999999997</v>
       </c>
       <c r="C176" s="3">
-        <v>2</v>
-      </c>
-      <c r="D176" s="3">
-        <v>5635</v>
+        <v>3</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="E176" s="3">
         <v>1</v>
@@ -5337,7 +5337,9 @@
       <c r="G176" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H176" s="3"/>
+      <c r="H176" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I176" s="3"/>
     </row>
     <row r="177" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5345,13 +5347,13 @@
         <v>175</v>
       </c>
       <c r="B177" s="5">
-        <v>565.10299999999995</v>
+        <v>568.87400000000002</v>
       </c>
       <c r="C177" s="5">
-        <v>2</v>
-      </c>
-      <c r="D177" s="5">
-        <v>5651</v>
+        <v>1</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E177" s="5">
         <v>1</v>
@@ -5362,21 +5364,25 @@
       <c r="G177" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H177" s="5"/>
-      <c r="I177" s="5"/>
+      <c r="H177" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I177" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="178" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="3">
         <v>176</v>
       </c>
       <c r="B178" s="3">
-        <v>566.75300000000004</v>
+        <v>570.33600000000001</v>
       </c>
       <c r="C178" s="3">
-        <v>2</v>
-      </c>
-      <c r="D178" s="3">
-        <v>5669</v>
+        <v>1</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="E178" s="3">
         <v>1</v>
@@ -5387,21 +5393,25 @@
       <c r="G178" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H178" s="3"/>
-      <c r="I178" s="3"/>
+      <c r="H178" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="179" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="5">
         <v>177</v>
       </c>
       <c r="B179" s="5">
-        <v>566.93399999999997</v>
+        <v>571.93600000000004</v>
       </c>
       <c r="C179" s="5">
-        <v>3</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>65</v>
+        <v>2</v>
+      </c>
+      <c r="D179" s="5">
+        <v>5719</v>
       </c>
       <c r="E179" s="5">
         <v>1</v>
@@ -5412,9 +5422,7 @@
       <c r="G179" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H179" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="H179" s="5"/>
       <c r="I179" s="5"/>
     </row>
     <row r="180" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5422,13 +5430,13 @@
         <v>178</v>
       </c>
       <c r="B180" s="3">
-        <v>568.87400000000002</v>
+        <v>573.53599999999994</v>
       </c>
       <c r="C180" s="3">
-        <v>1</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="D180" s="3">
+        <v>5735</v>
       </c>
       <c r="E180" s="3">
         <v>1</v>
@@ -5439,25 +5447,21 @@
       <c r="G180" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H180" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I180" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="H180" s="3"/>
+      <c r="I180" s="3"/>
     </row>
     <row r="181" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="5">
         <v>179</v>
       </c>
       <c r="B181" s="5">
-        <v>570.33600000000001</v>
+        <v>575.13599999999997</v>
       </c>
       <c r="C181" s="5">
-        <v>1</v>
-      </c>
-      <c r="D181" s="5" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="D181" s="5">
+        <v>5751</v>
       </c>
       <c r="E181" s="5">
         <v>1</v>
@@ -5468,25 +5472,21 @@
       <c r="G181" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H181" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I181" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
     </row>
     <row r="182" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="3">
         <v>180</v>
       </c>
       <c r="B182" s="3">
-        <v>571.93600000000004</v>
+        <v>576.73599999999999</v>
       </c>
       <c r="C182" s="3">
         <v>2</v>
       </c>
       <c r="D182" s="3">
-        <v>5719</v>
+        <v>5767</v>
       </c>
       <c r="E182" s="3">
         <v>1</v>
@@ -5505,13 +5505,13 @@
         <v>181</v>
       </c>
       <c r="B183" s="5">
-        <v>573.53599999999994</v>
+        <v>578.33600000000001</v>
       </c>
       <c r="C183" s="5">
         <v>2</v>
       </c>
       <c r="D183" s="5">
-        <v>5735</v>
+        <v>5783</v>
       </c>
       <c r="E183" s="5">
         <v>1</v>
@@ -5530,13 +5530,13 @@
         <v>182</v>
       </c>
       <c r="B184" s="3">
-        <v>575.13599999999997</v>
+        <v>580.08600000000001</v>
       </c>
       <c r="C184" s="3">
         <v>2</v>
       </c>
       <c r="D184" s="3">
-        <v>5751</v>
+        <v>5801</v>
       </c>
       <c r="E184" s="3">
         <v>1</v>
@@ -5555,13 +5555,13 @@
         <v>183</v>
       </c>
       <c r="B185" s="5">
-        <v>576.73599999999999</v>
+        <v>581.92600000000004</v>
       </c>
       <c r="C185" s="5">
         <v>2</v>
       </c>
       <c r="D185" s="5">
-        <v>5767</v>
+        <v>5819</v>
       </c>
       <c r="E185" s="5">
         <v>1</v>
@@ -5580,13 +5580,13 @@
         <v>184</v>
       </c>
       <c r="B186" s="3">
-        <v>578.33600000000001</v>
+        <v>583.71600000000001</v>
       </c>
       <c r="C186" s="3">
         <v>2</v>
       </c>
       <c r="D186" s="3">
-        <v>5783</v>
+        <v>5837</v>
       </c>
       <c r="E186" s="3">
         <v>1</v>
@@ -5605,13 +5605,13 @@
         <v>185</v>
       </c>
       <c r="B187" s="5">
-        <v>580.08600000000001</v>
+        <v>585.50599999999997</v>
       </c>
       <c r="C187" s="5">
         <v>2</v>
       </c>
       <c r="D187" s="5">
-        <v>5801</v>
+        <v>5855</v>
       </c>
       <c r="E187" s="5">
         <v>1</v>
@@ -5630,13 +5630,13 @@
         <v>186</v>
       </c>
       <c r="B188" s="3">
-        <v>581.92600000000004</v>
+        <v>587.29600000000005</v>
       </c>
       <c r="C188" s="3">
         <v>2</v>
       </c>
       <c r="D188" s="3">
-        <v>5819</v>
+        <v>5873</v>
       </c>
       <c r="E188" s="3">
         <v>1</v>
@@ -5655,13 +5655,13 @@
         <v>187</v>
       </c>
       <c r="B189" s="5">
-        <v>583.71600000000001</v>
+        <v>589.08600000000001</v>
       </c>
       <c r="C189" s="5">
         <v>2</v>
       </c>
       <c r="D189" s="5">
-        <v>5837</v>
+        <v>5891</v>
       </c>
       <c r="E189" s="5">
         <v>1</v>
@@ -5680,13 +5680,13 @@
         <v>188</v>
       </c>
       <c r="B190" s="3">
-        <v>585.50599999999997</v>
+        <v>590.87599999999998</v>
       </c>
       <c r="C190" s="3">
         <v>2</v>
       </c>
       <c r="D190" s="3">
-        <v>5855</v>
+        <v>5909</v>
       </c>
       <c r="E190" s="3">
         <v>1</v>
@@ -5705,13 +5705,13 @@
         <v>189</v>
       </c>
       <c r="B191" s="5">
-        <v>587.29600000000005</v>
+        <v>592.66600000000005</v>
       </c>
       <c r="C191" s="5">
         <v>2</v>
       </c>
       <c r="D191" s="5">
-        <v>5873</v>
+        <v>5927</v>
       </c>
       <c r="E191" s="5">
         <v>1</v>
@@ -5730,13 +5730,13 @@
         <v>190</v>
       </c>
       <c r="B192" s="3">
-        <v>589.08600000000001</v>
+        <v>594.45600000000002</v>
       </c>
       <c r="C192" s="3">
         <v>2</v>
       </c>
       <c r="D192" s="3">
-        <v>5891</v>
+        <v>5945</v>
       </c>
       <c r="E192" s="3">
         <v>1</v>
@@ -5755,13 +5755,13 @@
         <v>191</v>
       </c>
       <c r="B193" s="5">
-        <v>590.87599999999998</v>
+        <v>595.10699999999997</v>
       </c>
       <c r="C193" s="5">
-        <v>2</v>
-      </c>
-      <c r="D193" s="5">
-        <v>5909</v>
+        <v>3</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="E193" s="5">
         <v>1</v>
@@ -5772,7 +5772,9 @@
       <c r="G193" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H193" s="5"/>
+      <c r="H193" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I193" s="5"/>
     </row>
     <row r="194" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5780,13 +5782,13 @@
         <v>192</v>
       </c>
       <c r="B194" s="3">
-        <v>592.66600000000005</v>
+        <v>596.226</v>
       </c>
       <c r="C194" s="3">
         <v>2</v>
       </c>
       <c r="D194" s="3">
-        <v>5927</v>
+        <v>5963</v>
       </c>
       <c r="E194" s="3">
         <v>1</v>
@@ -5805,13 +5807,13 @@
         <v>193</v>
       </c>
       <c r="B195" s="5">
-        <v>594.45600000000002</v>
+        <v>597.99599999999998</v>
       </c>
       <c r="C195" s="5">
         <v>2</v>
       </c>
       <c r="D195" s="5">
-        <v>5945</v>
+        <v>5981</v>
       </c>
       <c r="E195" s="5">
         <v>1</v>
@@ -5830,13 +5832,13 @@
         <v>194</v>
       </c>
       <c r="B196" s="3">
-        <v>595.10699999999997</v>
+        <v>599.76599999999996</v>
       </c>
       <c r="C196" s="3">
-        <v>3</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>66</v>
+        <v>2</v>
+      </c>
+      <c r="D196" s="3">
+        <v>5999</v>
       </c>
       <c r="E196" s="3">
         <v>1</v>
@@ -5847,9 +5849,7 @@
       <c r="G196" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H196" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="H196" s="3"/>
       <c r="I196" s="3"/>
     </row>
     <row r="197" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5857,13 +5857,13 @@
         <v>195</v>
       </c>
       <c r="B197" s="5">
-        <v>596.226</v>
+        <v>601.33600000000001</v>
       </c>
       <c r="C197" s="5">
         <v>2</v>
       </c>
       <c r="D197" s="5">
-        <v>5963</v>
+        <v>6013</v>
       </c>
       <c r="E197" s="5">
         <v>1</v>
@@ -5882,19 +5882,19 @@
         <v>196</v>
       </c>
       <c r="B198" s="3">
-        <v>597.99599999999998</v>
+        <v>602.62400000000002</v>
       </c>
       <c r="C198" s="3">
         <v>2</v>
       </c>
       <c r="D198" s="3">
-        <v>5981</v>
+        <v>6027</v>
       </c>
       <c r="E198" s="3">
         <v>1</v>
       </c>
       <c r="F198" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G198" s="3" t="s">
         <v>24</v>
@@ -5907,19 +5907,19 @@
         <v>197</v>
       </c>
       <c r="B199" s="5">
-        <v>599.76599999999996</v>
+        <v>604.13400000000001</v>
       </c>
       <c r="C199" s="5">
         <v>2</v>
       </c>
       <c r="D199" s="5">
-        <v>5999</v>
+        <v>6041</v>
       </c>
       <c r="E199" s="5">
         <v>1</v>
       </c>
       <c r="F199" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G199" s="5" t="s">
         <v>24</v>
@@ -5932,19 +5932,19 @@
         <v>198</v>
       </c>
       <c r="B200" s="3">
-        <v>601.33600000000001</v>
+        <v>605.64400000000001</v>
       </c>
       <c r="C200" s="3">
         <v>2</v>
       </c>
       <c r="D200" s="3">
-        <v>6013</v>
+        <v>6057</v>
       </c>
       <c r="E200" s="3">
         <v>1</v>
       </c>
       <c r="F200" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>24</v>
@@ -5957,13 +5957,13 @@
         <v>199</v>
       </c>
       <c r="B201" s="5">
-        <v>602.62400000000002</v>
+        <v>607.154</v>
       </c>
       <c r="C201" s="5">
         <v>2</v>
       </c>
       <c r="D201" s="5">
-        <v>6027</v>
+        <v>6073</v>
       </c>
       <c r="E201" s="5">
         <v>1</v>
@@ -5982,13 +5982,13 @@
         <v>200</v>
       </c>
       <c r="B202" s="3">
-        <v>604.13400000000001</v>
+        <v>608.66399999999999</v>
       </c>
       <c r="C202" s="3">
         <v>2</v>
       </c>
       <c r="D202" s="3">
-        <v>6041</v>
+        <v>6087</v>
       </c>
       <c r="E202" s="3">
         <v>1</v>
@@ -6007,13 +6007,13 @@
         <v>201</v>
       </c>
       <c r="B203" s="5">
-        <v>605.64400000000001</v>
+        <v>610.17399999999998</v>
       </c>
       <c r="C203" s="5">
         <v>2</v>
       </c>
       <c r="D203" s="5">
-        <v>6057</v>
+        <v>6103</v>
       </c>
       <c r="E203" s="5">
         <v>1</v>
@@ -6032,13 +6032,13 @@
         <v>202</v>
       </c>
       <c r="B204" s="3">
-        <v>607.154</v>
+        <v>611.68399999999997</v>
       </c>
       <c r="C204" s="3">
         <v>2</v>
       </c>
       <c r="D204" s="3">
-        <v>6073</v>
+        <v>6117</v>
       </c>
       <c r="E204" s="3">
         <v>1</v>
@@ -6057,13 +6057,13 @@
         <v>203</v>
       </c>
       <c r="B205" s="5">
-        <v>608.66399999999999</v>
+        <v>613.19399999999996</v>
       </c>
       <c r="C205" s="5">
         <v>2</v>
       </c>
       <c r="D205" s="5">
-        <v>6087</v>
+        <v>6133</v>
       </c>
       <c r="E205" s="5">
         <v>1</v>
@@ -6082,13 +6082,13 @@
         <v>204</v>
       </c>
       <c r="B206" s="3">
-        <v>610.17399999999998</v>
+        <v>614.95399999999995</v>
       </c>
       <c r="C206" s="3">
         <v>2</v>
       </c>
       <c r="D206" s="3">
-        <v>6103</v>
+        <v>6151</v>
       </c>
       <c r="E206" s="3">
         <v>1</v>
@@ -6107,13 +6107,13 @@
         <v>205</v>
       </c>
       <c r="B207" s="5">
-        <v>611.68399999999997</v>
+        <v>616.69399999999996</v>
       </c>
       <c r="C207" s="5">
         <v>2</v>
       </c>
       <c r="D207" s="5">
-        <v>6117</v>
+        <v>6167</v>
       </c>
       <c r="E207" s="5">
         <v>1</v>
@@ -6132,13 +6132,13 @@
         <v>206</v>
       </c>
       <c r="B208" s="3">
-        <v>613.19399999999996</v>
+        <v>618.32399999999996</v>
       </c>
       <c r="C208" s="3">
         <v>2</v>
       </c>
       <c r="D208" s="3">
-        <v>6133</v>
+        <v>6183</v>
       </c>
       <c r="E208" s="3">
         <v>1</v>
@@ -6157,13 +6157,13 @@
         <v>207</v>
       </c>
       <c r="B209" s="5">
-        <v>614.95399999999995</v>
+        <v>619.83500000000004</v>
       </c>
       <c r="C209" s="5">
-        <v>2</v>
-      </c>
-      <c r="D209" s="5">
-        <v>6151</v>
+        <v>1</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E209" s="5">
         <v>1</v>
@@ -6174,21 +6174,25 @@
       <c r="G209" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H209" s="5"/>
-      <c r="I209" s="5"/>
+      <c r="H209" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I209" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="210" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="3">
         <v>208</v>
       </c>
       <c r="B210" s="3">
-        <v>616.69399999999996</v>
+        <v>621.51800000000003</v>
       </c>
       <c r="C210" s="3">
-        <v>2</v>
-      </c>
-      <c r="D210" s="3">
-        <v>6167</v>
+        <v>1</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="E210" s="3">
         <v>1</v>
@@ -6199,21 +6203,25 @@
       <c r="G210" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H210" s="3"/>
-      <c r="I210" s="3"/>
+      <c r="H210" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I210" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="211" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="5">
         <v>209</v>
       </c>
       <c r="B211" s="5">
-        <v>618.32399999999996</v>
+        <v>622.66800000000001</v>
       </c>
       <c r="C211" s="5">
         <v>2</v>
       </c>
       <c r="D211" s="5">
-        <v>6183</v>
+        <v>6227</v>
       </c>
       <c r="E211" s="5">
         <v>1</v>
@@ -6232,13 +6240,13 @@
         <v>210</v>
       </c>
       <c r="B212" s="3">
-        <v>619.83500000000004</v>
+        <v>622.9</v>
       </c>
       <c r="C212" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E212" s="3">
         <v>1</v>
@@ -6250,24 +6258,22 @@
         <v>24</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I212" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I212" s="3"/>
     </row>
     <row r="213" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="5">
         <v>211</v>
       </c>
       <c r="B213" s="5">
-        <v>621.51800000000003</v>
+        <v>624.51800000000003</v>
       </c>
       <c r="C213" s="5">
-        <v>1</v>
-      </c>
-      <c r="D213" s="5" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="D213" s="5">
+        <v>6245</v>
       </c>
       <c r="E213" s="5">
         <v>1</v>
@@ -6278,25 +6284,21 @@
       <c r="G213" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H213" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I213" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
     </row>
     <row r="214" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="3">
         <v>212</v>
       </c>
       <c r="B214" s="3">
-        <v>622.66800000000001</v>
+        <v>626.16800000000001</v>
       </c>
       <c r="C214" s="3">
         <v>2</v>
       </c>
       <c r="D214" s="3">
-        <v>6227</v>
+        <v>6263</v>
       </c>
       <c r="E214" s="3">
         <v>1</v>
@@ -6315,13 +6317,13 @@
         <v>213</v>
       </c>
       <c r="B215" s="5">
-        <v>622.9</v>
+        <v>627.81799999999998</v>
       </c>
       <c r="C215" s="5">
-        <v>3</v>
-      </c>
-      <c r="D215" s="5" t="s">
-        <v>67</v>
+        <v>2</v>
+      </c>
+      <c r="D215" s="5">
+        <v>6279</v>
       </c>
       <c r="E215" s="5">
         <v>1</v>
@@ -6332,9 +6334,7 @@
       <c r="G215" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H215" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="H215" s="5"/>
       <c r="I215" s="5"/>
     </row>
     <row r="216" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -6342,13 +6342,13 @@
         <v>214</v>
       </c>
       <c r="B216" s="3">
-        <v>624.51800000000003</v>
+        <v>629.46799999999996</v>
       </c>
       <c r="C216" s="3">
         <v>2</v>
       </c>
       <c r="D216" s="3">
-        <v>6245</v>
+        <v>6295</v>
       </c>
       <c r="E216" s="3">
         <v>1</v>
@@ -6367,69 +6367,77 @@
         <v>215</v>
       </c>
       <c r="B217" s="5">
-        <v>626.16800000000001</v>
+        <v>631.70299999999997</v>
       </c>
       <c r="C217" s="5">
-        <v>2</v>
-      </c>
-      <c r="D217" s="5">
-        <v>6263</v>
+        <v>1</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E217" s="5">
         <v>1</v>
       </c>
       <c r="F217" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G217" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H217" s="5"/>
-      <c r="I217" s="5"/>
+      <c r="H217" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I217" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="218" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="3">
         <v>216</v>
       </c>
       <c r="B218" s="3">
-        <v>627.81799999999998</v>
+        <v>633.69000000000005</v>
       </c>
       <c r="C218" s="3">
-        <v>2</v>
-      </c>
-      <c r="D218" s="3">
-        <v>6279</v>
+        <v>1</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="E218" s="3">
         <v>1</v>
       </c>
       <c r="F218" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G218" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H218" s="3"/>
-      <c r="I218" s="3"/>
+      <c r="H218" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I218" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="219" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="5">
         <v>217</v>
       </c>
       <c r="B219" s="5">
-        <v>629.46799999999996</v>
+        <v>635.09</v>
       </c>
       <c r="C219" s="5">
         <v>2</v>
       </c>
       <c r="D219" s="5">
-        <v>6295</v>
+        <v>6351</v>
       </c>
       <c r="E219" s="5">
         <v>1</v>
       </c>
       <c r="F219" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G219" s="5" t="s">
         <v>24</v>
@@ -6442,13 +6450,13 @@
         <v>218</v>
       </c>
       <c r="B220" s="3">
-        <v>631.70299999999997</v>
+        <v>636.59</v>
       </c>
       <c r="C220" s="3">
-        <v>1</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="D220" s="3">
+        <v>6367</v>
       </c>
       <c r="E220" s="3">
         <v>1</v>
@@ -6459,25 +6467,21 @@
       <c r="G220" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H220" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I220" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="H220" s="3"/>
+      <c r="I220" s="3"/>
     </row>
     <row r="221" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="5">
         <v>219</v>
       </c>
       <c r="B221" s="5">
-        <v>633.69000000000005</v>
+        <v>637.99</v>
       </c>
       <c r="C221" s="5">
-        <v>1</v>
-      </c>
-      <c r="D221" s="5" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="D221" s="5">
+        <v>6381</v>
       </c>
       <c r="E221" s="5">
         <v>1</v>
@@ -6488,25 +6492,21 @@
       <c r="G221" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H221" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I221" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="H221" s="5"/>
+      <c r="I221" s="5"/>
     </row>
     <row r="222" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="3">
         <v>220</v>
       </c>
       <c r="B222" s="3">
-        <v>635.09</v>
+        <v>639.49</v>
       </c>
       <c r="C222" s="3">
         <v>2</v>
       </c>
       <c r="D222" s="3">
-        <v>6351</v>
+        <v>6395</v>
       </c>
       <c r="E222" s="3">
         <v>1</v>
@@ -6525,13 +6525,13 @@
         <v>221</v>
       </c>
       <c r="B223" s="5">
-        <v>636.59</v>
+        <v>640.89</v>
       </c>
       <c r="C223" s="5">
         <v>2</v>
       </c>
       <c r="D223" s="5">
-        <v>6367</v>
+        <v>6409</v>
       </c>
       <c r="E223" s="5">
         <v>1</v>
@@ -6550,13 +6550,13 @@
         <v>222</v>
       </c>
       <c r="B224" s="3">
-        <v>637.99</v>
+        <v>642.39</v>
       </c>
       <c r="C224" s="3">
         <v>2</v>
       </c>
       <c r="D224" s="3">
-        <v>6381</v>
+        <v>6425</v>
       </c>
       <c r="E224" s="3">
         <v>1</v>
@@ -6575,13 +6575,13 @@
         <v>223</v>
       </c>
       <c r="B225" s="5">
-        <v>639.49</v>
+        <v>643.79</v>
       </c>
       <c r="C225" s="5">
         <v>2</v>
       </c>
       <c r="D225" s="5">
-        <v>6395</v>
+        <v>6439</v>
       </c>
       <c r="E225" s="5">
         <v>1</v>
@@ -6600,13 +6600,13 @@
         <v>224</v>
       </c>
       <c r="B226" s="3">
-        <v>640.89</v>
+        <v>645.29</v>
       </c>
       <c r="C226" s="3">
         <v>2</v>
       </c>
       <c r="D226" s="3">
-        <v>6409</v>
+        <v>6453</v>
       </c>
       <c r="E226" s="3">
         <v>1</v>
@@ -6625,13 +6625,13 @@
         <v>225</v>
       </c>
       <c r="B227" s="5">
-        <v>642.39</v>
+        <v>646.69000000000005</v>
       </c>
       <c r="C227" s="5">
         <v>2</v>
       </c>
       <c r="D227" s="5">
-        <v>6425</v>
+        <v>6467</v>
       </c>
       <c r="E227" s="5">
         <v>1</v>
@@ -6650,13 +6650,13 @@
         <v>226</v>
       </c>
       <c r="B228" s="3">
-        <v>643.79</v>
+        <v>648.82000000000005</v>
       </c>
       <c r="C228" s="3">
         <v>2</v>
       </c>
       <c r="D228" s="3">
-        <v>6439</v>
+        <v>6489</v>
       </c>
       <c r="E228" s="3">
         <v>1</v>
@@ -6675,13 +6675,13 @@
         <v>227</v>
       </c>
       <c r="B229" s="5">
-        <v>645.29</v>
+        <v>650.22</v>
       </c>
       <c r="C229" s="5">
-        <v>2</v>
-      </c>
-      <c r="D229" s="5">
-        <v>6453</v>
+        <v>3</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="E229" s="5">
         <v>1</v>
@@ -6692,7 +6692,9 @@
       <c r="G229" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H229" s="5"/>
+      <c r="H229" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I229" s="5"/>
     </row>
     <row r="230" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -6700,13 +6702,13 @@
         <v>228</v>
       </c>
       <c r="B230" s="3">
-        <v>646.69000000000005</v>
+        <v>651.49</v>
       </c>
       <c r="C230" s="3">
         <v>2</v>
       </c>
       <c r="D230" s="3">
-        <v>6467</v>
+        <v>6515</v>
       </c>
       <c r="E230" s="3">
         <v>1</v>
@@ -6725,13 +6727,13 @@
         <v>229</v>
       </c>
       <c r="B231" s="5">
-        <v>648.19000000000005</v>
+        <v>652.99</v>
       </c>
       <c r="C231" s="5">
         <v>2</v>
       </c>
       <c r="D231" s="5">
-        <v>6483</v>
+        <v>6531</v>
       </c>
       <c r="E231" s="5">
         <v>1</v>
@@ -6750,13 +6752,13 @@
         <v>230</v>
       </c>
       <c r="B232" s="3">
-        <v>649.59</v>
+        <v>654.59</v>
       </c>
       <c r="C232" s="3">
         <v>2</v>
       </c>
       <c r="D232" s="3">
-        <v>6497</v>
+        <v>6547</v>
       </c>
       <c r="E232" s="3">
         <v>1</v>
@@ -6775,13 +6777,13 @@
         <v>231</v>
       </c>
       <c r="B233" s="5">
-        <v>650.22</v>
+        <v>656.09</v>
       </c>
       <c r="C233" s="5">
-        <v>3</v>
-      </c>
-      <c r="D233" s="5" t="s">
-        <v>68</v>
+        <v>2</v>
+      </c>
+      <c r="D233" s="5">
+        <v>6561</v>
       </c>
       <c r="E233" s="5">
         <v>1</v>
@@ -6792,9 +6794,7 @@
       <c r="G233" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H233" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="H233" s="5"/>
       <c r="I233" s="5"/>
     </row>
     <row r="234" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -6802,13 +6802,13 @@
         <v>232</v>
       </c>
       <c r="B234" s="3">
-        <v>651.39</v>
+        <v>657.69</v>
       </c>
       <c r="C234" s="3">
         <v>2</v>
       </c>
       <c r="D234" s="3">
-        <v>6515</v>
+        <v>6577</v>
       </c>
       <c r="E234" s="3">
         <v>1</v>
@@ -6827,13 +6827,13 @@
         <v>233</v>
       </c>
       <c r="B235" s="5">
-        <v>652.99</v>
+        <v>659.29</v>
       </c>
       <c r="C235" s="5">
         <v>2</v>
       </c>
       <c r="D235" s="5">
-        <v>6531</v>
+        <v>6593</v>
       </c>
       <c r="E235" s="5">
         <v>1</v>
@@ -6852,13 +6852,13 @@
         <v>234</v>
       </c>
       <c r="B236" s="3">
-        <v>654.59</v>
+        <v>660.89</v>
       </c>
       <c r="C236" s="3">
         <v>2</v>
       </c>
       <c r="D236" s="3">
-        <v>6547</v>
+        <v>6609</v>
       </c>
       <c r="E236" s="3">
         <v>1</v>
@@ -6877,13 +6877,13 @@
         <v>235</v>
       </c>
       <c r="B237" s="5">
-        <v>656.09</v>
+        <v>662.64</v>
       </c>
       <c r="C237" s="5">
         <v>2</v>
       </c>
       <c r="D237" s="5">
-        <v>6561</v>
+        <v>6627</v>
       </c>
       <c r="E237" s="5">
         <v>1</v>
@@ -6902,13 +6902,13 @@
         <v>236</v>
       </c>
       <c r="B238" s="3">
-        <v>657.69</v>
+        <v>664.39</v>
       </c>
       <c r="C238" s="3">
         <v>2</v>
       </c>
       <c r="D238" s="3">
-        <v>6577</v>
+        <v>6645</v>
       </c>
       <c r="E238" s="3">
         <v>1</v>
@@ -6927,13 +6927,13 @@
         <v>237</v>
       </c>
       <c r="B239" s="5">
-        <v>659.29</v>
+        <v>666.14</v>
       </c>
       <c r="C239" s="5">
         <v>2</v>
       </c>
       <c r="D239" s="5">
-        <v>6593</v>
+        <v>6661</v>
       </c>
       <c r="E239" s="5">
         <v>1</v>
@@ -6952,13 +6952,13 @@
         <v>238</v>
       </c>
       <c r="B240" s="3">
-        <v>660.89</v>
+        <v>667.89</v>
       </c>
       <c r="C240" s="3">
         <v>2</v>
       </c>
       <c r="D240" s="3">
-        <v>6609</v>
+        <v>6679</v>
       </c>
       <c r="E240" s="3">
         <v>1</v>
@@ -6977,13 +6977,13 @@
         <v>239</v>
       </c>
       <c r="B241" s="5">
-        <v>662.64</v>
+        <v>669.64</v>
       </c>
       <c r="C241" s="5">
         <v>2</v>
       </c>
       <c r="D241" s="5">
-        <v>6627</v>
+        <v>6697</v>
       </c>
       <c r="E241" s="5">
         <v>1</v>
@@ -7002,13 +7002,13 @@
         <v>240</v>
       </c>
       <c r="B242" s="3">
-        <v>664.39</v>
+        <v>671.39</v>
       </c>
       <c r="C242" s="3">
         <v>2</v>
       </c>
       <c r="D242" s="3">
-        <v>6645</v>
+        <v>6715</v>
       </c>
       <c r="E242" s="3">
         <v>1</v>
@@ -7027,13 +7027,13 @@
         <v>241</v>
       </c>
       <c r="B243" s="5">
-        <v>666.14</v>
+        <v>673.14</v>
       </c>
       <c r="C243" s="5">
         <v>2</v>
       </c>
       <c r="D243" s="5">
-        <v>6661</v>
+        <v>6731</v>
       </c>
       <c r="E243" s="5">
         <v>1</v>
@@ -7052,72 +7052,80 @@
         <v>242</v>
       </c>
       <c r="B244" s="3">
-        <v>667.89</v>
+        <v>684.47</v>
       </c>
       <c r="C244" s="3">
-        <v>2</v>
-      </c>
-      <c r="D244" s="3">
-        <v>6679</v>
+        <v>1</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E244" s="3">
         <v>1</v>
       </c>
       <c r="F244" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H244" s="3"/>
-      <c r="I244" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I244" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="245" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="5">
         <v>243</v>
       </c>
       <c r="B245" s="5">
-        <v>669.64</v>
+        <v>686.08500000000004</v>
       </c>
       <c r="C245" s="5">
-        <v>2</v>
-      </c>
-      <c r="D245" s="5">
-        <v>6697</v>
+        <v>1</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E245" s="5">
         <v>1</v>
       </c>
       <c r="F245" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H245" s="5"/>
-      <c r="I245" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H245" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I245" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="246" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="3">
         <v>244</v>
       </c>
       <c r="B246" s="3">
-        <v>671.39</v>
+        <v>687.38499999999999</v>
       </c>
       <c r="C246" s="3">
         <v>2</v>
       </c>
       <c r="D246" s="3">
-        <v>6715</v>
+        <v>6875</v>
       </c>
       <c r="E246" s="3">
         <v>1</v>
       </c>
       <c r="F246" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
@@ -7127,24 +7135,26 @@
         <v>245</v>
       </c>
       <c r="B247" s="5">
-        <v>673.14</v>
+        <v>687.71900000000005</v>
       </c>
       <c r="C247" s="5">
-        <v>2</v>
-      </c>
-      <c r="D247" s="5">
-        <v>6731</v>
+        <v>3</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="E247" s="5">
         <v>1</v>
       </c>
       <c r="F247" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H247" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H247" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I247" s="5"/>
     </row>
     <row r="248" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7152,13 +7162,13 @@
         <v>246</v>
       </c>
       <c r="B248" s="3">
-        <v>684.47</v>
+        <v>689.255</v>
       </c>
       <c r="C248" s="3">
-        <v>1</v>
-      </c>
-      <c r="D248" s="3" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="D248" s="3">
+        <v>6893</v>
       </c>
       <c r="E248" s="3">
         <v>1</v>
@@ -7169,25 +7179,21 @@
       <c r="G248" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H248" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I248" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="H248" s="3"/>
+      <c r="I248" s="3"/>
     </row>
     <row r="249" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="5">
         <v>247</v>
       </c>
       <c r="B249" s="5">
-        <v>686.08500000000004</v>
+        <v>690.98500000000001</v>
       </c>
       <c r="C249" s="5">
-        <v>1</v>
-      </c>
-      <c r="D249" s="5" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="D249" s="5">
+        <v>6911</v>
       </c>
       <c r="E249" s="5">
         <v>1</v>
@@ -7198,25 +7204,21 @@
       <c r="G249" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H249" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I249" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="H249" s="5"/>
+      <c r="I249" s="5"/>
     </row>
     <row r="250" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="3">
         <v>248</v>
       </c>
       <c r="B250" s="3">
-        <v>687.38499999999999</v>
+        <v>692.78499999999997</v>
       </c>
       <c r="C250" s="3">
         <v>2</v>
       </c>
       <c r="D250" s="3">
-        <v>6875</v>
+        <v>6929</v>
       </c>
       <c r="E250" s="3">
         <v>1</v>
@@ -7235,13 +7237,13 @@
         <v>249</v>
       </c>
       <c r="B251" s="5">
-        <v>687.71900000000005</v>
+        <v>694.55499999999995</v>
       </c>
       <c r="C251" s="5">
-        <v>3</v>
-      </c>
-      <c r="D251" s="5" t="s">
-        <v>69</v>
+        <v>2</v>
+      </c>
+      <c r="D251" s="5">
+        <v>6947</v>
       </c>
       <c r="E251" s="5">
         <v>1</v>
@@ -7252,9 +7254,7 @@
       <c r="G251" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H251" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="H251" s="5"/>
       <c r="I251" s="5"/>
     </row>
     <row r="252" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7262,13 +7262,13 @@
         <v>250</v>
       </c>
       <c r="B252" s="3">
-        <v>689.255</v>
+        <v>696.32500000000005</v>
       </c>
       <c r="C252" s="3">
         <v>2</v>
       </c>
       <c r="D252" s="3">
-        <v>6893</v>
+        <v>6963</v>
       </c>
       <c r="E252" s="3">
         <v>1</v>
@@ -7287,13 +7287,13 @@
         <v>251</v>
       </c>
       <c r="B253" s="5">
-        <v>690.98500000000001</v>
+        <v>698.09500000000003</v>
       </c>
       <c r="C253" s="5">
         <v>2</v>
       </c>
       <c r="D253" s="5">
-        <v>6911</v>
+        <v>6981</v>
       </c>
       <c r="E253" s="5">
         <v>1</v>
@@ -7312,13 +7312,13 @@
         <v>252</v>
       </c>
       <c r="B254" s="3">
-        <v>692.78499999999997</v>
+        <v>699.86500000000001</v>
       </c>
       <c r="C254" s="3">
         <v>2</v>
       </c>
       <c r="D254" s="3">
-        <v>6929</v>
+        <v>6999</v>
       </c>
       <c r="E254" s="3">
         <v>1</v>
@@ -7337,13 +7337,13 @@
         <v>253</v>
       </c>
       <c r="B255" s="5">
-        <v>694.55499999999995</v>
+        <v>701.63499999999999</v>
       </c>
       <c r="C255" s="5">
         <v>2</v>
       </c>
       <c r="D255" s="5">
-        <v>6947</v>
+        <v>7017</v>
       </c>
       <c r="E255" s="5">
         <v>1</v>
@@ -7362,19 +7362,19 @@
         <v>254</v>
       </c>
       <c r="B256" s="3">
-        <v>696.32500000000005</v>
+        <v>702.78599999999994</v>
       </c>
       <c r="C256" s="3">
         <v>2</v>
       </c>
       <c r="D256" s="3">
-        <v>6963</v>
+        <v>7029</v>
       </c>
       <c r="E256" s="3">
         <v>1</v>
       </c>
       <c r="F256" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G256" s="3" t="s">
         <v>12</v>
@@ -7387,19 +7387,19 @@
         <v>255</v>
       </c>
       <c r="B257" s="5">
-        <v>698.09500000000003</v>
+        <v>704.28599999999994</v>
       </c>
       <c r="C257" s="5">
         <v>2</v>
       </c>
       <c r="D257" s="5">
-        <v>6981</v>
+        <v>7043</v>
       </c>
       <c r="E257" s="5">
         <v>1</v>
       </c>
       <c r="F257" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G257" s="5" t="s">
         <v>12</v>
@@ -7412,19 +7412,19 @@
         <v>256</v>
       </c>
       <c r="B258" s="3">
-        <v>699.86500000000001</v>
+        <v>706.23599999999999</v>
       </c>
       <c r="C258" s="3">
         <v>2</v>
       </c>
       <c r="D258" s="3">
-        <v>6999</v>
+        <v>7063</v>
       </c>
       <c r="E258" s="3">
         <v>1</v>
       </c>
       <c r="F258" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G258" s="3" t="s">
         <v>12</v>
@@ -7437,24 +7437,26 @@
         <v>257</v>
       </c>
       <c r="B259" s="5">
-        <v>701.63499999999999</v>
+        <v>707.54700000000003</v>
       </c>
       <c r="C259" s="5">
-        <v>2</v>
-      </c>
-      <c r="D259" s="5">
-        <v>7017</v>
+        <v>3</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="E259" s="5">
         <v>1</v>
       </c>
       <c r="F259" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H259" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="H259" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I259" s="5"/>
     </row>
     <row r="260" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7462,13 +7464,13 @@
         <v>258</v>
       </c>
       <c r="B260" s="3">
-        <v>702.78599999999994</v>
+        <v>708.94600000000003</v>
       </c>
       <c r="C260" s="3">
         <v>2</v>
       </c>
       <c r="D260" s="3">
-        <v>7029</v>
+        <v>7089</v>
       </c>
       <c r="E260" s="3">
         <v>1</v>
@@ -7487,13 +7489,13 @@
         <v>259</v>
       </c>
       <c r="B261" s="5">
-        <v>704.28599999999994</v>
+        <v>710.55600000000004</v>
       </c>
       <c r="C261" s="5">
         <v>2</v>
       </c>
       <c r="D261" s="5">
-        <v>7043</v>
+        <v>7107</v>
       </c>
       <c r="E261" s="5">
         <v>1</v>
@@ -7512,13 +7514,13 @@
         <v>260</v>
       </c>
       <c r="B262" s="3">
-        <v>705.68600000000004</v>
+        <v>712.16600000000005</v>
       </c>
       <c r="C262" s="3">
         <v>2</v>
       </c>
       <c r="D262" s="3">
-        <v>7057</v>
+        <v>7123</v>
       </c>
       <c r="E262" s="3">
         <v>1</v>
@@ -7537,13 +7539,13 @@
         <v>261</v>
       </c>
       <c r="B263" s="5">
-        <v>707.096</v>
+        <v>713.77599999999995</v>
       </c>
       <c r="C263" s="5">
         <v>2</v>
       </c>
       <c r="D263" s="5">
-        <v>7071</v>
+        <v>7139</v>
       </c>
       <c r="E263" s="5">
         <v>1</v>
@@ -7562,13 +7564,13 @@
         <v>262</v>
       </c>
       <c r="B264" s="3">
-        <v>707.54700000000003</v>
+        <v>715.38599999999997</v>
       </c>
       <c r="C264" s="3">
-        <v>3</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>70</v>
+        <v>2</v>
+      </c>
+      <c r="D264" s="3">
+        <v>7155</v>
       </c>
       <c r="E264" s="3">
         <v>1</v>
@@ -7577,11 +7579,9 @@
         <v>10</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H264" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H264" s="3"/>
       <c r="I264" s="3"/>
     </row>
     <row r="265" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7589,13 +7589,13 @@
         <v>263</v>
       </c>
       <c r="B265" s="5">
-        <v>708.94600000000003</v>
+        <v>717.00599999999997</v>
       </c>
       <c r="C265" s="5">
         <v>2</v>
       </c>
       <c r="D265" s="5">
-        <v>7089</v>
+        <v>7171</v>
       </c>
       <c r="E265" s="5">
         <v>1</v>
@@ -7614,13 +7614,13 @@
         <v>264</v>
       </c>
       <c r="B266" s="3">
-        <v>710.55600000000004</v>
+        <v>718.62800000000004</v>
       </c>
       <c r="C266" s="3">
-        <v>2</v>
-      </c>
-      <c r="D266" s="3">
-        <v>7107</v>
+        <v>1</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E266" s="3">
         <v>1</v>
@@ -7631,21 +7631,25 @@
       <c r="G266" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H266" s="3"/>
-      <c r="I266" s="3"/>
+      <c r="H266" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I266" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="267" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="5">
         <v>265</v>
       </c>
       <c r="B267" s="5">
-        <v>712.16600000000005</v>
+        <v>720.62699999999995</v>
       </c>
       <c r="C267" s="5">
-        <v>2</v>
-      </c>
-      <c r="D267" s="5">
-        <v>7123</v>
+        <v>1</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E267" s="5">
         <v>1</v>
@@ -7656,21 +7660,25 @@
       <c r="G267" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H267" s="5"/>
-      <c r="I267" s="5"/>
+      <c r="H267" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I267" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="268" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="3">
         <v>266</v>
       </c>
       <c r="B268" s="3">
-        <v>713.77599999999995</v>
+        <v>722.22699999999998</v>
       </c>
       <c r="C268" s="3">
         <v>2</v>
       </c>
       <c r="D268" s="3">
-        <v>7139</v>
+        <v>7223</v>
       </c>
       <c r="E268" s="3">
         <v>1</v>
@@ -7689,13 +7697,13 @@
         <v>267</v>
       </c>
       <c r="B269" s="5">
-        <v>715.38599999999997</v>
+        <v>723.827</v>
       </c>
       <c r="C269" s="5">
         <v>2</v>
       </c>
       <c r="D269" s="5">
-        <v>7155</v>
+        <v>7239</v>
       </c>
       <c r="E269" s="5">
         <v>1</v>
@@ -7714,13 +7722,13 @@
         <v>268</v>
       </c>
       <c r="B270" s="3">
-        <v>717.00599999999997</v>
+        <v>725.42700000000002</v>
       </c>
       <c r="C270" s="3">
         <v>2</v>
       </c>
       <c r="D270" s="3">
-        <v>7171</v>
+        <v>7255</v>
       </c>
       <c r="E270" s="3">
         <v>1</v>
@@ -7739,13 +7747,13 @@
         <v>269</v>
       </c>
       <c r="B271" s="5">
-        <v>718.62800000000004</v>
+        <v>727.02700000000004</v>
       </c>
       <c r="C271" s="5">
-        <v>1</v>
-      </c>
-      <c r="D271" s="5" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="D271" s="5">
+        <v>7271</v>
       </c>
       <c r="E271" s="5">
         <v>1</v>
@@ -7756,25 +7764,21 @@
       <c r="G271" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H271" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I271" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="H271" s="5"/>
+      <c r="I271" s="5"/>
     </row>
     <row r="272" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="3">
         <v>270</v>
       </c>
       <c r="B272" s="3">
-        <v>720.62699999999995</v>
+        <v>728.62699999999995</v>
       </c>
       <c r="C272" s="3">
-        <v>1</v>
-      </c>
-      <c r="D272" s="3" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="D272" s="3">
+        <v>7287</v>
       </c>
       <c r="E272" s="3">
         <v>1</v>
@@ -7785,25 +7789,21 @@
       <c r="G272" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H272" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I272" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="H272" s="3"/>
+      <c r="I272" s="3"/>
     </row>
     <row r="273" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="5">
         <v>271</v>
       </c>
       <c r="B273" s="5">
-        <v>722.22699999999998</v>
+        <v>730.38699999999994</v>
       </c>
       <c r="C273" s="5">
         <v>2</v>
       </c>
       <c r="D273" s="5">
-        <v>7223</v>
+        <v>7305</v>
       </c>
       <c r="E273" s="5">
         <v>1</v>
@@ -7822,13 +7822,13 @@
         <v>272</v>
       </c>
       <c r="B274" s="3">
-        <v>723.827</v>
+        <v>730.97699999999998</v>
       </c>
       <c r="C274" s="3">
-        <v>2</v>
-      </c>
-      <c r="D274" s="3">
-        <v>7239</v>
+        <v>3</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="E274" s="3">
         <v>1</v>
@@ -7837,9 +7837,11 @@
         <v>10</v>
       </c>
       <c r="G274" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H274" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="H274" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I274" s="3"/>
     </row>
     <row r="275" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7847,13 +7849,13 @@
         <v>273</v>
       </c>
       <c r="B275" s="5">
-        <v>725.42700000000002</v>
+        <v>732.13300000000004</v>
       </c>
       <c r="C275" s="5">
-        <v>2</v>
-      </c>
-      <c r="D275" s="5">
-        <v>7255</v>
+        <v>1</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E275" s="5">
         <v>1</v>
@@ -7864,31 +7866,23 @@
       <c r="G275" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H275" s="5"/>
-      <c r="I275" s="5"/>
+      <c r="H275" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I275" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="276" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="3">
         <v>274</v>
       </c>
-      <c r="B276" s="3">
-        <v>727.02700000000004</v>
-      </c>
-      <c r="C276" s="3">
-        <v>2</v>
-      </c>
-      <c r="D276" s="3">
-        <v>7271</v>
-      </c>
-      <c r="E276" s="3">
-        <v>1</v>
-      </c>
-      <c r="F276" s="3">
-        <v>10</v>
-      </c>
-      <c r="G276" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B276" s="3"/>
+      <c r="C276" s="3"/>
+      <c r="D276" s="3"/>
+      <c r="E276" s="3"/>
+      <c r="F276" s="3"/>
+      <c r="G276" s="3"/>
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
     </row>
@@ -7896,24 +7890,12 @@
       <c r="A277" s="5">
         <v>275</v>
       </c>
-      <c r="B277" s="5">
-        <v>728.62699999999995</v>
-      </c>
-      <c r="C277" s="5">
-        <v>2</v>
-      </c>
-      <c r="D277" s="5">
-        <v>7287</v>
-      </c>
-      <c r="E277" s="5">
-        <v>1</v>
-      </c>
-      <c r="F277" s="5">
-        <v>10</v>
-      </c>
-      <c r="G277" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B277" s="5"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="5"/>
+      <c r="G277" s="5"/>
       <c r="H277" s="5"/>
       <c r="I277" s="5"/>
     </row>
@@ -7921,24 +7903,12 @@
       <c r="A278" s="3">
         <v>276</v>
       </c>
-      <c r="B278" s="3">
-        <v>730.38699999999994</v>
-      </c>
-      <c r="C278" s="3">
-        <v>2</v>
-      </c>
-      <c r="D278" s="3">
-        <v>7305</v>
-      </c>
-      <c r="E278" s="3">
-        <v>1</v>
-      </c>
-      <c r="F278" s="3">
-        <v>10</v>
-      </c>
-      <c r="G278" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B278" s="3"/>
+      <c r="C278" s="3"/>
+      <c r="D278" s="3"/>
+      <c r="E278" s="3"/>
+      <c r="F278" s="3"/>
+      <c r="G278" s="3"/>
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
     </row>
@@ -7946,57 +7916,27 @@
       <c r="A279" s="5">
         <v>277</v>
       </c>
-      <c r="B279" s="5">
-        <v>730.97699999999998</v>
-      </c>
-      <c r="C279" s="5">
-        <v>3</v>
-      </c>
-      <c r="D279" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E279" s="5">
-        <v>1</v>
-      </c>
-      <c r="F279" s="5">
-        <v>10</v>
-      </c>
-      <c r="G279" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H279" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="B279" s="5"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="5"/>
+      <c r="E279" s="5"/>
+      <c r="F279" s="5"/>
+      <c r="G279" s="5"/>
+      <c r="H279" s="5"/>
       <c r="I279" s="5"/>
     </row>
     <row r="280" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="3">
         <v>278</v>
       </c>
-      <c r="B280" s="3">
-        <v>732.13300000000004</v>
-      </c>
-      <c r="C280" s="3">
-        <v>1</v>
-      </c>
-      <c r="D280" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E280" s="3">
-        <v>1</v>
-      </c>
-      <c r="F280" s="3">
-        <v>10</v>
-      </c>
-      <c r="G280" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H280" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I280" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B280" s="3"/>
+      <c r="C280" s="3"/>
+      <c r="D280" s="3"/>
+      <c r="E280" s="3"/>
+      <c r="F280" s="3"/>
+      <c r="G280" s="3"/>
+      <c r="H280" s="3"/>
+      <c r="I280" s="3"/>
     </row>
     <row r="281" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="5">
@@ -17413,7 +17353,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>312.54000000000002</v>
+        <v>312.57</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -17438,13 +17378,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>313.79000000000002</v>
+        <v>314.22000000000003</v>
       </c>
       <c r="C5" s="5">
         <v>2</v>
       </c>
       <c r="D5" s="5">
-        <v>3138</v>
+        <v>3142</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -17463,13 +17403,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>315.02999999999997</v>
+        <v>315.87</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3">
-        <v>3150</v>
+        <v>3160</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -17488,13 +17428,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>316.42</v>
+        <v>317.52</v>
       </c>
       <c r="C7" s="5">
         <v>2</v>
       </c>
       <c r="D7" s="5">
-        <v>3164</v>
+        <v>3176</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -17513,13 +17453,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>316.82</v>
+        <v>319.07</v>
       </c>
       <c r="C8" s="3">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3192</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -17530,9 +17470,7 @@
       <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -17540,13 +17478,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>319.08</v>
+        <v>320.62</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
       </c>
       <c r="D9" s="5">
-        <v>3192</v>
+        <v>3206</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -17565,13 +17503,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>320.63</v>
+        <v>322.12</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
       <c r="D10" s="3">
-        <v>3206</v>
+        <v>3222</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -17590,13 +17528,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>322.12</v>
+        <v>323.62</v>
       </c>
       <c r="C11" s="5">
         <v>2</v>
       </c>
       <c r="D11" s="5">
-        <v>3222</v>
+        <v>3236</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -17615,13 +17553,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>323.62</v>
+        <v>325.12</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
       </c>
       <c r="D12" s="3">
-        <v>3236</v>
+        <v>3252</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -17746,7 +17684,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -18067,13 +18005,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>353.03</v>
+        <v>352.83</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
       </c>
       <c r="D30" s="3">
-        <v>3530</v>
+        <v>3528</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -18092,13 +18030,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>354.43</v>
+        <v>354.13</v>
       </c>
       <c r="C31" s="5">
         <v>2</v>
       </c>
       <c r="D31" s="5">
-        <v>3544</v>
+        <v>3542</v>
       </c>
       <c r="E31" s="5">
         <v>1</v>
@@ -18117,13 +18055,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>354.738</v>
+        <v>354.488</v>
       </c>
       <c r="C32" s="3">
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -18135,7 +18073,7 @@
         <v>16</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I32" s="3"/>
     </row>
@@ -18604,7 +18542,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="5">
-        <v>385.26799999999997</v>
+        <v>385.26499999999999</v>
       </c>
       <c r="C51" s="5">
         <v>2</v>
@@ -20590,7 +20528,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="5">
-        <v>509.18599999999998</v>
+        <v>509.19600000000003</v>
       </c>
       <c r="C129" s="5">
         <v>2</v>
@@ -21554,13 +21492,13 @@
         <v>165</v>
       </c>
       <c r="B167" s="5">
-        <v>567.85900000000004</v>
+        <v>568.10900000000004</v>
       </c>
       <c r="C167" s="5">
         <v>2</v>
       </c>
       <c r="D167" s="5">
-        <v>5680</v>
+        <v>5682</v>
       </c>
       <c r="E167" s="5">
         <v>1</v>
@@ -22014,13 +21952,13 @@
         <v>183</v>
       </c>
       <c r="B185" s="5">
-        <v>595.98199999999997</v>
+        <v>596.08199999999999</v>
       </c>
       <c r="C185" s="5">
         <v>2</v>
       </c>
       <c r="D185" s="5">
-        <v>5960</v>
+        <v>5962</v>
       </c>
       <c r="E185" s="5">
         <v>1</v>

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/信号机数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/信号机数据_single.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="34">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -214,6 +214,72 @@
   <si>
     <t>所属车站/电分相名</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDK</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>空港</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>泸州</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>XXII</t>
+  </si>
+  <si>
+    <t>内江北</t>
+  </si>
+  <si>
+    <t>赛娥</t>
+  </si>
+  <si>
+    <t>5.250+1:6.075+1:6.760+1:1510.000</t>
+  </si>
+  <si>
+    <t>10.800+1:11.625+1:12.310+1:1510.000</t>
+  </si>
+  <si>
+    <t>三元</t>
+  </si>
+  <si>
+    <t>XI</t>
+  </si>
+  <si>
+    <t>白马西</t>
+  </si>
+  <si>
+    <t>43.350+2:44.175+2:44.860+2:1510.000</t>
+  </si>
+  <si>
+    <t>自贡东</t>
+  </si>
+  <si>
+    <t>XVII</t>
+  </si>
+  <si>
+    <t>富顺</t>
+  </si>
+  <si>
+    <t>70.400+2:71.225+2:71.910+2:1510.000</t>
+  </si>
+  <si>
+    <t>泸县</t>
+  </si>
+  <si>
+    <t>101.700+2:102.525+2:103.210+2:1510.000</t>
+  </si>
+  <si>
+    <t>126.200+2:127.025+2:127.710+2:1510.000</t>
   </si>
 </sst>
 </file>
@@ -748,25 +814,53 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="B3" s="6">
+        <v>1.9359999999999999</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="B4" s="3">
+        <v>3.2360000000000002</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
@@ -774,38 +868,80 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="B5" s="5">
+        <v>4.6449999999999996</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="B6" s="3">
+        <v>5.25</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="B7" s="5">
+        <v>7.1449999999999996</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>71</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
@@ -813,12 +949,24 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="3">
+        <v>9.6449999999999996</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>97</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
@@ -826,51 +974,109 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="B9" s="5">
+        <v>10.8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="B10" s="3">
+        <v>12.768000000000001</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="B11" s="5">
+        <v>13.836</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="3">
+        <v>15.536</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>155</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
@@ -878,12 +1084,24 @@
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="B13" s="5">
+        <v>17.216999999999999</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>173</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
@@ -891,38 +1109,82 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="B14" s="3">
+        <v>18.896999999999998</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="B15" s="5">
+        <v>20.07</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="B16" s="3">
+        <v>21.67</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>217</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
@@ -930,12 +1192,24 @@
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="B17" s="5">
+        <v>23.27</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5">
+        <v>233</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
@@ -943,12 +1217,24 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="B18" s="3">
+        <v>24.87</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>249</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
@@ -956,12 +1242,24 @@
       <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="B19" s="5">
+        <v>26.47</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>265</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
@@ -969,12 +1267,24 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="B20" s="3">
+        <v>28.07</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>281</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
@@ -982,12 +1292,24 @@
       <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="B21" s="5">
+        <v>29.67</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5">
+        <v>297</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
@@ -995,12 +1317,24 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="B22" s="3">
+        <v>31.27</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>313</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
@@ -1008,12 +1342,24 @@
       <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="B23" s="5">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>329</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
@@ -1021,12 +1367,24 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="B24" s="3">
+        <v>34.47</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>345</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
@@ -1034,12 +1392,24 @@
       <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="B25" s="5">
+        <v>36.47</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5">
+        <v>365</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
@@ -1047,12 +1417,24 @@
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="B26" s="3">
+        <v>38.770000000000003</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>389</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
@@ -1060,12 +1442,24 @@
       <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="B27" s="5">
+        <v>42.784999999999997</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5">
+        <v>429</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
@@ -1073,51 +1467,109 @@
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="B28" s="3">
+        <v>43.35</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="B29" s="5">
+        <v>45.2</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>2</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="B30" s="3">
+        <v>46.576000000000001</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="B31" s="5">
+        <v>48.176000000000002</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2</v>
+      </c>
+      <c r="D31" s="5">
+        <v>483</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>2</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
@@ -1125,12 +1577,24 @@
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="B32" s="3">
+        <v>49.776000000000003</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>499</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
@@ -1138,12 +1602,24 @@
       <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="B33" s="5">
+        <v>51.375999999999998</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2</v>
+      </c>
+      <c r="D33" s="5">
+        <v>515</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>2</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
@@ -1151,12 +1627,24 @@
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="B34" s="3">
+        <v>52.975999999999999</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3">
+        <v>531</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
@@ -1164,12 +1652,24 @@
       <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="B35" s="5">
+        <v>54.576000000000001</v>
+      </c>
+      <c r="C35" s="5">
+        <v>2</v>
+      </c>
+      <c r="D35" s="5">
+        <v>547</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
+        <v>2</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
@@ -1177,12 +1677,24 @@
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="B36" s="3">
+        <v>56.176000000000002</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>563</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
@@ -1190,12 +1702,24 @@
       <c r="A37" s="5">
         <v>35</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="B37" s="5">
+        <v>57.776000000000003</v>
+      </c>
+      <c r="C37" s="5">
+        <v>2</v>
+      </c>
+      <c r="D37" s="5">
+        <v>579</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5">
+        <v>2</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
@@ -1203,12 +1727,24 @@
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
+      <c r="B38" s="3">
+        <v>59.375999999999998</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3">
+        <v>595</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
@@ -1216,12 +1752,24 @@
       <c r="A39" s="5">
         <v>37</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="B39" s="5">
+        <v>60.975999999999999</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2</v>
+      </c>
+      <c r="D39" s="5">
+        <v>611</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5">
+        <v>2</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
@@ -1229,12 +1777,24 @@
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+      <c r="B40" s="3">
+        <v>62.676000000000002</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3">
+        <v>627</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
@@ -1242,12 +1802,24 @@
       <c r="A41" s="5">
         <v>39</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
+      <c r="B41" s="5">
+        <v>64.975999999999999</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2</v>
+      </c>
+      <c r="D41" s="5">
+        <v>651</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5">
+        <v>2</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
@@ -1255,12 +1827,24 @@
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
+      <c r="B42" s="3">
+        <v>66.575999999999993</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2</v>
+      </c>
+      <c r="D42" s="3">
+        <v>667</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
@@ -1268,51 +1852,109 @@
       <c r="A43" s="5">
         <v>41</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
+      <c r="B43" s="5">
+        <v>68.2</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5">
+        <v>2</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="44" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
+      <c r="B44" s="3">
+        <v>69.2</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="45" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>43</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
+      <c r="B45" s="5">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="C45" s="5">
+        <v>3</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5">
+        <v>2</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+      <c r="B46" s="3">
+        <v>72.3</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2</v>
+      </c>
+      <c r="D46" s="3">
+        <v>723</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
@@ -1320,12 +1962,24 @@
       <c r="A47" s="5">
         <v>45</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="B47" s="5">
+        <v>74.3</v>
+      </c>
+      <c r="C47" s="5">
+        <v>2</v>
+      </c>
+      <c r="D47" s="5">
+        <v>743</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1</v>
+      </c>
+      <c r="F47" s="5">
+        <v>2</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
@@ -1333,12 +1987,24 @@
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="B48" s="3">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2</v>
+      </c>
+      <c r="D48" s="3">
+        <v>759</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
@@ -1346,12 +2012,24 @@
       <c r="A49" s="5">
         <v>47</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
+      <c r="B49" s="5">
+        <v>77.5</v>
+      </c>
+      <c r="C49" s="5">
+        <v>2</v>
+      </c>
+      <c r="D49" s="5">
+        <v>775</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1</v>
+      </c>
+      <c r="F49" s="5">
+        <v>2</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
     </row>
@@ -1359,12 +2037,24 @@
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="B50" s="3">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2</v>
+      </c>
+      <c r="D50" s="3">
+        <v>791</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>2</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
@@ -1372,12 +2062,24 @@
       <c r="A51" s="5">
         <v>49</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
+      <c r="B51" s="5">
+        <v>80.7</v>
+      </c>
+      <c r="C51" s="5">
+        <v>2</v>
+      </c>
+      <c r="D51" s="5">
+        <v>807</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5">
+        <v>2</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
     </row>
@@ -1385,12 +2087,24 @@
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+      <c r="B52" s="3">
+        <v>82.3</v>
+      </c>
+      <c r="C52" s="3">
+        <v>2</v>
+      </c>
+      <c r="D52" s="3">
+        <v>823</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
@@ -1398,12 +2112,24 @@
       <c r="A53" s="5">
         <v>51</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
+      <c r="B53" s="5">
+        <v>83.9</v>
+      </c>
+      <c r="C53" s="5">
+        <v>2</v>
+      </c>
+      <c r="D53" s="5">
+        <v>839</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1</v>
+      </c>
+      <c r="F53" s="5">
+        <v>2</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
     </row>
@@ -1411,12 +2137,24 @@
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
+      <c r="B54" s="3">
+        <v>85.5</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2</v>
+      </c>
+      <c r="D54" s="3">
+        <v>855</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
@@ -1424,12 +2162,24 @@
       <c r="A55" s="5">
         <v>53</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
+      <c r="B55" s="5">
+        <v>87.5</v>
+      </c>
+      <c r="C55" s="5">
+        <v>2</v>
+      </c>
+      <c r="D55" s="5">
+        <v>875</v>
+      </c>
+      <c r="E55" s="5">
+        <v>1</v>
+      </c>
+      <c r="F55" s="5">
+        <v>2</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
     </row>
@@ -1437,12 +2187,24 @@
       <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+      <c r="B56" s="3">
+        <v>89.5</v>
+      </c>
+      <c r="C56" s="3">
+        <v>2</v>
+      </c>
+      <c r="D56" s="3">
+        <v>895</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>2</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
@@ -1450,12 +2212,24 @@
       <c r="A57" s="5">
         <v>55</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
+      <c r="B57" s="5">
+        <v>91.15</v>
+      </c>
+      <c r="C57" s="5">
+        <v>2</v>
+      </c>
+      <c r="D57" s="5">
+        <v>913</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1</v>
+      </c>
+      <c r="F57" s="5">
+        <v>2</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
     </row>
@@ -1463,12 +2237,24 @@
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
+      <c r="B58" s="3">
+        <v>92.8</v>
+      </c>
+      <c r="C58" s="3">
+        <v>2</v>
+      </c>
+      <c r="D58" s="3">
+        <v>929</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
     </row>
@@ -1476,12 +2262,24 @@
       <c r="A59" s="5">
         <v>57</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
+      <c r="B59" s="5">
+        <v>94.45</v>
+      </c>
+      <c r="C59" s="5">
+        <v>2</v>
+      </c>
+      <c r="D59" s="5">
+        <v>945</v>
+      </c>
+      <c r="E59" s="5">
+        <v>1</v>
+      </c>
+      <c r="F59" s="5">
+        <v>2</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
     </row>
@@ -1489,12 +2287,24 @@
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
+      <c r="B60" s="3">
+        <v>96.1</v>
+      </c>
+      <c r="C60" s="3">
+        <v>2</v>
+      </c>
+      <c r="D60" s="3">
+        <v>961</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
     </row>
@@ -1502,38 +2312,82 @@
       <c r="A61" s="5">
         <v>59</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
+      <c r="B61" s="5">
+        <v>97.628</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1</v>
+      </c>
+      <c r="F61" s="5">
+        <v>2</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="62" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
+      <c r="B62" s="3">
+        <v>98.712999999999994</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="63" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
         <v>61</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
+      <c r="B63" s="5">
+        <v>101.15</v>
+      </c>
+      <c r="C63" s="5">
+        <v>2</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1013</v>
+      </c>
+      <c r="E63" s="5">
+        <v>1</v>
+      </c>
+      <c r="F63" s="5">
+        <v>2</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
     </row>
@@ -1541,25 +2395,51 @@
       <c r="A64" s="3">
         <v>62</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
+      <c r="B64" s="3">
+        <v>101.7</v>
+      </c>
+      <c r="C64" s="3">
+        <v>3</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+      <c r="F64" s="3">
+        <v>2</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="I64" s="3"/>
     </row>
     <row r="65" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="5">
         <v>63</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
+      <c r="B65" s="5">
+        <v>103.51300000000001</v>
+      </c>
+      <c r="C65" s="5">
+        <v>2</v>
+      </c>
+      <c r="D65" s="5">
+        <v>1035</v>
+      </c>
+      <c r="E65" s="5">
+        <v>1</v>
+      </c>
+      <c r="F65" s="5">
+        <v>2</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
     </row>
@@ -1567,12 +2447,24 @@
       <c r="A66" s="3">
         <v>64</v>
       </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
+      <c r="B66" s="3">
+        <v>105.113</v>
+      </c>
+      <c r="C66" s="3">
+        <v>2</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1051</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
     </row>
@@ -1580,12 +2472,24 @@
       <c r="A67" s="5">
         <v>65</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
+      <c r="B67" s="5">
+        <v>106.71299999999999</v>
+      </c>
+      <c r="C67" s="5">
+        <v>2</v>
+      </c>
+      <c r="D67" s="5">
+        <v>1067</v>
+      </c>
+      <c r="E67" s="5">
+        <v>1</v>
+      </c>
+      <c r="F67" s="5">
+        <v>2</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
     </row>
@@ -1593,12 +2497,24 @@
       <c r="A68" s="3">
         <v>66</v>
       </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
+      <c r="B68" s="3">
+        <v>108.313</v>
+      </c>
+      <c r="C68" s="3">
+        <v>2</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1083</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3">
+        <v>2</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
     </row>
@@ -1606,12 +2522,24 @@
       <c r="A69" s="5">
         <v>67</v>
       </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
+      <c r="B69" s="5">
+        <v>109.913</v>
+      </c>
+      <c r="C69" s="5">
+        <v>2</v>
+      </c>
+      <c r="D69" s="5">
+        <v>1099</v>
+      </c>
+      <c r="E69" s="5">
+        <v>1</v>
+      </c>
+      <c r="F69" s="5">
+        <v>2</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
     </row>
@@ -1619,12 +2547,24 @@
       <c r="A70" s="3">
         <v>68</v>
       </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
+      <c r="B70" s="3">
+        <v>111.51300000000001</v>
+      </c>
+      <c r="C70" s="3">
+        <v>2</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1115</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1</v>
+      </c>
+      <c r="F70" s="3">
+        <v>2</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
     </row>
@@ -1632,12 +2572,24 @@
       <c r="A71" s="5">
         <v>69</v>
       </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
+      <c r="B71" s="5">
+        <v>113.113</v>
+      </c>
+      <c r="C71" s="5">
+        <v>2</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1131</v>
+      </c>
+      <c r="E71" s="5">
+        <v>1</v>
+      </c>
+      <c r="F71" s="5">
+        <v>2</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
     </row>
@@ -1645,12 +2597,24 @@
       <c r="A72" s="3">
         <v>70</v>
       </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
+      <c r="B72" s="3">
+        <v>114.71299999999999</v>
+      </c>
+      <c r="C72" s="3">
+        <v>2</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1147</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1</v>
+      </c>
+      <c r="F72" s="3">
+        <v>2</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
     </row>
@@ -1658,12 +2622,24 @@
       <c r="A73" s="5">
         <v>71</v>
       </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
+      <c r="B73" s="5">
+        <v>116.313</v>
+      </c>
+      <c r="C73" s="5">
+        <v>2</v>
+      </c>
+      <c r="D73" s="5">
+        <v>1163</v>
+      </c>
+      <c r="E73" s="5">
+        <v>1</v>
+      </c>
+      <c r="F73" s="5">
+        <v>2</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
     </row>
@@ -1671,38 +2647,82 @@
       <c r="A74" s="3">
         <v>72</v>
       </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
+      <c r="B74" s="3">
+        <v>117.85</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1</v>
+      </c>
+      <c r="F74" s="3">
+        <v>2</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="75" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="5">
         <v>73</v>
       </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
+      <c r="B75" s="5">
+        <v>118.83</v>
+      </c>
+      <c r="C75" s="5">
+        <v>1</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" s="5">
+        <v>1</v>
+      </c>
+      <c r="F75" s="5">
+        <v>2</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="76" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
         <v>74</v>
       </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
+      <c r="B76" s="3">
+        <v>120.43</v>
+      </c>
+      <c r="C76" s="3">
+        <v>2</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1205</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
     </row>
@@ -1710,12 +2730,24 @@
       <c r="A77" s="5">
         <v>75</v>
       </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
+      <c r="B77" s="5">
+        <v>122.03</v>
+      </c>
+      <c r="C77" s="5">
+        <v>2</v>
+      </c>
+      <c r="D77" s="5">
+        <v>1221</v>
+      </c>
+      <c r="E77" s="5">
+        <v>1</v>
+      </c>
+      <c r="F77" s="5">
+        <v>2</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
     </row>
@@ -1723,12 +2755,24 @@
       <c r="A78" s="3">
         <v>76</v>
       </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
+      <c r="B78" s="3">
+        <v>123.63</v>
+      </c>
+      <c r="C78" s="3">
+        <v>2</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1237</v>
+      </c>
+      <c r="E78" s="3">
+        <v>1</v>
+      </c>
+      <c r="F78" s="3">
+        <v>2</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
     </row>
@@ -1736,12 +2780,24 @@
       <c r="A79" s="5">
         <v>77</v>
       </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
+      <c r="B79" s="5">
+        <v>125.63</v>
+      </c>
+      <c r="C79" s="5">
+        <v>2</v>
+      </c>
+      <c r="D79" s="5">
+        <v>1257</v>
+      </c>
+      <c r="E79" s="5">
+        <v>1</v>
+      </c>
+      <c r="F79" s="5">
+        <v>2</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
     </row>
@@ -1749,27 +2805,57 @@
       <c r="A80" s="3">
         <v>78</v>
       </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
+      <c r="B80" s="3">
+        <v>126.2</v>
+      </c>
+      <c r="C80" s="3">
+        <v>3</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E80" s="3">
+        <v>1</v>
+      </c>
+      <c r="F80" s="3">
+        <v>2</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="5">
         <v>79</v>
       </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
+      <c r="B81" s="5">
+        <v>128.52099999999999</v>
+      </c>
+      <c r="C81" s="5">
+        <v>1</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="5">
+        <v>1</v>
+      </c>
+      <c r="F81" s="5">
+        <v>2</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="82" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
@@ -13743,25 +14829,53 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="B3" s="6">
+        <v>118.5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="B4" s="3">
+        <v>121.09</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1212</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
@@ -13769,12 +14883,24 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="B5" s="5">
+        <v>123.66</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1238</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
@@ -13782,12 +14908,24 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="B6" s="3">
+        <v>126.23</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1262</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
@@ -13795,14 +14933,30 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="B7" s="5">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
